--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\RealmDefenseBot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B6F82-76D6-4972-9AF3-3B28D6C0460B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B584D-A66D-46AD-BBC5-972400A817AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6260,9 +6260,6 @@
 Precision Plucking</t>
   </si>
   <si>
-    <t>Crusade</t>
-  </si>
-  <si>
     <t>Inferno Breath</t>
   </si>
   <si>
@@ -6611,6 +6608,9 @@
 **Sandstorm**: Deals `50 TD + 3 PD` to every target, slows them by 50% and blinds them (miss +50%) for 15s.
 **Seeing the Truth**: Fires a laser attack from his eyes, dealing damage to a target.
 **Second Life**: After dying he reveals his true form with 240000 HP and becomes enraged</t>
+  </si>
+  <si>
+    <t>Crusade Inferno</t>
   </si>
 </sst>
 </file>
@@ -7278,7 +7278,7 @@
         <v>624</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -7352,7 +7352,7 @@
         <v>334</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -7426,7 +7426,7 @@
         <v>333</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -7500,7 +7500,7 @@
         <v>332</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -7574,7 +7574,7 @@
         <v>331</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -7648,7 +7648,7 @@
         <v>335</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -7722,7 +7722,7 @@
         <v>336</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -7796,7 +7796,7 @@
         <v>337</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -7870,7 +7870,7 @@
         <v>338</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -7944,7 +7944,7 @@
         <v>339</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -8018,7 +8018,7 @@
         <v>340</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8092,7 +8092,7 @@
         <v>341</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8166,7 +8166,7 @@
         <v>342</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8240,7 +8240,7 @@
         <v>343</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -8314,7 +8314,7 @@
         <v>344</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8388,7 +8388,7 @@
         <v>345</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -8462,7 +8462,7 @@
         <v>346</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -8536,7 +8536,7 @@
         <v>347</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -8610,7 +8610,7 @@
         <v>348</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -8684,7 +8684,7 @@
         <v>349</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
@@ -8758,7 +8758,7 @@
         <v>350</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -8832,7 +8832,7 @@
         <v>625</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -8906,7 +8906,7 @@
         <v>626</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
   </sheetData>
@@ -8945,8 +8945,8 @@
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9435,7 +9435,7 @@
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -9444,7 +9444,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G25" s="1">
         <v>-3</v>
@@ -9922,7 +9922,7 @@
     <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
@@ -9931,7 +9931,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G50" s="1">
         <v>-3</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -10674,7 +10674,7 @@
     <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -10683,7 +10683,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G89" s="1">
         <v>-3</v>
@@ -10821,7 +10821,7 @@
     <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>46</v>
@@ -10830,7 +10830,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G97" s="1">
         <v>-3</v>
@@ -10850,13 +10850,13 @@
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G98" s="1">
         <v>-2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11073,7 +11073,7 @@
     <row r="109" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>181</v>
@@ -11082,7 +11082,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G110" s="1">
         <v>-3</v>
@@ -11206,7 +11206,7 @@
     <row r="116" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>190</v>
@@ -11215,7 +11215,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G117" s="1">
         <v>-3</v>
@@ -11361,7 +11361,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>199</v>
@@ -11370,7 +11370,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G125" s="1">
         <v>-3</v>
@@ -11750,7 +11750,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1954</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="I146" s="20" t="s">
         <v>1659</v>
@@ -11920,7 +11920,7 @@
         <v>-1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12034,7 +12034,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>278</v>
@@ -12043,7 +12043,7 @@
         <v>30</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G161" s="1">
         <v>-3</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>627</v>
@@ -12186,7 +12186,7 @@
         <v>1702</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G169" s="1">
         <v>-3</v>
@@ -12209,7 +12209,7 @@
         <v>-2</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="I172" s="20" t="s">
         <v>1609</v>
@@ -12284,7 +12284,7 @@
         <v>2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I173" s="20" t="s">
         <v>1607</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>636</v>
@@ -12344,7 +12344,7 @@
         <v>1702</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G177" s="1">
         <v>-3</v>
@@ -12370,7 +12370,7 @@
         <v>-2</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12419,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="I180" s="20" t="s">
         <v>1648</v>
@@ -12448,7 +12448,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="I181" s="20" t="s">
         <v>1635</v>
@@ -12602,7 +12602,7 @@
   <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
@@ -13049,13 +13049,13 @@
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -13758,13 +13758,13 @@
     </row>
     <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -14213,7 +14213,7 @@
         <v>271</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14592,13 +14592,13 @@
     </row>
     <row r="157" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -14754,13 +14754,13 @@
     </row>
     <row r="170" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -14939,7 +14939,7 @@
         <v>272</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15096,13 +15096,13 @@
     </row>
     <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15272,13 +15272,13 @@
     </row>
     <row r="211" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15406,13 +15406,13 @@
     </row>
     <row r="222" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16158,13 +16158,13 @@
     </row>
     <row r="281" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -16303,13 +16303,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>627</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -16376,7 +16376,7 @@
         <v>320</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16502,18 +16502,18 @@
         <v>271</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>636</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16608,7 +16608,7 @@
         <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16664,7 +16664,7 @@
         <v>320</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -18858,7 +18858,7 @@
         <v>1013</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -18876,7 +18876,7 @@
         <v>1013</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -18894,7 +18894,7 @@
         <v>1013</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -18912,7 +18912,7 @@
         <v>1013</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -18930,7 +18930,7 @@
         <v>1013</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -18948,7 +18948,7 @@
         <v>1013</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -18966,7 +18966,7 @@
         <v>1013</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -18984,7 +18984,7 @@
         <v>1013</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -19002,7 +19002,7 @@
         <v>1013</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -19020,7 +19020,7 @@
         <v>1013</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -19038,7 +19038,7 @@
         <v>1013</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -19056,7 +19056,7 @@
         <v>1013</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -19074,7 +19074,7 @@
         <v>1013</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -19092,7 +19092,7 @@
         <v>1013</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -19110,7 +19110,7 @@
         <v>1013</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -19128,7 +19128,7 @@
         <v>1013</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -19146,7 +19146,7 @@
         <v>1013</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -19164,7 +19164,7 @@
         <v>1013</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -19182,7 +19182,7 @@
         <v>1013</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -19200,7 +19200,7 @@
         <v>1013</v>
       </c>
       <c r="E141" s="18" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -19218,7 +19218,7 @@
         <v>1013</v>
       </c>
       <c r="E142" s="18" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -19236,7 +19236,7 @@
         <v>1013</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -19254,7 +19254,7 @@
         <v>1013</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -19272,7 +19272,7 @@
         <v>1013</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -19290,7 +19290,7 @@
         <v>1013</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -19308,7 +19308,7 @@
         <v>1013</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -19326,7 +19326,7 @@
         <v>1013</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -19344,7 +19344,7 @@
         <v>1013</v>
       </c>
       <c r="E149" s="18" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -19362,7 +19362,7 @@
         <v>1013</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -19380,7 +19380,7 @@
         <v>1013</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -19398,7 +19398,7 @@
         <v>1013</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -19416,7 +19416,7 @@
         <v>1013</v>
       </c>
       <c r="E153" s="18" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -19434,7 +19434,7 @@
         <v>1013</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -19452,7 +19452,7 @@
         <v>1013</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -19470,7 +19470,7 @@
         <v>1013</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -19488,7 +19488,7 @@
         <v>1013</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -19506,7 +19506,7 @@
         <v>1013</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -19524,7 +19524,7 @@
         <v>1013</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -19542,7 +19542,7 @@
         <v>1013</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -19560,7 +19560,7 @@
         <v>1013</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -21036,8 +21036,8 @@
   <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>1026</v>
@@ -23603,7 +23603,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>1026</v>
@@ -23691,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>1026</v>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB9A057-44FF-4468-AA01-A4762C38731B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47229464-C00D-4854-802B-3F2989BD139C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="2191">
   <si>
     <t>name</t>
   </si>
@@ -6610,6 +6610,387 @@
   </si>
   <si>
     <t>Cooldown is reduced to 10s, lasting time is increased to 20s</t>
+  </si>
+  <si>
+    <t>C1-1</t>
+  </si>
+  <si>
+    <t>Wicked Grove</t>
+  </si>
+  <si>
+    <t>C1-2</t>
+  </si>
+  <si>
+    <t>Blighted Gate</t>
+  </si>
+  <si>
+    <t>C1-3</t>
+  </si>
+  <si>
+    <t>C1-4</t>
+  </si>
+  <si>
+    <t>C1-5</t>
+  </si>
+  <si>
+    <t>Deadman's Turn</t>
+  </si>
+  <si>
+    <t>Devil's Crossroads</t>
+  </si>
+  <si>
+    <t>Nihilist's Throne</t>
+  </si>
+  <si>
+    <t>C2-1</t>
+  </si>
+  <si>
+    <t>C2-2</t>
+  </si>
+  <si>
+    <t>C2-3</t>
+  </si>
+  <si>
+    <t>C2-4</t>
+  </si>
+  <si>
+    <t>C2-5</t>
+  </si>
+  <si>
+    <t>C2-6</t>
+  </si>
+  <si>
+    <t>C2-7</t>
+  </si>
+  <si>
+    <t>C2-8</t>
+  </si>
+  <si>
+    <t>C2-9</t>
+  </si>
+  <si>
+    <t>C2-10</t>
+  </si>
+  <si>
+    <t>Zee Way to the Lich</t>
+  </si>
+  <si>
+    <t>Cave of the Lich</t>
+  </si>
+  <si>
+    <t>Lich Hunt</t>
+  </si>
+  <si>
+    <t>Lich's Spiral of Ice</t>
+  </si>
+  <si>
+    <t>Frost Mirror Cliffs</t>
+  </si>
+  <si>
+    <t>Cage of the Guardians</t>
+  </si>
+  <si>
+    <t>Four Delta Tundra</t>
+  </si>
+  <si>
+    <t>Horn of Ice</t>
+  </si>
+  <si>
+    <t>Double Hockey Sticks</t>
+  </si>
+  <si>
+    <t>Eye of Permafrost</t>
+  </si>
+  <si>
+    <t>C3-1</t>
+  </si>
+  <si>
+    <t>C3-2</t>
+  </si>
+  <si>
+    <t>C3-3</t>
+  </si>
+  <si>
+    <t>C3-4</t>
+  </si>
+  <si>
+    <t>C3-5</t>
+  </si>
+  <si>
+    <t>C3-6</t>
+  </si>
+  <si>
+    <t>C3-7</t>
+  </si>
+  <si>
+    <t>C3-8</t>
+  </si>
+  <si>
+    <t>C3-9</t>
+  </si>
+  <si>
+    <t>C3-10</t>
+  </si>
+  <si>
+    <t>Scarath's Entrance</t>
+  </si>
+  <si>
+    <t>Scarab Pursuit</t>
+  </si>
+  <si>
+    <t>Scarath's Ooze</t>
+  </si>
+  <si>
+    <t>Scarath's Cocoon</t>
+  </si>
+  <si>
+    <t>Scarath's Cave</t>
+  </si>
+  <si>
+    <t>Scarab Squash</t>
+  </si>
+  <si>
+    <t>Scarab Whirlwind</t>
+  </si>
+  <si>
+    <t>Scarath's Taunt</t>
+  </si>
+  <si>
+    <t>Scarath's End, Part 1</t>
+  </si>
+  <si>
+    <t>Scarath's End, Part 2</t>
+  </si>
+  <si>
+    <t>C6-1</t>
+  </si>
+  <si>
+    <t>C6-2</t>
+  </si>
+  <si>
+    <t>C6-3</t>
+  </si>
+  <si>
+    <t>C6-4</t>
+  </si>
+  <si>
+    <t>C6-5</t>
+  </si>
+  <si>
+    <t>C6-6</t>
+  </si>
+  <si>
+    <t>C6-7</t>
+  </si>
+  <si>
+    <t>C6-8</t>
+  </si>
+  <si>
+    <t>C6-9</t>
+  </si>
+  <si>
+    <t>C6-10</t>
+  </si>
+  <si>
+    <t>A Deathly Transformation</t>
+  </si>
+  <si>
+    <t>Ascending Terror</t>
+  </si>
+  <si>
+    <t>Revenant Revenge</t>
+  </si>
+  <si>
+    <t>Bad Memories</t>
+  </si>
+  <si>
+    <t>A Scent of Fish</t>
+  </si>
+  <si>
+    <t>Crashing Water</t>
+  </si>
+  <si>
+    <t>Bonefalls Ascent</t>
+  </si>
+  <si>
+    <t>Distant Thunder</t>
+  </si>
+  <si>
+    <t>Storming the Gate</t>
+  </si>
+  <si>
+    <t>Echoing Thunder</t>
+  </si>
+  <si>
+    <t>Connie1</t>
+  </si>
+  <si>
+    <t>Connie2</t>
+  </si>
+  <si>
+    <t>Connie3</t>
+  </si>
+  <si>
+    <t>Connie4</t>
+  </si>
+  <si>
+    <t>Connie5</t>
+  </si>
+  <si>
+    <t>Connie6</t>
+  </si>
+  <si>
+    <t>Connie7</t>
+  </si>
+  <si>
+    <t>Connie Captured!</t>
+  </si>
+  <si>
+    <t>The Ritual</t>
+  </si>
+  <si>
+    <t>Unwilling Pawn</t>
+  </si>
+  <si>
+    <t>Turning Point</t>
+  </si>
+  <si>
+    <t>Defying the Death Knight</t>
+  </si>
+  <si>
+    <t>Surprising Entrance</t>
+  </si>
+  <si>
+    <t>Final Confrontation</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Fields of the Endless</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Frostbite Valley</t>
+  </si>
+  <si>
+    <t>Elevated Excitement Entropy</t>
+  </si>
+  <si>
+    <t>Cloud Kerfuffle</t>
+  </si>
+  <si>
+    <t>Pit of Eternity</t>
+  </si>
+  <si>
+    <t>A1-1</t>
+  </si>
+  <si>
+    <t>A1-2</t>
+  </si>
+  <si>
+    <t>A1-3</t>
+  </si>
+  <si>
+    <t>A2-1</t>
+  </si>
+  <si>
+    <t>A2-2</t>
+  </si>
+  <si>
+    <t>A2-3</t>
+  </si>
+  <si>
+    <t>A3-1</t>
+  </si>
+  <si>
+    <t>A3-2</t>
+  </si>
+  <si>
+    <t>A3-3</t>
+  </si>
+  <si>
+    <t>Potions vs Slimes 1</t>
+  </si>
+  <si>
+    <t>Potions vs Slimes 2</t>
+  </si>
+  <si>
+    <t>Potions vs Slimes 3</t>
+  </si>
+  <si>
+    <t>Present Plunder 1</t>
+  </si>
+  <si>
+    <t>Present Plunder 2</t>
+  </si>
+  <si>
+    <t>Present Plunder 3</t>
+  </si>
+  <si>
+    <t>Secret Weapon 1</t>
+  </si>
+  <si>
+    <t>Secret Weapon 2</t>
+  </si>
+  <si>
+    <t>Secret Weapon 3</t>
+  </si>
+  <si>
+    <t>A4-1</t>
+  </si>
+  <si>
+    <t>Siberian Match 1</t>
+  </si>
+  <si>
+    <t>A4-2</t>
+  </si>
+  <si>
+    <t>Siberian Match 2</t>
+  </si>
+  <si>
+    <t>A4-3</t>
+  </si>
+  <si>
+    <t>Siberian Match 3</t>
+  </si>
+  <si>
+    <t>A5-1</t>
+  </si>
+  <si>
+    <t>Defense of Athena 1</t>
+  </si>
+  <si>
+    <t>A5-2</t>
+  </si>
+  <si>
+    <t>Defense of Athena 2</t>
+  </si>
+  <si>
+    <t>A5-3</t>
+  </si>
+  <si>
+    <t>Defense of Athena 3</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>endless</t>
+  </si>
+  <si>
+    <t>shrine</t>
   </si>
 </sst>
 </file>
@@ -6729,7 +7110,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6804,6 +7185,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8943,7 +9327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
     </sheetView>
@@ -16703,4341 +17087,6717 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D798F71-5A72-4731-9B2C-78595D904327}">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E161" sqref="E161"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="50.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="50.90625" customWidth="1"/>
+    <col min="6" max="7" width="7.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>713</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D2" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D3" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D4" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D5" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D6" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D7" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D8" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D9" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D10" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D11" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D12" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D13" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D14" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D15" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D16" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D17" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D18" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D19" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D20" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D21" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D22" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D23" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D24" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D25" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D26" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D27" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D28" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D29" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D30" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D31" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D32" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D33" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D34" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D35" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D36" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D37" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E37" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D38" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E38" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D39" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E39" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D40" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E40" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>980</v>
-      </c>
       <c r="D41" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E41" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>TEXT(1, "0")</f>
         <v>1</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>TEXT(A42+1, "0")</f>
         <v>2</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="F43" s="16" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f t="shared" ref="A44:A107" si="0">TEXT(A43+1, "0")</f>
         <v>3</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="F44" s="16" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="F47" s="17" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D50" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="F51" s="17" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G51" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="D52" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="D53" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="F54" s="17" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="D56" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="F58" s="17" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F60" s="17" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="str">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F61" s="17" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G61" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11">
+        <v>2</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F62" s="18" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="E63" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="F63" s="18" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="11">
+        <v>2</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F64" s="18" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="11">
+        <v>2</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F65" s="18" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="11">
+        <v>2</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F66" s="18" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="G66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="11">
+        <v>2</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="E67" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="F67" s="18" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="str">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="11">
+        <v>2</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="11">
+        <v>2</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F69" s="18" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F70" s="18" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11">
+        <v>2</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="D71" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G71" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="11">
+        <v>2</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="E72" s="14" t="s">
         <v>1028</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="F72" s="18" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="11">
+        <v>2</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="11">
+        <v>2</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="D74" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F74" s="18" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="11">
+        <v>2</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="D75" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F75" s="18" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="11">
+        <v>2</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="D76" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="E76" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="F76" s="18" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G76" s="18"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="11">
+        <v>2</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="D77" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="str">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="11">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="D78" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F78" s="18" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G78" s="18"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="str">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="11">
+        <v>2</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F79" s="18" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="str">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11">
+        <v>2</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="D80" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="E80" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="F80" s="18" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="11">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="D81" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="E81" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="F81" s="18" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G81" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="11">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="D82" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F82" s="18" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G82" s="18"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="11">
+        <v>3</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F83" s="18" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="11">
+        <v>3</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="D84" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G84" s="18"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="str">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="11">
+        <v>3</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="D85" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D85" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="11">
+        <v>3</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="D86" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D86" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F86" s="18" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G86" s="18"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="str">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="11">
+        <v>3</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="D87" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F87" s="18" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="str">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="11">
+        <v>3</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="D88" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="str">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="11">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="D89" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D89" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F89" s="18" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="str">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="11">
+        <v>3</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="D90" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D90" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F90" s="18" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G90" s="18"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="11">
+        <v>3</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="D91" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F91" s="18" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G91" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="str">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="11">
+        <v>3</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="D92" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="str">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11">
+        <v>3</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="D93" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F93" s="18" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="str">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="11">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="D94" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D94" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="str">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="11">
+        <v>3</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="D95" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G95" s="18"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="str">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11">
+        <v>3</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="D96" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="str">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="11">
+        <v>3</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="D97" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G97" s="18"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="str">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="11">
+        <v>3</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="D98" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G98" s="18"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="str">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="11">
+        <v>3</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="D99" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G99" s="18"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="str">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="11">
+        <v>3</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="D100" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D100" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F100" s="18" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G100" s="18"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="str">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="11">
+        <v>3</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="D101" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G101" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="str">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="11">
+        <v>3</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="D102" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D102" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G102" s="18"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="str">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="11">
+        <v>3</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="D103" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D103" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G103" s="18"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="str">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="11">
+        <v>3</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="D104" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D104" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="str">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="11">
+        <v>3</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="D105" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F105" s="18" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G105" s="18"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="str">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="11">
+        <v>3</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="D106" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F106" s="18" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G106" s="18"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="str">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="11">
+        <v>3</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="D107" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D107" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F107" s="18" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G107" s="18"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="str">
         <f t="shared" ref="A108:A171" si="1">TEXT(A107+1, "0")</f>
         <v>67</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11">
+        <v>3</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D108" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F108" s="18" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G108" s="18"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="str">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="11">
+        <v>3</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="D109" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D109" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F109" s="18" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G109" s="18"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="str">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="11">
+        <v>3</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="D110" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D110" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E110" s="18" t="s">
+      <c r="E110" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F110" s="18" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G110" s="18"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="str">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11">
+        <v>3</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="D111" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D111" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F111" s="18" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G111" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="str">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="11">
+        <v>3</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="D112" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D112" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F112" s="18" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G112" s="18"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="str">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="11">
+        <v>3</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="D113" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D113" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F113" s="18" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G113" s="18"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="str">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="11">
+        <v>3</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="D114" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D114" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F114" s="18" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G114" s="18"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="str">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="11">
+        <v>3</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="D115" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D115" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F115" s="18" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="str">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="11">
+        <v>3</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="D116" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D116" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F116" s="18" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="str">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="11">
+        <v>3</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="D117" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F117" s="18" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G117" s="18"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="str">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="11">
+        <v>3</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="D118" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D118" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F118" s="18" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G118" s="18"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="str">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="11">
+        <v>3</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="D119" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D119" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F119" s="18" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="str">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="11">
+        <v>3</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="D120" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D120" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F120" s="18" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="str">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="11">
+        <v>3</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="D121" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D121" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F121" s="18" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G121" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="str">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="11">
+        <v>4</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="D122" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D122" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F122" s="18" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="str">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="11">
+        <v>4</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="D123" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D123" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F123" s="18" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G123" s="18"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="str">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="11">
+        <v>4</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="D124" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D124" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F124" s="18" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="str">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="11">
+        <v>4</v>
+      </c>
+      <c r="C125" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="D125" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E125" s="18" t="s">
+      <c r="E125" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F125" s="18" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G125" s="18"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="str">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="11">
+        <v>4</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="D126" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D126" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F126" s="18" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="str">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="11">
+        <v>4</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="D127" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D127" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E127" s="18" t="s">
+      <c r="E127" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F127" s="18" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="str">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="11">
+        <v>4</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>842</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="D128" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D128" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E128" s="18" t="s">
+      <c r="E128" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F128" s="18" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="str">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="11">
+        <v>4</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="D129" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D129" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E129" s="18" t="s">
+      <c r="E129" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F129" s="18" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="str">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="11">
+        <v>4</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="D130" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D130" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F130" s="18" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G130" s="18"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="str">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="11">
+        <v>4</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="D131" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F131" s="18" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G131" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="str">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="11">
+        <v>4</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="D132" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D132" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F132" s="18" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G132" s="18"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="str">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="11">
+        <v>4</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="D133" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D133" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F133" s="18" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G133" s="18"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="str">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="11">
+        <v>4</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F134" s="18" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="str">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="11">
+        <v>4</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="D135" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D135" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F135" s="18" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G135" s="18"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="str">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="11">
+        <v>4</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="D136" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D136" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F136" s="18" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="str">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="11">
+        <v>4</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="D137" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D137" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F137" s="18" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="str">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="11">
+        <v>4</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="D138" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D138" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F138" s="18" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G138" s="18"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="str">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="11">
+        <v>4</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="D139" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D139" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F139" s="18" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G139" s="18"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="str">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="11">
+        <v>4</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="D140" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D140" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F140" s="18" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G140" s="18"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="str">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="11">
+        <v>4</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="D141" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D141" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F141" s="18" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G141" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="str">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="11">
+        <v>4</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="D142" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D142" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F142" s="18" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G142" s="18"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="str">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="11">
+        <v>4</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="D143" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D143" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F143" s="18" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G143" s="18"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="str">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="11">
+        <v>4</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="D144" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D144" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F144" s="18" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G144" s="18"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="str">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="11">
+        <v>4</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="D145" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D145" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F145" s="18" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G145" s="18"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="str">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="11">
+        <v>4</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="D146" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D146" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F146" s="18" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="str">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="11">
+        <v>4</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="D147" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D147" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F147" s="18" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G147" s="18"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="11" t="str">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="11">
+        <v>4</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>862</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="D148" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D148" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E148" s="18" t="s">
+      <c r="E148" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F148" s="18" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G148" s="18"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="str">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="11">
+        <v>4</v>
+      </c>
+      <c r="C149" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="D149" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D149" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F149" s="18" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G149" s="18"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="str">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="11">
+        <v>4</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="D150" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D150" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F150" s="18" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G150" s="18"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="str">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="11">
+        <v>4</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="D151" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D151" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F151" s="18" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G151" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="11" t="str">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11">
+        <v>4</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="D152" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D152" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F152" s="18" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G152" s="18"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="str">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="11">
+        <v>4</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="D153" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D153" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F153" s="18" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G153" s="18"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="str">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="11">
+        <v>4</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="D154" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D154" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E154" s="18" t="s">
+      <c r="E154" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F154" s="18" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G154" s="18"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="11" t="str">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="11">
+        <v>4</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="D155" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D155" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F155" s="18" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G155" s="18"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="str">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="11">
+        <v>4</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="D156" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D156" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E156" s="18" t="s">
+      <c r="E156" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F156" s="18" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G156" s="18"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="11" t="str">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="11">
+        <v>4</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="D157" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D157" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F157" s="18" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G157" s="18"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="11" t="str">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="11">
+        <v>4</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="D158" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D158" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F158" s="18" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="str">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="11">
+        <v>4</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D159" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F159" s="18" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="str">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="11">
+        <v>4</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="D160" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D160" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F160" s="18" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="str">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="11">
+        <v>4</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="D161" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D161" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F161" s="18" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G161" s="18" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="11" t="str">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="11">
+        <v>5</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="D162" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D162" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E162" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G162" s="18"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="str">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="11">
+        <v>5</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="D163" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D163" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E163" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G163" s="18"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="11" t="str">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="11">
+        <v>5</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="D164" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D164" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E164" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G164" s="18"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="str">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="11">
+        <v>5</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="D165" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D165" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E165" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G165" s="18"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="11" t="str">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="11">
+        <v>5</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="D166" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D166" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E166" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E166" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G166" s="18"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="11" t="str">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="11">
+        <v>5</v>
+      </c>
+      <c r="C167" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="D167" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D167" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E167" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E167" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G167" s="18"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="11" t="str">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="11">
+        <v>5</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="D168" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D168" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E168" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E168" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G168" s="18"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="11" t="str">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="11">
+        <v>5</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="D169" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D169" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E169" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F169" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G169" s="18"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="str">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="11">
+        <v>5</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D170" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E170" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E170" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G170" s="18"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="11" t="str">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="11">
+        <v>5</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="D171" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D171" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E171" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E171" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F171" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G171" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="11" t="str">
         <f t="shared" ref="A172:A235" si="2">TEXT(A171+1, "0")</f>
         <v>131</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="11">
+        <v>5</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="D172" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D172" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E172" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E172" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G172" s="18"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="11" t="str">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="11">
+        <v>5</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="D173" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D173" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E173" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E173" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F173" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G173" s="18"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="str">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="11">
+        <v>5</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="D174" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D174" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E174" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E174" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F174" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G174" s="18"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="str">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="11">
+        <v>5</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="D175" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D175" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E175" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E175" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F175" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G175" s="18"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="str">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="11">
+        <v>5</v>
+      </c>
+      <c r="C176" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="D176" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D176" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E176" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F176" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G176" s="18"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="str">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="11">
+        <v>5</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="D177" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D177" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E177" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E177" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F177" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G177" s="18"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="str">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="11">
+        <v>5</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="D178" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D178" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E178" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E178" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F178" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G178" s="18"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="str">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="11">
+        <v>5</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="D179" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D179" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E179" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F179" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G179" s="18"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="str">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="11">
+        <v>5</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="D180" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D180" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E180" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E180" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F180" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G180" s="18"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="str">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="11">
+        <v>5</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="D181" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D181" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E181" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F181" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G181" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="str">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="11">
+        <v>5</v>
+      </c>
+      <c r="C182" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="D182" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D182" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E182" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E182" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F182" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G182" s="18"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="str">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="11">
+        <v>5</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="D183" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D183" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E183" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E183" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F183" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G183" s="18"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="11" t="str">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11">
+        <v>5</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="D184" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D184" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E184" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E184" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F184" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G184" s="18"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="str">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="11">
+        <v>5</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="D185" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D185" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E185" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E185" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F185" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G185" s="18"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="11" t="str">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="11">
+        <v>5</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="D186" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D186" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E186" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E186" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F186" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G186" s="18"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="str">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="11">
+        <v>5</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="D187" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D187" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E187" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E187" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F187" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G187" s="18"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="11" t="str">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="11">
+        <v>5</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>902</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="D188" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D188" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E188" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E188" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F188" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G188" s="18"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="11" t="str">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="11">
+        <v>5</v>
+      </c>
+      <c r="C189" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="D189" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D189" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E189" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E189" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F189" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G189" s="18"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="11" t="str">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="11">
+        <v>5</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D190" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E190" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E190" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F190" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G190" s="18"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="11" t="str">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="11">
+        <v>5</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="D191" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D191" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E191" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E191" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F191" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G191" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="11" t="str">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="11">
+        <v>5</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>906</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="D192" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D192" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E192" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E192" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F192" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G192" s="18"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="11" t="str">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="11">
+        <v>5</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="D193" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D193" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E193" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F193" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G193" s="18"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="11" t="str">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="11">
+        <v>5</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>908</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="D194" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D194" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E194" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F194" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G194" s="18"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="11" t="str">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="11">
+        <v>5</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="D195" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D195" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E195" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E195" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F195" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G195" s="18"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="11" t="str">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="11">
+        <v>5</v>
+      </c>
+      <c r="C196" s="10" t="s">
         <v>910</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="D196" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D196" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E196" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E196" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F196" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G196" s="18"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="11" t="str">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="11">
+        <v>5</v>
+      </c>
+      <c r="C197" s="10" t="s">
         <v>911</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="D197" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D197" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E197" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E197" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F197" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G197" s="18"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="11" t="str">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="11">
+        <v>5</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="D198" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D198" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E198" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E198" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G198" s="18"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="11" t="str">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="11">
+        <v>5</v>
+      </c>
+      <c r="C199" s="10" t="s">
         <v>913</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="D199" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D199" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E199" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E199" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G199" s="18"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="11" t="str">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="11">
+        <v>5</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>914</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="D200" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D200" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E200" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G200" s="18"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="11" t="str">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="11">
+        <v>5</v>
+      </c>
+      <c r="C201" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="D201" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D201" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E201" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E201" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G201" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="11" t="str">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="11">
+        <v>6</v>
+      </c>
+      <c r="C202" s="10" t="s">
         <v>916</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="D202" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D202" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E202" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E202" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G202" s="18"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="11" t="str">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="11">
+        <v>6</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>917</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="D203" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D203" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E203" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E203" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F203" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G203" s="18"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="11" t="str">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="11">
+        <v>6</v>
+      </c>
+      <c r="C204" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="D204" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D204" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E204" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G204" s="18"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="11" t="str">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="11">
+        <v>6</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="D205" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D205" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E205" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E205" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G205" s="18"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="11" t="str">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="11">
+        <v>6</v>
+      </c>
+      <c r="C206" s="10" t="s">
         <v>920</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="D206" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D206" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E206" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F206" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G206" s="18"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="11" t="str">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="11">
+        <v>6</v>
+      </c>
+      <c r="C207" s="10" t="s">
         <v>921</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="D207" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D207" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E207" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E207" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F207" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G207" s="18"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="11" t="str">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="11">
+        <v>6</v>
+      </c>
+      <c r="C208" s="10" t="s">
         <v>922</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="D208" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D208" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E208" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E208" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G208" s="18"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="11" t="str">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="11">
+        <v>6</v>
+      </c>
+      <c r="C209" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="D209" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D209" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E209" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E209" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F209" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G209" s="18"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="11" t="str">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="11">
+        <v>6</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>924</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="D210" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D210" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E210" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E210" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F210" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G210" s="18"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="11" t="str">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="11">
+        <v>6</v>
+      </c>
+      <c r="C211" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="D211" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D211" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E211" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E211" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F211" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G211" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="11" t="str">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="11">
+        <v>6</v>
+      </c>
+      <c r="C212" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="D212" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D212" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E212" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E212" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F212" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G212" s="18"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="11" t="str">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="11">
+        <v>6</v>
+      </c>
+      <c r="C213" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="D213" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="E213" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="E213" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G213" s="18"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="11" t="str">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="11">
+        <v>6</v>
+      </c>
+      <c r="C214" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="D214" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D214" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E214" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E214" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F214" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G214" s="18"/>
+    </row>
+    <row r="215" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A215" s="11" t="str">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="11">
+        <v>6</v>
+      </c>
+      <c r="C215" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="D215" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="E215" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="E215" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F215" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G215" s="18"/>
+    </row>
+    <row r="216" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="str">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="11">
+        <v>6</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="D216" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="E216" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="E216" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G216" s="18"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="11" t="str">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="11">
+        <v>6</v>
+      </c>
+      <c r="C217" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="D217" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D217" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E217" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E217" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F217" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G217" s="18"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="11" t="str">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="11">
+        <v>6</v>
+      </c>
+      <c r="C218" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="D218" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D218" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E218" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E218" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F218" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G218" s="18"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="11" t="str">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="11">
+        <v>6</v>
+      </c>
+      <c r="C219" s="10" t="s">
         <v>933</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="D219" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D219" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E219" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E219" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F219" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G219" s="18"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="11" t="str">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11">
+        <v>6</v>
+      </c>
+      <c r="C220" s="10" t="s">
         <v>934</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="D220" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D220" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E220" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E220" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F220" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G220" s="18"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="11" t="str">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="11">
+        <v>6</v>
+      </c>
+      <c r="C221" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="D221" s="12" t="s">
         <v>979</v>
       </c>
-      <c r="D221" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E221" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E221" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F221" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G221" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="11" t="str">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="11">
+        <v>6</v>
+      </c>
+      <c r="C222" s="10" t="s">
         <v>936</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="D222" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D222" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E222" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E222" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F222" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G222" s="18"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="11" t="str">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="11">
+        <v>6</v>
+      </c>
+      <c r="C223" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="D223" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="E223" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="E223" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G223" s="18"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="11" t="str">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="11">
+        <v>6</v>
+      </c>
+      <c r="C224" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="D224" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D224" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E224" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E224" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F224" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G224" s="18"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="11" t="str">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="11">
+        <v>6</v>
+      </c>
+      <c r="C225" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="D225" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D225" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E225" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E225" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F225" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G225" s="18"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="11" t="str">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="11">
+        <v>6</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>940</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="D226" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D226" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E226" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E226" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F226" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G226" s="18"/>
+    </row>
+    <row r="227" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="11" t="str">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="11">
+        <v>6</v>
+      </c>
+      <c r="C227" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="D227" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="E227" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="E227" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G227" s="18"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="11" t="str">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="11">
+        <v>6</v>
+      </c>
+      <c r="C228" s="10" t="s">
         <v>942</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="D228" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="E228" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="E228" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G228" s="18"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="11" t="str">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="11">
+        <v>6</v>
+      </c>
+      <c r="C229" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="D229" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D229" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E229" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E229" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F229" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G229" s="18"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="11" t="str">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="11">
+        <v>6</v>
+      </c>
+      <c r="C230" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="D230" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D230" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E230" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E230" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F230" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G230" s="18"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="11" t="str">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="11">
+        <v>6</v>
+      </c>
+      <c r="C231" s="10" t="s">
         <v>945</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="D231" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="E231" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="E231" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G231" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="11" t="str">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="11">
+        <v>6</v>
+      </c>
+      <c r="C232" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="D232" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D232" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E232" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E232" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F232" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G232" s="18"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="11" t="str">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="11">
+        <v>6</v>
+      </c>
+      <c r="C233" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="D233" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D233" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E233" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E233" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F233" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G233" s="18"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="11" t="str">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="11">
+        <v>6</v>
+      </c>
+      <c r="C234" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="D234" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D234" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E234" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E234" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G234" s="18"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="11" t="str">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="11">
+        <v>6</v>
+      </c>
+      <c r="C235" s="10" t="s">
         <v>949</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="D235" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D235" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E235" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E235" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F235" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G235" s="18"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="11" t="str">
         <f t="shared" ref="A236:A241" si="3">TEXT(A235+1, "0")</f>
         <v>195</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="11">
+        <v>6</v>
+      </c>
+      <c r="C236" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="D236" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D236" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E236" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E236" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F236" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G236" s="18"/>
+    </row>
+    <row r="237" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="11" t="str">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="11">
+        <v>6</v>
+      </c>
+      <c r="C237" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="D237" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D237" s="14" t="s">
+      <c r="E237" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="E237" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G237" s="18"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="11" t="str">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="11">
+        <v>6</v>
+      </c>
+      <c r="C238" s="10" t="s">
         <v>952</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="D238" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D238" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E238" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E238" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F238" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G238" s="18"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="11" t="str">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="11">
+        <v>6</v>
+      </c>
+      <c r="C239" s="10" t="s">
         <v>953</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="D239" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D239" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E239" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E239" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F239" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G239" s="18"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="11" t="str">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="11">
+        <v>6</v>
+      </c>
+      <c r="C240" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="D240" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D240" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E240" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E240" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F240" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G240" s="18"/>
+    </row>
+    <row r="241" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="11" t="str">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="11">
+        <v>6</v>
+      </c>
+      <c r="C241" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="D241" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D241" s="14" t="s">
+      <c r="E241" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="E241" s="18" t="s">
-        <v>980</v>
+      <c r="F241" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="G241" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B242" s="8">
+        <v>1</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D242" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B243" s="8">
+        <v>1</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D243" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B244" s="8">
+        <v>1</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D244" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B245" s="8">
+        <v>1</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D245" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B246" s="8">
+        <v>1</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D246" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G246" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B247" s="8">
+        <v>2</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D247" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B248" s="8">
+        <v>2</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D248" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B249" s="8">
+        <v>2</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D249" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B250" s="8">
+        <v>2</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D250" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B251" s="8">
+        <v>2</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D251" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B252" s="8">
+        <v>2</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D252" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B253" s="8">
+        <v>2</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D253" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B254" s="8">
+        <v>2</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D254" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B255" s="8">
+        <v>2</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D255" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B256" s="8">
+        <v>2</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D256" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G256" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B257" s="8">
+        <v>3</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D257" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B258" s="8">
+        <v>3</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D258" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B259" s="8">
+        <v>3</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D259" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B260" s="8">
+        <v>3</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D260" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B261" s="8">
+        <v>3</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D261" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B262" s="8">
+        <v>3</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D262" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B263" s="8">
+        <v>3</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D263" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B264" s="8">
+        <v>3</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D264" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B265" s="8">
+        <v>3</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D265" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B266" s="8">
+        <v>3</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D266" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G266" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B267" s="8">
+        <v>6</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D267" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B268" s="8">
+        <v>6</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D268" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B269" s="8">
+        <v>6</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D269" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G269" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B270" s="8">
+        <v>6</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D270" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B271" s="8">
+        <v>6</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D271" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B272" s="8">
+        <v>6</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D272" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G272" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B273" s="8">
+        <v>6</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D273" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B274" s="8">
+        <v>6</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D274" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B275" s="8">
+        <v>6</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D275" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B276" s="8">
+        <v>6</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D276" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G276" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B277" s="8">
+        <v>1</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D277" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B278" s="8">
+        <v>1</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D278" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B279" s="8">
+        <v>1</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D279" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B280" s="8">
+        <v>1</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D280" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B281" s="8">
+        <v>1</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D281" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B282" s="8">
+        <v>1</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D282" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B283" s="8">
+        <v>1</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D283" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B284" s="8">
+        <v>1</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D284" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B285" s="8">
+        <v>2</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D285" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B286" s="8">
+        <v>3</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D286" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B287" s="8">
+        <v>4</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D287" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E287" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B288" s="8">
+        <v>5</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D288" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E288" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B289" s="8">
+        <v>1</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D289" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B290" s="8">
+        <v>1</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D290" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B291" s="8">
+        <v>1</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D291" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E291" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G291" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B292" s="8">
+        <v>2</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D292" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E292" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B293" s="8">
+        <v>2</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D293" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E293" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B294" s="8">
+        <v>2</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D294" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E294" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B295" s="8">
+        <v>1</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D295" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E295" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F295" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B296" s="8">
+        <v>1</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D296" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E296" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B297" s="8">
+        <v>1</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D297" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E297" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B298" s="8">
+        <v>2</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D298" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B299" s="8">
+        <v>2</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D299" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E299" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B300" s="8">
+        <v>2</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D300" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E300" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B301" s="8">
+        <v>1</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D301" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G301" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B302" s="8">
+        <v>1</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D302" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G302" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B303" s="8">
+        <v>1</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D303" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>2190</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E47" r:id="rId1" xr:uid="{5056F2E4-5502-4CBB-8A01-4E4B03DFB364}"/>
-    <hyperlink ref="E46" r:id="rId2" xr:uid="{78620D5E-4DEB-48C2-9E1B-0F8C73B31824}"/>
-    <hyperlink ref="E45" r:id="rId3" xr:uid="{42B8E5C0-D707-46E1-BC4C-46BECDD1C3CC}"/>
-    <hyperlink ref="E44" r:id="rId4" xr:uid="{A9F9E832-B39C-4354-AE8C-63FE8B9AF9FD}"/>
-    <hyperlink ref="E43" r:id="rId5" xr:uid="{7FFA24F2-B701-4F04-AC9E-E9CFABFEFA03}"/>
-    <hyperlink ref="E42" r:id="rId6" xr:uid="{5D330E2F-2400-47D0-939E-873889C6EEA9}"/>
-    <hyperlink ref="E48" r:id="rId7" xr:uid="{5279298A-819E-402D-A128-1FC054A86740}"/>
-    <hyperlink ref="E49" r:id="rId8" xr:uid="{E6ECBF96-598D-4BC4-8B2B-62E11DE812EC}"/>
-    <hyperlink ref="E50" r:id="rId9" xr:uid="{879092FC-53DC-44CB-BDC9-47B5A4E70BB2}"/>
-    <hyperlink ref="E51" r:id="rId10" xr:uid="{D29D366E-FEC6-42B4-84D6-A772DD6770A0}"/>
-    <hyperlink ref="E52" r:id="rId11" xr:uid="{51F4D307-7619-48A7-B8D2-C95DC2F46F49}"/>
-    <hyperlink ref="E53" r:id="rId12" xr:uid="{D79ADE7C-7833-4058-9CC0-9FFB982AF937}"/>
-    <hyperlink ref="E54" r:id="rId13" xr:uid="{2255B592-E6BD-41B6-A698-D3D6A8090CA8}"/>
-    <hyperlink ref="E55" r:id="rId14" xr:uid="{9A6AB79E-282F-4486-B0C1-84F3D87B5FF7}"/>
-    <hyperlink ref="E56" r:id="rId15" xr:uid="{1B0F31A3-6DBD-4545-947E-165287B67201}"/>
-    <hyperlink ref="E57" r:id="rId16" xr:uid="{2F04F29F-876E-4A69-8470-01436FF736EB}"/>
-    <hyperlink ref="E58" r:id="rId17" xr:uid="{87D2935E-6F19-439E-9A6B-A8B2DA9379C4}"/>
-    <hyperlink ref="E59" r:id="rId18" xr:uid="{6AF54B96-9CFB-4CA6-AB09-165E5843E722}"/>
-    <hyperlink ref="E60" r:id="rId19" xr:uid="{39F54BBD-A2A3-4C15-A9D8-3607D016A156}"/>
-    <hyperlink ref="E61" r:id="rId20" xr:uid="{0459B543-5E9E-4A4D-9DC6-ABA61BA83172}"/>
+    <hyperlink ref="F47" r:id="rId1" xr:uid="{5056F2E4-5502-4CBB-8A01-4E4B03DFB364}"/>
+    <hyperlink ref="F46" r:id="rId2" xr:uid="{78620D5E-4DEB-48C2-9E1B-0F8C73B31824}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{42B8E5C0-D707-46E1-BC4C-46BECDD1C3CC}"/>
+    <hyperlink ref="F44" r:id="rId4" xr:uid="{A9F9E832-B39C-4354-AE8C-63FE8B9AF9FD}"/>
+    <hyperlink ref="F43" r:id="rId5" xr:uid="{7FFA24F2-B701-4F04-AC9E-E9CFABFEFA03}"/>
+    <hyperlink ref="F42" r:id="rId6" xr:uid="{5D330E2F-2400-47D0-939E-873889C6EEA9}"/>
+    <hyperlink ref="F48" r:id="rId7" xr:uid="{5279298A-819E-402D-A128-1FC054A86740}"/>
+    <hyperlink ref="F49" r:id="rId8" xr:uid="{E6ECBF96-598D-4BC4-8B2B-62E11DE812EC}"/>
+    <hyperlink ref="F50" r:id="rId9" xr:uid="{879092FC-53DC-44CB-BDC9-47B5A4E70BB2}"/>
+    <hyperlink ref="F51" r:id="rId10" xr:uid="{D29D366E-FEC6-42B4-84D6-A772DD6770A0}"/>
+    <hyperlink ref="F52" r:id="rId11" xr:uid="{51F4D307-7619-48A7-B8D2-C95DC2F46F49}"/>
+    <hyperlink ref="F53" r:id="rId12" xr:uid="{D79ADE7C-7833-4058-9CC0-9FFB982AF937}"/>
+    <hyperlink ref="F54" r:id="rId13" xr:uid="{2255B592-E6BD-41B6-A698-D3D6A8090CA8}"/>
+    <hyperlink ref="F55" r:id="rId14" xr:uid="{9A6AB79E-282F-4486-B0C1-84F3D87B5FF7}"/>
+    <hyperlink ref="F56" r:id="rId15" xr:uid="{1B0F31A3-6DBD-4545-947E-165287B67201}"/>
+    <hyperlink ref="F57" r:id="rId16" xr:uid="{2F04F29F-876E-4A69-8470-01436FF736EB}"/>
+    <hyperlink ref="F58" r:id="rId17" xr:uid="{87D2935E-6F19-439E-9A6B-A8B2DA9379C4}"/>
+    <hyperlink ref="F59" r:id="rId18" xr:uid="{6AF54B96-9CFB-4CA6-AB09-165E5843E722}"/>
+    <hyperlink ref="F60" r:id="rId19" xr:uid="{39F54BBD-A2A3-4C15-A9D8-3607D016A156}"/>
+    <hyperlink ref="F61" r:id="rId20" xr:uid="{0459B543-5E9E-4A4D-9DC6-ABA61BA83172}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE71E7-50DB-4B83-B097-32673CC6CDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019EFD7E-2A60-46C3-A2C3-7B6BA4CCB52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="2192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="2191">
   <si>
     <t>name</t>
   </si>
@@ -4013,9 +4013,6 @@
   </si>
   <si>
     <t>**Melee**: 3s cooldown, deals `(3+1 ND) PD` to AOE range 0.5.</t>
-  </si>
-  <si>
-    <t>skeleton warrior boss</t>
   </si>
   <si>
     <t>**Melee**: 1s cooldown, deals `(1 ND) PD` to a target.</t>
@@ -4078,55 +4075,28 @@
 **Enrage**: Speed is doubled when HP &lt; 33%.</t>
   </si>
   <si>
-    <t>scarab egg</t>
-  </si>
-  <si>
     <t>**Cloak**
 **Hatch**: spawns 1 flying scarab upon death.</t>
   </si>
   <si>
-    <t>flying scarab</t>
-  </si>
-  <si>
     <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
 **Dealation**: Upon death spawns 1 scarab with 225 HP, 0.5 move speed, 10 ND, 5 dodge, 1s melee cooldown.</t>
   </si>
   <si>
-    <t>desert rogue</t>
-  </si>
-  <si>
-    <t>gem scarab</t>
-  </si>
-  <si>
-    <t>mummy wolf</t>
-  </si>
-  <si>
-    <t>scorpion</t>
-  </si>
-  <si>
     <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
 **Scorpion's Sting**: Attack has a 10% chance to stun for 1s.</t>
   </si>
   <si>
-    <t>cobra</t>
-  </si>
-  <si>
     <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
 **Ranged**: 1.5s cooldown, deals `(2 ND) PD` to a target in range 2 and poisons it for 5s.</t>
   </si>
   <si>
-    <t>magic ward</t>
-  </si>
-  <si>
     <t>**Melee**: 1s cooldown, deals `(1 ND) PD` to a target.
 **Magical Aura**: Gives allies in range 1.25 magical armor +50% for 1s.</t>
   </si>
   <si>
     <t>**Melee**: 2s cooldown, deal `(1 ND) PD` to a target.
 **Enrage**: Gain +1.6 movement speed when HP &lt; 60%.</t>
-  </si>
-  <si>
-    <t>mirage maker</t>
   </si>
   <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) PD` to a target.
@@ -4134,16 +4104,10 @@
 **Mirage**: 10s cooldown, casts a Mirror image on a target in range 3. The Mirage has 675 HP, 0 ND, 0.7 move speed, last 10s.</t>
   </si>
   <si>
-    <t>vulture rider</t>
-  </si>
-  <si>
     <t>**Melee**: 0.5s cooldown, deals `(1 ND) PD` to a target.
 **Ranged**: 1.9s cooldown, deals `(1.2 ND) PD` to a target in range 3.</t>
   </si>
   <si>
-    <t>snake charmer</t>
-  </si>
-  <si>
     <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
 **Hypnotic Melody**: 5s cooldown, spawns a snake with 675 HP, 18 ND, 0.7 move speed, 0.5s melee cooldown.</t>
   </si>
@@ -4151,45 +4115,18 @@
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.</t>
   </si>
   <si>
-    <t>djinn</t>
-  </si>
-  <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) MD` to a target.
 **Polymorph**: 15s cooldown, transforms a non-Hero target in range 2.5 into a chicken: HP reduced by 75%, removed armor, move speed reduced by 50%, can't use abilities, lasts 5s.</t>
   </si>
   <si>
-    <t>cactus golem</t>
-  </si>
-  <si>
-    <t>sand golem</t>
-  </si>
-  <si>
-    <t>pallbearer</t>
-  </si>
-  <si>
     <t>**Melee**: 3s cooldown, deals `(3+1 ND) PD` to a target.
 **Deathly Concotion**: 10s cooldown, throws a poison potion at a target in range 3 and poisons every target in AOE range 1 for 10s</t>
   </si>
   <si>
-    <t>sethos boss</t>
-  </si>
-  <si>
-    <t>helios boss</t>
-  </si>
-  <si>
-    <t>pharaoh guardian</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `100 TD + (0.1 ND) PD` to AOE range 1.5.
 **Laser Vision**: 10s cooldown, deals `(4 SD) MD` to a target in range 3.</t>
   </si>
   <si>
-    <t>pharaoh boss</t>
-  </si>
-  <si>
-    <t>scarab boss</t>
-  </si>
-  <si>
     <t>**Cocoon trap**: 8s cooldown, traps a random Hero in a cocoon for 5.8s.
 **Infestation**: 2s cooldown, unleashes a swarm of scarabs on a random target in range 10. Deals `(0.1 ND)PD` to the target and restores health to the Scarab.</t>
   </si>
@@ -4197,46 +4134,25 @@
     <t>**Ranged**: 2s cooldown, deals `(1 ND) MD` to a target in range 2.</t>
   </si>
   <si>
-    <t>magic book</t>
-  </si>
-  <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) MD` to a target.
 **Magic Spell**: After death gives 3 friendly targets in range 1.5 a random buff for 5s: speed x1.5, physical armor +0.5, magic armor +0.5.</t>
   </si>
   <si>
-    <t>mini cloud sunfish</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) MD` to a target.</t>
-  </si>
-  <si>
-    <t>void guardian</t>
   </si>
   <si>
     <t>**Melee** 1.6s cooldown, deals `(1 ND) PD` to a target.
 **Guardian Protection**: Void guardian has 2000 shield points.</t>
   </si>
   <si>
-    <t>fire elemental</t>
-  </si>
-  <si>
     <t>**Burn**: Upon engagement and death applies a burn to enemies in AOE range 1 for 5s.</t>
   </si>
   <si>
-    <t>ice elemental</t>
-  </si>
-  <si>
     <t>**Freeze**: Upon engagement and death applies a freeze to enemies in AOE range 1 for 5s.</t>
-  </si>
-  <si>
-    <t>whelp</t>
   </si>
   <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) PD` to a target.
 **Ranged**: 1.95s cooldown, deals `(1 ND) MD` to a target in range 2.</t>
-  </si>
-  <si>
-    <t>citadel assassin</t>
   </si>
   <si>
     <t>**Cloak**
@@ -4245,13 +4161,7 @@
 **Teleport**: 10s cooldown, teleports to an enemy in range 2 and deals `(100+2.5 ND) PD`.</t>
   </si>
   <si>
-    <t>initiate trickster</t>
-  </si>
-  <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) PD` to a target.</t>
-  </si>
-  <si>
-    <t>time construct</t>
   </si>
   <si>
     <t>**Time aura**: Increases ally speed by 150% and slows enemies by 50% for 2s in AOE range 1.
@@ -4260,9 +4170,6 @@
   <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.
 **Split up!**: When engaged, throws a wizard initiate from his back and gives it 50% haste for 10s. The wizard initiate has 300 HP, 5 ND.</t>
-  </si>
-  <si>
-    <t>void elemental</t>
   </si>
   <si>
     <t>**Cloak**
@@ -4270,27 +4177,15 @@
 **From the Shadows**: Regains his cloak after disengaging an enemy.</t>
   </si>
   <si>
-    <t>citadel sentry</t>
-  </si>
-  <si>
-    <t>gravity wizard</t>
-  </si>
-  <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) MD` to a target.
 **Ranged**: 2.5s cooldown, deals `(1 ND) MD` to an enemy in range 3 and slow all enemies in AOE range 1 by 50% for 5s.</t>
   </si>
   <si>
-    <t>earth elemental</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to AOE range 1.
 **Reflect**: Has a 20% chance to deal `24 TD` to the attacker.</t>
   </si>
   <si>
     <t>**This one looks like a bunny!**: 2.5s cooldown, spawns a mini cloud sunfish.</t>
-  </si>
-  <si>
-    <t>ivory golem</t>
   </si>
   <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.
@@ -4298,38 +4193,17 @@
 **Ace of Spades**: Upon death summons a small golem with 900 HP, 0.5 physical armor, 0.6 move speed and 0 ND. It puts a decrepify spell on enemies in range 1 for 2s reducing their speed by 75% and reducing their armor -50%.</t>
   </si>
   <si>
-    <t>yan boss</t>
-  </si>
-  <si>
-    <t>narlax boss</t>
-  </si>
-  <si>
     <t>**Void Orbs**: Damages nearby enemies.
 **Void Pull**: Teleports to a location and pulls enemy units toward it.
 **Chaos of the Void**: Teleports towers to a different location in campaign.</t>
   </si>
   <si>
-    <t>meteor spell</t>
-  </si>
-  <si>
-    <t>duskvine sproutling</t>
-  </si>
-  <si>
-    <t>aqua slime</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.
 **Frost Blast**: After death deals `(4 ND) PD` and applies cold for 6s in range 2.</t>
   </si>
   <si>
-    <t>lava slime</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.
 **Lava Blast**: After death deals `(2 ND) PD` and applies burn for 5s in range 1.</t>
-  </si>
-  <si>
-    <t>lava bat</t>
   </si>
   <si>
     <r>
@@ -4358,24 +4232,12 @@
     </r>
   </si>
   <si>
-    <t>lava snail</t>
-  </si>
-  <si>
-    <t>duskvine sporophyte</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.
 **Living Spore**: After death spawns 1 duskvine bud, if it is not killed in 5s, it turns into a duskvine sproutling.</t>
   </si>
   <si>
-    <t>giant cave bat</t>
-  </si>
-  <si>
     <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
 **Sneak Attack**: Spawns 2 cave bats after death.</t>
-  </si>
-  <si>
-    <t>myrk archer</t>
   </si>
   <si>
     <t>**Cloak**
@@ -4383,41 +4245,20 @@
 **Ranged**:  1.95s cooldown, deals `(1+2 ND) PD` to a target in range 3. Max 50 shots.</t>
   </si>
   <si>
-    <t>small ent</t>
-  </si>
-  <si>
-    <t>ghost bandit</t>
-  </si>
-  <si>
     <t>**Cloak**
 **Melee**: 2s cooldown, deals `(1 ND) PD` to a target.</t>
   </si>
   <si>
-    <t>duskvine lasher</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.
 **Living Spores**: After death spawns 2 duskvine buds, if they are not killed in 5s, they turn into duskvine sproutlings.</t>
   </si>
   <si>
-    <t>myrk assassin</t>
-  </si>
-  <si>
     <t>**Cloak**
 **Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.</t>
   </si>
   <si>
-    <t>pillbug</t>
-  </si>
-  <si>
-    <t>duskvine crusher</t>
-  </si>
-  <si>
     <t>**Melee**: 1.95s cooldown, deals `(1 ND) PD` to a target.
 **Living Spores**: After death spawns 3 duskvine buds, if they are not killed in 5s, they turn into duskvine sproutlings.</t>
-  </si>
-  <si>
-    <t>myrk warlock</t>
   </si>
   <si>
     <t>**Cloak**
@@ -4425,44 +4266,23 @@
 **Enrage Aura**: Increases base stats of allies within AOE range 1: HP +150, ND +10, last 5s.</t>
   </si>
   <si>
-    <t>lava pango</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target.
 **Crash**: Crashes into an enemy dealing `(3 ND) PD` to AOE range 1, but gets a decrease in movement speed -1.3.
 **Pango Strength**: Immune to most of speed based debuffs and terror.</t>
   </si>
   <si>
-    <t>lava smasher</t>
-  </si>
-  <si>
     <t>**Melee**: 1.6s cooldown, deals `(1 ND) PD` to a target and burns it for 5s.</t>
   </si>
   <si>
-    <t>large ent</t>
-  </si>
-  <si>
     <t>**Melee**: 3s cooldown,deals `(3+1 ND) PD to AOE range 0.5.</t>
   </si>
   <si>
-    <t>wyrm</t>
-  </si>
-  <si>
-    <t>duskvine bud</t>
-  </si>
-  <si>
     <t>**Bloom**: In 5s transforms into a duskvine sproutling with 75 hp, 0.5 physical armor, 20 ND.</t>
-  </si>
-  <si>
-    <t>leif boss</t>
   </si>
   <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) PD` to a target.
 **Forge Weapon**: Increases speed by 110% and ND by 120%.
 **Sunder Ground**: Unlocked at weapon lv2, 15s cooldown, deals `(2 ND) PD` to AOE range 1.5 and stuns hit targets for 3s.</t>
-  </si>
-  <si>
-    <t>caldera boss</t>
   </si>
   <si>
     <t xml:space="preserve">**Molten armor**: Immune to damage unless he is frozen. Every freeze lasts for 20s.
@@ -4471,38 +4291,17 @@
 </t>
   </si>
   <si>
-    <t>ent rider tournament</t>
-  </si>
-  <si>
     <t>**Melee**: Two kinds of attacks with 2s/3s cooldown, deals `(1 ND) PD` to AOE range 0/1.
 **Ranged**: 1.5s cooldown, deals `120 TD + (0.5 ND) PD` to a target in range 7.
 **Power Shot** 8s cooldown, deals `120 TD + (1 ND) PD` to a target in range 7.
 **From below!**: 15s cooldown, burrows undeground and pounces on the weakest target.</t>
   </si>
   <si>
-    <t>ent rider campaign</t>
-  </si>
-  <si>
-    <t>ancient tree boss</t>
-  </si>
-  <si>
-    <t>strange monk</t>
-  </si>
-  <si>
-    <t>big crane</t>
-  </si>
-  <si>
     <t>**Melee**: 1.2s cooldown, deals `(1 ND) PD` to a target.
 **What a weird baby!**: Drops the carried unit after death or after 10s.</t>
   </si>
   <si>
-    <t>origami crane</t>
-  </si>
-  <si>
     <t>**Melee**: 1.2s cooldown, deals `(1 ND) PD` to a target.</t>
-  </si>
-  <si>
-    <t>oni-tekidanhei</t>
   </si>
   <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) PD` to AOE range 1.5 and stun hit targets for 0.5s.
@@ -4511,28 +4310,16 @@
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
   </si>
   <si>
-    <t>daruma</t>
-  </si>
-  <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) PD` to a target.
 **Explosion**: After death deals `(1 ND) MD` and stuns a target in range 1 for 0.5s.</t>
   </si>
   <si>
-    <t>small ghostfire</t>
-  </si>
-  <si>
     <t>**Melee**: 1s cooldown, deals `(1 ND) PD` to AOE range 0.5.
 **Ghost Body**: Immune to most of speed alterations.</t>
   </si>
   <si>
-    <t>chibi-mahou</t>
-  </si>
-  <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) PD` to a target.
 **Power Scroll**: Starts a focused beam, deals `(0.5 ND)` every 0.5s to an enemy in range 2.5</t>
-  </si>
-  <si>
-    <t>harpi</t>
   </si>
   <si>
     <t>**Melee**: 0.5s cooldown, deals `(1 ND) PD` to a target.
@@ -4540,87 +4327,48 @@
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
   </si>
   <si>
-    <t>skeleton samurai</t>
-  </si>
-  <si>
     <t>**Melee**: 0.7s cooldown, deals `(1 ND) PD` to a target.</t>
   </si>
   <si>
-    <t>mizu-no-sei</t>
-  </si>
-  <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) MD` to a target.</t>
-  </si>
-  <si>
-    <t>oni-baba</t>
   </si>
   <si>
     <t>**Melee**: 2.5s cooldown, deals `(1 ND) PD` to  AOE range 1 and stuns hit targets for 0.5s.
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
   </si>
   <si>
-    <t>koi-jin</t>
-  </si>
-  <si>
     <t>**Melee**: 1.8s cooldown, deals `(1 ND) PD` to a target and reduces its speed by 50% for 3s.
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
   </si>
   <si>
-    <t>kakutouka</t>
-  </si>
-  <si>
     <t>**Melee**: 2.6s cooldown, deals `(1.3 ND) PD` to a target.
 **Judoka**: Melee is seperated into 4 light attacks `(0.2 ND) PD` and 1 heavy attack `(0.5 ND) PD`.</t>
   </si>
   <si>
-    <t>oni-ken</t>
-  </si>
-  <si>
     <t>**Melee**: 1.3s cooldown, deals `(1 ND) PD` to a target and stuns it for 0.5s.
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
   </si>
   <si>
-    <t>kagami-no-yuurei</t>
-  </si>
-  <si>
     <t>**Melee**: 1.3s cooldown, deals `(1 ND) PD` to a target.</t>
-  </si>
-  <si>
-    <t>namazu-jin</t>
   </si>
   <si>
     <t>**Melee**: 2.1s cooldown, deals `(1 ND) PD` to a target.
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
   </si>
   <si>
-    <t>oni mask</t>
-  </si>
-  <si>
     <t>**Self-destruct**: Finds an enemy in range 1.4. Explodes, dealing `(0.4 ND) PD + (0.6 ND) MD` to AOE range 1.6 and applies burn to hit targets for 1.5s.
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
   </si>
   <si>
-    <t>aoi mask</t>
-  </si>
-  <si>
     <t>**Self-destruct**: Finds an enemy in range 1.4. Explodes, dealing `(0.4 ND) PD + (0.6 ND) MD` to AOE range 1.6 and applies burn to hit targets for 1.5s.</t>
-  </si>
-  <si>
-    <t>kami-no-mahoutsukai</t>
   </si>
   <si>
     <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
 **Origami Master**: 5s cooldown, creates an origami crane, also triggers when attacking in melee.</t>
   </si>
   <si>
-    <t>kaeru-hei</t>
-  </si>
-  <si>
     <t>**Melee**: 2.2s cooldown, deals `(1 ND) PD` to a target.
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
-  </si>
-  <si>
-    <t>big ghostfire</t>
   </si>
   <si>
     <t>**Melee**: 1s cooldown, deals `(0.3 ND) PD + (0.7 ND) MD` to AOE range 1.
@@ -4628,29 +4376,17 @@
 **Ghost Body**: Immune to most of speed alterations.</t>
   </si>
   <si>
-    <t>shunmin-shi</t>
-  </si>
-  <si>
     <t>**Melee**: 3s cooldown, deals `(3+1 ND) PD` to a target.
 **Shockwave**: 7s cooldown, deals `(0.1 ND) PD` to all targets in AOE range 3 around a friendly unit and shocks them for 3s.</t>
   </si>
   <si>
-    <t>oni-kanadzuchi</t>
-  </si>
-  <si>
     <t>**Melee**: 1.8s cooldown, deals `(1 ND) PD` to a target and stuns it for 0.5s.
 **Cursed Body**: In challenges, attacks have a 30% chance to apply a spirit curse for 1.5s.</t>
-  </si>
-  <si>
-    <t>rokujo campaign</t>
   </si>
   <si>
     <t>**Melee**: 2s cooldown, deals `(1 ND) MD` to a target.
 **Ama no Murakumo no Turugi**: 10s cooldown, empowers 2 random allies for 20s. Doubles their speed and health and increases damage x10.
 **Inside beauty**: Her appearance now matches her spirit. Ama no Murakumo no Turugi's cooldown is reduced to 5s</t>
-  </si>
-  <si>
-    <t>raijin campaign</t>
   </si>
   <si>
     <t xml:space="preserve">**Melee**: 1.9s cooldown, deals `(1 ND) PD` to a target.
@@ -4659,29 +4395,14 @@
 **Oni God**: 12s cooldown, summons a random Oni boss on a target and deals 10% HP damage in range 1.5. Oni bosses have 500000+10% HP, 1000+30% ND. If killed, reduce 10% of Raijin's HP. </t>
   </si>
   <si>
-    <t>koizuul campaign</t>
-  </si>
-  <si>
-    <t>gashadokuro campaign</t>
-  </si>
-  <si>
     <t>**Sweep**: 5s cooldown, deals between `(0.5 ND) PD` and `(1 ND) PD` to AOE range.
 **Slam**: 8s cooldown, deals 2 AOE range `(1 ND) PD` to targets in range 6 and stun them for 3s.
 **Grab**: Unlocked below 2/3 HP. 8s cooldown, grabs an enemy in range 7 and throws them to the center after 1.9s, deals `(0.25 ND) PD` to AOE range 3 and stuns hit targets for 1s.
 **Gashadokuro**: Unlocked below 1/3 HP. 10s cooldown, becomes invulnerable for 10.2s and brings a skeleton to battle. 66% to bring a skeleton samurai and 34% to bring a big skeleton.</t>
   </si>
   <si>
-    <t>skeletal rokujo challenge</t>
-  </si>
-  <si>
     <t>**Slash**: 8s cooldown, deals 2 AOE range `(1.5 ND) PD` to targets in range 6 and stuns them for 3s.
 **Heretic's Revenge**: 6s cooldown, deals 1.5 AOE range `(1 ND) PD + (0.25 ND) MD` to targets in range 6 and places a spirit curse on them for 1.5s.</t>
-  </si>
-  <si>
-    <t>skeletal koizuul challenge</t>
-  </si>
-  <si>
-    <t>skeletal raijin challenge</t>
   </si>
   <si>
     <t>**Flame Breath**: 8s cooldown, deals `(0.2 ND) PD` in 2 AOE range around him, also puts a spirit curse on targets for about 1.4s.
@@ -4690,33 +4411,12 @@
 **Oni God**: 60s cooldown, summons 2 random Oni bosses with 500000+10% HP, 1000+30% ND.</t>
   </si>
   <si>
-    <t xml:space="preserve">skeletal koizuul tournament </t>
-  </si>
-  <si>
-    <t>skeletal raijin tournament</t>
-  </si>
-  <si>
     <t>**Flame Breath**: 9s cooldown, deals `(0.2 ND) PD` in 1.5 AOE range around him, also puts a spirit curse on targets for about 1.4s.
 **Hammer Time**: 12s cooldown, deal `(0.2 ND) PD` in 1.5 AOE range around him, also deals up to `(1.25 ND) PD` in 3.5 AOE range, stun for up to 1.5s.
 **Whirlwind**: 20s cooldown, in 2.04s deals `(2.38 ND) PD` in 3 AOE range around him.</t>
   </si>
   <si>
     <t>flying</t>
-  </si>
-  <si>
-    <t>small anubian</t>
-  </si>
-  <si>
-    <t>mega anubian</t>
-  </si>
-  <si>
-    <t>small initiate</t>
-  </si>
-  <si>
-    <t>black pango</t>
-  </si>
-  <si>
-    <t>human mummy</t>
   </si>
   <si>
     <t>**Melee**: 1.9s cooldown, deals `(1*ND)PD` to AOE range 1.
@@ -4726,19 +4426,10 @@
 **I'll Do it Myself!**: Stand up and the cast speed becomes 0.6, ND is increased to 4000. Home of Pixos now has 7s cooldown, summons 5 Pixos with 150+1% HP, 12+20% ND.</t>
   </si>
   <si>
-    <t>small cave bat</t>
-  </si>
-  <si>
-    <t>big cloud sunfish</t>
-  </si>
-  <si>
     <t>__*Smoulder*__, __*Helios*__, __*Caldera*__, Flameheart Blade __*Masamune*__ receive a boost: HP x2.2, damage x2.2, __*Leif*__ himself receives a boost: HP x2, damage x1.5 (__*Caldera*__ doesn’t get the HP and SD buff)</t>
   </si>
   <si>
     <t>Every enemy killed by a hero within range 2 from Shamiko will reduce the cooldown of __*Actives*__ by 0.5s, kills from summons, __*Azura*__'s moon, __*Hogan*__'s pig, __*Koizuul*__'s dragon form earthshake do not count</t>
-  </si>
-  <si>
-    <t>wizard initiate</t>
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/56/Azura_sakurapower.png/revision/latest?cb=20200822193949</t>
@@ -6994,6 +6685,312 @@
   </si>
   <si>
     <t>Lich King</t>
+  </si>
+  <si>
+    <t>Scarab Egg</t>
+  </si>
+  <si>
+    <t>Desert Rogue</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Flying Scarab</t>
+  </si>
+  <si>
+    <t>Anubian</t>
+  </si>
+  <si>
+    <t>Gem Scarab</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>Magic Ward</t>
+  </si>
+  <si>
+    <t>Cactus Golem</t>
+  </si>
+  <si>
+    <t>Mirage Maker</t>
+  </si>
+  <si>
+    <t>Vulture Rider</t>
+  </si>
+  <si>
+    <t>Djinn</t>
+  </si>
+  <si>
+    <t>Snake Charmer</t>
+  </si>
+  <si>
+    <t>Sand Golem</t>
+  </si>
+  <si>
+    <t>Mega Anubian</t>
+  </si>
+  <si>
+    <t>Mummy</t>
+  </si>
+  <si>
+    <t>Pallbearer</t>
+  </si>
+  <si>
+    <t>Mummy Wolf</t>
+  </si>
+  <si>
+    <t>Sethos Boss</t>
+  </si>
+  <si>
+    <t>Helios Boss</t>
+  </si>
+  <si>
+    <t>Pharaoh Guardian</t>
+  </si>
+  <si>
+    <t>Pharaoh Boss</t>
+  </si>
+  <si>
+    <t>Scarab Boss</t>
+  </si>
+  <si>
+    <t>Initiate</t>
+  </si>
+  <si>
+    <t>Initiate Trickster</t>
+  </si>
+  <si>
+    <t>Gravity Wizard</t>
+  </si>
+  <si>
+    <t>Wizard Initiate</t>
+  </si>
+  <si>
+    <t>Fire Elemental</t>
+  </si>
+  <si>
+    <t>Magic Book</t>
+  </si>
+  <si>
+    <t>Time Construct</t>
+  </si>
+  <si>
+    <t>Whelp</t>
+  </si>
+  <si>
+    <t>Citadel Assassin</t>
+  </si>
+  <si>
+    <t>Citadel Sentry</t>
+  </si>
+  <si>
+    <t>Earth Elemental</t>
+  </si>
+  <si>
+    <t>Ice Elemental</t>
+  </si>
+  <si>
+    <t>Ivory Golem</t>
+  </si>
+  <si>
+    <t>Void Guardian</t>
+  </si>
+  <si>
+    <t>Void Elemental</t>
+  </si>
+  <si>
+    <t>Mini Cloud Sunfish</t>
+  </si>
+  <si>
+    <t>Cloud Sunfish</t>
+  </si>
+  <si>
+    <t>Yan Boss</t>
+  </si>
+  <si>
+    <t>Narlax Boss</t>
+  </si>
+  <si>
+    <t>Meteor Spell</t>
+  </si>
+  <si>
+    <t>Duskvine Sproutling</t>
+  </si>
+  <si>
+    <t>Duskvine Sporophyte</t>
+  </si>
+  <si>
+    <t>Cave Bat</t>
+  </si>
+  <si>
+    <t>Duskvine Lasher</t>
+  </si>
+  <si>
+    <t>Pango</t>
+  </si>
+  <si>
+    <t>Duskvine Crusher</t>
+  </si>
+  <si>
+    <t>Giant Cave Bat</t>
+  </si>
+  <si>
+    <t>Myrk Assassin</t>
+  </si>
+  <si>
+    <t>Myrk Archer</t>
+  </si>
+  <si>
+    <t>Myrk Warlock</t>
+  </si>
+  <si>
+    <t>Lava Slime</t>
+  </si>
+  <si>
+    <t>Lava Bat</t>
+  </si>
+  <si>
+    <t>Ghost Bandit</t>
+  </si>
+  <si>
+    <t>Lava Smasher</t>
+  </si>
+  <si>
+    <t>Pillbug</t>
+  </si>
+  <si>
+    <t>Lava Pango</t>
+  </si>
+  <si>
+    <t>Wyrm</t>
+  </si>
+  <si>
+    <t>Small Ent</t>
+  </si>
+  <si>
+    <t>Large Ent</t>
+  </si>
+  <si>
+    <t>Aqua Slime</t>
+  </si>
+  <si>
+    <t>Lava Snail</t>
+  </si>
+  <si>
+    <t>Duskvine Bud</t>
+  </si>
+  <si>
+    <t>Leif Boss</t>
+  </si>
+  <si>
+    <t>Caldera Boss</t>
+  </si>
+  <si>
+    <t>Ent Rider Tournament</t>
+  </si>
+  <si>
+    <t>Ent Rider Campaign</t>
+  </si>
+  <si>
+    <t>Ancient Tree Boss</t>
+  </si>
+  <si>
+    <t>Strange Monk</t>
+  </si>
+  <si>
+    <t>Kakutouka</t>
+  </si>
+  <si>
+    <t>Chibi-Mahou</t>
+  </si>
+  <si>
+    <t>Harpi</t>
+  </si>
+  <si>
+    <t>Origami Crane</t>
+  </si>
+  <si>
+    <t>Kami-no-Mahoutsukai</t>
+  </si>
+  <si>
+    <t>Daruma</t>
+  </si>
+  <si>
+    <t>Shunmin-shi</t>
+  </si>
+  <si>
+    <t>Koi-jin</t>
+  </si>
+  <si>
+    <t>Namazu-jin</t>
+  </si>
+  <si>
+    <t>Kaeru-hei</t>
+  </si>
+  <si>
+    <t>Mizu-no-Sei</t>
+  </si>
+  <si>
+    <t>Big Crane</t>
+  </si>
+  <si>
+    <t>Oni Mask</t>
+  </si>
+  <si>
+    <t>Kagami-no-Yuurei</t>
+  </si>
+  <si>
+    <t>Aoi Mask</t>
+  </si>
+  <si>
+    <t>Skeleton Samurai</t>
+  </si>
+  <si>
+    <t>Oni-tekidanhei</t>
+  </si>
+  <si>
+    <t>Small Ghostfire</t>
+  </si>
+  <si>
+    <t>Big Ghostfire</t>
+  </si>
+  <si>
+    <t>Rokujo Campaign</t>
+  </si>
+  <si>
+    <t>Raijin Campaign</t>
+  </si>
+  <si>
+    <t>Koizuul Campaign</t>
+  </si>
+  <si>
+    <t>Gashadokuro Campaign</t>
+  </si>
+  <si>
+    <t>Skeletal Rokujo Challenge</t>
+  </si>
+  <si>
+    <t>Skeletal Koizuul Challenge</t>
+  </si>
+  <si>
+    <t>Skeletal Raijin Challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeletal Koizuul tournament </t>
+  </si>
+  <si>
+    <t>Skeletal Raijin tournament</t>
+  </si>
+  <si>
+    <t>Oni-ken</t>
+  </si>
+  <si>
+    <t>Oni-baba</t>
+  </si>
+  <si>
+    <t>Oni-kanadzuchi</t>
   </si>
 </sst>
 </file>
@@ -7664,7 +7661,7 @@
         <v>592</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>1932</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -7738,7 +7735,7 @@
         <v>334</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>1933</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -7812,7 +7809,7 @@
         <v>333</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>1934</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -7886,7 +7883,7 @@
         <v>332</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>1915</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -7960,7 +7957,7 @@
         <v>331</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>1916</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -8034,7 +8031,7 @@
         <v>335</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>1917</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -8108,7 +8105,7 @@
         <v>336</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>1918</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -8182,7 +8179,7 @@
         <v>337</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>1919</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -8256,7 +8253,7 @@
         <v>338</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>1920</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -8330,7 +8327,7 @@
         <v>339</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>1921</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -8404,7 +8401,7 @@
         <v>340</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>1922</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8478,7 +8475,7 @@
         <v>341</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>1923</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8552,7 +8549,7 @@
         <v>342</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>1924</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8626,7 +8623,7 @@
         <v>343</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>1925</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -8700,7 +8697,7 @@
         <v>344</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>1926</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8774,7 +8771,7 @@
         <v>345</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>1927</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -8848,7 +8845,7 @@
         <v>346</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>1928</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -8922,7 +8919,7 @@
         <v>347</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>1929</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -8996,7 +8993,7 @@
         <v>348</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>1930</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -9070,7 +9067,7 @@
         <v>349</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>1931</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
@@ -9144,7 +9141,7 @@
         <v>350</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>1915</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -9218,7 +9215,7 @@
         <v>593</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>1935</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -9292,7 +9289,7 @@
         <v>594</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>1936</v>
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -9371,7 +9368,7 @@
         <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1808</v>
+        <v>1705</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1184</v>
@@ -9394,7 +9391,7 @@
         <v>-2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9417,7 +9414,7 @@
         <v>-1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1809</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9437,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1810</v>
+        <v>1707</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>1475</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9463,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>1476</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9486,7 +9483,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>1477</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9509,7 +9506,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>1478</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9581,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1811</v>
+        <v>1708</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>1479</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9607,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>1496</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9630,7 +9627,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>1499</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9653,7 +9650,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>1486</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -9694,7 +9691,7 @@
         <v>-2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9717,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1815</v>
+        <v>1712</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>1546</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9743,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>1522</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9766,10 +9763,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1813</v>
+        <v>1710</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>1530</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -9780,7 +9777,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -9792,7 +9789,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>1511</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -9815,13 +9812,13 @@
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1814</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>1853</v>
+        <v>1750</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -9830,7 +9827,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1854</v>
+        <v>1751</v>
       </c>
       <c r="G25" s="1">
         <v>-3</v>
@@ -9870,7 +9867,7 @@
         <v>-1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1818</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9893,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1817</v>
+        <v>1714</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>1548</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9919,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>1483</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9942,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>1489</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -9965,10 +9962,10 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1816</v>
+        <v>1713</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>1482</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -9979,7 +9976,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>264</v>
@@ -10026,7 +10023,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1821</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10046,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1820</v>
+        <v>1717</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>1551</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10072,10 +10069,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1820</v>
+        <v>1717</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>1497</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10098,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>1492</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10121,10 +10118,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1820</v>
+        <v>1717</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>1494</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10159,13 +10156,13 @@
         <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1806</v>
+        <v>1703</v>
       </c>
       <c r="G42" s="1">
         <v>-1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1822</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10185,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>1565</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10208,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>1545</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10234,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>1543</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10260,12 +10257,12 @@
         <v>3</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>1538</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>1795</v>
+        <v>1692</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>91</v>
@@ -10277,7 +10274,7 @@
         <v>264</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1796</v>
+        <v>1693</v>
       </c>
       <c r="G47" s="1">
         <v>4</v>
@@ -10286,7 +10283,7 @@
     </row>
     <row r="48" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>1797</v>
+        <v>1694</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>91</v>
@@ -10298,7 +10295,7 @@
         <v>272</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1798</v>
+        <v>1695</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -10308,7 +10305,7 @@
     <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>1857</v>
+        <v>1754</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
@@ -10317,7 +10314,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1858</v>
+        <v>1755</v>
       </c>
       <c r="G50" s="1">
         <v>-3</v>
@@ -10374,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>1554</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10397,10 +10394,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1823</v>
+        <v>1720</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>1523</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -10423,7 +10420,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>1533</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -10446,7 +10443,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>1504</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10467,7 +10464,7 @@
         <v>-2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1824</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10487,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>1563</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10513,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>1537</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -10536,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>1542</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10559,12 +10556,12 @@
         <v>3</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>1535</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>1941</v>
+        <v>1838</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -10590,7 +10587,7 @@
         <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>264</v>
@@ -10623,7 +10620,7 @@
         <v>-2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10666,10 +10663,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1825</v>
+        <v>1722</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>1547</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10689,10 +10686,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1826</v>
+        <v>1723</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>1525</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10715,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>1524</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -10735,7 +10732,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>1541</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10746,7 +10743,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>264</v>
@@ -10783,7 +10780,7 @@
         <v>-2</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10803,10 +10800,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1828</v>
+        <v>1725</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>1562</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10829,10 +10826,10 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1827</v>
+        <v>1724</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>1517</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10855,7 +10852,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>1521</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10878,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>1505</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10889,7 +10886,7 @@
         <v>44</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>268</v>
@@ -10909,7 +10906,7 @@
         <v>44</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>264</v>
@@ -10942,7 +10939,7 @@
         <v>-2</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>1829</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10959,13 +10956,13 @@
         <v>145</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1753</v>
+        <v>1650</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>1564</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10976,7 +10973,7 @@
         <v>141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1594</v>
+        <v>1491</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -10988,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>1512</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11011,7 +11008,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>1531</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11034,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>1527</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11045,7 +11042,7 @@
         <v>151</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>264</v>
@@ -11060,7 +11057,7 @@
     <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1861</v>
+        <v>1758</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -11069,7 +11066,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1862</v>
+        <v>1759</v>
       </c>
       <c r="G89" s="1">
         <v>-3</v>
@@ -11092,7 +11089,7 @@
         <v>-2</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>1830</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11112,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>1556</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11135,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>1529</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11158,7 +11155,7 @@
         <v>2</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>1528</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11181,7 +11178,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>1520</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -11192,7 +11189,7 @@
         <v>45</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>264</v>
@@ -11207,7 +11204,7 @@
     <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1864</v>
+        <v>1761</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>46</v>
@@ -11216,7 +11213,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1865</v>
+        <v>1762</v>
       </c>
       <c r="G97" s="1">
         <v>-3</v>
@@ -11236,13 +11233,13 @@
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1872</v>
+        <v>1769</v>
       </c>
       <c r="G98" s="1">
         <v>-2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1863</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11262,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>1561</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11285,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>1515</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11308,7 +11305,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>1516</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11331,10 +11328,10 @@
         <v>3</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1831</v>
+        <v>1728</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>1508</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11355,7 +11352,7 @@
         <v>-2</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11378,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1832</v>
+        <v>1729</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>1553</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11404,10 +11401,10 @@
         <v>1</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1833</v>
+        <v>1730</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>1536</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -11418,7 +11415,7 @@
         <v>171</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>37</v>
@@ -11430,7 +11427,7 @@
         <v>2</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>1532</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11441,7 +11438,7 @@
         <v>171</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>38</v>
@@ -11453,13 +11450,13 @@
         <v>3</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>1534</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>1851</v>
+        <v>1748</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>181</v>
@@ -11468,7 +11465,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1852</v>
+        <v>1749</v>
       </c>
       <c r="G110" s="1">
         <v>-3</v>
@@ -11491,7 +11488,7 @@
         <v>-2</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11511,10 +11508,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1835</v>
+        <v>1732</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>1560</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11537,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="20" t="s">
-        <v>1514</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11560,10 +11557,10 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1834</v>
+        <v>1731</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>1519</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11586,13 +11583,13 @@
         <v>3</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>1507</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1866</v>
+        <v>1763</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>190</v>
@@ -11601,7 +11598,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1867</v>
+        <v>1764</v>
       </c>
       <c r="G117" s="1">
         <v>-3</v>
@@ -11624,7 +11621,7 @@
         <v>-2</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11644,10 +11641,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1837</v>
+        <v>1734</v>
       </c>
       <c r="I119" s="20" t="s">
-        <v>1566</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11670,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>1518</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11693,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>1510</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -11704,7 +11701,7 @@
         <v>190</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>38</v>
@@ -11716,10 +11713,10 @@
         <v>3</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1836</v>
+        <v>1733</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>1544</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11742,12 +11739,12 @@
         <v>4</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1838</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>1859</v>
+        <v>1756</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>199</v>
@@ -11756,7 +11753,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1860</v>
+        <v>1757</v>
       </c>
       <c r="G125" s="1">
         <v>-3</v>
@@ -11779,7 +11776,7 @@
         <v>-2</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11799,10 +11796,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1839</v>
+        <v>1736</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>1552</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11825,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>1481</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11848,7 +11845,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="20" t="s">
-        <v>1493</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11871,7 +11868,7 @@
         <v>3</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>1490</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11882,7 +11879,7 @@
         <v>199</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>264</v>
@@ -11912,7 +11909,7 @@
         <v>-2</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1812</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -11949,10 +11946,10 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1844</v>
+        <v>1741</v>
       </c>
       <c r="I135" s="20" t="s">
-        <v>1549</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11972,10 +11969,10 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1844</v>
+        <v>1741</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>1506</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11995,10 +11992,10 @@
         <v>2</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1844</v>
+        <v>1741</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>1484</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12018,10 +12015,10 @@
         <v>3</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1844</v>
+        <v>1741</v>
       </c>
       <c r="I138" s="20" t="s">
-        <v>1480</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12136,7 +12133,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1944</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -12156,10 +12153,10 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1845</v>
+        <v>1742</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>1550</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12182,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="20" t="s">
-        <v>1513</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12205,7 +12202,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="20" t="s">
-        <v>1487</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12228,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="I149" s="20" t="s">
-        <v>1509</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12239,7 +12236,7 @@
         <v>222</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>270</v>
@@ -12306,7 +12303,7 @@
         <v>-1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1846</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12326,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="20" t="s">
-        <v>1559</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -12349,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="20" t="s">
-        <v>1503</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12372,7 +12369,7 @@
         <v>2</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>1502</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12395,7 +12392,7 @@
         <v>3</v>
       </c>
       <c r="I158" s="20" t="s">
-        <v>1540</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12406,7 +12403,7 @@
         <v>238</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>264</v>
@@ -12420,7 +12417,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1855</v>
+        <v>1752</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>278</v>
@@ -12429,7 +12426,7 @@
         <v>30</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1856</v>
+        <v>1753</v>
       </c>
       <c r="G161" s="1">
         <v>-3</v>
@@ -12489,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="20" t="s">
-        <v>1555</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12512,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>1501</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12535,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="I166" s="20" t="s">
-        <v>1491</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12558,21 +12555,21 @@
         <v>3</v>
       </c>
       <c r="I167" s="20" t="s">
-        <v>1495</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1868</v>
+        <v>1765</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="G169" s="1">
         <v>-3</v>
@@ -12595,7 +12592,7 @@
         <v>-2</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1848</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12618,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>1558</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12641,10 +12638,10 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1849</v>
+        <v>1746</v>
       </c>
       <c r="I172" s="20" t="s">
-        <v>1500</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -12670,10 +12667,10 @@
         <v>2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1873</v>
+        <v>1770</v>
       </c>
       <c r="I173" s="20" t="s">
-        <v>1498</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12684,7 +12681,7 @@
         <v>595</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1805</v>
+        <v>1702</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>38</v>
@@ -12696,7 +12693,7 @@
         <v>3</v>
       </c>
       <c r="I174" s="20" t="s">
-        <v>1485</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12721,16 +12718,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1868</v>
+        <v>1765</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1593</v>
+        <v>1490</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="G177" s="1">
         <v>-3</v>
@@ -12756,7 +12753,7 @@
         <v>-2</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1847</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12779,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="20" t="s">
-        <v>1557</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12805,10 +12802,10 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1849</v>
+        <v>1746</v>
       </c>
       <c r="I180" s="20" t="s">
-        <v>1539</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12834,10 +12831,10 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1850</v>
+        <v>1747</v>
       </c>
       <c r="I181" s="20" t="s">
-        <v>1526</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12860,7 +12857,7 @@
         <v>3</v>
       </c>
       <c r="I182" s="20" t="s">
-        <v>1488</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -13034,7 +13031,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1954</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -13090,7 +13087,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2026</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13104,7 +13101,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2027</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13118,7 +13115,7 @@
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1955</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13180,7 +13177,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1962</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13449,13 +13446,13 @@
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>1853</v>
+        <v>1750</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1946</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -13491,7 +13488,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1956</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -13519,7 +13516,7 @@
         <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1819</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13589,7 +13586,7 @@
         <v>320</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1957</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -13645,7 +13642,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1958</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13696,7 +13693,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1963</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -13780,7 +13777,7 @@
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1960</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -13864,7 +13861,7 @@
         <v>320</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1961</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -13929,7 +13926,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1964</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -14027,7 +14024,7 @@
         <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1965</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -14055,7 +14052,7 @@
         <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1966</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -14074,7 +14071,7 @@
     </row>
     <row r="85" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>1795</v>
+        <v>1692</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>91</v>
@@ -14083,12 +14080,12 @@
         <v>317</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1799</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>1795</v>
+        <v>1692</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>91</v>
@@ -14097,12 +14094,12 @@
         <v>316</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1800</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>1795</v>
+        <v>1692</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>91</v>
@@ -14111,12 +14108,12 @@
         <v>315</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1801</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>1797</v>
+        <v>1694</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>91</v>
@@ -14125,12 +14122,12 @@
         <v>314</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1802</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1797</v>
+        <v>1694</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>91</v>
@@ -14139,12 +14136,12 @@
         <v>313</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1803</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>1797</v>
+        <v>1694</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
@@ -14153,18 +14150,18 @@
         <v>312</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1804</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1857</v>
+        <v>1754</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1947</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -14186,7 +14183,7 @@
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1967</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -14352,7 +14349,7 @@
         <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1968</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -14408,7 +14405,7 @@
         <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1969</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -14529,7 +14526,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1970</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14613,7 +14610,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1874</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14627,7 +14624,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1971</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14641,7 +14638,7 @@
         <v>427</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1972</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -14751,7 +14748,7 @@
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1973</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -14821,7 +14818,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1974</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -14863,7 +14860,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1975</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14931,7 +14928,7 @@
         <v>320</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1807</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14987,18 +14984,18 @@
         <v>264</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1472</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>1861</v>
+        <v>1758</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1948</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -15154,13 +15151,13 @@
     </row>
     <row r="171" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>1864</v>
+        <v>1761</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1949</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -15213,7 +15210,7 @@
         <v>320</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1945</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -15339,7 +15336,7 @@
         <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1940</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15407,7 +15404,7 @@
         <v>320</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1976</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -15496,13 +15493,13 @@
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>1851</v>
+        <v>1748</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1950</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15583,7 +15580,7 @@
         <v>320</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1977</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -15611,7 +15608,7 @@
         <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1978</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15672,13 +15669,13 @@
     </row>
     <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>1866</v>
+        <v>1763</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1951</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15806,13 +15803,13 @@
     </row>
     <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>1859</v>
+        <v>1756</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1952</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15837,7 +15834,7 @@
         <v>320</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1953</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -15975,7 +15972,7 @@
         <v>47</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1592</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15989,7 +15986,7 @@
         <v>320</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1979</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -16017,7 +16014,7 @@
         <v>320</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1840</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16045,7 +16042,7 @@
         <v>270</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1598</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16059,7 +16056,7 @@
         <v>320</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1841</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -16087,7 +16084,7 @@
         <v>270</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1597</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16101,7 +16098,7 @@
         <v>320</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1842</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -16129,7 +16126,7 @@
         <v>270</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1596</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16143,7 +16140,7 @@
         <v>320</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1843</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16171,7 +16168,7 @@
         <v>270</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1595</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16227,7 +16224,7 @@
         <v>264</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1473</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16250,7 +16247,7 @@
         <v>222</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1980</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16306,7 +16303,7 @@
         <v>320</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1981</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -16334,7 +16331,7 @@
         <v>320</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1982</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -16362,7 +16359,7 @@
         <v>320</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1983</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16427,7 +16424,7 @@
         <v>234</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1984</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16483,7 +16480,7 @@
         <v>301</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1591</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16497,7 +16494,7 @@
         <v>320</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1985</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -16525,7 +16522,7 @@
         <v>320</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1986</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16558,13 +16555,13 @@
     </row>
     <row r="282" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>1855</v>
+        <v>1752</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1946</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -16586,7 +16583,7 @@
         <v>278</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1987</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -16628,7 +16625,7 @@
         <v>320</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1988</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -16684,7 +16681,7 @@
         <v>320</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1989</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -16703,13 +16700,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>1868</v>
+        <v>1765</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1870</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -16776,7 +16773,7 @@
         <v>320</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1937</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16790,7 +16787,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1752</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -16818,7 +16815,7 @@
         <v>320</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1754</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -16902,18 +16899,18 @@
         <v>271</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1959</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>1868</v>
+        <v>1765</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1871</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16966,7 +16963,7 @@
         <v>320</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1751</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16980,7 +16977,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1750</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -17008,7 +17005,7 @@
         <v>320</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1938</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17064,7 +17061,7 @@
         <v>320</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1939</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17078,7 +17075,7 @@
         <v>270</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1749</v>
+        <v>1646</v>
       </c>
     </row>
   </sheetData>
@@ -17173,7 +17170,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17196,7 +17193,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17219,7 +17216,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17288,7 +17285,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17311,7 +17308,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17380,7 +17377,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17403,7 +17400,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17426,7 +17423,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17449,7 +17446,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17472,7 +17469,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17495,7 +17492,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17518,7 +17515,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17541,7 +17538,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17564,7 +17561,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17587,7 +17584,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17610,7 +17607,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17633,7 +17630,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17656,7 +17653,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17679,7 +17676,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17702,7 +17699,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17725,7 +17722,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17748,7 +17745,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17771,7 +17768,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17794,7 +17791,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17817,7 +17814,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17840,7 +17837,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17863,7 +17860,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17886,7 +17883,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2153</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17909,7 +17906,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2152</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17932,7 +17929,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -17978,7 +17975,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18024,7 +18021,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18047,7 +18044,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18956,7 +18953,7 @@
         <v>980</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1755</v>
+        <v>1652</v>
       </c>
       <c r="G82" s="18"/>
     </row>
@@ -18978,7 +18975,7 @@
         <v>980</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1756</v>
+        <v>1653</v>
       </c>
       <c r="G83" s="18"/>
     </row>
@@ -19000,7 +18997,7 @@
         <v>980</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1757</v>
+        <v>1654</v>
       </c>
       <c r="G84" s="18"/>
     </row>
@@ -19022,7 +19019,7 @@
         <v>980</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>1758</v>
+        <v>1655</v>
       </c>
       <c r="G85" s="18"/>
     </row>
@@ -19044,7 +19041,7 @@
         <v>980</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>1759</v>
+        <v>1656</v>
       </c>
       <c r="G86" s="18"/>
     </row>
@@ -19066,7 +19063,7 @@
         <v>980</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>1760</v>
+        <v>1657</v>
       </c>
       <c r="G87" s="18"/>
     </row>
@@ -19088,7 +19085,7 @@
         <v>980</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>1761</v>
+        <v>1658</v>
       </c>
       <c r="G88" s="18"/>
     </row>
@@ -19110,7 +19107,7 @@
         <v>980</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1762</v>
+        <v>1659</v>
       </c>
       <c r="G89" s="18"/>
     </row>
@@ -19132,7 +19129,7 @@
         <v>980</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>1763</v>
+        <v>1660</v>
       </c>
       <c r="G90" s="18"/>
     </row>
@@ -19154,7 +19151,7 @@
         <v>980</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>1764</v>
+        <v>1661</v>
       </c>
       <c r="G91" t="s">
         <v>992</v>
@@ -19178,7 +19175,7 @@
         <v>980</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>1765</v>
+        <v>1662</v>
       </c>
       <c r="G92" s="18"/>
     </row>
@@ -19200,7 +19197,7 @@
         <v>980</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>1766</v>
+        <v>1663</v>
       </c>
       <c r="G93" s="18"/>
     </row>
@@ -19222,7 +19219,7 @@
         <v>980</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>1767</v>
+        <v>1664</v>
       </c>
       <c r="G94" s="18"/>
     </row>
@@ -19244,7 +19241,7 @@
         <v>980</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>1768</v>
+        <v>1665</v>
       </c>
       <c r="G95" s="18"/>
     </row>
@@ -19266,7 +19263,7 @@
         <v>980</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>1769</v>
+        <v>1666</v>
       </c>
       <c r="G96" s="18"/>
     </row>
@@ -19288,7 +19285,7 @@
         <v>980</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>1770</v>
+        <v>1667</v>
       </c>
       <c r="G97" s="18"/>
     </row>
@@ -19310,7 +19307,7 @@
         <v>980</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>1771</v>
+        <v>1668</v>
       </c>
       <c r="G98" s="18"/>
     </row>
@@ -19332,7 +19329,7 @@
         <v>980</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>1772</v>
+        <v>1669</v>
       </c>
       <c r="G99" s="18"/>
     </row>
@@ -19354,7 +19351,7 @@
         <v>980</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1773</v>
+        <v>1670</v>
       </c>
       <c r="G100" s="18"/>
     </row>
@@ -19376,7 +19373,7 @@
         <v>980</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>1774</v>
+        <v>1671</v>
       </c>
       <c r="G101" t="s">
         <v>992</v>
@@ -19400,7 +19397,7 @@
         <v>980</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>1775</v>
+        <v>1672</v>
       </c>
       <c r="G102" s="18"/>
     </row>
@@ -19422,7 +19419,7 @@
         <v>980</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>1776</v>
+        <v>1673</v>
       </c>
       <c r="G103" s="18"/>
     </row>
@@ -19444,7 +19441,7 @@
         <v>980</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1777</v>
+        <v>1674</v>
       </c>
       <c r="G104" s="18"/>
     </row>
@@ -19466,7 +19463,7 @@
         <v>980</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1778</v>
+        <v>1675</v>
       </c>
       <c r="G105" s="18"/>
     </row>
@@ -19488,7 +19485,7 @@
         <v>980</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1779</v>
+        <v>1676</v>
       </c>
       <c r="G106" s="18"/>
     </row>
@@ -19510,7 +19507,7 @@
         <v>980</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1780</v>
+        <v>1677</v>
       </c>
       <c r="G107" s="18"/>
     </row>
@@ -19532,7 +19529,7 @@
         <v>980</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1781</v>
+        <v>1678</v>
       </c>
       <c r="G108" s="18"/>
     </row>
@@ -19554,7 +19551,7 @@
         <v>980</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1782</v>
+        <v>1679</v>
       </c>
       <c r="G109" s="18"/>
     </row>
@@ -19576,7 +19573,7 @@
         <v>980</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>1783</v>
+        <v>1680</v>
       </c>
       <c r="G110" s="18"/>
     </row>
@@ -19598,7 +19595,7 @@
         <v>980</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1784</v>
+        <v>1681</v>
       </c>
       <c r="G111" t="s">
         <v>992</v>
@@ -19622,7 +19619,7 @@
         <v>980</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>1785</v>
+        <v>1682</v>
       </c>
       <c r="G112" s="18"/>
     </row>
@@ -19644,7 +19641,7 @@
         <v>980</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>1786</v>
+        <v>1683</v>
       </c>
       <c r="G113" s="18"/>
     </row>
@@ -19666,7 +19663,7 @@
         <v>980</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>1787</v>
+        <v>1684</v>
       </c>
       <c r="G114" s="18"/>
     </row>
@@ -19688,7 +19685,7 @@
         <v>980</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>1788</v>
+        <v>1685</v>
       </c>
       <c r="G115" s="18"/>
     </row>
@@ -19710,7 +19707,7 @@
         <v>980</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>1789</v>
+        <v>1686</v>
       </c>
       <c r="G116" s="18"/>
     </row>
@@ -19732,7 +19729,7 @@
         <v>980</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>1790</v>
+        <v>1687</v>
       </c>
       <c r="G117" s="18"/>
     </row>
@@ -19754,7 +19751,7 @@
         <v>980</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>1791</v>
+        <v>1688</v>
       </c>
       <c r="G118" s="18"/>
     </row>
@@ -19776,7 +19773,7 @@
         <v>980</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>1792</v>
+        <v>1689</v>
       </c>
       <c r="G119" s="18"/>
     </row>
@@ -19798,7 +19795,7 @@
         <v>980</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>1793</v>
+        <v>1690</v>
       </c>
       <c r="G120" s="18"/>
     </row>
@@ -19820,7 +19817,7 @@
         <v>980</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>1794</v>
+        <v>1691</v>
       </c>
       <c r="G121" t="s">
         <v>992</v>
@@ -19844,7 +19841,7 @@
         <v>980</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1875</v>
+        <v>1772</v>
       </c>
       <c r="G122" s="18"/>
     </row>
@@ -19866,7 +19863,7 @@
         <v>980</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>1876</v>
+        <v>1773</v>
       </c>
       <c r="G123" s="18"/>
     </row>
@@ -19888,7 +19885,7 @@
         <v>980</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1877</v>
+        <v>1774</v>
       </c>
       <c r="G124" s="18"/>
     </row>
@@ -19910,7 +19907,7 @@
         <v>980</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1878</v>
+        <v>1775</v>
       </c>
       <c r="G125" s="18"/>
     </row>
@@ -19932,7 +19929,7 @@
         <v>980</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1879</v>
+        <v>1776</v>
       </c>
       <c r="G126" s="18"/>
     </row>
@@ -19954,7 +19951,7 @@
         <v>980</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1880</v>
+        <v>1777</v>
       </c>
       <c r="G127" s="18"/>
     </row>
@@ -19976,7 +19973,7 @@
         <v>980</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1881</v>
+        <v>1778</v>
       </c>
       <c r="G128" s="18"/>
     </row>
@@ -19998,7 +19995,7 @@
         <v>980</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1882</v>
+        <v>1779</v>
       </c>
       <c r="G129" s="18"/>
     </row>
@@ -20020,7 +20017,7 @@
         <v>980</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1883</v>
+        <v>1780</v>
       </c>
       <c r="G130" s="18"/>
     </row>
@@ -20042,7 +20039,7 @@
         <v>980</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1884</v>
+        <v>1781</v>
       </c>
       <c r="G131" t="s">
         <v>992</v>
@@ -20066,7 +20063,7 @@
         <v>980</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1885</v>
+        <v>1782</v>
       </c>
       <c r="G132" s="18"/>
     </row>
@@ -20088,7 +20085,7 @@
         <v>980</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1886</v>
+        <v>1783</v>
       </c>
       <c r="G133" s="18"/>
     </row>
@@ -20110,7 +20107,7 @@
         <v>980</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1887</v>
+        <v>1784</v>
       </c>
       <c r="G134" s="18"/>
     </row>
@@ -20132,7 +20129,7 @@
         <v>980</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1888</v>
+        <v>1785</v>
       </c>
       <c r="G135" s="18"/>
     </row>
@@ -20154,7 +20151,7 @@
         <v>980</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>1889</v>
+        <v>1786</v>
       </c>
       <c r="G136" s="18"/>
     </row>
@@ -20176,7 +20173,7 @@
         <v>980</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1890</v>
+        <v>1787</v>
       </c>
       <c r="G137" s="18"/>
     </row>
@@ -20198,7 +20195,7 @@
         <v>980</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1891</v>
+        <v>1788</v>
       </c>
       <c r="G138" s="18"/>
     </row>
@@ -20220,7 +20217,7 @@
         <v>980</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1892</v>
+        <v>1789</v>
       </c>
       <c r="G139" s="18"/>
     </row>
@@ -20242,7 +20239,7 @@
         <v>980</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1893</v>
+        <v>1790</v>
       </c>
       <c r="G140" s="18"/>
     </row>
@@ -20264,7 +20261,7 @@
         <v>980</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1894</v>
+        <v>1791</v>
       </c>
       <c r="G141" t="s">
         <v>992</v>
@@ -20288,7 +20285,7 @@
         <v>980</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1895</v>
+        <v>1792</v>
       </c>
       <c r="G142" s="18"/>
     </row>
@@ -20310,7 +20307,7 @@
         <v>980</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1896</v>
+        <v>1793</v>
       </c>
       <c r="G143" s="18"/>
     </row>
@@ -20332,7 +20329,7 @@
         <v>980</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1897</v>
+        <v>1794</v>
       </c>
       <c r="G144" s="18"/>
     </row>
@@ -20354,7 +20351,7 @@
         <v>980</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1898</v>
+        <v>1795</v>
       </c>
       <c r="G145" s="18"/>
     </row>
@@ -20376,7 +20373,7 @@
         <v>980</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1899</v>
+        <v>1796</v>
       </c>
       <c r="G146" s="18"/>
     </row>
@@ -20398,7 +20395,7 @@
         <v>980</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1900</v>
+        <v>1797</v>
       </c>
       <c r="G147" s="18"/>
     </row>
@@ -20420,7 +20417,7 @@
         <v>980</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1901</v>
+        <v>1798</v>
       </c>
       <c r="G148" s="18"/>
     </row>
@@ -20442,7 +20439,7 @@
         <v>980</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1902</v>
+        <v>1799</v>
       </c>
       <c r="G149" s="18"/>
     </row>
@@ -20464,7 +20461,7 @@
         <v>980</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1903</v>
+        <v>1800</v>
       </c>
       <c r="G150" s="18"/>
     </row>
@@ -20486,7 +20483,7 @@
         <v>980</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1904</v>
+        <v>1801</v>
       </c>
       <c r="G151" t="s">
         <v>992</v>
@@ -20510,7 +20507,7 @@
         <v>980</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1905</v>
+        <v>1802</v>
       </c>
       <c r="G152" s="18"/>
     </row>
@@ -20532,7 +20529,7 @@
         <v>980</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1906</v>
+        <v>1803</v>
       </c>
       <c r="G153" s="18"/>
     </row>
@@ -20554,7 +20551,7 @@
         <v>980</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1907</v>
+        <v>1804</v>
       </c>
       <c r="G154" s="18"/>
     </row>
@@ -20576,7 +20573,7 @@
         <v>980</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1908</v>
+        <v>1805</v>
       </c>
       <c r="G155" s="18"/>
     </row>
@@ -20598,7 +20595,7 @@
         <v>980</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1909</v>
+        <v>1806</v>
       </c>
       <c r="G156" s="18"/>
     </row>
@@ -20620,7 +20617,7 @@
         <v>980</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1910</v>
+        <v>1807</v>
       </c>
       <c r="G157" s="18"/>
     </row>
@@ -20642,7 +20639,7 @@
         <v>980</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1911</v>
+        <v>1808</v>
       </c>
       <c r="G158" s="18"/>
     </row>
@@ -20664,7 +20661,7 @@
         <v>980</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1912</v>
+        <v>1809</v>
       </c>
       <c r="G159" s="18"/>
     </row>
@@ -20686,7 +20683,7 @@
         <v>980</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1913</v>
+        <v>1810</v>
       </c>
       <c r="G160" s="18"/>
     </row>
@@ -20708,10 +20705,10 @@
         <v>980</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1914</v>
+        <v>1811</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22492,13 +22489,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>2028</v>
+        <v>1925</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>2029</v>
+        <v>1926</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22512,13 +22509,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>2030</v>
+        <v>1927</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>2031</v>
+        <v>1928</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22532,13 +22529,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>2032</v>
+        <v>1929</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>2035</v>
+        <v>1932</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22552,13 +22549,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>2033</v>
+        <v>1930</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>2036</v>
+        <v>1933</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22572,13 +22569,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>2034</v>
+        <v>1931</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>2037</v>
+        <v>1934</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22595,13 +22592,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>2038</v>
+        <v>1935</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>2048</v>
+        <v>1945</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22615,13 +22612,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>2039</v>
+        <v>1936</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>2049</v>
+        <v>1946</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22635,13 +22632,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>2040</v>
+        <v>1937</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>2050</v>
+        <v>1947</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22655,13 +22652,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>2041</v>
+        <v>1938</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>2051</v>
+        <v>1948</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22675,13 +22672,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>2042</v>
+        <v>1939</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>2052</v>
+        <v>1949</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22695,13 +22692,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>2043</v>
+        <v>1940</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>2053</v>
+        <v>1950</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22715,13 +22712,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>2044</v>
+        <v>1941</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>2054</v>
+        <v>1951</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22735,13 +22732,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>2045</v>
+        <v>1942</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>2055</v>
+        <v>1952</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22755,13 +22752,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>2046</v>
+        <v>1943</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>2056</v>
+        <v>1953</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22775,13 +22772,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>2047</v>
+        <v>1944</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>2057</v>
+        <v>1954</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22798,13 +22795,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>2058</v>
+        <v>1955</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>2068</v>
+        <v>1965</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22818,13 +22815,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>2059</v>
+        <v>1956</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>2069</v>
+        <v>1966</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22838,13 +22835,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>2060</v>
+        <v>1957</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>2070</v>
+        <v>1967</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22858,13 +22855,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>2061</v>
+        <v>1958</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>2071</v>
+        <v>1968</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22878,13 +22875,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>2062</v>
+        <v>1959</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>2072</v>
+        <v>1969</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22898,13 +22895,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>2063</v>
+        <v>1960</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>2073</v>
+        <v>1970</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22918,13 +22915,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>2064</v>
+        <v>1961</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>2074</v>
+        <v>1971</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22938,13 +22935,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>2065</v>
+        <v>1962</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>2075</v>
+        <v>1972</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -22958,13 +22955,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>2066</v>
+        <v>1963</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>2076</v>
+        <v>1973</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -22981,13 +22978,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>2067</v>
+        <v>1964</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>2077</v>
+        <v>1974</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23004,13 +23001,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>2078</v>
+        <v>1975</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>2088</v>
+        <v>1985</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23024,13 +23021,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>2079</v>
+        <v>1976</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>2089</v>
+        <v>1986</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23044,13 +23041,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>2080</v>
+        <v>1977</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>2090</v>
+        <v>1987</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23067,13 +23064,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>2081</v>
+        <v>1978</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>2091</v>
+        <v>1988</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23087,13 +23084,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>2082</v>
+        <v>1979</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2092</v>
+        <v>1989</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23107,13 +23104,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>2083</v>
+        <v>1980</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>2093</v>
+        <v>1990</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23130,13 +23127,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>2084</v>
+        <v>1981</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>2094</v>
+        <v>1991</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23150,13 +23147,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>2085</v>
+        <v>1982</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>2095</v>
+        <v>1992</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23170,13 +23167,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>2086</v>
+        <v>1983</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>2096</v>
+        <v>1993</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23190,13 +23187,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>2087</v>
+        <v>1984</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>2097</v>
+        <v>1994</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23213,13 +23210,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>2098</v>
+        <v>1995</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>2105</v>
+        <v>2002</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23233,13 +23230,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>2099</v>
+        <v>1996</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2106</v>
+        <v>2003</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23253,13 +23250,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>2100</v>
+        <v>1997</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2107</v>
+        <v>2004</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23273,13 +23270,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>2101</v>
+        <v>1998</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2108</v>
+        <v>2005</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23293,13 +23290,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>2102</v>
+        <v>1999</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2109</v>
+        <v>2006</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23313,13 +23310,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>2103</v>
+        <v>2000</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2110</v>
+        <v>2007</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23333,13 +23330,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>2104</v>
+        <v>2001</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2111</v>
+        <v>2008</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23353,13 +23350,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2112</v>
+        <v>2009</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2113</v>
+        <v>2010</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23373,13 +23370,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2114</v>
+        <v>2011</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2118</v>
+        <v>2015</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23393,13 +23390,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2115</v>
+        <v>2012</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2119</v>
+        <v>2016</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23413,13 +23410,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2116</v>
+        <v>2013</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2120</v>
+        <v>2017</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23433,13 +23430,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2117</v>
+        <v>2014</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2121</v>
+        <v>2018</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23453,13 +23450,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2122</v>
+        <v>2019</v>
       </c>
       <c r="B289" s="8">
         <v>1</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2131</v>
+        <v>2028</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23471,18 +23468,18 @@
         <v>980</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2123</v>
+        <v>2020</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2132</v>
+        <v>2029</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23494,18 +23491,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2124</v>
+        <v>2021</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2133</v>
+        <v>2030</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23517,18 +23514,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2125</v>
+        <v>2022</v>
       </c>
       <c r="B292" s="8">
         <v>2</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2134</v>
+        <v>2031</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23542,13 +23539,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2126</v>
+        <v>2023</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2135</v>
+        <v>2032</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23562,13 +23559,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2127</v>
+        <v>2024</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2136</v>
+        <v>2033</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23582,13 +23579,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2128</v>
+        <v>2025</v>
       </c>
       <c r="B295" s="8">
         <v>1</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2137</v>
+        <v>2034</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23600,18 +23597,18 @@
         <v>980</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2129</v>
+        <v>2026</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2138</v>
+        <v>2035</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23623,18 +23620,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2130</v>
+        <v>2027</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2139</v>
+        <v>2036</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23646,18 +23643,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2140</v>
+        <v>2037</v>
       </c>
       <c r="B298" s="8">
         <v>2</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2141</v>
+        <v>2038</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23671,13 +23668,13 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2142</v>
+        <v>2039</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2143</v>
+        <v>2040</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23691,13 +23688,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2144</v>
+        <v>2041</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2145</v>
+        <v>2042</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23711,13 +23708,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2146</v>
+        <v>2043</v>
       </c>
       <c r="B301" s="8">
         <v>1</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2147</v>
+        <v>2044</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23729,18 +23726,18 @@
         <v>980</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2148</v>
+        <v>2045</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2149</v>
+        <v>2046</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23752,18 +23749,18 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2150</v>
+        <v>2047</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2151</v>
+        <v>2048</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>980</v>
@@ -23775,7 +23772,7 @@
         <v>980</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2154</v>
+        <v>2051</v>
       </c>
     </row>
   </sheetData>
@@ -23812,8 +23809,8 @@
   <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23879,7 +23876,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2155</v>
+        <v>2052</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23915,12 +23912,12 @@
         <v>1266</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1599</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2156</v>
+        <v>2053</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -23956,12 +23953,12 @@
         <v>1266</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>1600</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2165</v>
+        <v>2062</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -23997,15 +23994,15 @@
         <v>1266</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>1601</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2161</v>
+        <v>2058</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24041,12 +24038,12 @@
         <v>1268</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>1602</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2160</v>
+        <v>2057</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24082,12 +24079,12 @@
         <v>1266</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>1603</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2163</v>
+        <v>2060</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24123,12 +24120,12 @@
         <v>1269</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>1604</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2162</v>
+        <v>2059</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24164,12 +24161,12 @@
         <v>1270</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>1605</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2157</v>
+        <v>2054</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24205,12 +24202,12 @@
         <v>1271</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>1606</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2158</v>
+        <v>2055</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24246,12 +24243,12 @@
         <v>1272</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>1607</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2166</v>
+        <v>2063</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24287,12 +24284,12 @@
         <v>1273</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>1608</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2164</v>
+        <v>2061</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24328,12 +24325,12 @@
         <v>1274</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>1609</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2159</v>
+        <v>2056</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24369,12 +24366,12 @@
         <v>1275</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>1610</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2167</v>
+        <v>2064</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24410,12 +24407,12 @@
         <v>1276</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>1611</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2169</v>
+        <v>2066</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24448,18 +24445,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>1612</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2168</v>
+        <v>2065</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24495,12 +24492,12 @@
         <v>1276</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>1613</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2170</v>
+        <v>2067</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24533,18 +24530,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>1614</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2171</v>
+        <v>2068</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24577,18 +24574,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="M18" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>1615</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2172</v>
+        <v>2069</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24621,18 +24618,18 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1998</v>
+        <v>1895</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>1616</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2173</v>
+        <v>2070</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24665,18 +24662,18 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1999</v>
+        <v>1896</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>1616</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2174</v>
+        <v>2071</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24712,12 +24709,12 @@
         <v>1266</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>1617</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2156</v>
+        <v>2053</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24753,12 +24750,12 @@
         <v>1266</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>1600</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2165</v>
+        <v>2062</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -24794,15 +24791,15 @@
         <v>1266</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>1618</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2178</v>
+        <v>2075</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -24835,18 +24832,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>1619</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2175</v>
+        <v>2072</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24879,15 +24876,15 @@
         <v>0</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>1620</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2180</v>
+        <v>2077</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -24920,15 +24917,15 @@
         <v>0</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>1621</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2176</v>
+        <v>2073</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -24961,15 +24958,15 @@
         <v>15</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>1622</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2177</v>
+        <v>2074</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -25002,15 +24999,15 @@
         <v>0</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>1623</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2185</v>
+        <v>2082</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25043,15 +25040,15 @@
         <v>0</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>1624</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2186</v>
+        <v>2083</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25084,15 +25081,15 @@
         <v>0</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>1625</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2182</v>
+        <v>2079</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25125,15 +25122,15 @@
         <v>0</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>1626</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2183</v>
+        <v>2080</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25169,12 +25166,12 @@
         <v>1266</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>1627</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2179</v>
+        <v>2076</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25210,12 +25207,12 @@
         <v>1266</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>1628</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2184</v>
+        <v>2081</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25248,15 +25245,15 @@
         <v>0</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>1629</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2187</v>
+        <v>2084</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25289,15 +25286,15 @@
         <v>0</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>1630</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>1277</v>
+        <v>2066</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25330,18 +25327,18 @@
         <v>0</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M36" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>1631</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2181</v>
+        <v>2078</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25377,12 +25374,12 @@
         <v>1276</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>1632</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2188</v>
+        <v>2085</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25415,18 +25412,18 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1997</v>
+        <v>1894</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>1633</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2189</v>
+        <v>2086</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25459,18 +25456,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>1634</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2190</v>
+        <v>2087</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25509,12 +25506,12 @@
         <v>992</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>1635</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2191</v>
+        <v>2088</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25547,18 +25544,18 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1996</v>
+        <v>1893</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>1636</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>1292</v>
+        <v>2089</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25591,15 +25588,15 @@
         <v>0</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>1637</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>1294</v>
+        <v>2092</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -25632,18 +25629,18 @@
         <v>0</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>1638</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>1296</v>
+        <v>2090</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25679,12 +25676,12 @@
         <v>1266</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>1639</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>1297</v>
+        <v>2094</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25720,12 +25717,12 @@
         <v>1266</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>1640</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>1298</v>
+        <v>2106</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25761,12 +25758,12 @@
         <v>1266</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>1641</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>1299</v>
+        <v>2095</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25799,15 +25796,15 @@
         <v>0</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>1642</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>1301</v>
+        <v>2091</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25840,15 +25837,15 @@
         <v>0</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>1643</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>1303</v>
+        <v>2096</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25881,15 +25878,15 @@
         <v>0</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>1644</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>1464</v>
+        <v>2093</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -25925,12 +25922,12 @@
         <v>1266</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>1645</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>1468</v>
+        <v>2104</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -25963,15 +25960,15 @@
         <v>0</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>1646</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>1306</v>
+        <v>2098</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26004,15 +26001,15 @@
         <v>0</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>1647</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>1308</v>
+        <v>2099</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -26045,18 +26042,18 @@
         <v>0</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="M53" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N53" s="27" t="s">
-        <v>1648</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>1310</v>
+        <v>2101</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26089,15 +26086,15 @@
         <v>0</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>1649</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>1465</v>
+        <v>2103</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26130,15 +26127,15 @@
         <v>0</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="N55" s="27" t="s">
-        <v>1650</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>1313</v>
+        <v>2100</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26171,15 +26168,15 @@
         <v>0</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="N56" s="27" t="s">
-        <v>1651</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>1315</v>
+        <v>2097</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26215,12 +26212,12 @@
         <v>1276</v>
       </c>
       <c r="N57" s="27" t="s">
-        <v>1652</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>1316</v>
+        <v>2102</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26256,12 +26253,12 @@
         <v>1276</v>
       </c>
       <c r="N58" s="27" t="s">
-        <v>1653</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>1317</v>
+        <v>2105</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26294,15 +26291,15 @@
         <v>0</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>1654</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>1319</v>
+        <v>2107</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26335,18 +26332,18 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1942</v>
+        <v>1839</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N60" s="27" t="s">
-        <v>1655</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>1320</v>
+        <v>2108</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -26379,18 +26376,18 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>1943</v>
+        <v>1840</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>1656</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>1321</v>
+        <v>2109</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26423,18 +26420,18 @@
         <v>0</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>1322</v>
+        <v>1303</v>
       </c>
       <c r="M62" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>1657</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>1323</v>
+        <v>2110</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26467,18 +26464,18 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>1995</v>
+        <v>1892</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>1658</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>1324</v>
+        <v>2111</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26511,18 +26508,18 @@
         <v>0</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="M64" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>1659</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>1466</v>
+        <v>2112</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26555,16 +26552,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
       <c r="M65" s="28"/>
       <c r="N65" s="27" t="s">
-        <v>1660</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>1327</v>
+        <v>2117</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -26597,18 +26594,18 @@
         <v>0</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>1328</v>
+        <v>1306</v>
       </c>
       <c r="M66" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>1661</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>1329</v>
+        <v>2127</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26641,15 +26638,15 @@
         <v>0</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>1330</v>
+        <v>1307</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>1662</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>1331</v>
+        <v>2125</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26682,15 +26679,15 @@
         <v>0</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>1332</v>
+        <v>1308</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>1663</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>1333</v>
+        <v>2116</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26723,15 +26720,15 @@
         <v>0</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>1664</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>1335</v>
+        <v>2123</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26764,15 +26761,15 @@
         <v>0</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>1336</v>
+        <v>1310</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>1665</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>1337</v>
+        <v>2119</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -26805,18 +26802,18 @@
         <v>0</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>1666</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>1339</v>
+        <v>2120</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26849,15 +26846,15 @@
         <v>0</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>1340</v>
+        <v>1312</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>1667</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>1341</v>
+        <v>2113</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26890,15 +26887,15 @@
         <v>0</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>1668</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>1343</v>
+        <v>2118</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -26931,15 +26928,15 @@
         <v>0</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>1344</v>
+        <v>1314</v>
       </c>
       <c r="N74" s="27" t="s">
-        <v>1669</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>1474</v>
+        <v>2115</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -26972,15 +26969,15 @@
         <v>0</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>1345</v>
+        <v>1315</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>1670</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>1346</v>
+        <v>2126</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27013,15 +27010,15 @@
         <v>0</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>1347</v>
+        <v>1316</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>1671</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>1348</v>
+        <v>2121</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27054,15 +27051,15 @@
         <v>0</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>1672</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>1349</v>
+        <v>2114</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27095,15 +27092,15 @@
         <v>0</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>1350</v>
+        <v>1317</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>1673</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>1351</v>
+        <v>2122</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27136,15 +27133,15 @@
         <v>0</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>1352</v>
+        <v>1318</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>1674</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>1471</v>
+        <v>2128</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -27177,18 +27174,18 @@
         <v>0</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>1353</v>
+        <v>1319</v>
       </c>
       <c r="M80" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>1675</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>1354</v>
+        <v>2124</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27221,15 +27218,15 @@
         <v>0</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>1355</v>
+        <v>1320</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>1676</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>1356</v>
+        <v>2129</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27262,18 +27259,18 @@
         <v>0</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>1994</v>
+        <v>1891</v>
       </c>
       <c r="M82" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>1677</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>1357</v>
+        <v>2130</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27306,18 +27303,18 @@
         <v>-1</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>1358</v>
+        <v>1321</v>
       </c>
       <c r="M83" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>1678</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>1359</v>
+        <v>2131</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27348,15 +27345,15 @@
         <v>-1</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>1748</v>
+        <v>1645</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>1679</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>1360</v>
+        <v>2132</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27389,15 +27386,15 @@
         <v>0</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="N85" s="27" t="s">
-        <v>1680</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>1361</v>
+        <v>2151</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27430,15 +27427,15 @@
         <v>0</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>1362</v>
+        <v>1322</v>
       </c>
       <c r="N86" s="27" t="s">
-        <v>1681</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>1470</v>
+        <v>2134</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -27474,15 +27471,15 @@
         <v>1266</v>
       </c>
       <c r="M87" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N87" s="27" t="s">
-        <v>1682</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>1363</v>
+        <v>2142</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27515,15 +27512,15 @@
         <v>0</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>1364</v>
+        <v>1323</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>1683</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>1365</v>
+        <v>2143</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -27556,18 +27553,18 @@
         <v>0</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>1366</v>
+        <v>1324</v>
       </c>
       <c r="M89" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N89" s="27" t="s">
-        <v>1684</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>1367</v>
+        <v>2152</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27600,15 +27597,15 @@
         <v>0</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>1685</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>1368</v>
+        <v>2133</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27641,15 +27638,15 @@
         <v>0</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>1369</v>
+        <v>1325</v>
       </c>
       <c r="N91" s="27" t="s">
-        <v>1686</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>1370</v>
+        <v>2138</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -27682,18 +27679,18 @@
         <v>0</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>1371</v>
+        <v>1326</v>
       </c>
       <c r="M92" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N92" s="27" t="s">
-        <v>1687</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>1372</v>
+        <v>2140</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27726,15 +27723,15 @@
         <v>0</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>1373</v>
+        <v>1327</v>
       </c>
       <c r="N93" s="27" t="s">
-        <v>1688</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>1374</v>
+        <v>2149</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27767,15 +27764,15 @@
         <v>0</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="N94" s="27" t="s">
-        <v>1689</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>1375</v>
+        <v>2144</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27808,15 +27805,15 @@
         <v>0</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>1376</v>
+        <v>1328</v>
       </c>
       <c r="N95" s="27" t="s">
-        <v>1690</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>1377</v>
+        <v>2135</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27849,15 +27846,15 @@
         <v>0</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>1378</v>
+        <v>1329</v>
       </c>
       <c r="N96" s="27" t="s">
-        <v>1691</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>1379</v>
+        <v>2139</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27890,15 +27887,15 @@
         <v>0</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>1380</v>
+        <v>1330</v>
       </c>
       <c r="N97" s="27" t="s">
-        <v>1692</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>1381</v>
+        <v>2146</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -27931,15 +27928,15 @@
         <v>0</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="N98" s="27" t="s">
-        <v>1693</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>1382</v>
+        <v>2137</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -27972,15 +27969,15 @@
         <v>0</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>1383</v>
+        <v>1331</v>
       </c>
       <c r="N99" s="27" t="s">
-        <v>1694</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>1384</v>
+        <v>2141</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28013,15 +28010,15 @@
         <v>0</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>1385</v>
+        <v>1332</v>
       </c>
       <c r="N100" s="27" t="s">
-        <v>1695</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>1386</v>
+        <v>2147</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28054,15 +28051,15 @@
         <v>0</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>1387</v>
+        <v>1333</v>
       </c>
       <c r="N101" s="27" t="s">
-        <v>1696</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>1388</v>
+        <v>2145</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28095,15 +28092,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>1389</v>
+        <v>1334</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>1697</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>1467</v>
+        <v>2136</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28136,15 +28133,15 @@
         <v>0</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>1387</v>
+        <v>1333</v>
       </c>
       <c r="N103" s="27" t="s">
-        <v>1698</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>1390</v>
+        <v>2150</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28177,15 +28174,15 @@
         <v>0</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>1391</v>
+        <v>1335</v>
       </c>
       <c r="N104" s="27" t="s">
-        <v>1699</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>1392</v>
+        <v>2148</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28218,15 +28215,15 @@
         <v>0</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="N105" s="27" t="s">
-        <v>1700</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>1393</v>
+        <v>2153</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28259,15 +28256,15 @@
         <v>0</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>1394</v>
+        <v>1336</v>
       </c>
       <c r="N106" s="27" t="s">
-        <v>1701</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>1395</v>
+        <v>2154</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28300,18 +28297,18 @@
         <v>0</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>1396</v>
+        <v>1337</v>
       </c>
       <c r="M107" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N107" s="27" t="s">
-        <v>1702</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>1397</v>
+        <v>2155</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28344,18 +28341,18 @@
         <v>100</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>1398</v>
+        <v>1338</v>
       </c>
       <c r="M108" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N108" s="27" t="s">
-        <v>1703</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>1399</v>
+        <v>2156</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28388,18 +28385,18 @@
         <v>0</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>1400</v>
+        <v>1339</v>
       </c>
       <c r="M109" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N109" s="27" t="s">
-        <v>1704</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>1401</v>
+        <v>2157</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28432,18 +28429,18 @@
         <v>0</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>1993</v>
+        <v>1890</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N110" s="27" t="s">
-        <v>1704</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>1402</v>
+        <v>2158</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28476,18 +28473,18 @@
         <v>0</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>1469</v>
+        <v>1369</v>
       </c>
       <c r="M111" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N111" s="27" t="s">
-        <v>1705</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>1403</v>
+        <v>2159</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28520,15 +28517,15 @@
         <v>0</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="N112" s="27" t="s">
-        <v>1706</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>1404</v>
+        <v>2171</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -28561,18 +28558,18 @@
         <v>0</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>1405</v>
+        <v>1340</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N113" s="27" t="s">
-        <v>1707</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>1406</v>
+        <v>2163</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -28605,18 +28602,18 @@
         <v>0</v>
       </c>
       <c r="L114" s="23" t="s">
-        <v>1407</v>
+        <v>1341</v>
       </c>
       <c r="M114" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N114" s="27" t="s">
-        <v>1708</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>1408</v>
+        <v>2176</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28649,15 +28646,15 @@
         <v>0</v>
       </c>
       <c r="L115" s="23" t="s">
-        <v>1409</v>
+        <v>1342</v>
       </c>
       <c r="N115" s="27" t="s">
-        <v>1709</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>1410</v>
+        <v>2165</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28690,15 +28687,15 @@
         <v>0</v>
       </c>
       <c r="L116" s="23" t="s">
-        <v>1411</v>
+        <v>1343</v>
       </c>
       <c r="N116" s="27" t="s">
-        <v>1710</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>1412</v>
+        <v>2177</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28731,15 +28728,15 @@
         <v>0</v>
       </c>
       <c r="L117" s="23" t="s">
-        <v>1413</v>
+        <v>1344</v>
       </c>
       <c r="N117" s="27" t="s">
-        <v>1711</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>1414</v>
+        <v>2161</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28772,15 +28769,15 @@
         <v>0</v>
       </c>
       <c r="L118" s="23" t="s">
-        <v>1415</v>
+        <v>1345</v>
       </c>
       <c r="N118" s="27" t="s">
-        <v>1712</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>1416</v>
+        <v>2162</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -28813,18 +28810,18 @@
         <v>0</v>
       </c>
       <c r="L119" s="23" t="s">
-        <v>1417</v>
+        <v>1346</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N119" s="27" t="s">
-        <v>1713</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>1418</v>
+        <v>2175</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28857,15 +28854,15 @@
         <v>0</v>
       </c>
       <c r="L120" s="23" t="s">
-        <v>1419</v>
+        <v>1347</v>
       </c>
       <c r="N120" s="27" t="s">
-        <v>1714</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>1420</v>
+        <v>2170</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -28898,18 +28895,18 @@
         <v>0</v>
       </c>
       <c r="L121" s="23" t="s">
-        <v>1421</v>
+        <v>1348</v>
       </c>
       <c r="M121" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N121" s="27" t="s">
-        <v>1715</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>1422</v>
+        <v>2189</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -28942,15 +28939,15 @@
         <v>0</v>
       </c>
       <c r="L122" s="23" t="s">
-        <v>1423</v>
+        <v>1349</v>
       </c>
       <c r="N122" s="27" t="s">
-        <v>1716</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>1424</v>
+        <v>2167</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -28983,15 +28980,15 @@
         <v>0</v>
       </c>
       <c r="L123" s="23" t="s">
-        <v>1425</v>
+        <v>1350</v>
       </c>
       <c r="N123" s="27" t="s">
-        <v>1717</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>1426</v>
+        <v>2160</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29024,15 +29021,15 @@
         <v>0</v>
       </c>
       <c r="L124" s="23" t="s">
-        <v>1427</v>
+        <v>1351</v>
       </c>
       <c r="N124" s="27" t="s">
-        <v>1718</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>1428</v>
+        <v>2188</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29065,15 +29062,15 @@
         <v>0</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>1429</v>
+        <v>1352</v>
       </c>
       <c r="N125" s="27" t="s">
-        <v>1719</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>1430</v>
+        <v>2173</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29106,15 +29103,15 @@
         <v>0</v>
       </c>
       <c r="L126" s="23" t="s">
-        <v>1431</v>
+        <v>1353</v>
       </c>
       <c r="N126" s="27" t="s">
-        <v>1720</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>1432</v>
+        <v>2168</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29147,15 +29144,15 @@
         <v>0</v>
       </c>
       <c r="L127" s="23" t="s">
-        <v>1433</v>
+        <v>1354</v>
       </c>
       <c r="N127" s="27" t="s">
-        <v>1721</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>1434</v>
+        <v>2172</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -29188,18 +29185,18 @@
         <v>0</v>
       </c>
       <c r="L128" s="23" t="s">
-        <v>1435</v>
+        <v>1355</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N128" s="27" t="s">
-        <v>1722</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>1436</v>
+        <v>2174</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -29232,18 +29229,18 @@
         <v>0</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>1437</v>
+        <v>1356</v>
       </c>
       <c r="M129" s="25" t="s">
-        <v>1463</v>
+        <v>1368</v>
       </c>
       <c r="N129" s="27" t="s">
-        <v>1723</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>1438</v>
+        <v>2164</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29276,15 +29273,15 @@
         <v>0</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>1439</v>
+        <v>1357</v>
       </c>
       <c r="N130" s="27" t="s">
-        <v>1724</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>1440</v>
+        <v>2169</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29317,15 +29314,15 @@
         <v>0</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>1441</v>
+        <v>1358</v>
       </c>
       <c r="N131" s="27" t="s">
-        <v>1725</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>1442</v>
+        <v>2178</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29358,15 +29355,15 @@
         <v>0</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>1443</v>
+        <v>1359</v>
       </c>
       <c r="N132" s="27" t="s">
-        <v>1726</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>1444</v>
+        <v>2166</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29399,15 +29396,15 @@
         <v>0</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>1445</v>
+        <v>1360</v>
       </c>
       <c r="N133" s="27" t="s">
-        <v>1727</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>1446</v>
+        <v>2190</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29440,15 +29437,15 @@
         <v>0</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>1447</v>
+        <v>1361</v>
       </c>
       <c r="N134" s="27" t="s">
-        <v>1728</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>1448</v>
+        <v>2179</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29481,18 +29478,18 @@
         <v>0</v>
       </c>
       <c r="L135" s="23" t="s">
-        <v>1449</v>
+        <v>1362</v>
       </c>
       <c r="M135" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N135" s="27" t="s">
-        <v>1729</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>1450</v>
+        <v>2180</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29525,18 +29522,18 @@
         <v>0</v>
       </c>
       <c r="L136" s="23" t="s">
-        <v>1451</v>
+        <v>1363</v>
       </c>
       <c r="M136" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N136" s="27" t="s">
-        <v>1730</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>1452</v>
+        <v>2181</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29569,18 +29566,18 @@
         <v>0</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>1992</v>
+        <v>1889</v>
       </c>
       <c r="M137" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N137" s="27" t="s">
-        <v>1731</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>1453</v>
+        <v>2182</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29613,18 +29610,18 @@
         <v>0</v>
       </c>
       <c r="L138" s="23" t="s">
-        <v>1454</v>
+        <v>1364</v>
       </c>
       <c r="M138" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N138" s="27" t="s">
-        <v>1732</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>1455</v>
+        <v>2183</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29657,18 +29654,18 @@
         <v>0</v>
       </c>
       <c r="L139" s="23" t="s">
-        <v>1456</v>
+        <v>1365</v>
       </c>
       <c r="M139" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N139" s="27" t="s">
-        <v>1733</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>1457</v>
+        <v>2184</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29701,18 +29698,18 @@
         <v>0</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>1991</v>
+        <v>1888</v>
       </c>
       <c r="M140" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N140" s="27" t="s">
-        <v>1734</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>1458</v>
+        <v>2185</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29745,18 +29742,18 @@
         <v>0</v>
       </c>
       <c r="L141" s="23" t="s">
-        <v>1459</v>
+        <v>1366</v>
       </c>
       <c r="M141" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N141" s="27" t="s">
-        <v>1735</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>1460</v>
+        <v>2186</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29789,18 +29786,18 @@
         <v>0</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1990</v>
+        <v>1887</v>
       </c>
       <c r="M142" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N142" s="27" t="s">
-        <v>1734</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>1461</v>
+        <v>2187</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -29833,13 +29830,13 @@
         <v>0</v>
       </c>
       <c r="L143" s="23" t="s">
-        <v>1462</v>
+        <v>1367</v>
       </c>
       <c r="M143" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N143" s="27" t="s">
-        <v>1735</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="158" spans="14:14" ht="26.5" x14ac:dyDescent="0.35">
@@ -30080,7 +30077,7 @@
         <v>1082</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>2000</v>
+        <v>1897</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>1157</v>
@@ -30092,7 +30089,7 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>2007</v>
+        <v>1904</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
@@ -30101,7 +30098,7 @@
         <v>1225</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>1585</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30142,7 +30139,7 @@
         <v>1226</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>1579</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30162,7 +30159,7 @@
         <v>1086</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>2002</v>
+        <v>1899</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>1159</v>
@@ -30183,7 +30180,7 @@
         <v>1227</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>1584</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30203,7 +30200,7 @@
         <v>1088</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>2001</v>
+        <v>1898</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1156</v>
@@ -30215,7 +30212,7 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>2008</v>
+        <v>1905</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
@@ -30224,7 +30221,7 @@
         <v>1228</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>1580</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30244,7 +30241,7 @@
         <v>1090</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>2003</v>
+        <v>1900</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>1160</v>
@@ -30256,7 +30253,7 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>2006</v>
+        <v>1903</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
@@ -30265,7 +30262,7 @@
         <v>1229</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>1590</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30306,7 +30303,7 @@
         <v>1230</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>1568</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30326,7 +30323,7 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>2004</v>
+        <v>1901</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1161</v>
@@ -30338,16 +30335,16 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>2009</v>
+        <v>1906</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>2010</v>
+        <v>1907</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>1583</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30367,7 +30364,7 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>2005</v>
+        <v>1902</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1162</v>
@@ -30388,7 +30385,7 @@
         <v>1231</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>1589</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30408,7 +30405,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>2011</v>
+        <v>1908</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1164</v>
@@ -30429,7 +30426,7 @@
         <v>1232</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>1587</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30470,7 +30467,7 @@
         <v>1233</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>1588</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
@@ -30490,7 +30487,7 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>2012</v>
+        <v>1909</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1175</v>
@@ -30511,7 +30508,7 @@
         <v>1235</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>1582</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="145" x14ac:dyDescent="0.35">
@@ -30531,7 +30528,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>2013</v>
+        <v>1910</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1168</v>
@@ -30552,7 +30549,7 @@
         <v>1237</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>1567</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30572,7 +30569,7 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>2014</v>
+        <v>1911</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1173</v>
@@ -30584,7 +30581,7 @@
         <v>1172</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>2015</v>
+        <v>1912</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>1238</v>
@@ -30593,7 +30590,7 @@
         <v>1239</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>1576</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30634,7 +30631,7 @@
         <v>1241</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>1570</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30654,7 +30651,7 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>2016</v>
+        <v>1913</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1179</v>
@@ -30666,16 +30663,16 @@
         <v>1181</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>2017</v>
+        <v>1914</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>1242</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>2018</v>
+        <v>1915</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>1571</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30695,7 +30692,7 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>2019</v>
+        <v>1916</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1264</v>
@@ -30707,7 +30704,7 @@
         <v>1183</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>2020</v>
+        <v>1917</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1243</v>
@@ -30716,7 +30713,7 @@
         <v>1244</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>1575</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
@@ -30736,7 +30733,7 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>2021</v>
+        <v>1918</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1185</v>
@@ -30757,7 +30754,7 @@
         <v>1246</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>1574</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30798,7 +30795,7 @@
         <v>1248</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>1569</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30839,7 +30836,7 @@
         <v>1250</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>1572</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30871,7 +30868,7 @@
         <v>1205</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>2022</v>
+        <v>1919</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1251</v>
@@ -30880,7 +30877,7 @@
         <v>1252</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>1573</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30900,7 +30897,7 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>2023</v>
+        <v>1920</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1206</v>
@@ -30924,7 +30921,7 @@
         <v>1209</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>1581</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30968,7 +30965,7 @@
         <v>1219</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>1578</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -31012,7 +31009,7 @@
         <v>1220</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>1586</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -31032,7 +31029,7 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>2024</v>
+        <v>1921</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1221</v>
@@ -31050,13 +31047,13 @@
         <v>1222</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>2025</v>
+        <v>1922</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>1577</v>
+        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -31169,7 +31166,7 @@
         <v>661</v>
       </c>
       <c r="C8" t="s">
-        <v>1736</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -31180,7 +31177,7 @@
         <v>989</v>
       </c>
       <c r="C9" t="s">
-        <v>1737</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -31191,7 +31188,7 @@
         <v>649</v>
       </c>
       <c r="C10" t="s">
-        <v>1738</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -31202,7 +31199,7 @@
         <v>661</v>
       </c>
       <c r="C11" t="s">
-        <v>1739</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -31213,7 +31210,7 @@
         <v>989</v>
       </c>
       <c r="C12" t="s">
-        <v>1740</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -31224,7 +31221,7 @@
         <v>649</v>
       </c>
       <c r="C13" t="s">
-        <v>1741</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -31235,7 +31232,7 @@
         <v>661</v>
       </c>
       <c r="C14" t="s">
-        <v>1742</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -31246,7 +31243,7 @@
         <v>989</v>
       </c>
       <c r="C15" t="s">
-        <v>1743</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -31257,7 +31254,7 @@
         <v>649</v>
       </c>
       <c r="C16" t="s">
-        <v>1744</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -31268,7 +31265,7 @@
         <v>661</v>
       </c>
       <c r="C17" t="s">
-        <v>1745</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -31279,7 +31276,7 @@
         <v>989</v>
       </c>
       <c r="C18" t="s">
-        <v>1746</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -31290,7 +31287,7 @@
         <v>649</v>
       </c>
       <c r="C19" t="s">
-        <v>1747</v>
+        <v>1644</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019EFD7E-2A60-46C3-A2C3-7B6BA4CCB52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE62B8-C40C-4B29-9FBF-10368518DBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -3777,10 +3777,6 @@
     <t>Temple of Strenth</t>
   </si>
   <si>
-    <t>**Miko** (90/90/90:moneybag:): 1 extra miko every upgrade. Each increases the coin income by 50; Or the miko casts Ofuda spell with 20/15/12s cooldown which makes 4 random allies immune to spirte curse
-**henkei-no-nusa** (150:moneybag:): 20s cooldown, the tower polymorphizes one ground enemy in range 2.5, reduces its HP by 75% and moveSpeed by 50%, removes its armor, and silences it, last 10s</t>
-  </si>
-  <si>
     <t>6:star:**Tetsuyoroi**: HP of samurais is increase bu ~50% (already counted in level upgrades)
 8:star:**Sekkou**: Delpoy range is increased from 2.5 to 3.5
 10:star:**Kinben-na**: The upgrade price is reduced by ~10% (already counted in level upgrades)</t>
@@ -6991,6 +6987,10 @@
   </si>
   <si>
     <t>Oni-kanadzuchi</t>
+  </si>
+  <si>
+    <t>**Miko** (90/90/90:moneybag:): 1 extra miko every upgrade. Each increases the coin income by 50; Or the miko casts Ofuda spell with 20/15/12s cooldown which makes 4 random allies immune to spirit curse
+**henkei-no-nusa** (150:moneybag:): 20s cooldown, the tower polymorphizes one ground enemy in range 2.5, reduces its HP by 75% and moveSpeed by 50%, removes its armor, and silences it, last 10s</t>
   </si>
 </sst>
 </file>
@@ -7661,7 +7661,7 @@
         <v>592</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -7735,7 +7735,7 @@
         <v>334</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -7809,7 +7809,7 @@
         <v>333</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -7883,7 +7883,7 @@
         <v>332</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -7957,7 +7957,7 @@
         <v>331</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -8031,7 +8031,7 @@
         <v>335</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -8105,7 +8105,7 @@
         <v>336</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -8179,7 +8179,7 @@
         <v>337</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -8253,7 +8253,7 @@
         <v>338</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -8327,7 +8327,7 @@
         <v>339</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -8401,7 +8401,7 @@
         <v>340</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8475,7 +8475,7 @@
         <v>341</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8549,7 +8549,7 @@
         <v>342</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8623,7 +8623,7 @@
         <v>343</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -8697,7 +8697,7 @@
         <v>344</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8771,7 +8771,7 @@
         <v>345</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -8845,7 +8845,7 @@
         <v>346</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -8919,7 +8919,7 @@
         <v>347</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -8993,7 +8993,7 @@
         <v>348</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -9067,7 +9067,7 @@
         <v>349</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
@@ -9141,7 +9141,7 @@
         <v>350</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -9215,7 +9215,7 @@
         <v>593</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -9289,7 +9289,7 @@
         <v>594</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
   </sheetData>
@@ -9368,7 +9368,7 @@
         <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1184</v>
@@ -9391,7 +9391,7 @@
         <v>-2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9414,7 +9414,7 @@
         <v>-1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9434,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9460,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9483,7 +9483,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9506,7 +9506,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9578,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9604,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9627,7 +9627,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9650,7 +9650,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -9691,7 +9691,7 @@
         <v>-2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9714,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9740,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9763,10 +9763,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -9777,7 +9777,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -9789,7 +9789,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -9812,13 +9812,13 @@
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -9827,7 +9827,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G25" s="1">
         <v>-3</v>
@@ -9867,7 +9867,7 @@
         <v>-1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9939,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -9962,10 +9962,10 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -9976,7 +9976,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>264</v>
@@ -10023,7 +10023,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10043,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10069,10 +10069,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10095,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10118,10 +10118,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10156,13 +10156,13 @@
         <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G42" s="1">
         <v>-1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10231,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10257,12 +10257,12 @@
         <v>3</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>91</v>
@@ -10274,7 +10274,7 @@
         <v>264</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G47" s="1">
         <v>4</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="48" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>91</v>
@@ -10295,7 +10295,7 @@
         <v>272</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -10305,7 +10305,7 @@
     <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
@@ -10314,7 +10314,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G50" s="1">
         <v>-3</v>
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10394,10 +10394,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -10420,7 +10420,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -10443,7 +10443,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10464,7 +10464,7 @@
         <v>-2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10510,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -10533,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10556,12 +10556,12 @@
         <v>3</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -10587,7 +10587,7 @@
         <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>264</v>
@@ -10620,7 +10620,7 @@
         <v>-2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10663,10 +10663,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10686,10 +10686,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10712,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -10732,7 +10732,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10743,7 +10743,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>264</v>
@@ -10780,7 +10780,7 @@
         <v>-2</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10800,10 +10800,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10826,10 +10826,10 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10852,7 +10852,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10875,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10886,7 +10886,7 @@
         <v>44</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>268</v>
@@ -10906,7 +10906,7 @@
         <v>44</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>264</v>
@@ -10939,7 +10939,7 @@
         <v>-2</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10956,13 +10956,13 @@
         <v>145</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10973,7 +10973,7 @@
         <v>141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -10985,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11008,7 +11008,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11031,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11042,7 +11042,7 @@
         <v>151</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>264</v>
@@ -11057,7 +11057,7 @@
     <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -11066,7 +11066,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G89" s="1">
         <v>-3</v>
@@ -11089,7 +11089,7 @@
         <v>-2</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11132,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11155,7 +11155,7 @@
         <v>2</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11178,7 +11178,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -11189,7 +11189,7 @@
         <v>45</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>264</v>
@@ -11204,7 +11204,7 @@
     <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>46</v>
@@ -11213,7 +11213,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G97" s="1">
         <v>-3</v>
@@ -11233,13 +11233,13 @@
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G98" s="1">
         <v>-2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11305,7 +11305,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11328,10 +11328,10 @@
         <v>3</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11352,7 +11352,7 @@
         <v>-2</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11401,10 +11401,10 @@
         <v>1</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -11415,7 +11415,7 @@
         <v>171</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>37</v>
@@ -11427,7 +11427,7 @@
         <v>2</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11438,7 +11438,7 @@
         <v>171</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>38</v>
@@ -11450,13 +11450,13 @@
         <v>3</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>181</v>
@@ -11465,7 +11465,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G110" s="1">
         <v>-3</v>
@@ -11488,7 +11488,7 @@
         <v>-2</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11508,10 +11508,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11534,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="20" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11557,10 +11557,10 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11583,13 +11583,13 @@
         <v>3</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>190</v>
@@ -11598,7 +11598,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G117" s="1">
         <v>-3</v>
@@ -11621,7 +11621,7 @@
         <v>-2</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11641,10 +11641,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I119" s="20" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11690,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -11701,7 +11701,7 @@
         <v>190</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>38</v>
@@ -11713,10 +11713,10 @@
         <v>3</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11739,12 +11739,12 @@
         <v>4</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>199</v>
@@ -11753,7 +11753,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G125" s="1">
         <v>-3</v>
@@ -11776,7 +11776,7 @@
         <v>-2</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11796,10 +11796,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11822,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11845,7 +11845,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="20" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11868,7 +11868,7 @@
         <v>3</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11879,7 +11879,7 @@
         <v>199</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>264</v>
@@ -11909,7 +11909,7 @@
         <v>-2</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -11946,10 +11946,10 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I135" s="20" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11969,10 +11969,10 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11992,10 +11992,10 @@
         <v>2</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12015,10 +12015,10 @@
         <v>3</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I138" s="20" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12133,7 +12133,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -12153,10 +12153,10 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12179,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="20" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12202,7 +12202,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="20" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12225,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="I149" s="20" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12236,7 +12236,7 @@
         <v>222</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>270</v>
@@ -12303,7 +12303,7 @@
         <v>-1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="20" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="20" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12369,7 +12369,7 @@
         <v>2</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12392,7 +12392,7 @@
         <v>3</v>
       </c>
       <c r="I158" s="20" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12403,7 +12403,7 @@
         <v>238</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>264</v>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>278</v>
@@ -12426,7 +12426,7 @@
         <v>30</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G161" s="1">
         <v>-3</v>
@@ -12486,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="20" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12532,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="I166" s="20" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12555,21 +12555,21 @@
         <v>3</v>
       </c>
       <c r="I167" s="20" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G169" s="1">
         <v>-3</v>
@@ -12592,7 +12592,7 @@
         <v>-2</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12638,10 +12638,10 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I172" s="20" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -12667,10 +12667,10 @@
         <v>2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I173" s="20" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12681,7 +12681,7 @@
         <v>595</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>38</v>
@@ -12693,7 +12693,7 @@
         <v>3</v>
       </c>
       <c r="I174" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12718,16 +12718,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G177" s="1">
         <v>-3</v>
@@ -12753,7 +12753,7 @@
         <v>-2</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="20" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12802,10 +12802,10 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I180" s="20" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12831,10 +12831,10 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I181" s="20" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12857,7 +12857,7 @@
         <v>3</v>
       </c>
       <c r="I182" s="20" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -13031,7 +13031,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -13087,7 +13087,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13101,7 +13101,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13115,7 +13115,7 @@
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13177,7 +13177,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13446,13 +13446,13 @@
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -13488,7 +13488,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -13516,7 +13516,7 @@
         <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13586,7 +13586,7 @@
         <v>320</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -13642,7 +13642,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13693,7 +13693,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -13777,7 +13777,7 @@
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -13861,7 +13861,7 @@
         <v>320</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -13926,7 +13926,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -14024,7 +14024,7 @@
         <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -14052,7 +14052,7 @@
         <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -14071,7 +14071,7 @@
     </row>
     <row r="85" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>91</v>
@@ -14080,12 +14080,12 @@
         <v>317</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>91</v>
@@ -14094,12 +14094,12 @@
         <v>316</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>91</v>
@@ -14108,12 +14108,12 @@
         <v>315</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>91</v>
@@ -14122,12 +14122,12 @@
         <v>314</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>91</v>
@@ -14136,12 +14136,12 @@
         <v>313</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
@@ -14150,18 +14150,18 @@
         <v>312</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -14183,7 +14183,7 @@
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -14349,7 +14349,7 @@
         <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -14405,7 +14405,7 @@
         <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -14526,7 +14526,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14610,7 +14610,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14624,7 +14624,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14638,7 +14638,7 @@
         <v>427</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -14748,7 +14748,7 @@
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -14818,7 +14818,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -14860,7 +14860,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14928,7 +14928,7 @@
         <v>320</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14984,18 +14984,18 @@
         <v>264</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -15151,13 +15151,13 @@
     </row>
     <row r="171" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -15210,7 +15210,7 @@
         <v>320</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -15336,7 +15336,7 @@
         <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15404,7 +15404,7 @@
         <v>320</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -15493,13 +15493,13 @@
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15580,7 +15580,7 @@
         <v>320</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -15608,7 +15608,7 @@
         <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15669,13 +15669,13 @@
     </row>
     <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15803,13 +15803,13 @@
     </row>
     <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15834,7 +15834,7 @@
         <v>320</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -15972,7 +15972,7 @@
         <v>47</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15986,7 +15986,7 @@
         <v>320</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -16014,7 +16014,7 @@
         <v>320</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16042,7 +16042,7 @@
         <v>270</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16056,7 +16056,7 @@
         <v>320</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -16084,7 +16084,7 @@
         <v>270</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16098,7 +16098,7 @@
         <v>320</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -16126,7 +16126,7 @@
         <v>270</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16140,7 +16140,7 @@
         <v>320</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16168,7 +16168,7 @@
         <v>270</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16224,7 +16224,7 @@
         <v>264</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16247,7 +16247,7 @@
         <v>222</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16303,7 +16303,7 @@
         <v>320</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -16331,7 +16331,7 @@
         <v>320</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -16359,7 +16359,7 @@
         <v>320</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16424,7 +16424,7 @@
         <v>234</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16480,7 +16480,7 @@
         <v>301</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16494,7 +16494,7 @@
         <v>320</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -16522,7 +16522,7 @@
         <v>320</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16555,13 +16555,13 @@
     </row>
     <row r="282" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -16583,7 +16583,7 @@
         <v>278</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -16625,7 +16625,7 @@
         <v>320</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -16681,7 +16681,7 @@
         <v>320</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -16700,13 +16700,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -16773,7 +16773,7 @@
         <v>320</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16787,7 +16787,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -16815,7 +16815,7 @@
         <v>320</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -16899,18 +16899,18 @@
         <v>271</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16963,7 +16963,7 @@
         <v>320</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16977,7 +16977,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -17005,7 +17005,7 @@
         <v>320</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17061,7 +17061,7 @@
         <v>320</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17075,7 +17075,7 @@
         <v>270</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
   </sheetData>
@@ -17170,7 +17170,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17193,7 +17193,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17216,7 +17216,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17285,7 +17285,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17308,7 +17308,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17377,7 +17377,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17400,7 +17400,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17423,7 +17423,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17446,7 +17446,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17469,7 +17469,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17492,7 +17492,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17515,7 +17515,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17538,7 +17538,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17561,7 +17561,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17584,7 +17584,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17607,7 +17607,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17630,7 +17630,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17653,7 +17653,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17676,7 +17676,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17699,7 +17699,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17722,7 +17722,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17745,7 +17745,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17768,7 +17768,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17791,7 +17791,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17814,7 +17814,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17837,7 +17837,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17860,7 +17860,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17883,7 +17883,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17906,7 +17906,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17929,7 +17929,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -17975,7 +17975,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18021,7 +18021,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18044,7 +18044,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18953,7 +18953,7 @@
         <v>980</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G82" s="18"/>
     </row>
@@ -18975,7 +18975,7 @@
         <v>980</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G83" s="18"/>
     </row>
@@ -18997,7 +18997,7 @@
         <v>980</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G84" s="18"/>
     </row>
@@ -19019,7 +19019,7 @@
         <v>980</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G85" s="18"/>
     </row>
@@ -19041,7 +19041,7 @@
         <v>980</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G86" s="18"/>
     </row>
@@ -19063,7 +19063,7 @@
         <v>980</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G87" s="18"/>
     </row>
@@ -19085,7 +19085,7 @@
         <v>980</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G88" s="18"/>
     </row>
@@ -19107,7 +19107,7 @@
         <v>980</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G89" s="18"/>
     </row>
@@ -19129,7 +19129,7 @@
         <v>980</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G90" s="18"/>
     </row>
@@ -19151,7 +19151,7 @@
         <v>980</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G91" t="s">
         <v>992</v>
@@ -19175,7 +19175,7 @@
         <v>980</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G92" s="18"/>
     </row>
@@ -19197,7 +19197,7 @@
         <v>980</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G93" s="18"/>
     </row>
@@ -19219,7 +19219,7 @@
         <v>980</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G94" s="18"/>
     </row>
@@ -19241,7 +19241,7 @@
         <v>980</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G95" s="18"/>
     </row>
@@ -19263,7 +19263,7 @@
         <v>980</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G96" s="18"/>
     </row>
@@ -19285,7 +19285,7 @@
         <v>980</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G97" s="18"/>
     </row>
@@ -19307,7 +19307,7 @@
         <v>980</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G98" s="18"/>
     </row>
@@ -19329,7 +19329,7 @@
         <v>980</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G99" s="18"/>
     </row>
@@ -19351,7 +19351,7 @@
         <v>980</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G100" s="18"/>
     </row>
@@ -19373,7 +19373,7 @@
         <v>980</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G101" t="s">
         <v>992</v>
@@ -19397,7 +19397,7 @@
         <v>980</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G102" s="18"/>
     </row>
@@ -19419,7 +19419,7 @@
         <v>980</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G103" s="18"/>
     </row>
@@ -19441,7 +19441,7 @@
         <v>980</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G104" s="18"/>
     </row>
@@ -19463,7 +19463,7 @@
         <v>980</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G105" s="18"/>
     </row>
@@ -19485,7 +19485,7 @@
         <v>980</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G106" s="18"/>
     </row>
@@ -19507,7 +19507,7 @@
         <v>980</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G107" s="18"/>
     </row>
@@ -19529,7 +19529,7 @@
         <v>980</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G108" s="18"/>
     </row>
@@ -19551,7 +19551,7 @@
         <v>980</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G109" s="18"/>
     </row>
@@ -19573,7 +19573,7 @@
         <v>980</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G110" s="18"/>
     </row>
@@ -19595,7 +19595,7 @@
         <v>980</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G111" t="s">
         <v>992</v>
@@ -19619,7 +19619,7 @@
         <v>980</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G112" s="18"/>
     </row>
@@ -19641,7 +19641,7 @@
         <v>980</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G113" s="18"/>
     </row>
@@ -19663,7 +19663,7 @@
         <v>980</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G114" s="18"/>
     </row>
@@ -19685,7 +19685,7 @@
         <v>980</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G115" s="18"/>
     </row>
@@ -19707,7 +19707,7 @@
         <v>980</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G116" s="18"/>
     </row>
@@ -19729,7 +19729,7 @@
         <v>980</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G117" s="18"/>
     </row>
@@ -19751,7 +19751,7 @@
         <v>980</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G118" s="18"/>
     </row>
@@ -19773,7 +19773,7 @@
         <v>980</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G119" s="18"/>
     </row>
@@ -19795,7 +19795,7 @@
         <v>980</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G120" s="18"/>
     </row>
@@ -19817,7 +19817,7 @@
         <v>980</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G121" t="s">
         <v>992</v>
@@ -19841,7 +19841,7 @@
         <v>980</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G122" s="18"/>
     </row>
@@ -19863,7 +19863,7 @@
         <v>980</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G123" s="18"/>
     </row>
@@ -19885,7 +19885,7 @@
         <v>980</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G124" s="18"/>
     </row>
@@ -19907,7 +19907,7 @@
         <v>980</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G125" s="18"/>
     </row>
@@ -19929,7 +19929,7 @@
         <v>980</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G126" s="18"/>
     </row>
@@ -19951,7 +19951,7 @@
         <v>980</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G127" s="18"/>
     </row>
@@ -19973,7 +19973,7 @@
         <v>980</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G128" s="18"/>
     </row>
@@ -19995,7 +19995,7 @@
         <v>980</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G129" s="18"/>
     </row>
@@ -20017,7 +20017,7 @@
         <v>980</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G130" s="18"/>
     </row>
@@ -20039,7 +20039,7 @@
         <v>980</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G131" t="s">
         <v>992</v>
@@ -20063,7 +20063,7 @@
         <v>980</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G132" s="18"/>
     </row>
@@ -20085,7 +20085,7 @@
         <v>980</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G133" s="18"/>
     </row>
@@ -20107,7 +20107,7 @@
         <v>980</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G134" s="18"/>
     </row>
@@ -20129,7 +20129,7 @@
         <v>980</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G135" s="18"/>
     </row>
@@ -20151,7 +20151,7 @@
         <v>980</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G136" s="18"/>
     </row>
@@ -20173,7 +20173,7 @@
         <v>980</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G137" s="18"/>
     </row>
@@ -20195,7 +20195,7 @@
         <v>980</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G138" s="18"/>
     </row>
@@ -20217,7 +20217,7 @@
         <v>980</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G139" s="18"/>
     </row>
@@ -20239,7 +20239,7 @@
         <v>980</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G140" s="18"/>
     </row>
@@ -20261,7 +20261,7 @@
         <v>980</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G141" t="s">
         <v>992</v>
@@ -20285,7 +20285,7 @@
         <v>980</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G142" s="18"/>
     </row>
@@ -20307,7 +20307,7 @@
         <v>980</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G143" s="18"/>
     </row>
@@ -20329,7 +20329,7 @@
         <v>980</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G144" s="18"/>
     </row>
@@ -20351,7 +20351,7 @@
         <v>980</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G145" s="18"/>
     </row>
@@ -20373,7 +20373,7 @@
         <v>980</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G146" s="18"/>
     </row>
@@ -20395,7 +20395,7 @@
         <v>980</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G147" s="18"/>
     </row>
@@ -20417,7 +20417,7 @@
         <v>980</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G148" s="18"/>
     </row>
@@ -20439,7 +20439,7 @@
         <v>980</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G149" s="18"/>
     </row>
@@ -20461,7 +20461,7 @@
         <v>980</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G150" s="18"/>
     </row>
@@ -20483,7 +20483,7 @@
         <v>980</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G151" t="s">
         <v>992</v>
@@ -20507,7 +20507,7 @@
         <v>980</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G152" s="18"/>
     </row>
@@ -20529,7 +20529,7 @@
         <v>980</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G153" s="18"/>
     </row>
@@ -20551,7 +20551,7 @@
         <v>980</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G154" s="18"/>
     </row>
@@ -20573,7 +20573,7 @@
         <v>980</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G155" s="18"/>
     </row>
@@ -20595,7 +20595,7 @@
         <v>980</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G156" s="18"/>
     </row>
@@ -20617,7 +20617,7 @@
         <v>980</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G157" s="18"/>
     </row>
@@ -20639,7 +20639,7 @@
         <v>980</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G158" s="18"/>
     </row>
@@ -20661,7 +20661,7 @@
         <v>980</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G159" s="18"/>
     </row>
@@ -20683,7 +20683,7 @@
         <v>980</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G160" s="18"/>
     </row>
@@ -20705,10 +20705,10 @@
         <v>980</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22489,13 +22489,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22509,13 +22509,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22529,13 +22529,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22549,13 +22549,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22569,13 +22569,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22592,13 +22592,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22612,13 +22612,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22632,13 +22632,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22652,13 +22652,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22672,13 +22672,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22692,13 +22692,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22712,13 +22712,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22732,13 +22732,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22752,13 +22752,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22772,13 +22772,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22795,13 +22795,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22815,13 +22815,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22835,13 +22835,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22855,13 +22855,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22875,13 +22875,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22895,13 +22895,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22915,13 +22915,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22935,13 +22935,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -22955,13 +22955,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -22978,13 +22978,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23001,13 +23001,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23021,13 +23021,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23041,13 +23041,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23064,13 +23064,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23084,13 +23084,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23104,13 +23104,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23127,13 +23127,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23147,13 +23147,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23167,13 +23167,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23187,13 +23187,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23210,13 +23210,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23230,13 +23230,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23250,13 +23250,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23270,13 +23270,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23290,13 +23290,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23310,13 +23310,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23330,13 +23330,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23350,13 +23350,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23370,13 +23370,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23390,13 +23390,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23410,13 +23410,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23430,13 +23430,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23450,13 +23450,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B289" s="8">
         <v>1</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23468,18 +23468,18 @@
         <v>980</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23491,18 +23491,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23514,18 +23514,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B292" s="8">
         <v>2</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23539,13 +23539,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23559,13 +23559,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23579,13 +23579,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B295" s="8">
         <v>1</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23597,18 +23597,18 @@
         <v>980</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23620,18 +23620,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23643,18 +23643,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B298" s="8">
         <v>2</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23668,13 +23668,13 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23688,13 +23688,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23708,13 +23708,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B301" s="8">
         <v>1</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23726,18 +23726,18 @@
         <v>980</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23749,18 +23749,18 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>980</v>
@@ -23772,7 +23772,7 @@
         <v>980</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -23808,7 +23808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78993A1-ED23-4BA3-9898-CFB8D57B537E}">
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
@@ -23876,7 +23876,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23909,15 +23909,15 @@
         <v>0</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -23950,21 +23950,21 @@
         <v>0</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D4" s="26">
         <v>150</v>
@@ -23991,18 +23991,18 @@
         <v>0</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24035,15 +24035,15 @@
         <v>0</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24076,15 +24076,15 @@
         <v>10</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24117,15 +24117,15 @@
         <v>0</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24158,15 +24158,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24199,15 +24199,15 @@
         <v>0</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24240,15 +24240,15 @@
         <v>0</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24281,15 +24281,15 @@
         <v>5</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24322,15 +24322,15 @@
         <v>0</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24363,15 +24363,15 @@
         <v>0</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24404,15 +24404,15 @@
         <v>0</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24445,18 +24445,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24489,15 +24489,15 @@
         <v>0</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24530,18 +24530,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24574,18 +24574,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M18" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24618,18 +24618,18 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24662,18 +24662,18 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24706,15 +24706,15 @@
         <v>0</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24747,21 +24747,21 @@
         <v>0</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D23" s="26">
         <v>260</v>
@@ -24788,24 +24788,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D24" s="26">
         <v>260</v>
@@ -24832,18 +24832,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24876,15 +24876,15 @@
         <v>0</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -24917,15 +24917,15 @@
         <v>0</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -24958,15 +24958,15 @@
         <v>15</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -24999,15 +24999,15 @@
         <v>0</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25040,15 +25040,15 @@
         <v>0</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25081,15 +25081,15 @@
         <v>0</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25122,15 +25122,15 @@
         <v>0</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25163,15 +25163,15 @@
         <v>5</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25204,15 +25204,15 @@
         <v>0</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25245,15 +25245,15 @@
         <v>0</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25286,15 +25286,15 @@
         <v>0</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25327,18 +25327,18 @@
         <v>0</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M36" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25371,15 +25371,15 @@
         <v>0</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25412,18 +25412,18 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25456,18 +25456,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25500,18 +25500,18 @@
         <v>0</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25544,18 +25544,18 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25588,21 +25588,21 @@
         <v>0</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D43" s="26">
         <v>450</v>
@@ -25629,18 +25629,18 @@
         <v>0</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25673,15 +25673,15 @@
         <v>0</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25714,15 +25714,15 @@
         <v>5</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25755,15 +25755,15 @@
         <v>0</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25796,15 +25796,15 @@
         <v>0</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25837,15 +25837,15 @@
         <v>0</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25878,15 +25878,15 @@
         <v>0</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -25919,15 +25919,15 @@
         <v>0</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -25960,15 +25960,15 @@
         <v>0</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26001,21 +26001,21 @@
         <v>0</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D53" s="26">
         <v>2250</v>
@@ -26042,18 +26042,18 @@
         <v>0</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="M53" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N53" s="27" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26086,15 +26086,15 @@
         <v>0</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26127,15 +26127,15 @@
         <v>0</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N55" s="27" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26168,15 +26168,15 @@
         <v>0</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="N56" s="27" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26209,15 +26209,15 @@
         <v>0</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N57" s="27" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26250,15 +26250,15 @@
         <v>0</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N58" s="27" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26291,15 +26291,15 @@
         <v>0</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26332,24 +26332,24 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N60" s="27" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D61" s="26">
         <v>30000</v>
@@ -26376,18 +26376,18 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26420,18 +26420,18 @@
         <v>0</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="M62" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26464,18 +26464,18 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26508,18 +26508,18 @@
         <v>0</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="M64" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26552,22 +26552,22 @@
         <v>0</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M65" s="28"/>
       <c r="N65" s="27" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D66" s="26">
         <v>150</v>
@@ -26594,18 +26594,18 @@
         <v>0</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="M66" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26638,15 +26638,15 @@
         <v>0</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26679,15 +26679,15 @@
         <v>0</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26720,15 +26720,15 @@
         <v>0</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26761,21 +26761,21 @@
         <v>0</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D71" s="26">
         <v>250</v>
@@ -26802,18 +26802,18 @@
         <v>0</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26846,15 +26846,15 @@
         <v>0</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26887,15 +26887,15 @@
         <v>0</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -26928,15 +26928,15 @@
         <v>0</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="N74" s="27" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -26969,15 +26969,15 @@
         <v>0</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27010,15 +27010,15 @@
         <v>0</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27051,15 +27051,15 @@
         <v>0</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27092,15 +27092,15 @@
         <v>0</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27133,21 +27133,21 @@
         <v>0</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D80" s="26">
         <v>1500</v>
@@ -27174,18 +27174,18 @@
         <v>0</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="M80" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27218,15 +27218,15 @@
         <v>0</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27259,18 +27259,18 @@
         <v>0</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M82" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27303,18 +27303,18 @@
         <v>-1</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="M83" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27345,15 +27345,15 @@
         <v>-1</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27386,15 +27386,15 @@
         <v>0</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N85" s="27" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27427,21 +27427,21 @@
         <v>0</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="N86" s="27" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D87" s="26">
         <v>150</v>
@@ -27468,18 +27468,18 @@
         <v>0</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M87" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N87" s="27" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27512,21 +27512,21 @@
         <v>0</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D89" s="26">
         <v>200</v>
@@ -27553,18 +27553,18 @@
         <v>0</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="M89" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N89" s="27" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27597,15 +27597,15 @@
         <v>0</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27638,21 +27638,21 @@
         <v>0</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N91" s="27" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D92" s="26">
         <v>300</v>
@@ -27679,18 +27679,18 @@
         <v>0</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="M92" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N92" s="27" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27723,15 +27723,15 @@
         <v>0</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="N93" s="27" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27764,15 +27764,15 @@
         <v>0</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N94" s="27" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27805,15 +27805,15 @@
         <v>0</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="N95" s="27" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27846,15 +27846,15 @@
         <v>0</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="N96" s="27" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27887,15 +27887,15 @@
         <v>0</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="N97" s="27" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -27928,15 +27928,15 @@
         <v>0</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="N98" s="27" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -27969,15 +27969,15 @@
         <v>0</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="N99" s="27" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28010,15 +28010,15 @@
         <v>0</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N100" s="27" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28051,15 +28051,15 @@
         <v>0</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="N101" s="27" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28092,15 +28092,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28133,15 +28133,15 @@
         <v>0</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="N103" s="27" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28174,15 +28174,15 @@
         <v>0</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="N104" s="27" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28215,15 +28215,15 @@
         <v>0</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="N105" s="27" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28256,15 +28256,15 @@
         <v>0</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="N106" s="27" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28297,18 +28297,18 @@
         <v>0</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="M107" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N107" s="27" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28341,18 +28341,18 @@
         <v>100</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="M108" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N108" s="27" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28385,18 +28385,18 @@
         <v>0</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M109" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N109" s="27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28429,18 +28429,18 @@
         <v>0</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N110" s="27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28473,18 +28473,18 @@
         <v>0</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="M111" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N111" s="27" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28517,21 +28517,21 @@
         <v>0</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="N112" s="27" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D113" s="26">
         <v>150</v>
@@ -28558,24 +28558,24 @@
         <v>0</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N113" s="27" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D114" s="26">
         <v>200</v>
@@ -28602,18 +28602,18 @@
         <v>0</v>
       </c>
       <c r="L114" s="23" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="M114" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N114" s="27" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28646,15 +28646,15 @@
         <v>0</v>
       </c>
       <c r="L115" s="23" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="N115" s="27" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28687,15 +28687,15 @@
         <v>0</v>
       </c>
       <c r="L116" s="23" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="N116" s="27" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28728,15 +28728,15 @@
         <v>0</v>
       </c>
       <c r="L117" s="23" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="N117" s="27" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28769,21 +28769,21 @@
         <v>0</v>
       </c>
       <c r="L118" s="23" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="N118" s="27" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D119" s="26">
         <v>500</v>
@@ -28810,18 +28810,18 @@
         <v>0</v>
       </c>
       <c r="L119" s="23" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N119" s="27" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28854,21 +28854,21 @@
         <v>0</v>
       </c>
       <c r="L120" s="23" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="N120" s="27" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D121" s="26">
         <v>550</v>
@@ -28895,18 +28895,18 @@
         <v>0</v>
       </c>
       <c r="L121" s="23" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="M121" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N121" s="27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -28939,15 +28939,15 @@
         <v>0</v>
       </c>
       <c r="L122" s="23" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="N122" s="27" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -28980,15 +28980,15 @@
         <v>0</v>
       </c>
       <c r="L123" s="23" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="N123" s="27" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29021,15 +29021,15 @@
         <v>0</v>
       </c>
       <c r="L124" s="23" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="N124" s="27" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29062,15 +29062,15 @@
         <v>0</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="N125" s="27" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29103,15 +29103,15 @@
         <v>0</v>
       </c>
       <c r="L126" s="23" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="N126" s="27" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29144,21 +29144,21 @@
         <v>0</v>
       </c>
       <c r="L127" s="23" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="N127" s="27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D128" s="26">
         <v>900</v>
@@ -29185,24 +29185,24 @@
         <v>0</v>
       </c>
       <c r="L128" s="23" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N128" s="27" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D129" s="26">
         <v>900</v>
@@ -29229,18 +29229,18 @@
         <v>0</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="M129" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N129" s="27" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29273,15 +29273,15 @@
         <v>0</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="N130" s="27" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29314,15 +29314,15 @@
         <v>0</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="N131" s="27" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29355,15 +29355,15 @@
         <v>0</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="N132" s="27" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29396,15 +29396,15 @@
         <v>0</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="N133" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29437,15 +29437,15 @@
         <v>0</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="N134" s="27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29478,18 +29478,18 @@
         <v>0</v>
       </c>
       <c r="L135" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="M135" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N135" s="27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29522,18 +29522,18 @@
         <v>0</v>
       </c>
       <c r="L136" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="M136" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N136" s="27" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29566,18 +29566,18 @@
         <v>0</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="M137" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N137" s="27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29610,18 +29610,18 @@
         <v>0</v>
       </c>
       <c r="L138" s="23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M138" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N138" s="27" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29654,18 +29654,18 @@
         <v>0</v>
       </c>
       <c r="L139" s="23" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="M139" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N139" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29698,18 +29698,18 @@
         <v>0</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M140" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N140" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29742,18 +29742,18 @@
         <v>0</v>
       </c>
       <c r="L141" s="23" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="M141" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N141" s="27" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29786,18 +29786,18 @@
         <v>0</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M142" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N142" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -29830,13 +29830,13 @@
         <v>0</v>
       </c>
       <c r="L143" s="23" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="M143" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N143" s="27" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="158" spans="14:14" ht="26.5" x14ac:dyDescent="0.35">
@@ -29996,10 +29996,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED1689C-43D8-4482-B475-EE9D75A4CF53}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30077,7 +30077,7 @@
         <v>1082</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>1157</v>
@@ -30089,16 +30089,16 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30136,10 +30136,10 @@
         <v>1132</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30159,7 +30159,7 @@
         <v>1086</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>1159</v>
@@ -30177,10 +30177,10 @@
         <v>1135</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30200,7 +30200,7 @@
         <v>1088</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1156</v>
@@ -30212,16 +30212,16 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30241,7 +30241,7 @@
         <v>1090</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>1160</v>
@@ -30253,16 +30253,16 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30300,10 +30300,10 @@
         <v>1148</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30323,7 +30323,7 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1161</v>
@@ -30335,16 +30335,16 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30364,7 +30364,7 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1162</v>
@@ -30382,10 +30382,10 @@
         <v>1154</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30405,7 +30405,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1164</v>
@@ -30423,10 +30423,10 @@
         <v>1016</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30464,10 +30464,10 @@
         <v>1017</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
@@ -30487,7 +30487,7 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1175</v>
@@ -30502,13 +30502,13 @@
         <v>1167</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>1234</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>1235</v>
-      </c>
       <c r="N12" s="22" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="145" x14ac:dyDescent="0.35">
@@ -30528,7 +30528,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1168</v>
@@ -30543,13 +30543,13 @@
         <v>1178</v>
       </c>
       <c r="K13" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>1236</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>1237</v>
-      </c>
       <c r="N13" s="22" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30569,7 +30569,7 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1173</v>
@@ -30581,16 +30581,16 @@
         <v>1172</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="K14" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>1238</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>1239</v>
-      </c>
       <c r="N14" s="22" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30613,7 +30613,7 @@
         <v>1190</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>1174</v>
@@ -30625,13 +30625,13 @@
         <v>1177</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>1240</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>1241</v>
-      </c>
       <c r="N15" s="22" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30651,7 +30651,7 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1179</v>
@@ -30663,16 +30663,16 @@
         <v>1181</v>
       </c>
       <c r="J16" s="19" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>1242</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>1915</v>
-      </c>
       <c r="N16" s="22" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30692,10 +30692,10 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>1182</v>
@@ -30704,16 +30704,16 @@
         <v>1183</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="K17" s="19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>1243</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>1244</v>
-      </c>
       <c r="N17" s="22" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
@@ -30733,7 +30733,7 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1185</v>
@@ -30748,13 +30748,13 @@
         <v>1188</v>
       </c>
       <c r="K18" s="19" t="s">
+        <v>1244</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>1245</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>1246</v>
-      </c>
       <c r="N18" s="22" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30777,7 +30777,7 @@
         <v>1202</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>1189</v>
@@ -30789,13 +30789,13 @@
         <v>1196</v>
       </c>
       <c r="K19" s="19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>1247</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>1248</v>
-      </c>
       <c r="N19" s="22" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30830,13 +30830,13 @@
         <v>1200</v>
       </c>
       <c r="K20" s="19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>1249</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>1250</v>
-      </c>
       <c r="N20" s="22" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30862,22 +30862,22 @@
         <v>1204</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>1205</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K21" s="19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>1251</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>1252</v>
-      </c>
       <c r="N21" s="22" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30897,7 +30897,7 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1206</v>
@@ -30906,22 +30906,22 @@
         <v>1207</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>1208</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1209</v>
+        <v>2190</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30941,31 +30941,31 @@
         <v>1120</v>
       </c>
       <c r="F23" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>1213</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="J23" s="19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>1214</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>1261</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>1215</v>
-      </c>
       <c r="L23" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30985,31 +30985,31 @@
         <v>1124</v>
       </c>
       <c r="F24" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>1216</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="19" t="s">
         <v>1217</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>1218</v>
-      </c>
       <c r="I24" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>1259</v>
       </c>
-      <c r="J24" s="19" t="s">
-        <v>1260</v>
-      </c>
       <c r="K24" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>1255</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>1256</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -31029,31 +31029,31 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>1921</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="M25" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>1222</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>1922</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>1224</v>
-      </c>
       <c r="N25" s="22" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
   </sheetData>
@@ -31166,7 +31166,7 @@
         <v>661</v>
       </c>
       <c r="C8" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -31177,7 +31177,7 @@
         <v>989</v>
       </c>
       <c r="C9" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -31188,7 +31188,7 @@
         <v>649</v>
       </c>
       <c r="C10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -31199,7 +31199,7 @@
         <v>661</v>
       </c>
       <c r="C11" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -31210,7 +31210,7 @@
         <v>989</v>
       </c>
       <c r="C12" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -31221,7 +31221,7 @@
         <v>649</v>
       </c>
       <c r="C13" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -31232,7 +31232,7 @@
         <v>661</v>
       </c>
       <c r="C14" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -31243,7 +31243,7 @@
         <v>989</v>
       </c>
       <c r="C15" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -31254,7 +31254,7 @@
         <v>649</v>
       </c>
       <c r="C16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -31265,7 +31265,7 @@
         <v>661</v>
       </c>
       <c r="C17" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -31276,7 +31276,7 @@
         <v>989</v>
       </c>
       <c r="C18" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -31287,7 +31287,7 @@
         <v>649</v>
       </c>
       <c r="C19" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE62B8-C40C-4B29-9FBF-10368518DBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927450FD-3C87-4684-93F6-C620D0D686F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="2202">
   <si>
     <t>name</t>
   </si>
@@ -6991,6 +6991,39 @@
   <si>
     <t>**Miko** (90/90/90:moneybag:): 1 extra miko every upgrade. Each increases the coin income by 50; Or the miko casts Ofuda spell with 20/15/12s cooldown which makes 4 random allies immune to spirit curse
 **henkei-no-nusa** (150:moneybag:): 20s cooldown, the tower polymorphizes one ground enemy in range 2.5, reduces its HP by 75% and moveSpeed by 50%, removes its armor, and silences it, last 10s</t>
+  </si>
+  <si>
+    <t>No, my wolf is not undead! I fight for the light!</t>
+  </si>
+  <si>
+    <t>HahaHAHah! I haven't lost my mind... I just want people to have fun!</t>
+  </si>
+  <si>
+    <t>Ah, my favorite time of the year! Trouble is brewing.</t>
+  </si>
+  <si>
+    <t>Huh? I don't feel quite right. Lightheaded. If Mabyn put a curse on me again she will pay for it!</t>
+  </si>
+  <si>
+    <t>Raida</t>
+  </si>
+  <si>
+    <t>I deal in real magic, keep me far away from ancient science experiments.</t>
+  </si>
+  <si>
+    <t>This isn't science! It's more like dark magic.</t>
+  </si>
+  <si>
+    <t>Something tells me I may be on the verge of a shocking scientific breakthrough</t>
+  </si>
+  <si>
+    <t>Ah, the cool air of fall can only mean one thing... My favorite part of the year! The rest of you need to bundle up!</t>
+  </si>
+  <si>
+    <t>A change of seasons means a change of wardrobe for some of you.</t>
+  </si>
+  <si>
+    <t>I'm just crazy enough to give away my most prized possessions! It's raining silver.</t>
   </si>
 </sst>
 </file>
@@ -29996,7 +30029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED1689C-43D8-4482-B475-EE9D75A4CF53}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
@@ -31297,11 +31330,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C447B9-DFD1-448A-AF93-792CD494BECC}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31714,6 +31747,116 @@
       </c>
       <c r="C37" s="7" t="s">
         <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2200</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927450FD-3C87-4684-93F6-C620D0D686F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CA0FE6-83CB-4956-9C81-AB687E2CC88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="2203">
   <si>
     <t>name</t>
   </si>
@@ -5538,9 +5538,6 @@
     <t>Void Delusion: Negative</t>
   </si>
   <si>
-    <t>Rock Polish</t>
-  </si>
-  <si>
     <t>Rock Polish
 Obsidian Meteor</t>
   </si>
@@ -7024,6 +7021,13 @@
   </si>
   <si>
     <t>I'm just crazy enough to give away my most prized possessions! It's raining silver.</t>
+  </si>
+  <si>
+    <t>Rock Polish
+Shocking Discovery</t>
+  </si>
+  <si>
+    <t>Rock buddies also inherit 75% SD, when they die, in 2.4s deal `(0.8 SD) MD` to non-boss enemies in AOE range 0.5 and shock them for 2.5s</t>
   </si>
 </sst>
 </file>
@@ -7694,7 +7698,7 @@
         <v>592</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -7768,7 +7772,7 @@
         <v>334</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -7842,7 +7846,7 @@
         <v>333</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -7916,7 +7920,7 @@
         <v>332</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -7990,7 +7994,7 @@
         <v>331</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -8064,7 +8068,7 @@
         <v>335</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -8138,7 +8142,7 @@
         <v>336</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -8212,7 +8216,7 @@
         <v>337</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -8286,7 +8290,7 @@
         <v>338</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -8360,7 +8364,7 @@
         <v>339</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -8434,7 +8438,7 @@
         <v>340</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8508,7 +8512,7 @@
         <v>341</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8582,7 +8586,7 @@
         <v>342</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8656,7 +8660,7 @@
         <v>343</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -8730,7 +8734,7 @@
         <v>344</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8804,7 +8808,7 @@
         <v>345</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -8878,7 +8882,7 @@
         <v>346</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -8952,7 +8956,7 @@
         <v>347</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -9026,7 +9030,7 @@
         <v>348</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -9100,7 +9104,7 @@
         <v>349</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
@@ -9174,7 +9178,7 @@
         <v>350</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -9248,7 +9252,7 @@
         <v>593</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -9322,7 +9326,7 @@
         <v>594</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
   </sheetData>
@@ -9360,9 +9364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9851,7 +9855,7 @@
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -9860,7 +9864,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G25" s="1">
         <v>-3</v>
@@ -10338,7 +10342,7 @@
     <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
@@ -10347,7 +10351,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G50" s="1">
         <v>-3</v>
@@ -10594,7 +10598,7 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -11090,7 +11094,7 @@
     <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -11099,7 +11103,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G89" s="1">
         <v>-3</v>
@@ -11237,7 +11241,7 @@
     <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>46</v>
@@ -11246,7 +11250,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G97" s="1">
         <v>-3</v>
@@ -11266,13 +11270,13 @@
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G98" s="1">
         <v>-2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11489,7 +11493,7 @@
     <row r="109" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>181</v>
@@ -11498,7 +11502,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G110" s="1">
         <v>-3</v>
@@ -11541,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I112" s="20" t="s">
         <v>1456</v>
@@ -11590,7 +11594,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1730</v>
+        <v>2201</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1415</v>
@@ -11622,7 +11626,7 @@
     <row r="116" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>190</v>
@@ -11631,7 +11635,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G117" s="1">
         <v>-3</v>
@@ -11674,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I119" s="20" t="s">
         <v>1462</v>
@@ -11746,7 +11750,7 @@
         <v>3</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I122" s="20" t="s">
         <v>1440</v>
@@ -11772,12 +11776,12 @@
         <v>4</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>199</v>
@@ -11786,7 +11790,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G125" s="1">
         <v>-3</v>
@@ -11829,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I127" s="20" t="s">
         <v>1448</v>
@@ -11979,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I135" s="20" t="s">
         <v>1445</v>
@@ -12002,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I136" s="20" t="s">
         <v>1402</v>
@@ -12025,7 +12029,7 @@
         <v>2</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I137" s="20" t="s">
         <v>1380</v>
@@ -12048,7 +12052,7 @@
         <v>3</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I138" s="20" t="s">
         <v>1376</v>
@@ -12166,7 +12170,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -12186,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I146" s="20" t="s">
         <v>1446</v>
@@ -12336,7 +12340,7 @@
         <v>-1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12450,7 +12454,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>278</v>
@@ -12459,7 +12463,7 @@
         <v>30</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G161" s="1">
         <v>-3</v>
@@ -12593,7 +12597,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>595</v>
@@ -12602,7 +12606,7 @@
         <v>1489</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G169" s="1">
         <v>-3</v>
@@ -12625,7 +12629,7 @@
         <v>-2</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12671,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="I172" s="20" t="s">
         <v>1396</v>
@@ -12700,7 +12704,7 @@
         <v>2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I173" s="20" t="s">
         <v>1394</v>
@@ -12751,7 +12755,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>604</v>
@@ -12760,7 +12764,7 @@
         <v>1489</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G177" s="1">
         <v>-3</v>
@@ -12786,7 +12790,7 @@
         <v>-2</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12835,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="I180" s="20" t="s">
         <v>1435</v>
@@ -12864,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I181" s="20" t="s">
         <v>1422</v>
@@ -13015,11 +13019,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D322"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13064,7 +13068,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -13120,7 +13124,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13134,7 +13138,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13148,7 +13152,7 @@
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13210,7 +13214,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13479,13 +13483,13 @@
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -13521,7 +13525,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -13619,7 +13623,7 @@
         <v>320</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -13675,7 +13679,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13726,7 +13730,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -13810,7 +13814,7 @@
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -13894,7 +13898,7 @@
         <v>320</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -13959,7 +13963,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -14057,7 +14061,7 @@
         <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -14085,7 +14089,7 @@
         <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -14188,13 +14192,13 @@
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -14216,7 +14220,7 @@
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -14382,7 +14386,7 @@
         <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -14438,7 +14442,7 @@
         <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -14559,7 +14563,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14643,7 +14647,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14657,7 +14661,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14671,7 +14675,7 @@
         <v>427</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -14781,7 +14785,7 @@
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -14851,7 +14855,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -14893,7 +14897,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15022,13 +15026,13 @@
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -15184,13 +15188,13 @@
     </row>
     <row r="171" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -15243,7 +15247,7 @@
         <v>320</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -15369,7 +15373,7 @@
         <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15437,7 +15441,7 @@
         <v>320</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -15526,13 +15530,13 @@
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15613,7 +15617,7 @@
         <v>320</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -15641,7 +15645,7 @@
         <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15674,19 +15678,19 @@
     </row>
     <row r="209" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>188</v>
       </c>
@@ -15694,46 +15698,46 @@
         <v>181</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>15</v>
+        <v>1761</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>507</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D214" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15744,29 +15748,29 @@
         <v>190</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>409</v>
+        <v>510</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>511</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>190</v>
@@ -15775,12 +15779,12 @@
         <v>320</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>190</v>
@@ -15789,7 +15793,7 @@
         <v>320</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -15800,24 +15804,24 @@
         <v>190</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>508</v>
+        <v>383</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15828,49 +15832,49 @@
         <v>190</v>
       </c>
       <c r="C221" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A223" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>15</v>
+        <v>1754</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D225" s="1" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>200</v>
       </c>
@@ -15878,10 +15882,10 @@
         <v>199</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>515</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -15892,24 +15896,24 @@
         <v>199</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>516</v>
+        <v>271</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15920,27 +15924,27 @@
         <v>199</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>204</v>
       </c>
@@ -15948,27 +15952,27 @@
         <v>199</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>206</v>
       </c>
@@ -15976,53 +15980,53 @@
         <v>199</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="1" t="s">
+    <row r="236" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A237" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D237" s="1" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -16030,27 +16034,27 @@
         <v>47</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>259</v>
       </c>
@@ -16058,13 +16062,13 @@
         <v>47</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>259</v>
       </c>
@@ -16072,27 +16076,27 @@
         <v>47</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>260</v>
       </c>
@@ -16100,13 +16104,13 @@
         <v>47</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>260</v>
       </c>
@@ -16114,27 +16118,27 @@
         <v>47</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>211</v>
       </c>
@@ -16142,13 +16146,13 @@
         <v>47</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>211</v>
       </c>
@@ -16156,27 +16160,27 @@
         <v>47</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>261</v>
       </c>
@@ -16184,13 +16188,13 @@
         <v>47</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>261</v>
       </c>
@@ -16198,106 +16202,106 @@
         <v>47</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="1" t="s">
+    <row r="256" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A257" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D258" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>223</v>
       </c>
@@ -16305,13 +16309,13 @@
         <v>222</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>223</v>
       </c>
@@ -16319,27 +16323,27 @@
         <v>222</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>225</v>
       </c>
@@ -16347,27 +16351,27 @@
         <v>222</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>227</v>
       </c>
@@ -16375,27 +16379,27 @@
         <v>222</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>229</v>
       </c>
@@ -16403,78 +16407,78 @@
         <v>222</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>527</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>413</v>
+        <v>301</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
+    <row r="270" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1880</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D272" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>235</v>
       </c>
@@ -16482,27 +16486,27 @@
         <v>234</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>262</v>
       </c>
@@ -16510,27 +16514,27 @@
         <v>234</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>240</v>
       </c>
@@ -16538,27 +16542,27 @@
         <v>234</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>242</v>
       </c>
@@ -16566,74 +16570,74 @@
         <v>234</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C280" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A282" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>15</v>
+        <v>1750</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D285" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>321</v>
       </c>
@@ -16641,24 +16645,24 @@
         <v>278</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>1884</v>
+        <v>301</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -16669,27 +16673,27 @@
         <v>278</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>324</v>
       </c>
@@ -16697,27 +16701,27 @@
         <v>278</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>325</v>
       </c>
@@ -16725,49 +16729,49 @@
         <v>278</v>
       </c>
       <c r="C292" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>15</v>
+        <v>1763</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="D296" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>15</v>
       </c>
@@ -16775,10 +16779,10 @@
         <v>595</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -16789,29 +16793,29 @@
         <v>595</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>270</v>
+        <v>621</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>596</v>
+        <v>15</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1833</v>
+        <v>638</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>595</v>
@@ -16820,10 +16824,10 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>608</v>
       </c>
@@ -16831,27 +16835,27 @@
         <v>595</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>598</v>
       </c>
@@ -16859,13 +16863,13 @@
         <v>595</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>648</v>
+        <v>320</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>598</v>
       </c>
@@ -16873,10 +16877,10 @@
         <v>595</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>627</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16887,13 +16891,13 @@
         <v>595</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>598</v>
       </c>
@@ -16901,60 +16905,63 @@
         <v>595</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>270</v>
+        <v>621</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D309" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>15</v>
+        <v>1763</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>629</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16964,14 +16971,11 @@
       <c r="B312" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>625</v>
-      </c>
       <c r="D312" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>15</v>
       </c>
@@ -16979,29 +16983,29 @@
         <v>604</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>605</v>
+        <v>15</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>604</v>
@@ -17010,10 +17014,10 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>608</v>
       </c>
@@ -17021,27 +17025,27 @@
         <v>604</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>614</v>
       </c>
@@ -17049,10 +17053,10 @@
         <v>604</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>648</v>
+        <v>320</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>632</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17063,13 +17067,13 @@
         <v>604</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>614</v>
       </c>
@@ -17077,37 +17081,51 @@
         <v>604</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>271</v>
+        <v>620</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1835</v>
+        <v>639</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C322" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A323" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1645</v>
       </c>
     </row>
@@ -17203,7 +17221,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17226,7 +17244,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17249,7 +17267,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17318,7 +17336,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17341,7 +17359,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17410,7 +17428,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17433,7 +17451,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17456,7 +17474,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17479,7 +17497,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17502,7 +17520,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17525,7 +17543,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17548,7 +17566,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17571,7 +17589,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17594,7 +17612,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17617,7 +17635,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17640,7 +17658,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17663,7 +17681,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17686,7 +17704,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17709,7 +17727,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17732,7 +17750,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17755,7 +17773,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17778,7 +17796,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17801,7 +17819,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17824,7 +17842,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17847,7 +17865,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17870,7 +17888,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17893,7 +17911,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17916,7 +17934,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17939,7 +17957,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17962,7 +17980,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18008,7 +18026,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18054,7 +18072,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18077,7 +18095,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -19874,7 +19892,7 @@
         <v>980</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G122" s="18"/>
     </row>
@@ -19896,7 +19914,7 @@
         <v>980</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G123" s="18"/>
     </row>
@@ -19918,7 +19936,7 @@
         <v>980</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G124" s="18"/>
     </row>
@@ -19940,7 +19958,7 @@
         <v>980</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G125" s="18"/>
     </row>
@@ -19962,7 +19980,7 @@
         <v>980</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G126" s="18"/>
     </row>
@@ -19984,7 +20002,7 @@
         <v>980</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G127" s="18"/>
     </row>
@@ -20006,7 +20024,7 @@
         <v>980</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G128" s="18"/>
     </row>
@@ -20028,7 +20046,7 @@
         <v>980</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G129" s="18"/>
     </row>
@@ -20050,7 +20068,7 @@
         <v>980</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G130" s="18"/>
     </row>
@@ -20072,7 +20090,7 @@
         <v>980</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G131" t="s">
         <v>992</v>
@@ -20096,7 +20114,7 @@
         <v>980</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G132" s="18"/>
     </row>
@@ -20118,7 +20136,7 @@
         <v>980</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G133" s="18"/>
     </row>
@@ -20140,7 +20158,7 @@
         <v>980</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G134" s="18"/>
     </row>
@@ -20162,7 +20180,7 @@
         <v>980</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G135" s="18"/>
     </row>
@@ -20184,7 +20202,7 @@
         <v>980</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G136" s="18"/>
     </row>
@@ -20206,7 +20224,7 @@
         <v>980</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G137" s="18"/>
     </row>
@@ -20228,7 +20246,7 @@
         <v>980</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G138" s="18"/>
     </row>
@@ -20250,7 +20268,7 @@
         <v>980</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G139" s="18"/>
     </row>
@@ -20272,7 +20290,7 @@
         <v>980</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G140" s="18"/>
     </row>
@@ -20294,7 +20312,7 @@
         <v>980</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G141" t="s">
         <v>992</v>
@@ -20318,7 +20336,7 @@
         <v>980</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G142" s="18"/>
     </row>
@@ -20340,7 +20358,7 @@
         <v>980</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G143" s="18"/>
     </row>
@@ -20362,7 +20380,7 @@
         <v>980</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G144" s="18"/>
     </row>
@@ -20384,7 +20402,7 @@
         <v>980</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G145" s="18"/>
     </row>
@@ -20406,7 +20424,7 @@
         <v>980</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G146" s="18"/>
     </row>
@@ -20428,7 +20446,7 @@
         <v>980</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G147" s="18"/>
     </row>
@@ -20450,7 +20468,7 @@
         <v>980</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G148" s="18"/>
     </row>
@@ -20472,7 +20490,7 @@
         <v>980</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G149" s="18"/>
     </row>
@@ -20494,7 +20512,7 @@
         <v>980</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G150" s="18"/>
     </row>
@@ -20516,7 +20534,7 @@
         <v>980</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G151" t="s">
         <v>992</v>
@@ -20540,7 +20558,7 @@
         <v>980</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G152" s="18"/>
     </row>
@@ -20562,7 +20580,7 @@
         <v>980</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G153" s="18"/>
     </row>
@@ -20584,7 +20602,7 @@
         <v>980</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G154" s="18"/>
     </row>
@@ -20606,7 +20624,7 @@
         <v>980</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G155" s="18"/>
     </row>
@@ -20628,7 +20646,7 @@
         <v>980</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G156" s="18"/>
     </row>
@@ -20650,7 +20668,7 @@
         <v>980</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G157" s="18"/>
     </row>
@@ -20672,7 +20690,7 @@
         <v>980</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G158" s="18"/>
     </row>
@@ -20694,7 +20712,7 @@
         <v>980</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G159" s="18"/>
     </row>
@@ -20716,7 +20734,7 @@
         <v>980</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G160" s="18"/>
     </row>
@@ -20738,10 +20756,10 @@
         <v>980</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22522,13 +22540,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22542,13 +22560,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22562,13 +22580,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22582,13 +22600,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22602,13 +22620,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22625,13 +22643,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22645,13 +22663,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22665,13 +22683,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22685,13 +22703,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22705,13 +22723,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22725,13 +22743,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22745,13 +22763,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22765,13 +22783,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22785,13 +22803,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22805,13 +22823,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22828,13 +22846,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22848,13 +22866,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22868,13 +22886,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22888,13 +22906,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22908,13 +22926,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22928,13 +22946,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22948,13 +22966,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22968,13 +22986,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -22988,13 +23006,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -23011,13 +23029,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23034,13 +23052,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23054,13 +23072,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23074,13 +23092,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23097,13 +23115,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23117,13 +23135,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23137,13 +23155,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23160,13 +23178,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23180,13 +23198,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23200,13 +23218,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23220,13 +23238,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23243,13 +23261,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23263,13 +23281,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23283,13 +23301,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23303,13 +23321,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23323,13 +23341,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23343,13 +23361,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23363,13 +23381,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23383,13 +23401,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23403,13 +23421,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23423,13 +23441,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23443,13 +23461,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23463,13 +23481,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23483,13 +23501,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B289" s="8">
         <v>1</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23501,18 +23519,18 @@
         <v>980</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23524,18 +23542,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23547,18 +23565,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B292" s="8">
         <v>2</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23572,13 +23590,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23592,13 +23610,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23612,13 +23630,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B295" s="8">
         <v>1</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23630,18 +23648,18 @@
         <v>980</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23653,18 +23671,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23676,18 +23694,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B298" s="8">
         <v>2</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23701,13 +23719,13 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23721,13 +23739,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23741,13 +23759,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B301" s="8">
         <v>1</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23759,18 +23777,18 @@
         <v>980</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23782,18 +23800,18 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>980</v>
@@ -23805,7 +23823,7 @@
         <v>980</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
@@ -23909,7 +23927,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23950,7 +23968,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -23991,7 +24009,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -24035,7 +24053,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24076,7 +24094,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24117,7 +24135,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24158,7 +24176,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24199,7 +24217,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24240,7 +24258,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24281,7 +24299,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24322,7 +24340,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24363,7 +24381,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24404,7 +24422,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24445,7 +24463,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24489,7 +24507,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24530,7 +24548,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24574,7 +24592,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24618,7 +24636,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24651,7 +24669,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>992</v>
@@ -24662,7 +24680,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24695,7 +24713,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>992</v>
@@ -24706,7 +24724,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24747,7 +24765,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24788,7 +24806,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -24832,7 +24850,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -24876,7 +24894,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24917,7 +24935,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -24958,7 +24976,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -24999,7 +25017,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -25040,7 +25058,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25081,7 +25099,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25122,7 +25140,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25163,7 +25181,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25204,7 +25222,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25245,7 +25263,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25286,7 +25304,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25327,7 +25345,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25371,7 +25389,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25412,7 +25430,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25445,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>992</v>
@@ -25456,7 +25474,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25500,7 +25518,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25544,7 +25562,7 @@
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25577,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>992</v>
@@ -25588,7 +25606,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25629,7 +25647,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -25673,7 +25691,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25714,7 +25732,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25755,7 +25773,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25796,7 +25814,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25837,7 +25855,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25878,7 +25896,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25919,7 +25937,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -25960,7 +25978,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -26001,7 +26019,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26042,7 +26060,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -26086,7 +26104,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26127,7 +26145,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26168,7 +26186,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26209,7 +26227,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26250,7 +26268,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26291,7 +26309,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26332,7 +26350,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26365,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>992</v>
@@ -26376,7 +26394,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -26409,7 +26427,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>992</v>
@@ -26420,7 +26438,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26464,7 +26482,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26497,7 +26515,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>992</v>
@@ -26508,7 +26526,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26552,7 +26570,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26594,7 +26612,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -26638,7 +26656,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26679,7 +26697,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26720,7 +26738,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26761,7 +26779,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26802,7 +26820,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -26846,7 +26864,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26887,7 +26905,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26928,7 +26946,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -26969,7 +26987,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -27010,7 +27028,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27051,7 +27069,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27092,7 +27110,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27133,7 +27151,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27174,7 +27192,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -27218,7 +27236,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27259,7 +27277,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27292,7 +27310,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M82" s="25" t="s">
         <v>992</v>
@@ -27303,7 +27321,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27347,7 +27365,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27386,7 +27404,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27427,7 +27445,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27468,7 +27486,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -27512,7 +27530,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27553,7 +27571,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -27597,7 +27615,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27638,7 +27656,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27679,7 +27697,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -27723,7 +27741,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27764,7 +27782,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27805,7 +27823,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27846,7 +27864,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27887,7 +27905,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27928,7 +27946,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -27969,7 +27987,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -28010,7 +28028,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28051,7 +28069,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28092,7 +28110,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28133,7 +28151,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28174,7 +28192,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28215,7 +28233,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28256,7 +28274,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28297,7 +28315,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28341,7 +28359,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28385,7 +28403,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28429,7 +28447,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28462,7 +28480,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>992</v>
@@ -28473,7 +28491,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28517,7 +28535,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28558,7 +28576,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -28602,7 +28620,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -28646,7 +28664,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28687,7 +28705,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28728,7 +28746,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28769,7 +28787,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28810,7 +28828,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -28854,7 +28872,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28895,7 +28913,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -28939,7 +28957,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -28980,7 +28998,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -29021,7 +29039,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29062,7 +29080,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29103,7 +29121,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29144,7 +29162,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29185,7 +29203,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -29229,7 +29247,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -29273,7 +29291,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29314,7 +29332,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29355,7 +29373,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29396,7 +29414,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29437,7 +29455,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29478,7 +29496,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29522,7 +29540,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29566,7 +29584,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29599,7 +29617,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M137" s="25" t="s">
         <v>992</v>
@@ -29610,7 +29628,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29654,7 +29672,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29698,7 +29716,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29731,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M140" s="25" t="s">
         <v>992</v>
@@ -29742,7 +29760,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29786,7 +29804,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29819,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M142" s="25" t="s">
         <v>992</v>
@@ -29830,7 +29848,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -30110,7 +30128,7 @@
         <v>1082</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>1157</v>
@@ -30122,7 +30140,7 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
@@ -30192,7 +30210,7 @@
         <v>1086</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>1159</v>
@@ -30233,7 +30251,7 @@
         <v>1088</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1156</v>
@@ -30245,7 +30263,7 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
@@ -30274,7 +30292,7 @@
         <v>1090</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>1160</v>
@@ -30286,7 +30304,7 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
@@ -30356,7 +30374,7 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1161</v>
@@ -30368,13 +30386,13 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>1479</v>
@@ -30397,7 +30415,7 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1162</v>
@@ -30438,7 +30456,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1164</v>
@@ -30520,7 +30538,7 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1175</v>
@@ -30561,7 +30579,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1168</v>
@@ -30602,7 +30620,7 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1173</v>
@@ -30614,7 +30632,7 @@
         <v>1172</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>1237</v>
@@ -30684,7 +30702,7 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1179</v>
@@ -30696,13 +30714,13 @@
         <v>1181</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>1241</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>1467</v>
@@ -30725,7 +30743,7 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1263</v>
@@ -30737,7 +30755,7 @@
         <v>1183</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1242</v>
@@ -30766,7 +30784,7 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1185</v>
@@ -30901,7 +30919,7 @@
         <v>1205</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1250</v>
@@ -30930,7 +30948,7 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1206</v>
@@ -30951,7 +30969,7 @@
         <v>1252</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1477</v>
@@ -31062,7 +31080,7 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1220</v>
@@ -31080,7 +31098,7 @@
         <v>1221</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1223</v>
@@ -31332,7 +31350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C447B9-DFD1-448A-AF93-792CD494BECC}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
@@ -31757,7 +31775,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -31768,7 +31786,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -31779,7 +31797,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -31790,7 +31808,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -31798,10 +31816,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -31812,7 +31830,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -31823,7 +31841,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -31834,7 +31852,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -31845,7 +31863,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -31856,7 +31874,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CA0FE6-83CB-4956-9C81-AB687E2CC88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58C239-594B-4B0C-AB19-CAFA085155C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5858,9 +5858,6 @@
     <t>Elara performs a third attack after __*Melee*__, deals `(5 ND) PD` in AOE range 3, then spawns a rift with an aura slowing one enemy in range 0.5 by 50% for 0.2s every 0.1s, lasts 16.7s</t>
   </si>
   <si>
-    <t>After using __*Cosmic Flux*__, all existing stellar rifts explode, dealing `(10 ND) PD + (5 ND) MD` and reducing 4% HP in AOE range 1.25, and slow the targets by 60% for 6s</t>
-  </si>
-  <si>
     <t>Both first and second generations shadow clones last 16s. At 15s before disappearing, they will throw 4 shurikens to random enemies in range 5, each deals `(2 ND) MD` and stuns for 2s</t>
   </si>
   <si>
@@ -7028,6 +7025,9 @@
   </si>
   <si>
     <t>Rock buddies also inherit 75% SD, when they die, in 2.4s deal `(0.8 SD) MD` to non-boss enemies in AOE range 0.5 and shock them for 2.5s</t>
+  </si>
+  <si>
+    <t>After using __*Cosmic Flux*__, all existing stellar rifts explode, each dealing `(10 ND) PD + (5 ND) MD` and reducing 0.4% HP in AOE range 1.25, and slow the targets by 60% for 6s</t>
   </si>
 </sst>
 </file>
@@ -10598,7 +10598,7 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -11594,7 +11594,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1415</v>
@@ -12170,7 +12170,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -13022,8 +13022,8 @@
   <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13068,7 +13068,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -13124,7 +13124,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13138,7 +13138,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13152,7 +13152,7 @@
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13214,7 +13214,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13489,7 +13489,7 @@
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -13525,7 +13525,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -13623,7 +13623,7 @@
         <v>320</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -13679,7 +13679,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13730,7 +13730,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -13814,7 +13814,7 @@
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -13898,7 +13898,7 @@
         <v>320</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -13963,7 +13963,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -14061,7 +14061,7 @@
         <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -14089,7 +14089,7 @@
         <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -14198,7 +14198,7 @@
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -14220,7 +14220,7 @@
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -14386,7 +14386,7 @@
         <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -14442,7 +14442,7 @@
         <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -14563,7 +14563,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14661,7 +14661,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14675,7 +14675,7 @@
         <v>427</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -14785,7 +14785,7 @@
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -14855,7 +14855,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -14897,7 +14897,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15032,7 +15032,7 @@
         <v>45</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -15194,7 +15194,7 @@
         <v>46</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -15247,7 +15247,7 @@
         <v>320</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -15373,7 +15373,7 @@
         <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15441,7 +15441,7 @@
         <v>320</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -15536,7 +15536,7 @@
         <v>181</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15617,7 +15617,7 @@
         <v>320</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -15645,7 +15645,7 @@
         <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15687,7 +15687,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15726,7 +15726,7 @@
         <v>190</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15860,7 +15860,7 @@
         <v>199</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15885,7 +15885,7 @@
         <v>320</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -16037,7 +16037,7 @@
         <v>320</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -16298,7 +16298,7 @@
         <v>222</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16354,7 +16354,7 @@
         <v>320</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -16382,7 +16382,7 @@
         <v>320</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -16410,7 +16410,7 @@
         <v>320</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16475,7 +16475,7 @@
         <v>234</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16545,7 +16545,7 @@
         <v>320</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -16573,7 +16573,7 @@
         <v>320</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16612,7 +16612,7 @@
         <v>278</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -16634,7 +16634,7 @@
         <v>278</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -16676,7 +16676,7 @@
         <v>320</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -16732,7 +16732,7 @@
         <v>320</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -16950,7 +16950,7 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -17112,7 +17112,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1834</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17221,7 +17221,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17244,7 +17244,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17267,7 +17267,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17336,7 +17336,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17359,7 +17359,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17428,7 +17428,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17451,7 +17451,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17474,7 +17474,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17497,7 +17497,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17520,7 +17520,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17543,7 +17543,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17566,7 +17566,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17589,7 +17589,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17612,7 +17612,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17635,7 +17635,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17658,7 +17658,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17681,7 +17681,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17704,7 +17704,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17727,7 +17727,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17750,7 +17750,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17773,7 +17773,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17796,7 +17796,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17819,7 +17819,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17842,7 +17842,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17865,7 +17865,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17888,7 +17888,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17911,7 +17911,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17934,7 +17934,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17957,7 +17957,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17980,7 +17980,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18026,7 +18026,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18072,7 +18072,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18095,7 +18095,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -20759,7 +20759,7 @@
         <v>1809</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22540,13 +22540,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22560,13 +22560,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22580,13 +22580,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22600,13 +22600,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22620,13 +22620,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22643,13 +22643,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22663,13 +22663,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22683,13 +22683,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22703,13 +22703,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22723,13 +22723,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22743,13 +22743,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22763,13 +22763,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22783,13 +22783,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22803,13 +22803,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22823,13 +22823,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22846,13 +22846,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22866,13 +22866,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22886,13 +22886,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22906,13 +22906,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22926,13 +22926,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22946,13 +22946,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22966,13 +22966,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22986,13 +22986,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -23006,13 +23006,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -23029,13 +23029,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23052,13 +23052,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23072,13 +23072,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23092,13 +23092,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23115,13 +23115,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23135,13 +23135,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23155,13 +23155,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23178,13 +23178,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23198,13 +23198,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23218,13 +23218,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23238,13 +23238,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23261,13 +23261,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23281,13 +23281,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23301,13 +23301,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23321,13 +23321,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23341,13 +23341,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23361,13 +23361,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23381,13 +23381,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23401,13 +23401,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23421,13 +23421,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23441,13 +23441,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23461,13 +23461,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23481,13 +23481,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23501,13 +23501,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B289" s="8">
         <v>1</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23519,18 +23519,18 @@
         <v>980</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23542,18 +23542,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23565,18 +23565,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B292" s="8">
         <v>2</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23590,13 +23590,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23610,13 +23610,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23630,13 +23630,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B295" s="8">
         <v>1</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23648,18 +23648,18 @@
         <v>980</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23671,18 +23671,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23694,18 +23694,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B298" s="8">
         <v>2</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23719,13 +23719,13 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23739,13 +23739,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23759,13 +23759,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B301" s="8">
         <v>1</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23777,18 +23777,18 @@
         <v>980</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23800,18 +23800,18 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>980</v>
@@ -23823,7 +23823,7 @@
         <v>980</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
   </sheetData>
@@ -23927,7 +23927,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23968,7 +23968,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -24009,7 +24009,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -24053,7 +24053,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24094,7 +24094,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24135,7 +24135,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24176,7 +24176,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24217,7 +24217,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24258,7 +24258,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24299,7 +24299,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24340,7 +24340,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24381,7 +24381,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24422,7 +24422,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24463,7 +24463,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24507,7 +24507,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24548,7 +24548,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24592,7 +24592,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24636,7 +24636,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>992</v>
@@ -24680,7 +24680,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24713,7 +24713,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>992</v>
@@ -24724,7 +24724,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24765,7 +24765,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24806,7 +24806,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -24850,7 +24850,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -24894,7 +24894,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24935,7 +24935,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -24976,7 +24976,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -25017,7 +25017,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -25058,7 +25058,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25099,7 +25099,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25140,7 +25140,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25222,7 +25222,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25263,7 +25263,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25304,7 +25304,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25389,7 +25389,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25430,7 +25430,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>992</v>
@@ -25474,7 +25474,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25518,7 +25518,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25562,7 +25562,7 @@
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25595,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>992</v>
@@ -25606,7 +25606,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25647,7 +25647,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -25691,7 +25691,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25773,7 +25773,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25814,7 +25814,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25855,7 +25855,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25896,7 +25896,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25937,7 +25937,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -25978,7 +25978,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -26019,7 +26019,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26060,7 +26060,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -26104,7 +26104,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26145,7 +26145,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26186,7 +26186,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26227,7 +26227,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26268,7 +26268,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26309,7 +26309,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26350,7 +26350,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>992</v>
@@ -26394,7 +26394,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -26427,7 +26427,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>992</v>
@@ -26438,7 +26438,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26482,7 +26482,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>992</v>
@@ -26526,7 +26526,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26612,7 +26612,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -26656,7 +26656,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26697,7 +26697,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26738,7 +26738,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26779,7 +26779,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26820,7 +26820,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -26864,7 +26864,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26905,7 +26905,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26946,7 +26946,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -26987,7 +26987,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -27028,7 +27028,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27069,7 +27069,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27110,7 +27110,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27151,7 +27151,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27192,7 +27192,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -27236,7 +27236,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27277,7 +27277,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27310,7 +27310,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="M82" s="25" t="s">
         <v>992</v>
@@ -27321,7 +27321,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27365,7 +27365,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27404,7 +27404,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27445,7 +27445,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27486,7 +27486,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -27530,7 +27530,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27571,7 +27571,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -27615,7 +27615,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27656,7 +27656,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27697,7 +27697,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -27741,7 +27741,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27782,7 +27782,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27823,7 +27823,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27864,7 +27864,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27905,7 +27905,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27946,7 +27946,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -27987,7 +27987,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -28028,7 +28028,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28069,7 +28069,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28110,7 +28110,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28151,7 +28151,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28192,7 +28192,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28233,7 +28233,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28274,7 +28274,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28315,7 +28315,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28359,7 +28359,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28403,7 +28403,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28447,7 +28447,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28480,7 +28480,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>992</v>
@@ -28491,7 +28491,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28535,7 +28535,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28576,7 +28576,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -28620,7 +28620,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -28664,7 +28664,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28705,7 +28705,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28746,7 +28746,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28787,7 +28787,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28828,7 +28828,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -28872,7 +28872,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28913,7 +28913,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -28957,7 +28957,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -28998,7 +28998,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -29039,7 +29039,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29080,7 +29080,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29121,7 +29121,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29162,7 +29162,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29203,7 +29203,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -29247,7 +29247,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -29291,7 +29291,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29332,7 +29332,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29373,7 +29373,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29414,7 +29414,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29455,7 +29455,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29496,7 +29496,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29540,7 +29540,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29617,7 +29617,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M137" s="25" t="s">
         <v>992</v>
@@ -29628,7 +29628,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29672,7 +29672,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29716,7 +29716,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M140" s="25" t="s">
         <v>992</v>
@@ -29760,7 +29760,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29804,7 +29804,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M142" s="25" t="s">
         <v>992</v>
@@ -29848,7 +29848,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -30128,7 +30128,7 @@
         <v>1082</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>1157</v>
@@ -30140,7 +30140,7 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
@@ -30210,7 +30210,7 @@
         <v>1086</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>1159</v>
@@ -30251,7 +30251,7 @@
         <v>1088</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1156</v>
@@ -30263,7 +30263,7 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
@@ -30292,7 +30292,7 @@
         <v>1090</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>1160</v>
@@ -30304,7 +30304,7 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
@@ -30374,7 +30374,7 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1161</v>
@@ -30386,13 +30386,13 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>1479</v>
@@ -30415,7 +30415,7 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1162</v>
@@ -30456,7 +30456,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1164</v>
@@ -30538,7 +30538,7 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1175</v>
@@ -30579,7 +30579,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1168</v>
@@ -30620,7 +30620,7 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1173</v>
@@ -30632,7 +30632,7 @@
         <v>1172</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>1237</v>
@@ -30702,7 +30702,7 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1179</v>
@@ -30714,13 +30714,13 @@
         <v>1181</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>1241</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>1467</v>
@@ -30743,7 +30743,7 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1263</v>
@@ -30755,7 +30755,7 @@
         <v>1183</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1242</v>
@@ -30784,7 +30784,7 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1185</v>
@@ -30919,7 +30919,7 @@
         <v>1205</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1250</v>
@@ -30948,7 +30948,7 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1206</v>
@@ -30969,7 +30969,7 @@
         <v>1252</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1477</v>
@@ -31080,7 +31080,7 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1220</v>
@@ -31098,7 +31098,7 @@
         <v>1221</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1223</v>
@@ -31775,7 +31775,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -31786,7 +31786,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -31797,7 +31797,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -31808,7 +31808,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -31816,10 +31816,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -31830,7 +31830,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -31841,7 +31841,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -31852,7 +31852,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -31863,7 +31863,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -31874,7 +31874,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58C239-594B-4B0C-AB19-CAFA085155C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710C26AF-A6AB-4F1D-B621-952607F780B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="2205">
   <si>
     <t>name</t>
   </si>
@@ -7028,6 +7028,12 @@
   </si>
   <si>
     <t>After using __*Cosmic Flux*__, all existing stellar rifts explode, each dealing `(10 ND) PD + (5 ND) MD` and reducing 0.4% HP in AOE range 1.25, and slow the targets by 60% for 6s</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>Den of the Forever Departing</t>
   </si>
 </sst>
 </file>
@@ -13021,8 +13027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
@@ -17138,11 +17144,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D798F71-5A72-4731-9B2C-78595D904327}">
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23501,13 +23507,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2016</v>
+        <v>2203</v>
       </c>
       <c r="B289" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2025</v>
+        <v>2204</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23517,20 +23523,17 @@
       </c>
       <c r="F289" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23547,13 +23550,13 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23570,13 +23573,13 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B292" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23586,17 +23589,20 @@
       </c>
       <c r="F292" s="6" t="s">
         <v>980</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>2048</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23610,13 +23616,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23630,13 +23636,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B295" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23646,20 +23652,17 @@
       </c>
       <c r="F295" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="G295" s="6" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23676,13 +23679,13 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23699,13 +23702,13 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="B298" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23715,17 +23718,20 @@
       </c>
       <c r="F298" s="6" t="s">
         <v>980</v>
+      </c>
+      <c r="G298" s="6" t="s">
+        <v>2048</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23739,13 +23745,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23759,13 +23765,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B301" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23775,20 +23781,17 @@
       </c>
       <c r="F301" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="G301" s="6" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23805,24 +23808,47 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D303" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B304" s="8">
+        <v>1</v>
+      </c>
+      <c r="C304" s="10" t="s">
         <v>2045</v>
       </c>
-      <c r="D303" s="32" t="s">
-        <v>980</v>
-      </c>
-      <c r="E303" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="F303" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="G303" s="6" t="s">
+      <c r="D304" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G304" s="6" t="s">
         <v>2048</v>
       </c>
     </row>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710C26AF-A6AB-4F1D-B621-952607F780B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57448B5F-EBB3-4248-B1D2-DA94688BBEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -5554,9 +5554,6 @@
     <t>Sharpened Claw</t>
   </si>
   <si>
-    <t>When using her active, Shamiko stops engaging and plays a song, next time she will play the next one. __*Bard Song*__ will apply a haste buff (speed x2 for 6s) to other heros in range 3.5</t>
-  </si>
-  <si>
     <t>When using her active, Shamiko stops engaging and plays a song, next time she will play the next one. __*Shrieking Shred*__ will deal `(0.25 ND) MD` and apply a terror buff (5s) to non-boss enemies in range 3.5</t>
   </si>
   <si>
@@ -7034,6 +7031,9 @@
   </si>
   <si>
     <t>Den of the Forever Departing</t>
+  </si>
+  <si>
+    <t>10s cooldown. When using her active, Shamiko stops engaging and plays a song, next time she will play the next one. __*Bard Song*__ will apply a haste buff (speed x2 for 6s) to other heros in range 3.5</t>
   </si>
 </sst>
 </file>
@@ -7704,7 +7704,7 @@
         <v>592</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -7778,7 +7778,7 @@
         <v>334</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -7852,7 +7852,7 @@
         <v>333</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -7926,7 +7926,7 @@
         <v>332</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -8000,7 +8000,7 @@
         <v>331</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -8074,7 +8074,7 @@
         <v>335</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -8148,7 +8148,7 @@
         <v>336</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -8222,7 +8222,7 @@
         <v>337</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -8296,7 +8296,7 @@
         <v>338</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -8370,7 +8370,7 @@
         <v>339</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -8444,7 +8444,7 @@
         <v>340</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8518,7 +8518,7 @@
         <v>341</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8592,7 +8592,7 @@
         <v>342</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8666,7 +8666,7 @@
         <v>343</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -8740,7 +8740,7 @@
         <v>344</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8814,7 +8814,7 @@
         <v>345</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -8888,7 +8888,7 @@
         <v>346</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -8962,7 +8962,7 @@
         <v>347</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -9036,7 +9036,7 @@
         <v>348</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -9110,7 +9110,7 @@
         <v>349</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
@@ -9184,7 +9184,7 @@
         <v>350</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -9258,7 +9258,7 @@
         <v>593</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -9332,7 +9332,7 @@
         <v>594</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -9861,7 +9861,7 @@
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -9870,7 +9870,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G25" s="1">
         <v>-3</v>
@@ -10348,7 +10348,7 @@
     <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
@@ -10357,7 +10357,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G50" s="1">
         <v>-3</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -11100,7 +11100,7 @@
     <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -11109,7 +11109,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G89" s="1">
         <v>-3</v>
@@ -11247,7 +11247,7 @@
     <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>46</v>
@@ -11256,7 +11256,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G97" s="1">
         <v>-3</v>
@@ -11276,13 +11276,13 @@
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G98" s="1">
         <v>-2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11499,7 +11499,7 @@
     <row r="109" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>181</v>
@@ -11508,7 +11508,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G110" s="1">
         <v>-3</v>
@@ -11600,7 +11600,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1415</v>
@@ -11632,7 +11632,7 @@
     <row r="116" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>190</v>
@@ -11641,7 +11641,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G117" s="1">
         <v>-3</v>
@@ -11787,7 +11787,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>199</v>
@@ -11796,7 +11796,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G125" s="1">
         <v>-3</v>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I135" s="20" t="s">
         <v>1445</v>
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I136" s="20" t="s">
         <v>1402</v>
@@ -12035,7 +12035,7 @@
         <v>2</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I137" s="20" t="s">
         <v>1380</v>
@@ -12058,7 +12058,7 @@
         <v>3</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I138" s="20" t="s">
         <v>1376</v>
@@ -12176,7 +12176,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I146" s="20" t="s">
         <v>1446</v>
@@ -12346,7 +12346,7 @@
         <v>-1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12460,7 +12460,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>278</v>
@@ -12469,7 +12469,7 @@
         <v>30</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G161" s="1">
         <v>-3</v>
@@ -12603,7 +12603,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>595</v>
@@ -12612,7 +12612,7 @@
         <v>1489</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G169" s="1">
         <v>-3</v>
@@ -12635,7 +12635,7 @@
         <v>-2</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="I172" s="20" t="s">
         <v>1396</v>
@@ -12710,7 +12710,7 @@
         <v>2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I173" s="20" t="s">
         <v>1394</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>604</v>
@@ -12770,7 +12770,7 @@
         <v>1489</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G177" s="1">
         <v>-3</v>
@@ -12796,7 +12796,7 @@
         <v>-2</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="I180" s="20" t="s">
         <v>1435</v>
@@ -12874,7 +12874,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="I181" s="20" t="s">
         <v>1422</v>
@@ -13027,9 +13027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13074,7 +13074,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -13130,7 +13130,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13144,7 +13144,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13158,7 +13158,7 @@
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13220,7 +13220,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13489,13 +13489,13 @@
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -13531,7 +13531,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -13629,7 +13629,7 @@
         <v>320</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -13685,7 +13685,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13736,7 +13736,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -13820,7 +13820,7 @@
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -13904,7 +13904,7 @@
         <v>320</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -13969,7 +13969,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -14067,7 +14067,7 @@
         <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -14095,7 +14095,7 @@
         <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -14198,13 +14198,13 @@
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -14226,7 +14226,7 @@
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -14392,7 +14392,7 @@
         <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -14448,7 +14448,7 @@
         <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -14569,7 +14569,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14653,7 +14653,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14667,7 +14667,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14681,7 +14681,7 @@
         <v>427</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -14791,7 +14791,7 @@
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -14861,7 +14861,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -14903,7 +14903,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15032,13 +15032,13 @@
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -15194,13 +15194,13 @@
     </row>
     <row r="171" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -15253,7 +15253,7 @@
         <v>320</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -15379,7 +15379,7 @@
         <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15447,7 +15447,7 @@
         <v>320</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -15536,13 +15536,13 @@
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15623,7 +15623,7 @@
         <v>320</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -15651,7 +15651,7 @@
         <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15693,7 +15693,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15726,13 +15726,13 @@
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15860,13 +15860,13 @@
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15891,7 +15891,7 @@
         <v>320</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -16043,7 +16043,7 @@
         <v>320</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -16071,7 +16071,7 @@
         <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1735</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16113,7 +16113,7 @@
         <v>320</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -16155,7 +16155,7 @@
         <v>320</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -16197,7 +16197,7 @@
         <v>320</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16304,7 +16304,7 @@
         <v>222</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16360,7 +16360,7 @@
         <v>320</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -16388,7 +16388,7 @@
         <v>320</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -16416,7 +16416,7 @@
         <v>320</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16481,7 +16481,7 @@
         <v>234</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16551,7 +16551,7 @@
         <v>320</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -16579,7 +16579,7 @@
         <v>320</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16612,13 +16612,13 @@
     </row>
     <row r="283" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -16640,7 +16640,7 @@
         <v>278</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -16682,7 +16682,7 @@
         <v>320</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -16738,7 +16738,7 @@
         <v>320</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -16757,13 +16757,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -16830,7 +16830,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16956,18 +16956,18 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17062,7 +17062,7 @@
         <v>320</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17118,7 +17118,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17146,7 +17146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D798F71-5A72-4731-9B2C-78595D904327}">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
     </sheetView>
@@ -17227,7 +17227,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17250,7 +17250,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17273,7 +17273,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17342,7 +17342,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17365,7 +17365,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17434,7 +17434,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17457,7 +17457,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17480,7 +17480,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17503,7 +17503,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17526,7 +17526,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17549,7 +17549,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17572,7 +17572,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17595,7 +17595,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17618,7 +17618,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17641,7 +17641,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17664,7 +17664,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17687,7 +17687,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17710,7 +17710,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17733,7 +17733,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17756,7 +17756,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17779,7 +17779,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17802,7 +17802,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17825,7 +17825,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17848,7 +17848,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17871,7 +17871,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17894,7 +17894,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17917,7 +17917,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17940,7 +17940,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17963,7 +17963,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17986,7 +17986,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18032,7 +18032,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18078,7 +18078,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18101,7 +18101,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -19898,7 +19898,7 @@
         <v>980</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G122" s="18"/>
     </row>
@@ -19920,7 +19920,7 @@
         <v>980</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G123" s="18"/>
     </row>
@@ -19942,7 +19942,7 @@
         <v>980</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G124" s="18"/>
     </row>
@@ -19964,7 +19964,7 @@
         <v>980</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G125" s="18"/>
     </row>
@@ -19986,7 +19986,7 @@
         <v>980</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G126" s="18"/>
     </row>
@@ -20008,7 +20008,7 @@
         <v>980</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G127" s="18"/>
     </row>
@@ -20030,7 +20030,7 @@
         <v>980</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G128" s="18"/>
     </row>
@@ -20052,7 +20052,7 @@
         <v>980</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G129" s="18"/>
     </row>
@@ -20074,7 +20074,7 @@
         <v>980</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G130" s="18"/>
     </row>
@@ -20096,7 +20096,7 @@
         <v>980</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G131" t="s">
         <v>992</v>
@@ -20120,7 +20120,7 @@
         <v>980</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G132" s="18"/>
     </row>
@@ -20142,7 +20142,7 @@
         <v>980</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G133" s="18"/>
     </row>
@@ -20164,7 +20164,7 @@
         <v>980</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G134" s="18"/>
     </row>
@@ -20186,7 +20186,7 @@
         <v>980</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G135" s="18"/>
     </row>
@@ -20208,7 +20208,7 @@
         <v>980</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G136" s="18"/>
     </row>
@@ -20230,7 +20230,7 @@
         <v>980</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G137" s="18"/>
     </row>
@@ -20252,7 +20252,7 @@
         <v>980</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G138" s="18"/>
     </row>
@@ -20274,7 +20274,7 @@
         <v>980</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G139" s="18"/>
     </row>
@@ -20296,7 +20296,7 @@
         <v>980</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G140" s="18"/>
     </row>
@@ -20318,7 +20318,7 @@
         <v>980</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G141" t="s">
         <v>992</v>
@@ -20342,7 +20342,7 @@
         <v>980</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G142" s="18"/>
     </row>
@@ -20364,7 +20364,7 @@
         <v>980</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G143" s="18"/>
     </row>
@@ -20386,7 +20386,7 @@
         <v>980</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G144" s="18"/>
     </row>
@@ -20408,7 +20408,7 @@
         <v>980</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G145" s="18"/>
     </row>
@@ -20430,7 +20430,7 @@
         <v>980</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G146" s="18"/>
     </row>
@@ -20452,7 +20452,7 @@
         <v>980</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G147" s="18"/>
     </row>
@@ -20474,7 +20474,7 @@
         <v>980</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G148" s="18"/>
     </row>
@@ -20496,7 +20496,7 @@
         <v>980</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G149" s="18"/>
     </row>
@@ -20518,7 +20518,7 @@
         <v>980</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G150" s="18"/>
     </row>
@@ -20540,7 +20540,7 @@
         <v>980</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G151" t="s">
         <v>992</v>
@@ -20564,7 +20564,7 @@
         <v>980</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G152" s="18"/>
     </row>
@@ -20586,7 +20586,7 @@
         <v>980</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G153" s="18"/>
     </row>
@@ -20608,7 +20608,7 @@
         <v>980</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G154" s="18"/>
     </row>
@@ -20630,7 +20630,7 @@
         <v>980</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G155" s="18"/>
     </row>
@@ -20652,7 +20652,7 @@
         <v>980</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G156" s="18"/>
     </row>
@@ -20674,7 +20674,7 @@
         <v>980</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G157" s="18"/>
     </row>
@@ -20696,7 +20696,7 @@
         <v>980</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G158" s="18"/>
     </row>
@@ -20718,7 +20718,7 @@
         <v>980</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G159" s="18"/>
     </row>
@@ -20740,7 +20740,7 @@
         <v>980</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G160" s="18"/>
     </row>
@@ -20762,10 +20762,10 @@
         <v>980</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22546,13 +22546,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22566,13 +22566,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22586,13 +22586,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22606,13 +22606,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22626,13 +22626,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22669,13 +22669,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22689,13 +22689,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22709,13 +22709,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22729,13 +22729,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22749,13 +22749,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22769,13 +22769,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22789,13 +22789,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22809,13 +22809,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22829,13 +22829,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22852,13 +22852,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22872,13 +22872,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22892,13 +22892,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22912,13 +22912,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22932,13 +22932,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22952,13 +22952,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22972,13 +22972,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22992,13 +22992,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -23012,13 +23012,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -23035,13 +23035,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23058,13 +23058,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23078,13 +23078,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23098,13 +23098,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23121,13 +23121,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23141,13 +23141,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23161,13 +23161,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23184,13 +23184,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23204,13 +23204,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23224,13 +23224,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23244,13 +23244,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23267,13 +23267,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23287,13 +23287,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23307,13 +23307,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23327,13 +23327,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23347,13 +23347,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23367,13 +23367,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23387,13 +23387,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23407,13 +23407,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23427,13 +23427,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23447,13 +23447,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23467,13 +23467,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23487,13 +23487,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23507,13 +23507,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B289" s="8">
         <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23527,13 +23527,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23545,18 +23545,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23568,18 +23568,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B292" s="8">
         <v>1</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23591,18 +23591,18 @@
         <v>980</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23616,13 +23616,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23636,13 +23636,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B295" s="8">
         <v>2</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23656,13 +23656,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23674,18 +23674,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23697,18 +23697,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B298" s="8">
         <v>1</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23720,18 +23720,18 @@
         <v>980</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23745,13 +23745,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23765,13 +23765,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B301" s="8">
         <v>2</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23785,13 +23785,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23803,18 +23803,18 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>980</v>
@@ -23826,18 +23826,18 @@
         <v>980</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B304" s="8">
         <v>1</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D304" s="32" t="s">
         <v>980</v>
@@ -23849,7 +23849,7 @@
         <v>980</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
   </sheetData>
@@ -23953,7 +23953,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23994,7 +23994,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -24035,7 +24035,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24120,7 +24120,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24161,7 +24161,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24202,7 +24202,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24243,7 +24243,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24284,7 +24284,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24325,7 +24325,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24366,7 +24366,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24407,7 +24407,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24448,7 +24448,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24489,7 +24489,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24533,7 +24533,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24574,7 +24574,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24618,7 +24618,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24662,7 +24662,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24695,7 +24695,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>992</v>
@@ -24706,7 +24706,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24739,7 +24739,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>992</v>
@@ -24750,7 +24750,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24791,7 +24791,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24832,7 +24832,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -24876,7 +24876,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -24920,7 +24920,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24961,7 +24961,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -25043,7 +25043,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -25084,7 +25084,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25125,7 +25125,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25166,7 +25166,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25207,7 +25207,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25248,7 +25248,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25289,7 +25289,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25330,7 +25330,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25371,7 +25371,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25415,7 +25415,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25456,7 +25456,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>992</v>
@@ -25500,7 +25500,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25544,7 +25544,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25588,7 +25588,7 @@
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25621,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>992</v>
@@ -25632,7 +25632,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25673,7 +25673,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -25717,7 +25717,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25758,7 +25758,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25840,7 +25840,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25922,7 +25922,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -26004,7 +26004,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -26045,7 +26045,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26086,7 +26086,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -26130,7 +26130,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26171,7 +26171,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26212,7 +26212,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26253,7 +26253,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26294,7 +26294,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26335,7 +26335,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26376,7 +26376,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26409,7 +26409,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>992</v>
@@ -26420,7 +26420,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -26453,7 +26453,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>992</v>
@@ -26464,7 +26464,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26508,7 +26508,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26541,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>992</v>
@@ -26552,7 +26552,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26596,7 +26596,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26638,7 +26638,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -26682,7 +26682,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26723,7 +26723,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26764,7 +26764,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26805,7 +26805,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26846,7 +26846,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -26890,7 +26890,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26931,7 +26931,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26972,7 +26972,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -27013,7 +27013,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -27054,7 +27054,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27095,7 +27095,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27136,7 +27136,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27177,7 +27177,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27218,7 +27218,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -27262,7 +27262,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27303,7 +27303,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27336,7 +27336,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M82" s="25" t="s">
         <v>992</v>
@@ -27347,7 +27347,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27391,7 +27391,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27430,7 +27430,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27471,7 +27471,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27512,7 +27512,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -27556,7 +27556,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -27641,7 +27641,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27682,7 +27682,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27723,7 +27723,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -27767,7 +27767,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27808,7 +27808,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27849,7 +27849,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27931,7 +27931,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -28013,7 +28013,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -28054,7 +28054,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28095,7 +28095,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28136,7 +28136,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28177,7 +28177,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28218,7 +28218,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28259,7 +28259,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28300,7 +28300,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28341,7 +28341,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28385,7 +28385,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28429,7 +28429,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28473,7 +28473,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>992</v>
@@ -28517,7 +28517,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28561,7 +28561,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28602,7 +28602,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -28646,7 +28646,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -28690,7 +28690,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28731,7 +28731,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28772,7 +28772,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28813,7 +28813,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28854,7 +28854,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -28898,7 +28898,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28939,7 +28939,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -28983,7 +28983,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -29024,7 +29024,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -29065,7 +29065,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29106,7 +29106,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29147,7 +29147,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29188,7 +29188,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29229,7 +29229,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -29273,7 +29273,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -29317,7 +29317,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29358,7 +29358,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29399,7 +29399,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29440,7 +29440,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29481,7 +29481,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29522,7 +29522,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29566,7 +29566,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29610,7 +29610,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29643,7 +29643,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M137" s="25" t="s">
         <v>992</v>
@@ -29654,7 +29654,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29698,7 +29698,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29742,7 +29742,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29775,7 +29775,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M140" s="25" t="s">
         <v>992</v>
@@ -29786,7 +29786,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29830,7 +29830,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29863,7 +29863,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="M142" s="25" t="s">
         <v>992</v>
@@ -29874,7 +29874,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -30154,7 +30154,7 @@
         <v>1082</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>1157</v>
@@ -30166,7 +30166,7 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
@@ -30236,7 +30236,7 @@
         <v>1086</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>1159</v>
@@ -30277,7 +30277,7 @@
         <v>1088</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1156</v>
@@ -30289,7 +30289,7 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
@@ -30318,7 +30318,7 @@
         <v>1090</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>1160</v>
@@ -30330,7 +30330,7 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
@@ -30400,7 +30400,7 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1161</v>
@@ -30412,13 +30412,13 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>1479</v>
@@ -30441,7 +30441,7 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1162</v>
@@ -30482,7 +30482,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1164</v>
@@ -30564,7 +30564,7 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1175</v>
@@ -30605,7 +30605,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1168</v>
@@ -30646,7 +30646,7 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1173</v>
@@ -30658,7 +30658,7 @@
         <v>1172</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>1237</v>
@@ -30728,7 +30728,7 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1179</v>
@@ -30740,13 +30740,13 @@
         <v>1181</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>1241</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>1467</v>
@@ -30769,7 +30769,7 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1263</v>
@@ -30781,7 +30781,7 @@
         <v>1183</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1242</v>
@@ -30810,7 +30810,7 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1185</v>
@@ -30945,7 +30945,7 @@
         <v>1205</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1250</v>
@@ -30974,7 +30974,7 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1206</v>
@@ -30995,7 +30995,7 @@
         <v>1252</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1477</v>
@@ -31106,7 +31106,7 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1220</v>
@@ -31124,7 +31124,7 @@
         <v>1221</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1223</v>
@@ -31801,7 +31801,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -31812,7 +31812,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -31823,7 +31823,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -31834,7 +31834,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -31842,10 +31842,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -31856,7 +31856,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -31867,7 +31867,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -31878,7 +31878,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -31889,7 +31889,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -31900,7 +31900,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57448B5F-EBB3-4248-B1D2-DA94688BBEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224154FA-A602-4817-8DDE-4B6DD645DA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -5270,15 +5270,6 @@
     <t>Elara spawns an aura when in __*Goddess Form*__, consistently debuffs enemies (including bosses) in AOE range 2 every 0.133s, reduces their damage by 20% for 0.033s and 3% chance terrifies them for 3s</t>
   </si>
   <si>
-    <t>After using active, Elara transforms to Goddess form, at which attacks will have special effects and move speed is increased by 1, last 20s, she also gains immunity for 3/6/9s at rank 2/4/6</t>
-  </si>
-  <si>
-    <t>30s cooldown, in 1.167s, Elara pulls non-boss enemies in range 3 to herself and deals `(17.5 ND) PD + (26.25 ND) MD`, then she bursts and deals `(30 ND) PD + (5 SD) MD` to enemies in AOE range 2 with 70% chance to slow by 50% for 6s or 30% chance to terrify for 6s, transforms to __*Goddess Form*__</t>
-  </si>
-  <si>
-    <t>After using active, Cyra transforms to Goddess form, at which attacks have special effects and move speed is increased by 1, last 20s, she also gains immunity for 3/6/9s at rank 2/4/6</t>
-  </si>
-  <si>
     <t>This spell can be upgraded by __*Sharpen Blade*__</t>
   </si>
   <si>
@@ -5849,9 +5840,6 @@
     <t>https://realm-defense-hero-legends-td.fandom.com/wiki/Elara</t>
   </si>
   <si>
-    <t>30s cooldown, Cyra teleports, at departure deals `(20 ND) PD` in AOE range 1.5, then at arrival deals `(38 ND) PD` in AOE range 2, stuns them for 4s, grounds all flying enemies for 30s, and transforms to __*Goddess Form*__</t>
-  </si>
-  <si>
     <t>Elara performs a third attack after __*Melee*__, deals `(5 ND) PD` in AOE range 3, then spawns a rift with an aura slowing one enemy in range 0.5 by 50% for 0.2s every 0.1s, lasts 16.7s</t>
   </si>
   <si>
@@ -5923,9 +5911,6 @@
   </si>
   <si>
     <t>40s cooldown, Connie targets a furthest enemy in range 5, summons a bunny mama with 99999 HP, 75% physical armor, 800% ND, dealing `(122+1 ND) PD` every 2s, lasts 25s. Bunny mama ignores bosses, and can engaged with more ground enemies at higher ranks. 1, 2, 2, 3, 3, 4 from rank 1 to 6</t>
-  </si>
-  <si>
-    <t>25s cooldown, Cyra marks two strongest enemies in range 4, in 20s deals `(60 ND) TD` and reduces 10% HP, and reduce their max hp, lifeRegen, shield, armor (x0.8) for 20s; This attack has 0.3 lifesteal ratio, cannot miss, and can be cast while moving</t>
   </si>
   <si>
     <t>15s cooldown, Efrigid targets a furthest ground enemy in range 2.5, in 5s, deals `(5 SD) MD` and applies cold effect for 3s in AOE range 1. Cold reduces move speed by 50% and animation speed by 25%</t>
@@ -7024,9 +7009,6 @@
     <t>Rock buddies also inherit 75% SD, when they die, in 2.4s deal `(0.8 SD) MD` to non-boss enemies in AOE range 0.5 and shock them for 2.5s</t>
   </si>
   <si>
-    <t>After using __*Cosmic Flux*__, all existing stellar rifts explode, each dealing `(10 ND) PD + (5 ND) MD` and reducing 0.4% HP in AOE range 1.25, and slow the targets by 60% for 6s</t>
-  </si>
-  <si>
     <t>E6</t>
   </si>
   <si>
@@ -7034,6 +7016,24 @@
   </si>
   <si>
     <t>10s cooldown. When using her active, Shamiko stops engaging and plays a song, next time she will play the next one. __*Bard Song*__ will apply a haste buff (speed x2 for 6s) to other heros in range 3.5</t>
+  </si>
+  <si>
+    <t>20s cooldown, Cyra teleports, at departure deals `(20 ND) PD` in AOE range 1.5, then at arrival deals `(38 ND) PD` in AOE range 2, stuns them for 4s, grounds all flying enemies for 30s, and transforms to __*Goddess Form*__</t>
+  </si>
+  <si>
+    <t>25s cooldown, Cyra marks 3 strongest enemies in range 4, in 20s deals `(60 ND) TD` and reduces 15% HP, and reduce their max hp, lifeRegen, shield, armor (x0.8) for 20s; This attack has 0.3 lifesteal ratio, cannot miss, and can be cast while moving</t>
+  </si>
+  <si>
+    <t>20s cooldown, in 1.167s, Elara pulls non-boss enemies in range 3 to herself and deals `(17.5 ND) PD + (26.25 ND) MD`, then she bursts and deals `(30 ND) PD + (5 SD) MD` to enemies in AOE range 2 with 70% chance to slow by 50% for 6s or 30% chance to terrify for 6s, transforms to __*Goddess Form*__</t>
+  </si>
+  <si>
+    <t>After using __*Cosmic Flux*__, all existing stellar rifts explode, each dealing `(10 ND) PD + (5 ND) MD` and reducing 1% HP in AOE range 1.25, and slow the targets by 60% for 6s</t>
+  </si>
+  <si>
+    <t>After using active, Elara transforms to Goddess form, at which attacks will have special effects, physical armor is increased by 15% and move speed is increased by 1, last 13s, she also gains immunity for 3/6/9s at rank 2/4/6</t>
+  </si>
+  <si>
+    <t>After using active, Cyra transforms to Goddess form, at which attacks have special effects, physical armor is increased by 15% and move speed is increased by 1, last 13s, she also gains immunity for 3/6/9s at rank 2/4/6</t>
   </si>
 </sst>
 </file>
@@ -7704,7 +7704,7 @@
         <v>592</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -7778,7 +7778,7 @@
         <v>334</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -7852,7 +7852,7 @@
         <v>333</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -7926,7 +7926,7 @@
         <v>332</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -8000,7 +8000,7 @@
         <v>331</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -8074,7 +8074,7 @@
         <v>335</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -8148,7 +8148,7 @@
         <v>336</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -8222,7 +8222,7 @@
         <v>337</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -8296,7 +8296,7 @@
         <v>338</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -8370,7 +8370,7 @@
         <v>339</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -8444,7 +8444,7 @@
         <v>340</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8518,7 +8518,7 @@
         <v>341</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8592,7 +8592,7 @@
         <v>342</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8666,7 +8666,7 @@
         <v>343</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -8740,7 +8740,7 @@
         <v>344</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8814,7 +8814,7 @@
         <v>345</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -8888,7 +8888,7 @@
         <v>346</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -8962,7 +8962,7 @@
         <v>347</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -9036,7 +9036,7 @@
         <v>348</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -9110,7 +9110,7 @@
         <v>349</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
@@ -9184,7 +9184,7 @@
         <v>350</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -9258,7 +9258,7 @@
         <v>593</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -9332,7 +9332,7 @@
         <v>594</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
   </sheetData>
@@ -9411,7 +9411,7 @@
         <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1184</v>
@@ -9434,7 +9434,7 @@
         <v>-2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9457,7 +9457,7 @@
         <v>-1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>1371</v>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>1375</v>
@@ -9734,7 +9734,7 @@
         <v>-2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>1442</v>
@@ -9806,7 +9806,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>1426</v>
@@ -9855,13 +9855,13 @@
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -9870,7 +9870,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="G25" s="1">
         <v>-3</v>
@@ -9910,7 +9910,7 @@
         <v>-1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>1444</v>
@@ -10005,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>1378</v>
@@ -10066,7 +10066,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="I36" s="20" t="s">
         <v>1447</v>
@@ -10112,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>1393</v>
@@ -10161,7 +10161,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>1390</v>
@@ -10199,13 +10199,13 @@
         <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="G42" s="1">
         <v>-1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10305,7 +10305,7 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>91</v>
@@ -10317,7 +10317,7 @@
         <v>264</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="G47" s="1">
         <v>4</v>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="48" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>91</v>
@@ -10338,7 +10338,7 @@
         <v>272</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -10348,7 +10348,7 @@
     <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
@@ -10357,7 +10357,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="G50" s="1">
         <v>-3</v>
@@ -10437,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>1419</v>
@@ -10507,7 +10507,7 @@
         <v>-2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10604,7 +10604,7 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -10663,7 +10663,7 @@
         <v>-2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="I68" s="20" t="s">
         <v>1443</v>
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>1421</v>
@@ -10823,7 +10823,7 @@
         <v>-2</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="I75" s="20" t="s">
         <v>1458</v>
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="I76" s="20" t="s">
         <v>1413</v>
@@ -10982,7 +10982,7 @@
         <v>-2</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10999,7 +10999,7 @@
         <v>145</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
@@ -11100,7 +11100,7 @@
     <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -11109,7 +11109,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="G89" s="1">
         <v>-3</v>
@@ -11132,7 +11132,7 @@
         <v>-2</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11247,7 +11247,7 @@
     <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>46</v>
@@ -11256,7 +11256,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="G97" s="1">
         <v>-3</v>
@@ -11276,13 +11276,13 @@
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="G98" s="1">
         <v>-2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11371,7 +11371,7 @@
         <v>3</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="I102" s="20" t="s">
         <v>1404</v>
@@ -11395,7 +11395,7 @@
         <v>-2</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="I105" s="20" t="s">
         <v>1449</v>
@@ -11444,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="I106" s="20" t="s">
         <v>1432</v>
@@ -11499,7 +11499,7 @@
     <row r="109" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>181</v>
@@ -11508,7 +11508,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="G110" s="1">
         <v>-3</v>
@@ -11531,7 +11531,7 @@
         <v>-2</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="I112" s="20" t="s">
         <v>1456</v>
@@ -11600,7 +11600,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1415</v>
@@ -11632,7 +11632,7 @@
     <row r="116" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>190</v>
@@ -11641,7 +11641,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="G117" s="1">
         <v>-3</v>
@@ -11664,7 +11664,7 @@
         <v>-2</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="I119" s="20" t="s">
         <v>1462</v>
@@ -11756,7 +11756,7 @@
         <v>3</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="I122" s="20" t="s">
         <v>1440</v>
@@ -11782,12 +11782,12 @@
         <v>4</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>199</v>
@@ -11796,7 +11796,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="G125" s="1">
         <v>-3</v>
@@ -11819,7 +11819,7 @@
         <v>-2</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11839,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="I127" s="20" t="s">
         <v>1448</v>
@@ -11952,7 +11952,7 @@
         <v>-2</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="I135" s="20" t="s">
         <v>1445</v>
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="I136" s="20" t="s">
         <v>1402</v>
@@ -12035,7 +12035,7 @@
         <v>2</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="I137" s="20" t="s">
         <v>1380</v>
@@ -12058,7 +12058,7 @@
         <v>3</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="I138" s="20" t="s">
         <v>1376</v>
@@ -12176,7 +12176,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="I146" s="20" t="s">
         <v>1446</v>
@@ -12346,7 +12346,7 @@
         <v>-1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12460,7 +12460,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>278</v>
@@ -12469,7 +12469,7 @@
         <v>30</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="G161" s="1">
         <v>-3</v>
@@ -12603,7 +12603,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>595</v>
@@ -12612,7 +12612,7 @@
         <v>1489</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="G169" s="1">
         <v>-3</v>
@@ -12635,7 +12635,7 @@
         <v>-2</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="I172" s="20" t="s">
         <v>1396</v>
@@ -12710,7 +12710,7 @@
         <v>2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="I173" s="20" t="s">
         <v>1394</v>
@@ -12724,7 +12724,7 @@
         <v>595</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>38</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>604</v>
@@ -12770,7 +12770,7 @@
         <v>1489</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="G177" s="1">
         <v>-3</v>
@@ -12796,7 +12796,7 @@
         <v>-2</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="I180" s="20" t="s">
         <v>1435</v>
@@ -12874,7 +12874,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="I181" s="20" t="s">
         <v>1422</v>
@@ -13028,8 +13028,8 @@
   <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D242" sqref="D242"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13074,7 +13074,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -13130,7 +13130,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13144,7 +13144,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13158,7 +13158,7 @@
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13220,7 +13220,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13489,13 +13489,13 @@
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -13531,7 +13531,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -13559,7 +13559,7 @@
         <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13629,7 +13629,7 @@
         <v>320</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -13685,7 +13685,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13736,7 +13736,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -13820,7 +13820,7 @@
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -13904,7 +13904,7 @@
         <v>320</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -13969,7 +13969,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -14067,7 +14067,7 @@
         <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -14095,7 +14095,7 @@
         <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -14114,7 +14114,7 @@
     </row>
     <row r="85" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>91</v>
@@ -14123,12 +14123,12 @@
         <v>317</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>91</v>
@@ -14137,12 +14137,12 @@
         <v>316</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>91</v>
@@ -14151,12 +14151,12 @@
         <v>315</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>91</v>
@@ -14165,12 +14165,12 @@
         <v>314</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>91</v>
@@ -14179,12 +14179,12 @@
         <v>313</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
@@ -14193,18 +14193,18 @@
         <v>312</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -14226,7 +14226,7 @@
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -14392,7 +14392,7 @@
         <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -14448,7 +14448,7 @@
         <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -14569,7 +14569,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14653,7 +14653,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14667,7 +14667,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14681,7 +14681,7 @@
         <v>427</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -14791,7 +14791,7 @@
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -14861,7 +14861,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -14903,7 +14903,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14971,7 +14971,7 @@
         <v>320</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15032,13 +15032,13 @@
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -15194,13 +15194,13 @@
     </row>
     <row r="171" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -15253,7 +15253,7 @@
         <v>320</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -15379,7 +15379,7 @@
         <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15447,7 +15447,7 @@
         <v>320</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -15536,13 +15536,13 @@
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15623,7 +15623,7 @@
         <v>320</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -15651,7 +15651,7 @@
         <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15693,7 +15693,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15726,13 +15726,13 @@
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15860,13 +15860,13 @@
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15891,7 +15891,7 @@
         <v>320</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -16043,7 +16043,7 @@
         <v>320</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -16071,7 +16071,7 @@
         <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16113,7 +16113,7 @@
         <v>320</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -16155,7 +16155,7 @@
         <v>320</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -16197,7 +16197,7 @@
         <v>320</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16304,7 +16304,7 @@
         <v>222</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16360,7 +16360,7 @@
         <v>320</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -16388,7 +16388,7 @@
         <v>320</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -16416,7 +16416,7 @@
         <v>320</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16481,7 +16481,7 @@
         <v>234</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16551,7 +16551,7 @@
         <v>320</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -16579,7 +16579,7 @@
         <v>320</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16612,13 +16612,13 @@
     </row>
     <row r="283" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -16640,7 +16640,7 @@
         <v>278</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -16682,7 +16682,7 @@
         <v>320</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -16738,7 +16738,7 @@
         <v>320</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -16757,13 +16757,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -16830,7 +16830,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1831</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16844,7 +16844,7 @@
         <v>320</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1648</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -16872,7 +16872,7 @@
         <v>320</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -16956,18 +16956,18 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1852</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17020,7 +17020,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1647</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17034,7 +17034,7 @@
         <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1646</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -17062,7 +17062,7 @@
         <v>320</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17118,7 +17118,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17227,7 +17227,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17250,7 +17250,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17273,7 +17273,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17342,7 +17342,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17365,7 +17365,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17434,7 +17434,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17457,7 +17457,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17480,7 +17480,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17503,7 +17503,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17526,7 +17526,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17549,7 +17549,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17572,7 +17572,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17595,7 +17595,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17618,7 +17618,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17641,7 +17641,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17664,7 +17664,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17687,7 +17687,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17710,7 +17710,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17733,7 +17733,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17756,7 +17756,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17779,7 +17779,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17802,7 +17802,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17825,7 +17825,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17848,7 +17848,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17871,7 +17871,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17894,7 +17894,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17917,7 +17917,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17940,7 +17940,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17963,7 +17963,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17986,7 +17986,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18032,7 +18032,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18078,7 +18078,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18101,7 +18101,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -19010,7 +19010,7 @@
         <v>980</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="G82" s="18"/>
     </row>
@@ -19032,7 +19032,7 @@
         <v>980</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="G83" s="18"/>
     </row>
@@ -19054,7 +19054,7 @@
         <v>980</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="G84" s="18"/>
     </row>
@@ -19076,7 +19076,7 @@
         <v>980</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="G85" s="18"/>
     </row>
@@ -19098,7 +19098,7 @@
         <v>980</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="G86" s="18"/>
     </row>
@@ -19120,7 +19120,7 @@
         <v>980</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="G87" s="18"/>
     </row>
@@ -19142,7 +19142,7 @@
         <v>980</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="G88" s="18"/>
     </row>
@@ -19164,7 +19164,7 @@
         <v>980</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="G89" s="18"/>
     </row>
@@ -19186,7 +19186,7 @@
         <v>980</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="G90" s="18"/>
     </row>
@@ -19208,7 +19208,7 @@
         <v>980</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="G91" t="s">
         <v>992</v>
@@ -19232,7 +19232,7 @@
         <v>980</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="G92" s="18"/>
     </row>
@@ -19254,7 +19254,7 @@
         <v>980</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="G93" s="18"/>
     </row>
@@ -19276,7 +19276,7 @@
         <v>980</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="G94" s="18"/>
     </row>
@@ -19298,7 +19298,7 @@
         <v>980</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="G95" s="18"/>
     </row>
@@ -19320,7 +19320,7 @@
         <v>980</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="G96" s="18"/>
     </row>
@@ -19342,7 +19342,7 @@
         <v>980</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="G97" s="18"/>
     </row>
@@ -19364,7 +19364,7 @@
         <v>980</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="G98" s="18"/>
     </row>
@@ -19386,7 +19386,7 @@
         <v>980</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="G99" s="18"/>
     </row>
@@ -19408,7 +19408,7 @@
         <v>980</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="G100" s="18"/>
     </row>
@@ -19430,7 +19430,7 @@
         <v>980</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="G101" t="s">
         <v>992</v>
@@ -19454,7 +19454,7 @@
         <v>980</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="G102" s="18"/>
     </row>
@@ -19476,7 +19476,7 @@
         <v>980</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="G103" s="18"/>
     </row>
@@ -19498,7 +19498,7 @@
         <v>980</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="G104" s="18"/>
     </row>
@@ -19520,7 +19520,7 @@
         <v>980</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="G105" s="18"/>
     </row>
@@ -19542,7 +19542,7 @@
         <v>980</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="G106" s="18"/>
     </row>
@@ -19564,7 +19564,7 @@
         <v>980</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="G107" s="18"/>
     </row>
@@ -19586,7 +19586,7 @@
         <v>980</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="G108" s="18"/>
     </row>
@@ -19608,7 +19608,7 @@
         <v>980</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="G109" s="18"/>
     </row>
@@ -19630,7 +19630,7 @@
         <v>980</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="G110" s="18"/>
     </row>
@@ -19652,7 +19652,7 @@
         <v>980</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="G111" t="s">
         <v>992</v>
@@ -19676,7 +19676,7 @@
         <v>980</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="G112" s="18"/>
     </row>
@@ -19698,7 +19698,7 @@
         <v>980</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="G113" s="18"/>
     </row>
@@ -19720,7 +19720,7 @@
         <v>980</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="G114" s="18"/>
     </row>
@@ -19742,7 +19742,7 @@
         <v>980</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="G115" s="18"/>
     </row>
@@ -19764,7 +19764,7 @@
         <v>980</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="G116" s="18"/>
     </row>
@@ -19786,7 +19786,7 @@
         <v>980</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="G117" s="18"/>
     </row>
@@ -19808,7 +19808,7 @@
         <v>980</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="G118" s="18"/>
     </row>
@@ -19830,7 +19830,7 @@
         <v>980</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="G119" s="18"/>
     </row>
@@ -19852,7 +19852,7 @@
         <v>980</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="G120" s="18"/>
     </row>
@@ -19874,7 +19874,7 @@
         <v>980</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="G121" t="s">
         <v>992</v>
@@ -19898,7 +19898,7 @@
         <v>980</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="G122" s="18"/>
     </row>
@@ -19920,7 +19920,7 @@
         <v>980</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="G123" s="18"/>
     </row>
@@ -19942,7 +19942,7 @@
         <v>980</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="G124" s="18"/>
     </row>
@@ -19964,7 +19964,7 @@
         <v>980</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="G125" s="18"/>
     </row>
@@ -19986,7 +19986,7 @@
         <v>980</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="G126" s="18"/>
     </row>
@@ -20008,7 +20008,7 @@
         <v>980</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="G127" s="18"/>
     </row>
@@ -20030,7 +20030,7 @@
         <v>980</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="G128" s="18"/>
     </row>
@@ -20052,7 +20052,7 @@
         <v>980</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="G129" s="18"/>
     </row>
@@ -20074,7 +20074,7 @@
         <v>980</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="G130" s="18"/>
     </row>
@@ -20096,7 +20096,7 @@
         <v>980</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="G131" t="s">
         <v>992</v>
@@ -20120,7 +20120,7 @@
         <v>980</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="G132" s="18"/>
     </row>
@@ -20142,7 +20142,7 @@
         <v>980</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="G133" s="18"/>
     </row>
@@ -20164,7 +20164,7 @@
         <v>980</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="G134" s="18"/>
     </row>
@@ -20186,7 +20186,7 @@
         <v>980</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="G135" s="18"/>
     </row>
@@ -20208,7 +20208,7 @@
         <v>980</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="G136" s="18"/>
     </row>
@@ -20230,7 +20230,7 @@
         <v>980</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="G137" s="18"/>
     </row>
@@ -20252,7 +20252,7 @@
         <v>980</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="G138" s="18"/>
     </row>
@@ -20274,7 +20274,7 @@
         <v>980</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="G139" s="18"/>
     </row>
@@ -20296,7 +20296,7 @@
         <v>980</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="G140" s="18"/>
     </row>
@@ -20318,7 +20318,7 @@
         <v>980</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="G141" t="s">
         <v>992</v>
@@ -20342,7 +20342,7 @@
         <v>980</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="G142" s="18"/>
     </row>
@@ -20364,7 +20364,7 @@
         <v>980</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="G143" s="18"/>
     </row>
@@ -20386,7 +20386,7 @@
         <v>980</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="G144" s="18"/>
     </row>
@@ -20408,7 +20408,7 @@
         <v>980</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="G145" s="18"/>
     </row>
@@ -20430,7 +20430,7 @@
         <v>980</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="G146" s="18"/>
     </row>
@@ -20452,7 +20452,7 @@
         <v>980</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="G147" s="18"/>
     </row>
@@ -20474,7 +20474,7 @@
         <v>980</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="G148" s="18"/>
     </row>
@@ -20496,7 +20496,7 @@
         <v>980</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="G149" s="18"/>
     </row>
@@ -20518,7 +20518,7 @@
         <v>980</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="G150" s="18"/>
     </row>
@@ -20540,7 +20540,7 @@
         <v>980</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="G151" t="s">
         <v>992</v>
@@ -20564,7 +20564,7 @@
         <v>980</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="G152" s="18"/>
     </row>
@@ -20586,7 +20586,7 @@
         <v>980</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="G153" s="18"/>
     </row>
@@ -20608,7 +20608,7 @@
         <v>980</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="G154" s="18"/>
     </row>
@@ -20630,7 +20630,7 @@
         <v>980</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="G155" s="18"/>
     </row>
@@ -20652,7 +20652,7 @@
         <v>980</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="G156" s="18"/>
     </row>
@@ -20674,7 +20674,7 @@
         <v>980</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G157" s="18"/>
     </row>
@@ -20696,7 +20696,7 @@
         <v>980</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="G158" s="18"/>
     </row>
@@ -20718,7 +20718,7 @@
         <v>980</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="G159" s="18"/>
     </row>
@@ -20740,7 +20740,7 @@
         <v>980</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="G160" s="18"/>
     </row>
@@ -20762,10 +20762,10 @@
         <v>980</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22546,13 +22546,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22566,13 +22566,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22586,13 +22586,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22606,13 +22606,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22626,13 +22626,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22669,13 +22669,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22689,13 +22689,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22709,13 +22709,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22729,13 +22729,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22749,13 +22749,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22769,13 +22769,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22789,13 +22789,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22809,13 +22809,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22829,13 +22829,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22852,13 +22852,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22872,13 +22872,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22892,13 +22892,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22912,13 +22912,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22932,13 +22932,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22952,13 +22952,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22972,13 +22972,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22992,13 +22992,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -23012,13 +23012,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -23035,13 +23035,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23058,13 +23058,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23078,13 +23078,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23098,13 +23098,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23121,13 +23121,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23141,13 +23141,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23161,13 +23161,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23184,13 +23184,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23204,13 +23204,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23224,13 +23224,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23244,13 +23244,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23267,13 +23267,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23287,13 +23287,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23307,13 +23307,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23327,13 +23327,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23347,13 +23347,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23367,13 +23367,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23387,13 +23387,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23407,13 +23407,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23427,13 +23427,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23447,13 +23447,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23467,13 +23467,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23487,13 +23487,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23507,13 +23507,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="B289" s="8">
         <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23527,13 +23527,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23545,18 +23545,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23568,18 +23568,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B292" s="8">
         <v>1</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23591,18 +23591,18 @@
         <v>980</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23616,13 +23616,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23636,13 +23636,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B295" s="8">
         <v>2</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23656,13 +23656,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23674,18 +23674,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23697,18 +23697,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B298" s="8">
         <v>1</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23720,18 +23720,18 @@
         <v>980</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23745,13 +23745,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23765,13 +23765,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B301" s="8">
         <v>2</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23785,13 +23785,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23803,41 +23803,41 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D303" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G303" s="6" t="s">
         <v>2042</v>
-      </c>
-      <c r="D303" s="32" t="s">
-        <v>980</v>
-      </c>
-      <c r="E303" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="F303" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="G303" s="6" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B304" s="8">
         <v>1</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="D304" s="32" t="s">
         <v>980</v>
@@ -23849,7 +23849,7 @@
         <v>980</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
   </sheetData>
@@ -23953,7 +23953,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23994,7 +23994,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -24035,7 +24035,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24120,7 +24120,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24161,7 +24161,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24202,7 +24202,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24243,7 +24243,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24284,7 +24284,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24325,7 +24325,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24366,7 +24366,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24407,7 +24407,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24448,7 +24448,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24489,7 +24489,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24533,7 +24533,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24574,7 +24574,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24618,7 +24618,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24662,7 +24662,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24695,7 +24695,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>992</v>
@@ -24706,7 +24706,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24739,7 +24739,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>992</v>
@@ -24750,7 +24750,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24791,7 +24791,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24832,7 +24832,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -24876,7 +24876,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -24920,7 +24920,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24961,7 +24961,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -25043,7 +25043,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -25084,7 +25084,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25125,7 +25125,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25166,7 +25166,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25207,7 +25207,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25248,7 +25248,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25289,7 +25289,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25330,7 +25330,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25371,7 +25371,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25415,7 +25415,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25456,7 +25456,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>992</v>
@@ -25500,7 +25500,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25544,7 +25544,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25588,7 +25588,7 @@
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25621,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>992</v>
@@ -25632,7 +25632,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25673,7 +25673,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -25717,7 +25717,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25758,7 +25758,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25840,7 +25840,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25922,7 +25922,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -26004,7 +26004,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -26045,7 +26045,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26086,7 +26086,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -26130,7 +26130,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26171,7 +26171,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26212,7 +26212,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26253,7 +26253,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26294,7 +26294,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26335,7 +26335,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26376,7 +26376,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26409,7 +26409,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>992</v>
@@ -26420,7 +26420,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -26453,7 +26453,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>992</v>
@@ -26464,7 +26464,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26508,7 +26508,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26541,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>992</v>
@@ -26552,7 +26552,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26596,7 +26596,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26638,7 +26638,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -26682,7 +26682,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26723,7 +26723,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26764,7 +26764,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26805,7 +26805,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26846,7 +26846,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -26890,7 +26890,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26931,7 +26931,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26972,7 +26972,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -27013,7 +27013,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -27054,7 +27054,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27095,7 +27095,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27136,7 +27136,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27177,7 +27177,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27218,7 +27218,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -27262,7 +27262,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27303,7 +27303,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27336,7 +27336,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="M82" s="25" t="s">
         <v>992</v>
@@ -27347,7 +27347,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27391,7 +27391,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27430,7 +27430,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27471,7 +27471,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27512,7 +27512,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -27556,7 +27556,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -27641,7 +27641,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27682,7 +27682,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27723,7 +27723,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -27767,7 +27767,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27808,7 +27808,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27849,7 +27849,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27931,7 +27931,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -28013,7 +28013,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -28054,7 +28054,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28095,7 +28095,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28136,7 +28136,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28177,7 +28177,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28218,7 +28218,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28259,7 +28259,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28300,7 +28300,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28341,7 +28341,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28385,7 +28385,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28429,7 +28429,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28473,7 +28473,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>992</v>
@@ -28517,7 +28517,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28561,7 +28561,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28602,7 +28602,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -28646,7 +28646,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -28690,7 +28690,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28731,7 +28731,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28772,7 +28772,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28813,7 +28813,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28854,7 +28854,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -28898,7 +28898,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28939,7 +28939,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -28983,7 +28983,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -29024,7 +29024,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -29065,7 +29065,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29106,7 +29106,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29147,7 +29147,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29188,7 +29188,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29229,7 +29229,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -29273,7 +29273,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -29317,7 +29317,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29358,7 +29358,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29399,7 +29399,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29440,7 +29440,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29481,7 +29481,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29522,7 +29522,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29566,7 +29566,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29610,7 +29610,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29643,7 +29643,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="M137" s="25" t="s">
         <v>992</v>
@@ -29654,7 +29654,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29698,7 +29698,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29742,7 +29742,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29775,7 +29775,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="M140" s="25" t="s">
         <v>992</v>
@@ -29786,7 +29786,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29830,7 +29830,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29863,7 +29863,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="M142" s="25" t="s">
         <v>992</v>
@@ -29874,7 +29874,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -30154,7 +30154,7 @@
         <v>1082</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>1157</v>
@@ -30166,7 +30166,7 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
@@ -30236,7 +30236,7 @@
         <v>1086</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>1159</v>
@@ -30277,7 +30277,7 @@
         <v>1088</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1156</v>
@@ -30289,7 +30289,7 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
@@ -30318,7 +30318,7 @@
         <v>1090</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>1160</v>
@@ -30330,7 +30330,7 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
@@ -30400,7 +30400,7 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1161</v>
@@ -30412,13 +30412,13 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>1479</v>
@@ -30441,7 +30441,7 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1162</v>
@@ -30482,7 +30482,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1164</v>
@@ -30564,7 +30564,7 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1175</v>
@@ -30605,7 +30605,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1168</v>
@@ -30646,7 +30646,7 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1173</v>
@@ -30658,7 +30658,7 @@
         <v>1172</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>1237</v>
@@ -30728,7 +30728,7 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1179</v>
@@ -30740,13 +30740,13 @@
         <v>1181</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>1241</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>1467</v>
@@ -30769,7 +30769,7 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1263</v>
@@ -30781,7 +30781,7 @@
         <v>1183</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1242</v>
@@ -30810,7 +30810,7 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1185</v>
@@ -30945,7 +30945,7 @@
         <v>1205</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1250</v>
@@ -30974,7 +30974,7 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1206</v>
@@ -30995,7 +30995,7 @@
         <v>1252</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1477</v>
@@ -31106,7 +31106,7 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1220</v>
@@ -31124,7 +31124,7 @@
         <v>1221</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1223</v>
@@ -31801,7 +31801,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -31812,7 +31812,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -31823,7 +31823,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -31834,7 +31834,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -31842,10 +31842,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -31856,7 +31856,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -31867,7 +31867,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -31878,7 +31878,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -31889,7 +31889,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -31900,7 +31900,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224154FA-A602-4817-8DDE-4B6DD645DA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092BA2D-D339-4B98-94D3-A40A6A1C12AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -3555,11 +3555,6 @@
 6:star:**Cheaper Construction**: The gold required is reduced by ~10% (already counted in level upgrades)</t>
   </si>
   <si>
-    <t>4:star:**Double Archers**: There are now 2 archers on tower
-5:star:**Increased Range**: Range is increased by 0.25 (already counted in level upgrades)
-6:star:**Chance of Slowing**: Every arrow (including Multi Shot) has 5% chance to slow the target by 50% for 3s</t>
-  </si>
-  <si>
     <t>4:star:**Three Troops**: The tower now deploys 3 warriors
 5:star:**Increased Health**: HP of warriors are increased by &gt;40% (already counted in level upgrades)
 6:star:**Increased damage**: ND of warriors are increased from 5 to 7</t>
@@ -7034,6 +7029,11 @@
   </si>
   <si>
     <t>After using active, Cyra transforms to Goddess form, at which attacks have special effects, physical armor is increased by 15% and move speed is increased by 1, last 13s, she also gains immunity for 3/6/9s at rank 2/4/6</t>
+  </si>
+  <si>
+    <t>4:star:**Double Archers**: There are now 2 archers on tower, but the damage is reduced from `(1.4 ND) PD` to `(1 ND) PD`
+5:star:**Increased Range**: Range is increased by 0.25 (already counted in level upgrades)
+6:star:**Chance of Slowing**: Every arrow (including Multi Shot) has 5% chance to slow the target by 50% for 3s</t>
   </si>
 </sst>
 </file>
@@ -7704,7 +7704,7 @@
         <v>592</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -7778,7 +7778,7 @@
         <v>334</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -7852,7 +7852,7 @@
         <v>333</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -7926,7 +7926,7 @@
         <v>332</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -8000,7 +8000,7 @@
         <v>331</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -8074,7 +8074,7 @@
         <v>335</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -8148,7 +8148,7 @@
         <v>336</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -8222,7 +8222,7 @@
         <v>337</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -8296,7 +8296,7 @@
         <v>338</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -8370,7 +8370,7 @@
         <v>339</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -8444,7 +8444,7 @@
         <v>340</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8518,7 +8518,7 @@
         <v>341</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8592,7 +8592,7 @@
         <v>342</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8666,7 +8666,7 @@
         <v>343</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -8740,7 +8740,7 @@
         <v>344</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8814,7 +8814,7 @@
         <v>345</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -8888,7 +8888,7 @@
         <v>346</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -8962,7 +8962,7 @@
         <v>347</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -9036,7 +9036,7 @@
         <v>348</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -9110,7 +9110,7 @@
         <v>349</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
@@ -9184,7 +9184,7 @@
         <v>350</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -9258,7 +9258,7 @@
         <v>593</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -9332,7 +9332,7 @@
         <v>594</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
   </sheetData>
@@ -9411,10 +9411,10 @@
         <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9434,7 +9434,7 @@
         <v>-2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9457,7 +9457,7 @@
         <v>-1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9477,10 +9477,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9526,7 +9526,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9549,7 +9549,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9621,10 +9621,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9670,7 +9670,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9693,7 +9693,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -9734,7 +9734,7 @@
         <v>-2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9757,10 +9757,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9806,10 +9806,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -9820,7 +9820,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -9855,13 +9855,13 @@
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -9870,7 +9870,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G25" s="1">
         <v>-3</v>
@@ -9910,7 +9910,7 @@
         <v>-1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9933,10 +9933,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9959,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9982,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -10005,10 +10005,10 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -10019,7 +10019,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>264</v>
@@ -10066,7 +10066,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10086,10 +10086,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10112,10 +10112,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10138,7 +10138,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10161,10 +10161,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10199,13 +10199,13 @@
         <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G42" s="1">
         <v>-1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10248,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10274,7 +10274,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10300,12 +10300,12 @@
         <v>3</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>91</v>
@@ -10317,7 +10317,7 @@
         <v>264</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G47" s="1">
         <v>4</v>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="48" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>91</v>
@@ -10338,7 +10338,7 @@
         <v>272</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -10348,7 +10348,7 @@
     <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
@@ -10357,7 +10357,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G50" s="1">
         <v>-3</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10437,10 +10437,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -10463,7 +10463,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -10486,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10507,7 +10507,7 @@
         <v>-2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -10576,7 +10576,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10599,12 +10599,12 @@
         <v>3</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -10630,7 +10630,7 @@
         <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>264</v>
@@ -10663,7 +10663,7 @@
         <v>-2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10706,10 +10706,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10729,10 +10729,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10755,7 +10755,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -10775,7 +10775,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10786,7 +10786,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>264</v>
@@ -10823,7 +10823,7 @@
         <v>-2</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10869,10 +10869,10 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10895,7 +10895,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10918,7 +10918,7 @@
         <v>3</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10929,7 +10929,7 @@
         <v>44</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>268</v>
@@ -10949,7 +10949,7 @@
         <v>44</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>264</v>
@@ -10982,7 +10982,7 @@
         <v>-2</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10999,13 +10999,13 @@
         <v>145</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11016,7 +11016,7 @@
         <v>141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -11028,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11051,7 +11051,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11074,7 +11074,7 @@
         <v>3</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11085,7 +11085,7 @@
         <v>151</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>264</v>
@@ -11100,7 +11100,7 @@
     <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -11109,7 +11109,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G89" s="1">
         <v>-3</v>
@@ -11132,7 +11132,7 @@
         <v>-2</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11152,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11198,7 +11198,7 @@
         <v>2</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11221,7 +11221,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -11232,7 +11232,7 @@
         <v>45</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>264</v>
@@ -11247,7 +11247,7 @@
     <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>46</v>
@@ -11256,7 +11256,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G97" s="1">
         <v>-3</v>
@@ -11276,13 +11276,13 @@
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G98" s="1">
         <v>-2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11348,7 +11348,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11371,10 +11371,10 @@
         <v>3</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11395,7 +11395,7 @@
         <v>-2</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11418,10 +11418,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11444,10 +11444,10 @@
         <v>1</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -11458,7 +11458,7 @@
         <v>171</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>37</v>
@@ -11470,7 +11470,7 @@
         <v>2</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11481,7 +11481,7 @@
         <v>171</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>38</v>
@@ -11493,13 +11493,13 @@
         <v>3</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>181</v>
@@ -11508,7 +11508,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G110" s="1">
         <v>-3</v>
@@ -11531,7 +11531,7 @@
         <v>-2</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11551,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11577,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="20" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11600,10 +11600,10 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11626,13 +11626,13 @@
         <v>3</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>190</v>
@@ -11641,7 +11641,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G117" s="1">
         <v>-3</v>
@@ -11664,7 +11664,7 @@
         <v>-2</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11684,10 +11684,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="I119" s="20" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11710,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11733,7 +11733,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -11744,7 +11744,7 @@
         <v>190</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>38</v>
@@ -11756,10 +11756,10 @@
         <v>3</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11782,12 +11782,12 @@
         <v>4</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>199</v>
@@ -11796,7 +11796,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G125" s="1">
         <v>-3</v>
@@ -11819,7 +11819,7 @@
         <v>-2</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11839,10 +11839,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11888,7 +11888,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="20" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11911,7 +11911,7 @@
         <v>3</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -11922,7 +11922,7 @@
         <v>199</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>264</v>
@@ -11952,7 +11952,7 @@
         <v>-2</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -11989,10 +11989,10 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I135" s="20" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12012,10 +12012,10 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12035,10 +12035,10 @@
         <v>2</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12058,10 +12058,10 @@
         <v>3</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I138" s="20" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12176,7 +12176,7 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -12196,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="20" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12245,7 +12245,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="I149" s="20" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12279,7 +12279,7 @@
         <v>222</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>270</v>
@@ -12346,7 +12346,7 @@
         <v>-1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="20" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -12389,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="20" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12412,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12435,7 +12435,7 @@
         <v>3</v>
       </c>
       <c r="I158" s="20" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12446,7 +12446,7 @@
         <v>238</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>264</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>278</v>
@@ -12469,7 +12469,7 @@
         <v>30</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G161" s="1">
         <v>-3</v>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="20" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12552,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12575,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="I166" s="20" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12598,21 +12598,21 @@
         <v>3</v>
       </c>
       <c r="I167" s="20" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G169" s="1">
         <v>-3</v>
@@ -12635,7 +12635,7 @@
         <v>-2</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12681,10 +12681,10 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I172" s="20" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -12710,10 +12710,10 @@
         <v>2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="I173" s="20" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12724,7 +12724,7 @@
         <v>595</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>38</v>
@@ -12736,7 +12736,7 @@
         <v>3</v>
       </c>
       <c r="I174" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12761,16 +12761,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G177" s="1">
         <v>-3</v>
@@ -12796,7 +12796,7 @@
         <v>-2</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -12845,10 +12845,10 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I180" s="20" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12874,10 +12874,10 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I181" s="20" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -12900,7 +12900,7 @@
         <v>3</v>
       </c>
       <c r="I182" s="20" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -13027,7 +13027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D303" sqref="D303"/>
     </sheetView>
@@ -13074,7 +13074,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -13130,7 +13130,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13144,7 +13144,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13158,7 +13158,7 @@
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13220,7 +13220,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13489,13 +13489,13 @@
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -13531,7 +13531,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -13559,7 +13559,7 @@
         <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13629,7 +13629,7 @@
         <v>320</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -13685,7 +13685,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13736,7 +13736,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -13820,7 +13820,7 @@
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -13904,7 +13904,7 @@
         <v>320</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -13969,7 +13969,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -14067,7 +14067,7 @@
         <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -14095,7 +14095,7 @@
         <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -14114,7 +14114,7 @@
     </row>
     <row r="85" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>91</v>
@@ -14123,12 +14123,12 @@
         <v>317</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>91</v>
@@ -14137,12 +14137,12 @@
         <v>316</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>91</v>
@@ -14151,12 +14151,12 @@
         <v>315</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>91</v>
@@ -14165,12 +14165,12 @@
         <v>314</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>91</v>
@@ -14179,12 +14179,12 @@
         <v>313</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
@@ -14193,18 +14193,18 @@
         <v>312</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -14226,7 +14226,7 @@
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -14392,7 +14392,7 @@
         <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -14448,7 +14448,7 @@
         <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -14569,7 +14569,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -14653,7 +14653,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14667,7 +14667,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -14681,7 +14681,7 @@
         <v>427</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -14791,7 +14791,7 @@
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -14861,7 +14861,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -14903,7 +14903,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14971,7 +14971,7 @@
         <v>320</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15027,18 +15027,18 @@
         <v>264</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -15194,13 +15194,13 @@
     </row>
     <row r="171" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -15253,7 +15253,7 @@
         <v>320</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -15379,7 +15379,7 @@
         <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15447,7 +15447,7 @@
         <v>320</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -15536,13 +15536,13 @@
     </row>
     <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15623,7 +15623,7 @@
         <v>320</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -15651,7 +15651,7 @@
         <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15693,7 +15693,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15726,13 +15726,13 @@
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15860,13 +15860,13 @@
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15891,7 +15891,7 @@
         <v>320</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -16029,7 +16029,7 @@
         <v>47</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16043,7 +16043,7 @@
         <v>320</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -16071,7 +16071,7 @@
         <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16099,7 +16099,7 @@
         <v>270</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16113,7 +16113,7 @@
         <v>320</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -16141,7 +16141,7 @@
         <v>270</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16155,7 +16155,7 @@
         <v>320</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -16183,7 +16183,7 @@
         <v>270</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16197,7 +16197,7 @@
         <v>320</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16225,7 +16225,7 @@
         <v>270</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16281,7 +16281,7 @@
         <v>264</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16304,7 +16304,7 @@
         <v>222</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16360,7 +16360,7 @@
         <v>320</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -16388,7 +16388,7 @@
         <v>320</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -16416,7 +16416,7 @@
         <v>320</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16481,7 +16481,7 @@
         <v>234</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16537,7 +16537,7 @@
         <v>301</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16551,7 +16551,7 @@
         <v>320</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -16579,7 +16579,7 @@
         <v>320</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16612,13 +16612,13 @@
     </row>
     <row r="283" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -16640,7 +16640,7 @@
         <v>278</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -16682,7 +16682,7 @@
         <v>320</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -16738,7 +16738,7 @@
         <v>320</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -16757,13 +16757,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -16830,7 +16830,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16844,7 +16844,7 @@
         <v>320</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -16872,7 +16872,7 @@
         <v>320</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -16956,18 +16956,18 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17020,7 +17020,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17034,7 +17034,7 @@
         <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -17062,7 +17062,7 @@
         <v>320</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17118,7 +17118,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17132,7 +17132,7 @@
         <v>270</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
   </sheetData>
@@ -17227,7 +17227,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17250,7 +17250,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17273,7 +17273,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17342,7 +17342,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17365,7 +17365,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17434,7 +17434,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17457,7 +17457,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17480,7 +17480,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17503,7 +17503,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17526,7 +17526,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17549,7 +17549,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17572,7 +17572,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17595,7 +17595,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17618,7 +17618,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17641,7 +17641,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17664,7 +17664,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17687,7 +17687,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17710,7 +17710,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17733,7 +17733,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17756,7 +17756,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17779,7 +17779,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17802,7 +17802,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17825,7 +17825,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17848,7 +17848,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17871,7 +17871,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17894,7 +17894,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17917,7 +17917,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17940,7 +17940,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17963,7 +17963,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17986,7 +17986,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18032,7 +18032,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18078,7 +18078,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18101,7 +18101,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -19010,7 +19010,7 @@
         <v>980</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G82" s="18"/>
     </row>
@@ -19032,7 +19032,7 @@
         <v>980</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G83" s="18"/>
     </row>
@@ -19054,7 +19054,7 @@
         <v>980</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G84" s="18"/>
     </row>
@@ -19076,7 +19076,7 @@
         <v>980</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G85" s="18"/>
     </row>
@@ -19098,7 +19098,7 @@
         <v>980</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G86" s="18"/>
     </row>
@@ -19120,7 +19120,7 @@
         <v>980</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G87" s="18"/>
     </row>
@@ -19142,7 +19142,7 @@
         <v>980</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G88" s="18"/>
     </row>
@@ -19164,7 +19164,7 @@
         <v>980</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G89" s="18"/>
     </row>
@@ -19186,7 +19186,7 @@
         <v>980</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G90" s="18"/>
     </row>
@@ -19208,7 +19208,7 @@
         <v>980</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G91" t="s">
         <v>992</v>
@@ -19232,7 +19232,7 @@
         <v>980</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G92" s="18"/>
     </row>
@@ -19254,7 +19254,7 @@
         <v>980</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G93" s="18"/>
     </row>
@@ -19276,7 +19276,7 @@
         <v>980</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G94" s="18"/>
     </row>
@@ -19298,7 +19298,7 @@
         <v>980</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G95" s="18"/>
     </row>
@@ -19320,7 +19320,7 @@
         <v>980</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G96" s="18"/>
     </row>
@@ -19342,7 +19342,7 @@
         <v>980</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G97" s="18"/>
     </row>
@@ -19364,7 +19364,7 @@
         <v>980</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G98" s="18"/>
     </row>
@@ -19386,7 +19386,7 @@
         <v>980</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G99" s="18"/>
     </row>
@@ -19408,7 +19408,7 @@
         <v>980</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G100" s="18"/>
     </row>
@@ -19430,7 +19430,7 @@
         <v>980</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G101" t="s">
         <v>992</v>
@@ -19454,7 +19454,7 @@
         <v>980</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G102" s="18"/>
     </row>
@@ -19476,7 +19476,7 @@
         <v>980</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G103" s="18"/>
     </row>
@@ -19498,7 +19498,7 @@
         <v>980</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G104" s="18"/>
     </row>
@@ -19520,7 +19520,7 @@
         <v>980</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G105" s="18"/>
     </row>
@@ -19542,7 +19542,7 @@
         <v>980</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G106" s="18"/>
     </row>
@@ -19564,7 +19564,7 @@
         <v>980</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G107" s="18"/>
     </row>
@@ -19586,7 +19586,7 @@
         <v>980</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G108" s="18"/>
     </row>
@@ -19608,7 +19608,7 @@
         <v>980</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G109" s="18"/>
     </row>
@@ -19630,7 +19630,7 @@
         <v>980</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G110" s="18"/>
     </row>
@@ -19652,7 +19652,7 @@
         <v>980</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G111" t="s">
         <v>992</v>
@@ -19676,7 +19676,7 @@
         <v>980</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G112" s="18"/>
     </row>
@@ -19698,7 +19698,7 @@
         <v>980</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G113" s="18"/>
     </row>
@@ -19720,7 +19720,7 @@
         <v>980</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G114" s="18"/>
     </row>
@@ -19742,7 +19742,7 @@
         <v>980</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G115" s="18"/>
     </row>
@@ -19764,7 +19764,7 @@
         <v>980</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G116" s="18"/>
     </row>
@@ -19786,7 +19786,7 @@
         <v>980</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G117" s="18"/>
     </row>
@@ -19808,7 +19808,7 @@
         <v>980</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G118" s="18"/>
     </row>
@@ -19830,7 +19830,7 @@
         <v>980</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G119" s="18"/>
     </row>
@@ -19852,7 +19852,7 @@
         <v>980</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G120" s="18"/>
     </row>
@@ -19874,7 +19874,7 @@
         <v>980</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G121" t="s">
         <v>992</v>
@@ -19898,7 +19898,7 @@
         <v>980</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G122" s="18"/>
     </row>
@@ -19920,7 +19920,7 @@
         <v>980</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G123" s="18"/>
     </row>
@@ -19942,7 +19942,7 @@
         <v>980</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G124" s="18"/>
     </row>
@@ -19964,7 +19964,7 @@
         <v>980</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G125" s="18"/>
     </row>
@@ -19986,7 +19986,7 @@
         <v>980</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G126" s="18"/>
     </row>
@@ -20008,7 +20008,7 @@
         <v>980</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G127" s="18"/>
     </row>
@@ -20030,7 +20030,7 @@
         <v>980</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G128" s="18"/>
     </row>
@@ -20052,7 +20052,7 @@
         <v>980</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G129" s="18"/>
     </row>
@@ -20074,7 +20074,7 @@
         <v>980</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G130" s="18"/>
     </row>
@@ -20096,7 +20096,7 @@
         <v>980</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G131" t="s">
         <v>992</v>
@@ -20120,7 +20120,7 @@
         <v>980</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G132" s="18"/>
     </row>
@@ -20142,7 +20142,7 @@
         <v>980</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G133" s="18"/>
     </row>
@@ -20164,7 +20164,7 @@
         <v>980</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G134" s="18"/>
     </row>
@@ -20186,7 +20186,7 @@
         <v>980</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G135" s="18"/>
     </row>
@@ -20208,7 +20208,7 @@
         <v>980</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G136" s="18"/>
     </row>
@@ -20230,7 +20230,7 @@
         <v>980</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G137" s="18"/>
     </row>
@@ -20252,7 +20252,7 @@
         <v>980</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G138" s="18"/>
     </row>
@@ -20274,7 +20274,7 @@
         <v>980</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G139" s="18"/>
     </row>
@@ -20296,7 +20296,7 @@
         <v>980</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G140" s="18"/>
     </row>
@@ -20318,7 +20318,7 @@
         <v>980</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G141" t="s">
         <v>992</v>
@@ -20342,7 +20342,7 @@
         <v>980</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G142" s="18"/>
     </row>
@@ -20364,7 +20364,7 @@
         <v>980</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G143" s="18"/>
     </row>
@@ -20386,7 +20386,7 @@
         <v>980</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G144" s="18"/>
     </row>
@@ -20408,7 +20408,7 @@
         <v>980</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G145" s="18"/>
     </row>
@@ -20430,7 +20430,7 @@
         <v>980</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G146" s="18"/>
     </row>
@@ -20452,7 +20452,7 @@
         <v>980</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G147" s="18"/>
     </row>
@@ -20474,7 +20474,7 @@
         <v>980</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G148" s="18"/>
     </row>
@@ -20496,7 +20496,7 @@
         <v>980</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G149" s="18"/>
     </row>
@@ -20518,7 +20518,7 @@
         <v>980</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G150" s="18"/>
     </row>
@@ -20540,7 +20540,7 @@
         <v>980</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G151" t="s">
         <v>992</v>
@@ -20564,7 +20564,7 @@
         <v>980</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G152" s="18"/>
     </row>
@@ -20586,7 +20586,7 @@
         <v>980</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G153" s="18"/>
     </row>
@@ -20608,7 +20608,7 @@
         <v>980</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G154" s="18"/>
     </row>
@@ -20630,7 +20630,7 @@
         <v>980</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G155" s="18"/>
     </row>
@@ -20652,7 +20652,7 @@
         <v>980</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G156" s="18"/>
     </row>
@@ -20674,7 +20674,7 @@
         <v>980</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G157" s="18"/>
     </row>
@@ -20696,7 +20696,7 @@
         <v>980</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G158" s="18"/>
     </row>
@@ -20718,7 +20718,7 @@
         <v>980</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G159" s="18"/>
     </row>
@@ -20740,7 +20740,7 @@
         <v>980</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G160" s="18"/>
     </row>
@@ -20762,10 +20762,10 @@
         <v>980</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22546,13 +22546,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22566,13 +22566,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22586,13 +22586,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22606,13 +22606,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22626,13 +22626,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22669,13 +22669,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22689,13 +22689,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22709,13 +22709,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22729,13 +22729,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22749,13 +22749,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22769,13 +22769,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22789,13 +22789,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22809,13 +22809,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22829,13 +22829,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22852,13 +22852,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22872,13 +22872,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22892,13 +22892,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22912,13 +22912,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22932,13 +22932,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22952,13 +22952,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22972,13 +22972,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22992,13 +22992,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -23012,13 +23012,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -23035,13 +23035,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23058,13 +23058,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23078,13 +23078,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23098,13 +23098,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23121,13 +23121,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23141,13 +23141,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23161,13 +23161,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23184,13 +23184,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23204,13 +23204,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23224,13 +23224,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23244,13 +23244,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23267,13 +23267,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23287,13 +23287,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23307,13 +23307,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23327,13 +23327,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23347,13 +23347,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23367,13 +23367,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23387,13 +23387,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23407,13 +23407,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23427,13 +23427,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23447,13 +23447,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23467,13 +23467,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23487,13 +23487,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23507,13 +23507,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B289" s="8">
         <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23527,13 +23527,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23545,18 +23545,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23568,18 +23568,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B292" s="8">
         <v>1</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23591,18 +23591,18 @@
         <v>980</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23616,13 +23616,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23636,13 +23636,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B295" s="8">
         <v>2</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23656,13 +23656,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23674,18 +23674,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23697,18 +23697,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B298" s="8">
         <v>1</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23720,18 +23720,18 @@
         <v>980</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23745,13 +23745,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23765,13 +23765,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B301" s="8">
         <v>2</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23785,13 +23785,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23803,18 +23803,18 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>980</v>
@@ -23826,18 +23826,18 @@
         <v>980</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B304" s="8">
         <v>1</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D304" s="32" t="s">
         <v>980</v>
@@ -23849,7 +23849,7 @@
         <v>980</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -23948,12 +23948,12 @@
         <v>991</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23986,15 +23986,15 @@
         <v>0</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -24027,21 +24027,21 @@
         <v>0</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D4" s="26">
         <v>150</v>
@@ -24068,18 +24068,18 @@
         <v>0</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24112,15 +24112,15 @@
         <v>0</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24153,15 +24153,15 @@
         <v>10</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24194,15 +24194,15 @@
         <v>0</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24235,15 +24235,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24276,15 +24276,15 @@
         <v>0</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24317,15 +24317,15 @@
         <v>0</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24358,15 +24358,15 @@
         <v>5</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24399,15 +24399,15 @@
         <v>0</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24440,15 +24440,15 @@
         <v>0</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24481,15 +24481,15 @@
         <v>0</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24522,18 +24522,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24566,15 +24566,15 @@
         <v>0</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24607,18 +24607,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24651,18 +24651,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M18" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24695,18 +24695,18 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24739,18 +24739,18 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24783,15 +24783,15 @@
         <v>0</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24824,21 +24824,21 @@
         <v>0</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D23" s="26">
         <v>260</v>
@@ -24865,24 +24865,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D24" s="26">
         <v>260</v>
@@ -24909,18 +24909,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24953,15 +24953,15 @@
         <v>0</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -24994,15 +24994,15 @@
         <v>0</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -25035,15 +25035,15 @@
         <v>15</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -25076,15 +25076,15 @@
         <v>0</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25117,15 +25117,15 @@
         <v>0</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25158,15 +25158,15 @@
         <v>0</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25199,15 +25199,15 @@
         <v>0</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25240,15 +25240,15 @@
         <v>5</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25281,15 +25281,15 @@
         <v>0</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25322,15 +25322,15 @@
         <v>0</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25363,15 +25363,15 @@
         <v>0</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25404,18 +25404,18 @@
         <v>0</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M36" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25448,15 +25448,15 @@
         <v>0</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25489,18 +25489,18 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25533,18 +25533,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25577,18 +25577,18 @@
         <v>0</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25621,18 +25621,18 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25665,21 +25665,21 @@
         <v>0</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D43" s="26">
         <v>450</v>
@@ -25706,18 +25706,18 @@
         <v>0</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25750,15 +25750,15 @@
         <v>0</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25791,15 +25791,15 @@
         <v>5</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25832,15 +25832,15 @@
         <v>0</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25873,15 +25873,15 @@
         <v>0</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25914,15 +25914,15 @@
         <v>0</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25955,15 +25955,15 @@
         <v>0</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -25996,15 +25996,15 @@
         <v>0</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -26037,15 +26037,15 @@
         <v>0</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26078,21 +26078,21 @@
         <v>0</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D53" s="26">
         <v>2250</v>
@@ -26119,18 +26119,18 @@
         <v>0</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="M53" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N53" s="27" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26163,15 +26163,15 @@
         <v>0</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26204,15 +26204,15 @@
         <v>0</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N55" s="27" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26245,15 +26245,15 @@
         <v>0</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N56" s="27" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26286,15 +26286,15 @@
         <v>0</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N57" s="27" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26327,15 +26327,15 @@
         <v>0</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N58" s="27" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26368,15 +26368,15 @@
         <v>0</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26409,24 +26409,24 @@
         <v>0</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N60" s="27" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D61" s="26">
         <v>30000</v>
@@ -26453,18 +26453,18 @@
         <v>0</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26497,18 +26497,18 @@
         <v>0</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="M62" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26541,18 +26541,18 @@
         <v>0</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="M63" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26585,18 +26585,18 @@
         <v>0</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="M64" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26629,22 +26629,22 @@
         <v>0</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="M65" s="28"/>
       <c r="N65" s="27" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D66" s="26">
         <v>150</v>
@@ -26671,18 +26671,18 @@
         <v>0</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M66" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26715,15 +26715,15 @@
         <v>0</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26756,15 +26756,15 @@
         <v>0</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26797,15 +26797,15 @@
         <v>0</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26838,21 +26838,21 @@
         <v>0</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D71" s="26">
         <v>250</v>
@@ -26879,18 +26879,18 @@
         <v>0</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26923,15 +26923,15 @@
         <v>0</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26964,15 +26964,15 @@
         <v>0</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -27005,15 +27005,15 @@
         <v>0</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="N74" s="27" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -27046,15 +27046,15 @@
         <v>0</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27087,15 +27087,15 @@
         <v>0</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27128,15 +27128,15 @@
         <v>0</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27169,15 +27169,15 @@
         <v>0</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27210,21 +27210,21 @@
         <v>0</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D80" s="26">
         <v>1500</v>
@@ -27251,18 +27251,18 @@
         <v>0</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="M80" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27295,15 +27295,15 @@
         <v>0</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27336,18 +27336,18 @@
         <v>0</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="M82" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27380,18 +27380,18 @@
         <v>-1</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="M83" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27422,15 +27422,15 @@
         <v>-1</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27463,15 +27463,15 @@
         <v>0</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N85" s="27" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27504,21 +27504,21 @@
         <v>0</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="N86" s="27" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D87" s="26">
         <v>150</v>
@@ -27545,18 +27545,18 @@
         <v>0</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M87" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N87" s="27" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27589,21 +27589,21 @@
         <v>0</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D89" s="26">
         <v>200</v>
@@ -27630,18 +27630,18 @@
         <v>0</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="M89" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N89" s="27" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27674,15 +27674,15 @@
         <v>0</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27715,21 +27715,21 @@
         <v>0</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="N91" s="27" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D92" s="26">
         <v>300</v>
@@ -27756,18 +27756,18 @@
         <v>0</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="M92" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N92" s="27" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27800,15 +27800,15 @@
         <v>0</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="N93" s="27" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27841,15 +27841,15 @@
         <v>0</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N94" s="27" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27882,15 +27882,15 @@
         <v>0</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="N95" s="27" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27923,15 +27923,15 @@
         <v>0</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="N96" s="27" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27964,15 +27964,15 @@
         <v>0</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="N97" s="27" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -28005,15 +28005,15 @@
         <v>0</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N98" s="27" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -28046,15 +28046,15 @@
         <v>0</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="N99" s="27" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28087,15 +28087,15 @@
         <v>0</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="N100" s="27" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28128,15 +28128,15 @@
         <v>0</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N101" s="27" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28169,15 +28169,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28210,15 +28210,15 @@
         <v>0</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N103" s="27" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28251,15 +28251,15 @@
         <v>0</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="N104" s="27" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28292,15 +28292,15 @@
         <v>0</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N105" s="27" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28333,15 +28333,15 @@
         <v>0</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="N106" s="27" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28374,18 +28374,18 @@
         <v>0</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="M107" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N107" s="27" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28418,18 +28418,18 @@
         <v>100</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="M108" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N108" s="27" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28462,18 +28462,18 @@
         <v>0</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="M109" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N109" s="27" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28506,18 +28506,18 @@
         <v>0</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N110" s="27" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28550,18 +28550,18 @@
         <v>0</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="M111" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N111" s="27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28594,21 +28594,21 @@
         <v>0</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N112" s="27" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D113" s="26">
         <v>150</v>
@@ -28635,24 +28635,24 @@
         <v>0</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N113" s="27" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D114" s="26">
         <v>200</v>
@@ -28679,18 +28679,18 @@
         <v>0</v>
       </c>
       <c r="L114" s="23" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="M114" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N114" s="27" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28723,15 +28723,15 @@
         <v>0</v>
       </c>
       <c r="L115" s="23" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="N115" s="27" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28764,15 +28764,15 @@
         <v>0</v>
       </c>
       <c r="L116" s="23" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="N116" s="27" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28805,15 +28805,15 @@
         <v>0</v>
       </c>
       <c r="L117" s="23" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="N117" s="27" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28846,21 +28846,21 @@
         <v>0</v>
       </c>
       <c r="L118" s="23" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="N118" s="27" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D119" s="26">
         <v>500</v>
@@ -28887,18 +28887,18 @@
         <v>0</v>
       </c>
       <c r="L119" s="23" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N119" s="27" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28931,21 +28931,21 @@
         <v>0</v>
       </c>
       <c r="L120" s="23" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="N120" s="27" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D121" s="26">
         <v>550</v>
@@ -28972,18 +28972,18 @@
         <v>0</v>
       </c>
       <c r="L121" s="23" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="M121" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N121" s="27" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -29016,15 +29016,15 @@
         <v>0</v>
       </c>
       <c r="L122" s="23" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="N122" s="27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -29057,15 +29057,15 @@
         <v>0</v>
       </c>
       <c r="L123" s="23" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="N123" s="27" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29098,15 +29098,15 @@
         <v>0</v>
       </c>
       <c r="L124" s="23" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="N124" s="27" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29139,15 +29139,15 @@
         <v>0</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="N125" s="27" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29180,15 +29180,15 @@
         <v>0</v>
       </c>
       <c r="L126" s="23" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="N126" s="27" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29221,21 +29221,21 @@
         <v>0</v>
       </c>
       <c r="L127" s="23" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="N127" s="27" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D128" s="26">
         <v>900</v>
@@ -29262,24 +29262,24 @@
         <v>0</v>
       </c>
       <c r="L128" s="23" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N128" s="27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D129" s="26">
         <v>900</v>
@@ -29306,18 +29306,18 @@
         <v>0</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M129" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="N129" s="27" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29350,15 +29350,15 @@
         <v>0</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="N130" s="27" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29391,15 +29391,15 @@
         <v>0</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="N131" s="27" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29432,15 +29432,15 @@
         <v>0</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="N132" s="27" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29473,15 +29473,15 @@
         <v>0</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="N133" s="27" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29514,15 +29514,15 @@
         <v>0</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="N134" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29555,18 +29555,18 @@
         <v>0</v>
       </c>
       <c r="L135" s="23" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="M135" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N135" s="27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29599,18 +29599,18 @@
         <v>0</v>
       </c>
       <c r="L136" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="M136" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N136" s="27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29643,18 +29643,18 @@
         <v>0</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="M137" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N137" s="27" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29687,18 +29687,18 @@
         <v>0</v>
       </c>
       <c r="L138" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="M138" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N138" s="27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29731,18 +29731,18 @@
         <v>0</v>
       </c>
       <c r="L139" s="23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M139" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N139" s="27" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29775,18 +29775,18 @@
         <v>0</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="M140" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N140" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29819,18 +29819,18 @@
         <v>0</v>
       </c>
       <c r="L141" s="23" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="M141" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N141" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29863,18 +29863,18 @@
         <v>0</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="M142" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N142" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -29907,13 +29907,13 @@
         <v>0</v>
       </c>
       <c r="L143" s="23" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="M143" s="25" t="s">
         <v>992</v>
       </c>
       <c r="N143" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="158" spans="14:14" ht="26.5" x14ac:dyDescent="0.35">
@@ -30073,10 +30073,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED1689C-43D8-4482-B475-EE9D75A4CF53}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30131,13 +30131,13 @@
         <v>670</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1057</v>
       </c>
@@ -30154,10 +30154,10 @@
         <v>1082</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1157</v>
+        <v>2204</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>1142</v>
@@ -30166,16 +30166,16 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30195,10 +30195,10 @@
         <v>1084</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>1133</v>
@@ -30213,10 +30213,10 @@
         <v>1132</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30236,10 +30236,10 @@
         <v>1086</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>1137</v>
@@ -30254,10 +30254,10 @@
         <v>1135</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30277,7 +30277,7 @@
         <v>1088</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1156</v>
@@ -30289,16 +30289,16 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30318,10 +30318,10 @@
         <v>1090</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>1141</v>
@@ -30330,16 +30330,16 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30359,10 +30359,10 @@
         <v>1092</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>1145</v>
@@ -30377,10 +30377,10 @@
         <v>1148</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30400,10 +30400,10 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>1149</v>
@@ -30412,16 +30412,16 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30441,10 +30441,10 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>1152</v>
@@ -30459,10 +30459,10 @@
         <v>1154</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30482,10 +30482,10 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>1126</v>
@@ -30500,10 +30500,10 @@
         <v>1016</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30523,7 +30523,7 @@
         <v>671</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>1125</v>
@@ -30541,10 +30541,10 @@
         <v>1017</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
@@ -30564,28 +30564,28 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H12" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>1165</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="J12" s="19" t="s">
         <v>1166</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>1167</v>
-      </c>
       <c r="K12" s="19" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>1233</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>1234</v>
-      </c>
       <c r="N12" s="22" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="145" x14ac:dyDescent="0.35">
@@ -30605,28 +30605,28 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G13" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>1168</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>1169</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>1170</v>
-      </c>
       <c r="J13" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K13" s="19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>1235</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>1236</v>
-      </c>
       <c r="N13" s="22" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30646,28 +30646,28 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>1902</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>1903</v>
-      </c>
       <c r="K14" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>1237</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>1238</v>
-      </c>
       <c r="N14" s="22" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30687,28 +30687,28 @@
         <v>1103</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>1176</v>
       </c>
-      <c r="J15" s="19" t="s">
-        <v>1177</v>
-      </c>
       <c r="K15" s="19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>1239</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>1240</v>
-      </c>
       <c r="N15" s="22" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30728,28 +30728,28 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>1904</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="J16" s="19" t="s">
+      <c r="K16" s="19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>1905</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>1241</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>1906</v>
-      </c>
       <c r="N16" s="22" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30769,28 +30769,28 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>1907</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>1908</v>
-      </c>
       <c r="K17" s="19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>1242</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>1243</v>
-      </c>
       <c r="N17" s="22" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
@@ -30810,28 +30810,28 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G18" s="19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>1185</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="19" t="s">
         <v>1186</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="J18" s="19" t="s">
         <v>1187</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>1188</v>
-      </c>
       <c r="K18" s="19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>1244</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>1245</v>
-      </c>
       <c r="N18" s="22" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30851,28 +30851,28 @@
         <v>1110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I19" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>1195</v>
       </c>
-      <c r="J19" s="19" t="s">
-        <v>1196</v>
-      </c>
       <c r="K19" s="19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>1246</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>1247</v>
-      </c>
       <c r="N19" s="22" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -30892,28 +30892,28 @@
         <v>1116</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="19" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>1197</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="J20" s="19" t="s">
         <v>1199</v>
       </c>
-      <c r="J20" s="19" t="s">
-        <v>1200</v>
-      </c>
       <c r="K20" s="19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>1248</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>1249</v>
-      </c>
       <c r="N20" s="22" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -30933,28 +30933,28 @@
         <v>1114</v>
       </c>
       <c r="F21" s="19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>1203</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="H21" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>1204</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>1205</v>
-      </c>
       <c r="J21" s="19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="K21" s="19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>1250</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>1251</v>
-      </c>
       <c r="N21" s="22" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="116" x14ac:dyDescent="0.35">
@@ -30974,31 +30974,31 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G22" s="19" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>1206</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="I22" s="19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>1207</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>1227</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>1208</v>
-      </c>
       <c r="L22" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -31018,31 +31018,31 @@
         <v>1120</v>
       </c>
       <c r="F23" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>1212</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="J23" s="19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>1213</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>1260</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>1214</v>
-      </c>
       <c r="L23" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.35">
@@ -31062,31 +31062,31 @@
         <v>1124</v>
       </c>
       <c r="F24" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>1215</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="19" t="s">
         <v>1216</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>1217</v>
-      </c>
       <c r="I24" s="19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>1258</v>
       </c>
-      <c r="J24" s="19" t="s">
-        <v>1259</v>
-      </c>
       <c r="K24" s="19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>1254</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>1255</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
@@ -31106,31 +31106,31 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>1912</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="M25" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>1221</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>1913</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>1223</v>
-      </c>
       <c r="N25" s="22" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -31243,7 +31243,7 @@
         <v>661</v>
       </c>
       <c r="C8" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -31254,7 +31254,7 @@
         <v>989</v>
       </c>
       <c r="C9" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -31265,7 +31265,7 @@
         <v>649</v>
       </c>
       <c r="C10" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -31276,7 +31276,7 @@
         <v>661</v>
       </c>
       <c r="C11" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -31287,7 +31287,7 @@
         <v>989</v>
       </c>
       <c r="C12" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -31298,7 +31298,7 @@
         <v>649</v>
       </c>
       <c r="C13" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -31309,7 +31309,7 @@
         <v>661</v>
       </c>
       <c r="C14" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -31320,7 +31320,7 @@
         <v>989</v>
       </c>
       <c r="C15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -31331,7 +31331,7 @@
         <v>649</v>
       </c>
       <c r="C16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -31342,7 +31342,7 @@
         <v>661</v>
       </c>
       <c r="C17" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -31353,7 +31353,7 @@
         <v>989</v>
       </c>
       <c r="C18" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -31364,7 +31364,7 @@
         <v>649</v>
       </c>
       <c r="C19" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
   </sheetData>
@@ -31801,7 +31801,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -31812,7 +31812,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -31823,7 +31823,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -31834,7 +31834,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -31842,10 +31842,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -31856,7 +31856,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -31867,7 +31867,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -31878,7 +31878,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -31889,7 +31889,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -31900,7 +31900,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092BA2D-D339-4B98-94D3-A40A6A1C12AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE4BC1-6E20-4732-A87F-D6AFAAC81F64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6070,9 +6070,6 @@
     <t>The viking on tower throws an axe to an air-furthest enemy every 1.6s.</t>
   </si>
   <si>
-    <t>The tower launches a fire ball in range 2.5, deals damage and apply burn to furthest ground enemies in AOE range 1 every 3s.</t>
-  </si>
-  <si>
     <t>The tower strikes a lightning bot to an air-furthest enemy in range 2.75 every 4s, and chains to 1 more enemy with low damage.</t>
   </si>
   <si>
@@ -7034,6 +7031,9 @@
     <t>4:star:**Double Archers**: There are now 2 archers on tower, but the damage is reduced from `(1.4 ND) PD` to `(1 ND) PD`
 5:star:**Increased Range**: Range is increased by 0.25 (already counted in level upgrades)
 6:star:**Chance of Slowing**: Every arrow (including Multi Shot) has 5% chance to slow the target by 50% for 3s</t>
+  </si>
+  <si>
+    <t>The tower launches a fire ball in range 2.5, deals damage and applies burn to furthest ground enemies in AOE range 1 every 3s.</t>
   </si>
 </sst>
 </file>
@@ -11600,7 +11600,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1414</v>
@@ -13130,7 +13130,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13144,7 +13144,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -15693,7 +15693,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16071,7 +16071,7 @@
         <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16830,7 +16830,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -16844,7 +16844,7 @@
         <v>320</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -16956,7 +16956,7 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -17020,7 +17020,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17034,7 +17034,7 @@
         <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -17118,7 +17118,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17227,7 +17227,7 @@
         <v>980</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17250,7 +17250,7 @@
         <v>980</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17273,7 +17273,7 @@
         <v>980</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17342,7 +17342,7 @@
         <v>980</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17365,7 +17365,7 @@
         <v>980</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17434,7 +17434,7 @@
         <v>980</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17457,7 +17457,7 @@
         <v>980</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17480,7 +17480,7 @@
         <v>980</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17503,7 +17503,7 @@
         <v>980</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17526,7 +17526,7 @@
         <v>980</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17549,7 +17549,7 @@
         <v>980</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17572,7 +17572,7 @@
         <v>980</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17595,7 +17595,7 @@
         <v>980</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17618,7 +17618,7 @@
         <v>980</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17641,7 +17641,7 @@
         <v>980</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17664,7 +17664,7 @@
         <v>980</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17687,7 +17687,7 @@
         <v>980</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17710,7 +17710,7 @@
         <v>980</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17733,7 +17733,7 @@
         <v>980</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17756,7 +17756,7 @@
         <v>980</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17779,7 +17779,7 @@
         <v>980</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17802,7 +17802,7 @@
         <v>980</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17825,7 +17825,7 @@
         <v>980</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17848,7 +17848,7 @@
         <v>980</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17871,7 +17871,7 @@
         <v>980</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17894,7 +17894,7 @@
         <v>980</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17917,7 +17917,7 @@
         <v>980</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17940,7 +17940,7 @@
         <v>980</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17963,7 +17963,7 @@
         <v>980</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17986,7 +17986,7 @@
         <v>980</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18032,7 +18032,7 @@
         <v>980</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18078,7 +18078,7 @@
         <v>980</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18101,7 +18101,7 @@
         <v>980</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -20765,7 +20765,7 @@
         <v>1804</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -22546,13 +22546,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>980</v>
@@ -22566,13 +22566,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>980</v>
@@ -22586,13 +22586,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>980</v>
@@ -22606,13 +22606,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>980</v>
@@ -22626,13 +22626,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>980</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>980</v>
@@ -22669,13 +22669,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>980</v>
@@ -22689,13 +22689,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>980</v>
@@ -22709,13 +22709,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>980</v>
@@ -22729,13 +22729,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>980</v>
@@ -22749,13 +22749,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>980</v>
@@ -22769,13 +22769,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>980</v>
@@ -22789,13 +22789,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>980</v>
@@ -22809,13 +22809,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>980</v>
@@ -22829,13 +22829,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>980</v>
@@ -22852,13 +22852,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>980</v>
@@ -22872,13 +22872,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>980</v>
@@ -22892,13 +22892,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>980</v>
@@ -22912,13 +22912,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>980</v>
@@ -22932,13 +22932,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>980</v>
@@ -22952,13 +22952,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>980</v>
@@ -22972,13 +22972,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>980</v>
@@ -22992,13 +22992,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>980</v>
@@ -23012,13 +23012,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>980</v>
@@ -23035,13 +23035,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>980</v>
@@ -23058,13 +23058,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>980</v>
@@ -23078,13 +23078,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>980</v>
@@ -23098,13 +23098,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>980</v>
@@ -23121,13 +23121,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>980</v>
@@ -23141,13 +23141,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>980</v>
@@ -23161,13 +23161,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>980</v>
@@ -23184,13 +23184,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>980</v>
@@ -23204,13 +23204,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>980</v>
@@ -23224,13 +23224,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>980</v>
@@ -23244,13 +23244,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>980</v>
@@ -23267,13 +23267,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>980</v>
@@ -23287,13 +23287,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>980</v>
@@ -23307,13 +23307,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>980</v>
@@ -23327,13 +23327,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>980</v>
@@ -23347,13 +23347,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>980</v>
@@ -23367,13 +23367,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>980</v>
@@ -23387,13 +23387,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>980</v>
@@ -23407,13 +23407,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>980</v>
@@ -23427,13 +23427,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>980</v>
@@ -23447,13 +23447,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>980</v>
@@ -23467,13 +23467,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>980</v>
@@ -23487,13 +23487,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>980</v>
@@ -23507,13 +23507,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B289" s="8">
         <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>980</v>
@@ -23527,13 +23527,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>980</v>
@@ -23545,18 +23545,18 @@
         <v>980</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>980</v>
@@ -23568,18 +23568,18 @@
         <v>980</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B292" s="8">
         <v>1</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>980</v>
@@ -23591,18 +23591,18 @@
         <v>980</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>980</v>
@@ -23616,13 +23616,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>980</v>
@@ -23636,13 +23636,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B295" s="8">
         <v>2</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>980</v>
@@ -23656,13 +23656,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>980</v>
@@ -23674,18 +23674,18 @@
         <v>980</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>980</v>
@@ -23697,18 +23697,18 @@
         <v>980</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B298" s="8">
         <v>1</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>980</v>
@@ -23720,18 +23720,18 @@
         <v>980</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>980</v>
@@ -23745,13 +23745,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>980</v>
@@ -23765,13 +23765,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B301" s="8">
         <v>2</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>980</v>
@@ -23785,13 +23785,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>980</v>
@@ -23803,18 +23803,18 @@
         <v>980</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>980</v>
@@ -23826,18 +23826,18 @@
         <v>980</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B304" s="8">
         <v>1</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D304" s="32" t="s">
         <v>980</v>
@@ -23849,7 +23849,7 @@
         <v>980</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -23953,7 +23953,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -23994,7 +23994,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -24035,7 +24035,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -24120,7 +24120,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -24161,7 +24161,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -24202,7 +24202,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -24243,7 +24243,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -24284,7 +24284,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -24325,7 +24325,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -24366,7 +24366,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -24407,7 +24407,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -24448,7 +24448,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -24489,7 +24489,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -24533,7 +24533,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -24574,7 +24574,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -24618,7 +24618,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -24662,7 +24662,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -24706,7 +24706,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -24750,7 +24750,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -24791,7 +24791,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -24832,7 +24832,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -24876,7 +24876,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -24920,7 +24920,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -24961,7 +24961,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -25043,7 +25043,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -25084,7 +25084,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -25125,7 +25125,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -25166,7 +25166,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -25207,7 +25207,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -25248,7 +25248,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -25289,7 +25289,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -25330,7 +25330,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -25371,7 +25371,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -25415,7 +25415,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -25456,7 +25456,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -25500,7 +25500,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -25544,7 +25544,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -25588,7 +25588,7 @@
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -25632,7 +25632,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -25673,7 +25673,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -25717,7 +25717,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -25758,7 +25758,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -25840,7 +25840,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -25922,7 +25922,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -26004,7 +26004,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -26045,7 +26045,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -26086,7 +26086,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -26130,7 +26130,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -26171,7 +26171,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -26212,7 +26212,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -26253,7 +26253,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -26294,7 +26294,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -26335,7 +26335,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -26376,7 +26376,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -26420,7 +26420,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -26464,7 +26464,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -26508,7 +26508,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -26552,7 +26552,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -26596,7 +26596,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -26638,7 +26638,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -26682,7 +26682,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -26723,7 +26723,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -26764,7 +26764,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -26805,7 +26805,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -26846,7 +26846,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -26890,7 +26890,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -26931,7 +26931,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -26972,7 +26972,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -27013,7 +27013,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -27054,7 +27054,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -27095,7 +27095,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -27136,7 +27136,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -27177,7 +27177,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -27218,7 +27218,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -27262,7 +27262,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -27303,7 +27303,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -27347,7 +27347,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -27391,7 +27391,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -27430,7 +27430,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -27471,7 +27471,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -27512,7 +27512,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -27556,7 +27556,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -27641,7 +27641,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -27682,7 +27682,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -27723,7 +27723,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -27767,7 +27767,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -27808,7 +27808,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -27849,7 +27849,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -27931,7 +27931,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -28013,7 +28013,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -28054,7 +28054,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -28095,7 +28095,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -28136,7 +28136,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -28177,7 +28177,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -28218,7 +28218,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -28259,7 +28259,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -28300,7 +28300,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -28341,7 +28341,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -28385,7 +28385,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -28429,7 +28429,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -28473,7 +28473,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -28517,7 +28517,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -28561,7 +28561,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -28602,7 +28602,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -28646,7 +28646,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -28690,7 +28690,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -28731,7 +28731,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -28772,7 +28772,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -28813,7 +28813,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -28854,7 +28854,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -28898,7 +28898,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -28939,7 +28939,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -28983,7 +28983,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -29024,7 +29024,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -29065,7 +29065,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -29106,7 +29106,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -29147,7 +29147,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -29188,7 +29188,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -29229,7 +29229,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -29273,7 +29273,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -29317,7 +29317,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -29358,7 +29358,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -29399,7 +29399,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -29440,7 +29440,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -29481,7 +29481,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -29522,7 +29522,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -29566,7 +29566,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -29610,7 +29610,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -29654,7 +29654,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -29698,7 +29698,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -29742,7 +29742,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -29786,7 +29786,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -29830,7 +29830,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -29874,7 +29874,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -30074,9 +30074,9 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30157,7 +30157,7 @@
         <v>1887</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>1142</v>
@@ -30166,7 +30166,7 @@
         <v>1127</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1129</v>
@@ -30289,7 +30289,7 @@
         <v>1139</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1140</v>
@@ -30330,7 +30330,7 @@
         <v>1143</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1144</v>
@@ -30400,7 +30400,7 @@
         <v>1094</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>1891</v>
+        <v>2204</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1160</v>
@@ -30412,13 +30412,13 @@
         <v>1150</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1151</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>1478</v>
@@ -30441,7 +30441,7 @@
         <v>1096</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1161</v>
@@ -30482,7 +30482,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1163</v>
@@ -30564,7 +30564,7 @@
         <v>1098</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1174</v>
@@ -30605,7 +30605,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1167</v>
@@ -30646,7 +30646,7 @@
         <v>1101</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1172</v>
@@ -30658,7 +30658,7 @@
         <v>1171</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>1236</v>
@@ -30728,7 +30728,7 @@
         <v>1105</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1178</v>
@@ -30740,13 +30740,13 @@
         <v>1180</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>1240</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>1466</v>
@@ -30769,7 +30769,7 @@
         <v>1109</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1262</v>
@@ -30781,7 +30781,7 @@
         <v>1182</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1241</v>
@@ -30810,7 +30810,7 @@
         <v>1112</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1184</v>
@@ -30945,7 +30945,7 @@
         <v>1204</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1249</v>
@@ -30974,7 +30974,7 @@
         <v>1121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1205</v>
@@ -30995,7 +30995,7 @@
         <v>1251</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1476</v>
@@ -31106,7 +31106,7 @@
         <v>1118</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1219</v>
@@ -31124,7 +31124,7 @@
         <v>1220</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1222</v>
@@ -31801,7 +31801,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -31812,7 +31812,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -31823,7 +31823,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -31834,7 +31834,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -31842,10 +31842,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -31856,7 +31856,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -31867,7 +31867,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -31878,7 +31878,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -31889,7 +31889,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -31900,7 +31900,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB1206A-91FC-4E0C-98DD-8796B559DAEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD34B1-A50A-4A49-93DE-46FBE2AC63E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17147,8 +17147,8 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E235" sqref="E235"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD34B1-A50A-4A49-93DE-46FBE2AC63E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC97BC7-A904-44F2-95CF-AE803DF12C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6995,9 +6995,6 @@
     <t>Giant boulder (*trap*): damage and stun enemies</t>
   </si>
   <si>
-    <t>Roasted beast/chiken dinner (*loose change*): at lowest right entrance, 50:moneybag: (3x per wave).</t>
-  </si>
-  <si>
     <t>Shaking hut (*hidden enemies*): at right entrance, start of each wave enemies will spawn worth 50:moneybag: (1x per wave)</t>
   </si>
   <si>
@@ -7034,6 +7031,9 @@
   <si>
     <t>1) Big tree (*loose change*): 50:moneybag: (3x per wave)
 2) Bamboo bush (*hidden enemies*, *seeeker*): on the left of big tree, at the start of each wave group of 24 monks will automatically be spawned, kill them for 120:moneybag: each time, (1x per wave), (6 waves so 720:moneybag: total)</t>
+  </si>
+  <si>
+    <t>Roasted beast/chicken dinner (*loose change*): at lowest right entrance, 50:moneybag: (3x per wave).</t>
   </si>
 </sst>
 </file>
@@ -17147,8 +17147,8 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18141,7 +18141,7 @@
         <v>956</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>988</v>
@@ -18163,7 +18163,7 @@
         <v>957</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>990</v>
@@ -18229,7 +18229,7 @@
         <v>955</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>991</v>
@@ -18317,7 +18317,7 @@
         <v>958</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>996</v>
@@ -18385,7 +18385,7 @@
         <v>955</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>999</v>
@@ -18473,7 +18473,7 @@
         <v>955</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>1003</v>
@@ -18585,7 +18585,7 @@
         <v>960</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>1018</v>
@@ -18673,7 +18673,7 @@
         <v>960</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>1022</v>
@@ -18785,7 +18785,7 @@
         <v>959</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>1030</v>
@@ -18873,7 +18873,7 @@
         <v>959</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>1031</v>
@@ -18961,7 +18961,7 @@
         <v>961</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>1035</v>
@@ -18983,7 +18983,7 @@
         <v>962</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>2192</v>
+        <v>2204</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>1036</v>
@@ -21959,7 +21959,7 @@
         <v>974</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F215" s="18" t="s">
         <v>979</v>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC97BC7-A904-44F2-95CF-AE803DF12C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BA16B-C016-4A85-A0A1-803B838732F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7029,11 +7029,11 @@
     <t>Windmill (*loose change*): 50:moneybag: (3x per wave)</t>
   </si>
   <si>
+    <t>Roasted beast/chicken dinner (*loose change*): at lowest right entrance, 50:moneybag: (3x per wave).</t>
+  </si>
+  <si>
     <t>1) Big tree (*loose change*): 50:moneybag: (3x per wave)
-2) Bamboo bush (*hidden enemies*, *seeeker*): on the left of big tree, at the start of each wave group of 24 monks will automatically be spawned, kill them for 120:moneybag: each time, (1x per wave), (6 waves so 720:moneybag: total)</t>
-  </si>
-  <si>
-    <t>Roasted beast/chicken dinner (*loose change*): at lowest right entrance, 50:moneybag: (3x per wave).</t>
+2) Bamboo bush (*hidden enemies*, *seeker*): on the left of big tree, at the start of each wave group of 24 monks will automatically be spawned, kill them for 120:moneybag: each time, (1x per wave), (6 waves so 720:moneybag: total)</t>
   </si>
 </sst>
 </file>
@@ -17147,8 +17147,8 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18983,7 +18983,7 @@
         <v>962</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>1036</v>
@@ -21959,7 +21959,7 @@
         <v>974</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="F215" s="18" t="s">
         <v>979</v>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BA16B-C016-4A85-A0A1-803B838732F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4EE648-1817-46EF-8E93-5137A5CF5A4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="2205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="2367">
   <si>
     <t>name</t>
   </si>
@@ -7034,6 +7034,492 @@
   <si>
     <t>1) Big tree (*loose change*): 50:moneybag: (3x per wave)
 2) Bamboo bush (*hidden enemies*, *seeker*): on the left of big tree, at the start of each wave group of 24 monks will automatically be spawned, kill them for 120:moneybag: each time, (1x per wave), (6 waves so 720:moneybag: total)</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>Flying Tutle Clearing</t>
+  </si>
+  <si>
+    <t>Land Squid Trails</t>
+  </si>
+  <si>
+    <t>Double Frog Court</t>
+  </si>
+  <si>
+    <t>Hanner Grove</t>
+  </si>
+  <si>
+    <t>Parallelogram of Ruin</t>
+  </si>
+  <si>
+    <t>Barb's Pumpkin Hexa-Path</t>
+  </si>
+  <si>
+    <t>Icecube Forest</t>
+  </si>
+  <si>
+    <t>Eye of Odin</t>
+  </si>
+  <si>
+    <t>Double Ansuz</t>
+  </si>
+  <si>
+    <t>Up-Down Diamond</t>
+  </si>
+  <si>
+    <t>T210</t>
+  </si>
+  <si>
+    <t>Ice Onion</t>
+  </si>
+  <si>
+    <t>T212</t>
+  </si>
+  <si>
+    <t>Triple Diamond Camp</t>
+  </si>
+  <si>
+    <t>T215</t>
+  </si>
+  <si>
+    <t>Halla Val</t>
+  </si>
+  <si>
+    <t>Crystal Mine</t>
+  </si>
+  <si>
+    <t>Perfect Angles</t>
+  </si>
+  <si>
+    <t>Tight Oasis</t>
+  </si>
+  <si>
+    <t>Gazi Town</t>
+  </si>
+  <si>
+    <t>T310</t>
+  </si>
+  <si>
+    <t>Omegru Waste</t>
+  </si>
+  <si>
+    <t>Convergence Field</t>
+  </si>
+  <si>
+    <t>Cloud Dreamin'</t>
+  </si>
+  <si>
+    <t>Kerr Black Hole</t>
+  </si>
+  <si>
+    <t>Diverging World Lines</t>
+  </si>
+  <si>
+    <t>Slime's Cave</t>
+  </si>
+  <si>
+    <t>Aki and Kai</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/20/160.png/revision/latest?cb=20210216173220</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/e2/159.png/revision/latest?cb=20210216173217</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/5d/158.png/revision/latest?cb=20210216173215</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/49/157.png/revision/latest?cb=20210216173214</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/43/156.png/revision/latest?cb=20210216173211</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/39/155.png/revision/latest?cb=20210216173208</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/f/fc/154.png/revision/latest?cb=20210216173206</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/05/153.png/revision/latest?cb=20210216173206</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/db/152.png/revision/latest?cb=20210216173203</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/39/151.png/revision/latest?cb=20210216173201</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/09/150.png/revision/latest?cb=20210216173159</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d2/149.png/revision/latest?cb=20210216173156</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/51/148.png/revision/latest?cb=20210216173154</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/a3/147.png/revision/latest?cb=20210216173152</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/db/146.png/revision/latest?cb=20210216173150</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c7/145.png/revision/latest?cb=20210216173005</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/9a/144.png/revision/latest?cb=20210216173003</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/7d/143.png/revision/latest?cb=20210216173002</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d3/142.png/revision/latest?cb=20210216172959</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/67/141.png/revision/latest?cb=20210216172958</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/09/140.png/revision/latest?cb=20210216172956</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d1/139.png/revision/latest?cb=20210216172954</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/4a/138.png/revision/latest?cb=20210216172952</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/9d/137.png/revision/latest?cb=20210216172951</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/de/136.png/revision/latest?cb=20210216172948</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/78/135.png/revision/latest?cb=20210216172822</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/3e/134.png/revision/latest?cb=20210216172948</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/6c/133.png/revision/latest?cb=20210216172749</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/60/132.png/revision/latest?cb=20210216172746</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/83/131.png/revision/latest?cb=20210216172745</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/ca/130.png/revision/latest?cb=20210216172743</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/ea/129.png/revision/latest?cb=20210216172741</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/32/128.png/revision/latest?cb=20210216172739</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/be/127.png/revision/latest?cb=20210216172737</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/af/126.png/revision/latest?cb=20210216172736</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/28/125.png/revision/latest?cb=20210216172736</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/a8/124.png/revision/latest?cb=20210216172731</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/81/123.png/revision/latest?cb=20210216172634</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/be/122.png/revision/latest?cb=20210216172621</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d2/121.png/revision/latest?cb=20210216172557</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/81/161.png/revision/latest?cb=20210216193503</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/0f/162.png/revision/latest?cb=20210216193504</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/a4/163.png/revision/latest?cb=20210216193506</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c2/164.png/revision/latest?cb=20210216193508</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/9d/165.png/revision/latest?cb=20210216193509</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/4f/166.png/revision/latest?cb=20210216193511</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/0b/167.png/revision/latest?cb=20210216193513</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/f/f8/168.png/revision/latest?cb=20210216193515</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/09/169.png/revision/latest?cb=20210216193516</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/be/170.png/revision/latest?cb=20210216193519</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/bb/171.png/revision/latest?cb=20210216193520</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/60/172.png/revision/latest?cb=20210216193522</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/3f/173.png/revision/latest?cb=20210216193524</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/65/174.png/revision/latest?cb=20210216193526</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/24/175.png/revision/latest?cb=20210216193527</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/dd/176.png/revision/latest?cb=20210216193530</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/27/177.png/revision/latest?cb=20210216193532</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/04/178.png/revision/latest?cb=20210216193534</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/93/179.png/revision/latest?cb=20210216193537</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/02/180.png/revision/latest?cb=20210216193538</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/83/181.png/revision/latest?cb=20210216193742</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/ec/182.png/revision/latest?cb=20210216193746</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/5a/183.png/revision/latest?cb=20210216193747</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/57/184.png/revision/latest?cb=20210216193749</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/b6/185.png/revision/latest?cb=20210216193750</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/77/186.png/revision/latest?cb=20210216193752</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/e8/187.png/revision/latest?cb=20210216193754</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d4/188.png/revision/latest?cb=20210216193756</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/f/f8/189.png/revision/latest?cb=20210216193758</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/60/190.png/revision/latest?cb=20210216193759</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/86/191.png/revision/latest?cb=20210216193801</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/90/192.png/revision/latest?cb=20210216193802</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/a6/193.png/revision/latest?cb=20210216193805</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/f/f4/194.png/revision/latest?cb=20210216193806</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/33/195.png/revision/latest?cb=20210216193808</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/b9/196.png/revision/latest?cb=20210216193810</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/6d/197.png/revision/latest?cb=20210216193812</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/08/198.png/revision/latest?cb=20210216193814</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/25/199.png/revision/latest?cb=20210216193816</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/85/200.png/revision/latest?cb=20210216193818</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/22/3181AA62-519D-4373-8D9F-653B12D03798.png/revision/latest?cb=20200706132048</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/3b/8D5CCB86-7773-49EF-B15C-83F20660BCD4.png/revision/latest?cb=20200706132048</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/88/FB96EC01-6AB3-4ED7-AF89-A366F2225174.png/revision/latest?cb=20200706132048</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/26/27170062-35F6-4A07-91E7-A559B1448EFF.png/revision/latest?cb=20200706132049</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/4f/31F5E684-1838-4EF1-A169-DC207CFFC87C.png/revision/latest?cb=20200706132048</t>
   </si>
 </sst>
 </file>
@@ -17144,11 +17630,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D798F71-5A72-4731-9B2C-78595D904327}">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20786,7 +21272,7 @@
         <v>979</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>979</v>
+        <v>2321</v>
       </c>
       <c r="G162" s="18"/>
     </row>
@@ -20808,7 +21294,7 @@
         <v>979</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>979</v>
+        <v>2320</v>
       </c>
       <c r="G163" s="18"/>
     </row>
@@ -20830,7 +21316,7 @@
         <v>979</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>979</v>
+        <v>2319</v>
       </c>
       <c r="G164" s="18"/>
     </row>
@@ -20852,7 +21338,7 @@
         <v>979</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>979</v>
+        <v>2318</v>
       </c>
       <c r="G165" s="18"/>
     </row>
@@ -20874,7 +21360,7 @@
         <v>979</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>979</v>
+        <v>2317</v>
       </c>
       <c r="G166" s="18"/>
     </row>
@@ -20896,7 +21382,7 @@
         <v>979</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>979</v>
+        <v>2316</v>
       </c>
       <c r="G167" s="18"/>
     </row>
@@ -20918,7 +21404,7 @@
         <v>979</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>979</v>
+        <v>2315</v>
       </c>
       <c r="G168" s="18"/>
     </row>
@@ -20940,7 +21426,7 @@
         <v>979</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>979</v>
+        <v>2314</v>
       </c>
       <c r="G169" s="18"/>
     </row>
@@ -20962,7 +21448,7 @@
         <v>979</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>979</v>
+        <v>2313</v>
       </c>
       <c r="G170" s="18"/>
     </row>
@@ -20984,7 +21470,7 @@
         <v>979</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>979</v>
+        <v>2312</v>
       </c>
       <c r="G171" s="18" t="s">
         <v>985</v>
@@ -21008,7 +21494,7 @@
         <v>979</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>979</v>
+        <v>2311</v>
       </c>
       <c r="G172" s="18"/>
     </row>
@@ -21030,7 +21516,7 @@
         <v>979</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>979</v>
+        <v>2310</v>
       </c>
       <c r="G173" s="18"/>
     </row>
@@ -21052,7 +21538,7 @@
         <v>979</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>979</v>
+        <v>2309</v>
       </c>
       <c r="G174" s="18"/>
     </row>
@@ -21074,7 +21560,7 @@
         <v>979</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>979</v>
+        <v>2308</v>
       </c>
       <c r="G175" s="18"/>
     </row>
@@ -21096,7 +21582,7 @@
         <v>979</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>979</v>
+        <v>2307</v>
       </c>
       <c r="G176" s="18"/>
     </row>
@@ -21118,7 +21604,7 @@
         <v>979</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>979</v>
+        <v>2306</v>
       </c>
       <c r="G177" s="18"/>
     </row>
@@ -21140,7 +21626,7 @@
         <v>979</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>979</v>
+        <v>2305</v>
       </c>
       <c r="G178" s="18"/>
     </row>
@@ -21162,7 +21648,7 @@
         <v>979</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>979</v>
+        <v>2304</v>
       </c>
       <c r="G179" s="18"/>
     </row>
@@ -21184,7 +21670,7 @@
         <v>979</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>979</v>
+        <v>2303</v>
       </c>
       <c r="G180" s="18"/>
     </row>
@@ -21206,7 +21692,7 @@
         <v>979</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>979</v>
+        <v>2302</v>
       </c>
       <c r="G181" s="18" t="s">
         <v>985</v>
@@ -21230,7 +21716,7 @@
         <v>979</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>979</v>
+        <v>2301</v>
       </c>
       <c r="G182" s="18"/>
     </row>
@@ -21252,7 +21738,7 @@
         <v>979</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>979</v>
+        <v>2300</v>
       </c>
       <c r="G183" s="18"/>
     </row>
@@ -21274,7 +21760,7 @@
         <v>979</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>979</v>
+        <v>2299</v>
       </c>
       <c r="G184" s="18"/>
     </row>
@@ -21296,7 +21782,7 @@
         <v>979</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>979</v>
+        <v>2298</v>
       </c>
       <c r="G185" s="18"/>
     </row>
@@ -21318,7 +21804,7 @@
         <v>979</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>979</v>
+        <v>2297</v>
       </c>
       <c r="G186" s="18"/>
     </row>
@@ -21340,7 +21826,7 @@
         <v>979</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>979</v>
+        <v>2296</v>
       </c>
       <c r="G187" s="18"/>
     </row>
@@ -21362,7 +21848,7 @@
         <v>979</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>979</v>
+        <v>2295</v>
       </c>
       <c r="G188" s="18"/>
     </row>
@@ -21384,7 +21870,7 @@
         <v>979</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>979</v>
+        <v>2294</v>
       </c>
       <c r="G189" s="18"/>
     </row>
@@ -21406,7 +21892,7 @@
         <v>979</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>979</v>
+        <v>2293</v>
       </c>
       <c r="G190" s="18"/>
     </row>
@@ -21428,7 +21914,7 @@
         <v>979</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>979</v>
+        <v>2292</v>
       </c>
       <c r="G191" s="18" t="s">
         <v>985</v>
@@ -21452,7 +21938,7 @@
         <v>979</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>979</v>
+        <v>2291</v>
       </c>
       <c r="G192" s="18"/>
     </row>
@@ -21474,7 +21960,7 @@
         <v>979</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>979</v>
+        <v>2290</v>
       </c>
       <c r="G193" s="18"/>
     </row>
@@ -21496,7 +21982,7 @@
         <v>979</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>979</v>
+        <v>2289</v>
       </c>
       <c r="G194" s="18"/>
     </row>
@@ -21518,7 +22004,7 @@
         <v>979</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>979</v>
+        <v>2288</v>
       </c>
       <c r="G195" s="18"/>
     </row>
@@ -21540,7 +22026,7 @@
         <v>979</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>979</v>
+        <v>2287</v>
       </c>
       <c r="G196" s="18"/>
     </row>
@@ -21562,7 +22048,7 @@
         <v>979</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>979</v>
+        <v>2286</v>
       </c>
       <c r="G197" s="18"/>
     </row>
@@ -21584,7 +22070,7 @@
         <v>979</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>979</v>
+        <v>2285</v>
       </c>
       <c r="G198" s="18"/>
     </row>
@@ -21606,7 +22092,7 @@
         <v>979</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>979</v>
+        <v>2284</v>
       </c>
       <c r="G199" s="18"/>
     </row>
@@ -21628,7 +22114,7 @@
         <v>979</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>979</v>
+        <v>2283</v>
       </c>
       <c r="G200" s="18"/>
     </row>
@@ -21650,7 +22136,7 @@
         <v>979</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>979</v>
+        <v>2282</v>
       </c>
       <c r="G201" s="18" t="s">
         <v>985</v>
@@ -21674,7 +22160,7 @@
         <v>979</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>979</v>
+        <v>2322</v>
       </c>
       <c r="G202" s="18"/>
     </row>
@@ -21696,7 +22182,7 @@
         <v>979</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>979</v>
+        <v>2323</v>
       </c>
       <c r="G203" s="18"/>
     </row>
@@ -21718,7 +22204,7 @@
         <v>979</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>979</v>
+        <v>2324</v>
       </c>
       <c r="G204" s="18"/>
     </row>
@@ -21740,7 +22226,7 @@
         <v>979</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>979</v>
+        <v>2325</v>
       </c>
       <c r="G205" s="18"/>
     </row>
@@ -21762,7 +22248,7 @@
         <v>979</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>979</v>
+        <v>2326</v>
       </c>
       <c r="G206" s="18"/>
     </row>
@@ -21784,7 +22270,7 @@
         <v>979</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>979</v>
+        <v>2327</v>
       </c>
       <c r="G207" s="18"/>
     </row>
@@ -21806,7 +22292,7 @@
         <v>979</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>979</v>
+        <v>2328</v>
       </c>
       <c r="G208" s="18"/>
     </row>
@@ -21828,7 +22314,7 @@
         <v>979</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>979</v>
+        <v>2329</v>
       </c>
       <c r="G209" s="18"/>
     </row>
@@ -21850,7 +22336,7 @@
         <v>979</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>979</v>
+        <v>2330</v>
       </c>
       <c r="G210" s="18"/>
     </row>
@@ -21872,7 +22358,7 @@
         <v>979</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>979</v>
+        <v>2331</v>
       </c>
       <c r="G211" s="18" t="s">
         <v>985</v>
@@ -21896,7 +22382,7 @@
         <v>979</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>979</v>
+        <v>2332</v>
       </c>
       <c r="G212" s="18"/>
     </row>
@@ -21918,7 +22404,7 @@
         <v>2191</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>979</v>
+        <v>2333</v>
       </c>
       <c r="G213" s="18"/>
     </row>
@@ -21940,7 +22426,7 @@
         <v>979</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>979</v>
+        <v>2334</v>
       </c>
       <c r="G214" s="18"/>
     </row>
@@ -21962,7 +22448,7 @@
         <v>2204</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>979</v>
+        <v>2335</v>
       </c>
       <c r="G215" s="18"/>
     </row>
@@ -21984,7 +22470,7 @@
         <v>2190</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>979</v>
+        <v>2336</v>
       </c>
       <c r="G216" s="18"/>
     </row>
@@ -22006,7 +22492,7 @@
         <v>979</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>979</v>
+        <v>2337</v>
       </c>
       <c r="G217" s="18"/>
     </row>
@@ -22028,7 +22514,7 @@
         <v>979</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>979</v>
+        <v>2338</v>
       </c>
       <c r="G218" s="18"/>
     </row>
@@ -22050,7 +22536,7 @@
         <v>979</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>979</v>
+        <v>2339</v>
       </c>
       <c r="G219" s="18"/>
     </row>
@@ -22072,7 +22558,7 @@
         <v>979</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>979</v>
+        <v>2340</v>
       </c>
       <c r="G220" s="18"/>
     </row>
@@ -22094,7 +22580,7 @@
         <v>979</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>979</v>
+        <v>2341</v>
       </c>
       <c r="G221" s="18" t="s">
         <v>985</v>
@@ -22118,7 +22604,7 @@
         <v>979</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>979</v>
+        <v>2342</v>
       </c>
       <c r="G222" s="18"/>
     </row>
@@ -22140,7 +22626,7 @@
         <v>2188</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>979</v>
+        <v>2343</v>
       </c>
       <c r="G223" s="18"/>
     </row>
@@ -22162,7 +22648,7 @@
         <v>979</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>979</v>
+        <v>2344</v>
       </c>
       <c r="G224" s="18"/>
     </row>
@@ -22184,7 +22670,7 @@
         <v>979</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>979</v>
+        <v>2345</v>
       </c>
       <c r="G225" s="18"/>
     </row>
@@ -22206,7 +22692,7 @@
         <v>979</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>979</v>
+        <v>2346</v>
       </c>
       <c r="G226" s="18"/>
     </row>
@@ -22228,7 +22714,7 @@
         <v>2189</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>979</v>
+        <v>2347</v>
       </c>
       <c r="G227" s="18"/>
     </row>
@@ -22250,7 +22736,7 @@
         <v>2188</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>979</v>
+        <v>2348</v>
       </c>
       <c r="G228" s="18"/>
     </row>
@@ -22272,7 +22758,7 @@
         <v>979</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>979</v>
+        <v>2349</v>
       </c>
       <c r="G229" s="18"/>
     </row>
@@ -22294,7 +22780,7 @@
         <v>979</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>979</v>
+        <v>2350</v>
       </c>
       <c r="G230" s="18"/>
     </row>
@@ -22316,7 +22802,7 @@
         <v>2187</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>979</v>
+        <v>2351</v>
       </c>
       <c r="G231" s="18" t="s">
         <v>985</v>
@@ -22340,7 +22826,7 @@
         <v>979</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>979</v>
+        <v>2352</v>
       </c>
       <c r="G232" s="18"/>
     </row>
@@ -22362,7 +22848,7 @@
         <v>979</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>979</v>
+        <v>2353</v>
       </c>
       <c r="G233" s="18"/>
     </row>
@@ -22384,7 +22870,7 @@
         <v>979</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>979</v>
+        <v>2354</v>
       </c>
       <c r="G234" s="18"/>
     </row>
@@ -22406,7 +22892,7 @@
         <v>979</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>979</v>
+        <v>2355</v>
       </c>
       <c r="G235" s="18"/>
     </row>
@@ -22428,7 +22914,7 @@
         <v>979</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>979</v>
+        <v>2356</v>
       </c>
       <c r="G236" s="18"/>
     </row>
@@ -22450,7 +22936,7 @@
         <v>981</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>979</v>
+        <v>2357</v>
       </c>
       <c r="G237" s="18"/>
     </row>
@@ -22472,7 +22958,7 @@
         <v>979</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>979</v>
+        <v>2358</v>
       </c>
       <c r="G238" s="18"/>
     </row>
@@ -22494,7 +22980,7 @@
         <v>979</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>979</v>
+        <v>2359</v>
       </c>
       <c r="G239" s="18"/>
     </row>
@@ -22516,7 +23002,7 @@
         <v>979</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>979</v>
+        <v>2360</v>
       </c>
       <c r="G240" s="18"/>
     </row>
@@ -22538,7 +23024,7 @@
         <v>2186</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>979</v>
+        <v>2361</v>
       </c>
       <c r="G241" s="18" t="s">
         <v>985</v>
@@ -23422,7 +23908,7 @@
         <v>979</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>979</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -23442,7 +23928,7 @@
         <v>979</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>979</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -23462,7 +23948,7 @@
         <v>979</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>979</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -23482,7 +23968,7 @@
         <v>979</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>979</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -23502,7 +23988,7 @@
         <v>979</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>979</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
@@ -23850,6 +24336,1046 @@
       </c>
       <c r="G304" s="6" t="s">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B305" s="8">
+        <v>1</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D305" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E305" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F305" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B306" s="8">
+        <v>1</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D306" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E306" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B307" s="8">
+        <v>1</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D307" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E307" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F307" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B308" s="8">
+        <v>1</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D308" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E308" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B309" s="8">
+        <v>1</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D309" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E309" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F309" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B310" s="8">
+        <v>1</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D310" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B311" s="8">
+        <v>1</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="D311" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E311" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F311" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B312" s="8">
+        <v>1</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="D312" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E312" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B313" s="8">
+        <v>1</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D313" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E313" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F313" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B314" s="8">
+        <v>1</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D314" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B315" s="8">
+        <v>1</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D315" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E315" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F315" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B316" s="8">
+        <v>1</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D316" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E316" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F316" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B317" s="8">
+        <v>1</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D317" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E317" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B318" s="8">
+        <v>1</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D318" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E318" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B319" s="8">
+        <v>1</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D319" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E319" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F319" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B320" s="8">
+        <v>1</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D320" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E320" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B321" s="8">
+        <v>1</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D321" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E321" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B322" s="8">
+        <v>1</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D322" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E322" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B323" s="8">
+        <v>1</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D323" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E323" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F323" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D324" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E324" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D325" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E325" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D326" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E326" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F326" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D327" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E327" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F327" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D328" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E328" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329" t="s">
+        <v>780</v>
+      </c>
+      <c r="D329" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E329" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F329" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D330" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331" t="s">
+        <v>787</v>
+      </c>
+      <c r="D331" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E331" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D332" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E332" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D333" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E333" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D334" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E334" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D335" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E335" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D336" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E336" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
+        <v>805</v>
+      </c>
+      <c r="D337" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E337" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D338" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E338" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D339" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E339" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F339" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>811</v>
+      </c>
+      <c r="D340" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E340" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F340" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D341" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E341" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F341" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D342" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E342" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F342" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D343" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E343" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F343" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D344" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E344" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F344" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D345" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E345" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F345" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B346">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D346" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E346" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F346" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B347">
+        <v>4</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D347" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E347" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F347" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D348" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E348" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F348" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D349" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E349" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F349" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B350">
+        <v>4</v>
+      </c>
+      <c r="C350" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D350" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E350" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F350" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D351" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E351" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F351" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B352">
+        <v>4</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D352" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E352" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F352" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B353">
+        <v>4</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D353" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E353" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F353" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B354">
+        <v>4</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D354" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E354" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F354" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B355">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D355" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E355" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F355" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B356">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D356" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="E356" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>979</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4EE648-1817-46EF-8E93-5137A5CF5A4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC7B32-2CA3-47F6-91ED-1EA354027574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="2367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="2410">
   <si>
     <t>name</t>
   </si>
@@ -7520,6 +7520,135 @@
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/4f/31F5E684-1838-4EF1-A169-DC207CFFC87C.png/revision/latest?cb=20200706132048</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/05/World_6_Endless.jpg/revision/latest?cb=20210219234858</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/28/S1_-_Deadly_Meadow.png/revision/latest?cb=20210220031942</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/54/S2_-_Forest_Run.png/revision/latest?cb=20210220032044</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/e9/S3_-_Never_Ending_Pond.png/revision/latest?cb=20210220032210</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/20/S4_-_Sword_Hilt_Clearing.png/revision/latest?cb=20210220032253</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/1/18/S5_-_Poison_Valley.png/revision/latest?cb=20210220032352</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/4e/S6_-_Thundering_Ice.png/revision/latest?cb=20210220032506</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/3a/S7_-_Frosty_Thief.png/revision/latest?cb=20210220032557</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/e4/S8_-_Ice_Diamond.png/revision/latest?cb=20210220032702</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/9b/S9_-_Twin_Clearings.png/revision/latest?cb=20210220032740</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/27/S10_-_Permafrost_Crossing.png/revision/latest?cb=20210220032758</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/97/S11_-_Valley_of_the_Bandit.png/revision/latest?cb=20210220032836</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/85/S12_-_Town_of_Nothere.png/revision/latest?cb=20210220032903</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/ed/S13_-_Lost_Temple_of_Sands.png/revision/latest?cb=20210220032922</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/81/S14_-_Tomb_Raiders.png/revision/latest?cb=20210220032940</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/e3/S15-_Sickle_of_the_Sands.png/revision/latest?cb=20210220033005</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/aa/S16_-_He_Rises_Again....png/revision/latest?cb=20210220033047</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d9/S17_-_You_Thought_it_Was....png/revision/latest?cb=20210220033109</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/f/fc/S18_-_Over%3F_But_no....png/revision/latest?cb=20210220033142</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/b7/S19_-_It_was_me%21.png/revision/latest?cb=20210220033206</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/3e/S20_-_Lord_Nivek_Again.png/revision/latest?cb=20210220033226</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/54/S21_-_Tiltkay_Oasis.png/revision/latest?cb=20210220033353</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/72/S22_-_Crossed_Curves.png/revision/latest?cb=20210220033410</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c2/S23_-_Terrace_of_the_Why.png/revision/latest?cb=20210220033428</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/9f/S24_-_Tangled_Snakes_Valley.png/revision/latest?cb=20210220033445</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/42/S25_-_Valley_of_the_Sine.png/revision/latest?cb=20210220033502</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c3/S26_-_Frosty_Waves_of_Survival.png/revision/latest?cb=20210220033537</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c7/S27_-_Snowy_Robbery.png/revision/latest?cb=20210220033552</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/5d/S28_-_Sleepy_Ice.png/revision/latest?cb=20210220033607</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/86/S29_-_Snow_Thieves.png/revision/latest?cb=20210220033623</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/a8/S30_-_Survival_of_the_Coldest.png/revision/latest?cb=20210220033701</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d0/S31_-_A_Hot_Time_Ago.png/revision/latest?cb=20210220033732</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/45/S32_-_In_a_Land_So_Hot.png/revision/latest?cb=20210220033751</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/51/S33_-_The_Sun_was_Fire.png/revision/latest?cb=20210220033808</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/1/14/S34_-_The_Ground_Burned.png/revision/latest?cb=20210220033827</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/7c/S35_-_All_was_sand.png/revision/latest?cb=20210220033847</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/40/S36_-_A_Split_in_the_Horde.png/revision/latest?cb=20210220034135</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/75/S37_-_Trapped_by_the_wall.png/revision/latest?cb=20210220034153</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/b0/S38_-_Thundering_snow_circles.png/revision/latest?cb=20210220034213</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/cc/S39_-_The_Ice_Temple.png/revision/latest?cb=20210220034239</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/d3/S40_-_Cornered_in_Ice.png/revision/latest?cb=20210220034317</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c2/Potions_V_Slimes.png/revision/latest?cb=20210220014217</t>
+  </si>
+  <si>
+    <t>endless buff</t>
   </si>
 </sst>
 </file>
@@ -17633,8 +17762,8 @@
   <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H290" sqref="H290"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17644,7 +17773,8 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="50.90625" customWidth="1"/>
-    <col min="6" max="7" width="7.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -17687,7 +17817,7 @@
         <v>979</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>979</v>
+        <v>2368</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>985</v>
@@ -17710,7 +17840,7 @@
         <v>979</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>979</v>
+        <v>2369</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>2017</v>
@@ -17733,7 +17863,7 @@
         <v>979</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>979</v>
+        <v>2370</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>2018</v>
@@ -17756,7 +17886,7 @@
         <v>979</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>979</v>
+        <v>2371</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>2017</v>
@@ -17779,7 +17909,7 @@
         <v>979</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>979</v>
+        <v>2372</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>985</v>
@@ -17802,7 +17932,7 @@
         <v>979</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>979</v>
+        <v>2373</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>985</v>
@@ -17825,7 +17955,7 @@
         <v>979</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>979</v>
+        <v>2374</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>2017</v>
@@ -17848,7 +17978,7 @@
         <v>979</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>979</v>
+        <v>2375</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>2018</v>
@@ -17871,7 +18001,7 @@
         <v>979</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>979</v>
+        <v>2376</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>985</v>
@@ -17894,7 +18024,7 @@
         <v>979</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>979</v>
+        <v>2377</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>985</v>
@@ -17917,7 +18047,7 @@
         <v>979</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>979</v>
+        <v>2378</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>2017</v>
@@ -17940,7 +18070,7 @@
         <v>979</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>979</v>
+        <v>2379</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>2018</v>
@@ -17963,7 +18093,7 @@
         <v>979</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>979</v>
+        <v>2380</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>2018</v>
@@ -17986,7 +18116,7 @@
         <v>979</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>979</v>
+        <v>2381</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>2017</v>
@@ -18009,7 +18139,7 @@
         <v>979</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>979</v>
+        <v>2382</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>2018</v>
@@ -18032,10 +18162,10 @@
         <v>979</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>979</v>
+        <v>2383</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2018</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -18055,10 +18185,10 @@
         <v>979</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>979</v>
+        <v>2384</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2018</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -18078,10 +18208,10 @@
         <v>979</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>979</v>
+        <v>2385</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2018</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -18101,10 +18231,10 @@
         <v>979</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>979</v>
+        <v>2386</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2018</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -18124,10 +18254,10 @@
         <v>979</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>979</v>
+        <v>2387</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2018</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -18147,7 +18277,7 @@
         <v>979</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>979</v>
+        <v>2388</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>2017</v>
@@ -18170,7 +18300,7 @@
         <v>979</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>979</v>
+        <v>2389</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>2018</v>
@@ -18193,7 +18323,7 @@
         <v>979</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>979</v>
+        <v>2390</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>2017</v>
@@ -18216,7 +18346,7 @@
         <v>979</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>979</v>
+        <v>2391</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>2018</v>
@@ -18239,7 +18369,7 @@
         <v>979</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>979</v>
+        <v>2392</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>2017</v>
@@ -18262,7 +18392,7 @@
         <v>979</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>979</v>
+        <v>2393</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>2018</v>
@@ -18285,7 +18415,7 @@
         <v>979</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>979</v>
+        <v>2394</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>2017</v>
@@ -18308,7 +18438,7 @@
         <v>979</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>979</v>
+        <v>2395</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>2018</v>
@@ -18331,7 +18461,7 @@
         <v>979</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>979</v>
+        <v>2396</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>2017</v>
@@ -18354,7 +18484,7 @@
         <v>979</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>979</v>
+        <v>2397</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>2018</v>
@@ -18377,7 +18507,7 @@
         <v>979</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>979</v>
+        <v>2398</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>2019</v>
@@ -18400,7 +18530,7 @@
         <v>979</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>979</v>
+        <v>2399</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>2018</v>
@@ -18423,7 +18553,7 @@
         <v>979</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>979</v>
+        <v>2400</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>2018</v>
@@ -18446,7 +18576,7 @@
         <v>979</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>979</v>
+        <v>2401</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>2017</v>
@@ -18469,7 +18599,7 @@
         <v>979</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>979</v>
+        <v>2402</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>2019</v>
@@ -18492,7 +18622,7 @@
         <v>979</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>979</v>
+        <v>2403</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>985</v>
@@ -18515,7 +18645,7 @@
         <v>979</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>979</v>
+        <v>2404</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>2019</v>
@@ -18538,7 +18668,7 @@
         <v>979</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>979</v>
+        <v>2405</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>985</v>
@@ -18561,7 +18691,7 @@
         <v>979</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>979</v>
+        <v>2406</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>2019</v>
@@ -18584,7 +18714,7 @@
         <v>979</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>979</v>
+        <v>2407</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>2019</v>
@@ -24008,7 +24138,7 @@
         <v>979</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>979</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -24028,7 +24158,7 @@
         <v>979</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>979</v>
+        <v>2408</v>
       </c>
       <c r="G290" s="6" t="s">
         <v>2019</v>
@@ -24051,7 +24181,7 @@
         <v>979</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>979</v>
+        <v>2408</v>
       </c>
       <c r="G291" s="6" t="s">
         <v>2019</v>
@@ -24074,7 +24204,7 @@
         <v>979</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>979</v>
+        <v>2408</v>
       </c>
       <c r="G292" s="6" t="s">
         <v>2019</v>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC7B32-2CA3-47F6-91ED-1EA354027574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BADB2F-9F5B-45A6-BDF4-4A1F134DC5CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="2410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="2411">
   <si>
     <t>name</t>
   </si>
@@ -6466,15 +6466,6 @@
     <t>Defense of Athena 3</t>
   </si>
   <si>
-    <t>catch</t>
-  </si>
-  <si>
-    <t>endless</t>
-  </si>
-  <si>
-    <t>shrine</t>
-  </si>
-  <si>
     <t>Slime</t>
   </si>
   <si>
@@ -7648,7 +7639,19 @@
     <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c2/Potions_V_Slimes.png/revision/latest?cb=20210220014217</t>
   </si>
   <si>
-    <t>endless buff</t>
+    <t>boss rush</t>
+  </si>
+  <si>
+    <t>catch bandits</t>
+  </si>
+  <si>
+    <t>time rush</t>
+  </si>
+  <si>
+    <t>endless buffs</t>
+  </si>
+  <si>
+    <t>shrine defense</t>
   </si>
 </sst>
 </file>
@@ -12215,7 +12218,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1394</v>
@@ -16308,7 +16311,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16686,7 +16689,7 @@
         <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17445,7 +17448,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17459,7 +17462,7 @@
         <v>320</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -17571,7 +17574,7 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -17635,7 +17638,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17649,7 +17652,7 @@
         <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -17677,7 +17680,7 @@
         <v>320</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17719,7 +17722,7 @@
         <v>271</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17733,7 +17736,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17762,8 +17765,8 @@
   <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17817,10 +17820,10 @@
         <v>979</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>985</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -17840,10 +17843,10 @@
         <v>979</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17863,10 +17866,10 @@
         <v>979</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17886,10 +17889,10 @@
         <v>979</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17909,10 +17912,10 @@
         <v>979</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>985</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -17932,10 +17935,10 @@
         <v>979</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>985</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -17955,10 +17958,10 @@
         <v>979</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17978,10 +17981,10 @@
         <v>979</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -18001,10 +18004,10 @@
         <v>979</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>985</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -18024,10 +18027,10 @@
         <v>979</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>985</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -18047,10 +18050,10 @@
         <v>979</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -18070,10 +18073,10 @@
         <v>979</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -18093,10 +18096,10 @@
         <v>979</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -18116,10 +18119,10 @@
         <v>979</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -18139,10 +18142,10 @@
         <v>979</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -18162,7 +18165,7 @@
         <v>979</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>2409</v>
@@ -18185,7 +18188,7 @@
         <v>979</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>2409</v>
@@ -18208,7 +18211,7 @@
         <v>979</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>2409</v>
@@ -18231,7 +18234,7 @@
         <v>979</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>2409</v>
@@ -18254,7 +18257,7 @@
         <v>979</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>2409</v>
@@ -18277,10 +18280,10 @@
         <v>979</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -18300,10 +18303,10 @@
         <v>979</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -18323,10 +18326,10 @@
         <v>979</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -18346,10 +18349,10 @@
         <v>979</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -18369,10 +18372,10 @@
         <v>979</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -18392,10 +18395,10 @@
         <v>979</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -18415,10 +18418,10 @@
         <v>979</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -18438,10 +18441,10 @@
         <v>979</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -18461,10 +18464,10 @@
         <v>979</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -18484,10 +18487,10 @@
         <v>979</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -18507,10 +18510,10 @@
         <v>979</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -18530,10 +18533,10 @@
         <v>979</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -18553,10 +18556,10 @@
         <v>979</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2018</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -18576,10 +18579,10 @@
         <v>979</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2017</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -18599,10 +18602,10 @@
         <v>979</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18622,10 +18625,10 @@
         <v>979</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>985</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -18645,10 +18648,10 @@
         <v>979</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18668,10 +18671,10 @@
         <v>979</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>985</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -18691,10 +18694,10 @@
         <v>979</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18714,10 +18717,10 @@
         <v>979</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18757,7 +18760,7 @@
         <v>956</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>988</v>
@@ -18779,7 +18782,7 @@
         <v>957</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>990</v>
@@ -18845,7 +18848,7 @@
         <v>955</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>991</v>
@@ -18933,7 +18936,7 @@
         <v>958</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>996</v>
@@ -19001,7 +19004,7 @@
         <v>955</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>999</v>
@@ -19089,7 +19092,7 @@
         <v>955</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>1003</v>
@@ -19201,7 +19204,7 @@
         <v>960</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>1018</v>
@@ -19289,7 +19292,7 @@
         <v>960</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>1022</v>
@@ -19401,7 +19404,7 @@
         <v>959</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>1030</v>
@@ -19489,7 +19492,7 @@
         <v>959</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>1031</v>
@@ -19577,7 +19580,7 @@
         <v>961</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>1035</v>
@@ -19599,7 +19602,7 @@
         <v>962</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>1036</v>
@@ -21381,7 +21384,7 @@
         <v>1784</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -21402,7 +21405,7 @@
         <v>979</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="G162" s="18"/>
     </row>
@@ -21424,7 +21427,7 @@
         <v>979</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="G163" s="18"/>
     </row>
@@ -21446,7 +21449,7 @@
         <v>979</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="G164" s="18"/>
     </row>
@@ -21468,7 +21471,7 @@
         <v>979</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="G165" s="18"/>
     </row>
@@ -21490,7 +21493,7 @@
         <v>979</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="G166" s="18"/>
     </row>
@@ -21512,7 +21515,7 @@
         <v>979</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="G167" s="18"/>
     </row>
@@ -21534,7 +21537,7 @@
         <v>979</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="G168" s="18"/>
     </row>
@@ -21556,7 +21559,7 @@
         <v>979</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="G169" s="18"/>
     </row>
@@ -21578,7 +21581,7 @@
         <v>979</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="G170" s="18"/>
     </row>
@@ -21600,7 +21603,7 @@
         <v>979</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="G171" s="18" t="s">
         <v>985</v>
@@ -21624,7 +21627,7 @@
         <v>979</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="G172" s="18"/>
     </row>
@@ -21646,7 +21649,7 @@
         <v>979</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="G173" s="18"/>
     </row>
@@ -21668,7 +21671,7 @@
         <v>979</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="G174" s="18"/>
     </row>
@@ -21690,7 +21693,7 @@
         <v>979</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="G175" s="18"/>
     </row>
@@ -21712,7 +21715,7 @@
         <v>979</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="G176" s="18"/>
     </row>
@@ -21734,7 +21737,7 @@
         <v>979</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="G177" s="18"/>
     </row>
@@ -21756,7 +21759,7 @@
         <v>979</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="G178" s="18"/>
     </row>
@@ -21778,7 +21781,7 @@
         <v>979</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="G179" s="18"/>
     </row>
@@ -21800,7 +21803,7 @@
         <v>979</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="G180" s="18"/>
     </row>
@@ -21822,7 +21825,7 @@
         <v>979</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="G181" s="18" t="s">
         <v>985</v>
@@ -21846,7 +21849,7 @@
         <v>979</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="G182" s="18"/>
     </row>
@@ -21868,7 +21871,7 @@
         <v>979</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="G183" s="18"/>
     </row>
@@ -21890,7 +21893,7 @@
         <v>979</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="G184" s="18"/>
     </row>
@@ -21912,7 +21915,7 @@
         <v>979</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="G185" s="18"/>
     </row>
@@ -21934,7 +21937,7 @@
         <v>979</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="G186" s="18"/>
     </row>
@@ -21956,7 +21959,7 @@
         <v>979</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="G187" s="18"/>
     </row>
@@ -21978,7 +21981,7 @@
         <v>979</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="G188" s="18"/>
     </row>
@@ -22000,7 +22003,7 @@
         <v>979</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="G189" s="18"/>
     </row>
@@ -22022,7 +22025,7 @@
         <v>979</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="G190" s="18"/>
     </row>
@@ -22044,7 +22047,7 @@
         <v>979</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="G191" s="18" t="s">
         <v>985</v>
@@ -22068,7 +22071,7 @@
         <v>979</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="G192" s="18"/>
     </row>
@@ -22090,7 +22093,7 @@
         <v>979</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="G193" s="18"/>
     </row>
@@ -22112,7 +22115,7 @@
         <v>979</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="G194" s="18"/>
     </row>
@@ -22134,7 +22137,7 @@
         <v>979</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="G195" s="18"/>
     </row>
@@ -22156,7 +22159,7 @@
         <v>979</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="G196" s="18"/>
     </row>
@@ -22178,7 +22181,7 @@
         <v>979</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="G197" s="18"/>
     </row>
@@ -22200,7 +22203,7 @@
         <v>979</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="G198" s="18"/>
     </row>
@@ -22222,7 +22225,7 @@
         <v>979</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="G199" s="18"/>
     </row>
@@ -22244,7 +22247,7 @@
         <v>979</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="G200" s="18"/>
     </row>
@@ -22266,7 +22269,7 @@
         <v>979</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="G201" s="18" t="s">
         <v>985</v>
@@ -22290,7 +22293,7 @@
         <v>979</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="G202" s="18"/>
     </row>
@@ -22312,7 +22315,7 @@
         <v>979</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="G203" s="18"/>
     </row>
@@ -22334,7 +22337,7 @@
         <v>979</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="G204" s="18"/>
     </row>
@@ -22356,7 +22359,7 @@
         <v>979</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="G205" s="18"/>
     </row>
@@ -22378,7 +22381,7 @@
         <v>979</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="G206" s="18"/>
     </row>
@@ -22400,7 +22403,7 @@
         <v>979</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="G207" s="18"/>
     </row>
@@ -22422,7 +22425,7 @@
         <v>979</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="G208" s="18"/>
     </row>
@@ -22444,7 +22447,7 @@
         <v>979</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="G209" s="18"/>
     </row>
@@ -22466,7 +22469,7 @@
         <v>979</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="G210" s="18"/>
     </row>
@@ -22488,7 +22491,7 @@
         <v>979</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="G211" s="18" t="s">
         <v>985</v>
@@ -22512,7 +22515,7 @@
         <v>979</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="G212" s="18"/>
     </row>
@@ -22531,10 +22534,10 @@
         <v>976</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="G213" s="18"/>
     </row>
@@ -22556,7 +22559,7 @@
         <v>979</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="G214" s="18"/>
     </row>
@@ -22575,10 +22578,10 @@
         <v>974</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="G215" s="18"/>
     </row>
@@ -22597,10 +22600,10 @@
         <v>976</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="G216" s="18"/>
     </row>
@@ -22622,7 +22625,7 @@
         <v>979</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="G217" s="18"/>
     </row>
@@ -22644,7 +22647,7 @@
         <v>979</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="G218" s="18"/>
     </row>
@@ -22666,7 +22669,7 @@
         <v>979</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="G219" s="18"/>
     </row>
@@ -22688,7 +22691,7 @@
         <v>979</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="G220" s="18"/>
     </row>
@@ -22710,7 +22713,7 @@
         <v>979</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="G221" s="18" t="s">
         <v>985</v>
@@ -22734,7 +22737,7 @@
         <v>979</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="G222" s="18"/>
     </row>
@@ -22753,10 +22756,10 @@
         <v>974</v>
       </c>
       <c r="E223" s="14" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="G223" s="18"/>
     </row>
@@ -22778,7 +22781,7 @@
         <v>979</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="G224" s="18"/>
     </row>
@@ -22800,7 +22803,7 @@
         <v>979</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="G225" s="18"/>
     </row>
@@ -22822,7 +22825,7 @@
         <v>979</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="G226" s="18"/>
     </row>
@@ -22841,10 +22844,10 @@
         <v>974</v>
       </c>
       <c r="E227" s="14" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="G227" s="18"/>
     </row>
@@ -22863,10 +22866,10 @@
         <v>976</v>
       </c>
       <c r="E228" s="14" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="G228" s="18"/>
     </row>
@@ -22888,7 +22891,7 @@
         <v>979</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="G229" s="18"/>
     </row>
@@ -22910,7 +22913,7 @@
         <v>979</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="G230" s="18"/>
     </row>
@@ -22929,10 +22932,10 @@
         <v>977</v>
       </c>
       <c r="E231" s="14" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="G231" s="18" t="s">
         <v>985</v>
@@ -22956,7 +22959,7 @@
         <v>979</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="G232" s="18"/>
     </row>
@@ -22978,7 +22981,7 @@
         <v>979</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="G233" s="18"/>
     </row>
@@ -23000,7 +23003,7 @@
         <v>979</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="G234" s="18"/>
     </row>
@@ -23022,7 +23025,7 @@
         <v>979</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="G235" s="18"/>
     </row>
@@ -23044,7 +23047,7 @@
         <v>979</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="G236" s="18"/>
     </row>
@@ -23066,7 +23069,7 @@
         <v>981</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="G237" s="18"/>
     </row>
@@ -23088,7 +23091,7 @@
         <v>979</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="G238" s="18"/>
     </row>
@@ -23110,7 +23113,7 @@
         <v>979</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="G239" s="18"/>
     </row>
@@ -23132,7 +23135,7 @@
         <v>979</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="G240" s="18"/>
     </row>
@@ -23151,10 +23154,10 @@
         <v>974</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="G241" s="18" t="s">
         <v>985</v>
@@ -24038,7 +24041,7 @@
         <v>979</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -24058,7 +24061,7 @@
         <v>979</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -24078,7 +24081,7 @@
         <v>979</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -24098,7 +24101,7 @@
         <v>979</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -24118,18 +24121,18 @@
         <v>979</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="B289" s="8">
         <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>979</v>
@@ -24138,7 +24141,7 @@
         <v>979</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -24158,10 +24161,10 @@
         <v>979</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -24181,10 +24184,10 @@
         <v>979</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -24204,10 +24207,10 @@
         <v>979</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -24290,7 +24293,7 @@
         <v>979</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -24313,7 +24316,7 @@
         <v>979</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -24336,7 +24339,7 @@
         <v>979</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -24419,7 +24422,7 @@
         <v>979</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
@@ -24442,7 +24445,7 @@
         <v>979</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
@@ -24465,12 +24468,12 @@
         <v>979</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>2019</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="B305" s="8">
         <v>1</v>
@@ -24490,13 +24493,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="B306" s="8">
         <v>1</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D306" s="32" t="s">
         <v>979</v>
@@ -24510,13 +24513,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="B307" s="8">
         <v>1</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D307" s="32" t="s">
         <v>979</v>
@@ -24530,13 +24533,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="B308" s="8">
         <v>1</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D308" s="32" t="s">
         <v>979</v>
@@ -24550,13 +24553,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="B309" s="8">
         <v>1</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D309" s="32" t="s">
         <v>979</v>
@@ -24570,13 +24573,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="B310" s="8">
         <v>1</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D310" s="32" t="s">
         <v>979</v>
@@ -24590,7 +24593,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="B311" s="8">
         <v>1</v>
@@ -24610,7 +24613,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="B312" s="8">
         <v>1</v>
@@ -24630,13 +24633,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="B313" s="8">
         <v>1</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D313" s="32" t="s">
         <v>979</v>
@@ -24650,13 +24653,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="B314" s="8">
         <v>1</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="D314" s="32" t="s">
         <v>979</v>
@@ -24670,13 +24673,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="B315" s="8">
         <v>1</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="D315" s="32" t="s">
         <v>979</v>
@@ -24690,13 +24693,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="B316" s="8">
         <v>1</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D316" s="32" t="s">
         <v>979</v>
@@ -24710,13 +24713,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="B317" s="8">
         <v>1</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="D317" s="32" t="s">
         <v>979</v>
@@ -24730,13 +24733,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="B318" s="8">
         <v>1</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="D318" s="32" t="s">
         <v>979</v>
@@ -24750,13 +24753,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="B319" s="8">
         <v>1</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D319" s="32" t="s">
         <v>979</v>
@@ -24770,13 +24773,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="B320" s="8">
         <v>1</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D320" s="32" t="s">
         <v>979</v>
@@ -24790,13 +24793,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B321" s="8">
         <v>1</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D321" s="32" t="s">
         <v>979</v>
@@ -24810,13 +24813,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="B322" s="8">
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="D322" s="32" t="s">
         <v>979</v>
@@ -24830,13 +24833,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="B323" s="8">
         <v>1</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D323" s="32" t="s">
         <v>979</v>
@@ -24850,7 +24853,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -24870,13 +24873,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="B325">
         <v>2</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D325" s="32" t="s">
         <v>979</v>
@@ -24890,13 +24893,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="B326">
         <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="D326" s="32" t="s">
         <v>979</v>
@@ -24910,13 +24913,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="B327">
         <v>2</v>
       </c>
       <c r="C327" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="D327" s="32" t="s">
         <v>979</v>
@@ -24930,13 +24933,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="B328">
         <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="D328" s="32" t="s">
         <v>979</v>
@@ -24950,7 +24953,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -24970,13 +24973,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="B330">
         <v>2</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D330" s="32" t="s">
         <v>979</v>
@@ -24990,7 +24993,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -25010,13 +25013,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="B332">
         <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="D332" s="32" t="s">
         <v>979</v>
@@ -25030,13 +25033,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="B333">
         <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D333" s="32" t="s">
         <v>979</v>
@@ -25050,13 +25053,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="B334">
         <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="D334" s="32" t="s">
         <v>979</v>
@@ -25070,13 +25073,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="B335">
         <v>2</v>
       </c>
       <c r="C335" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="D335" s="32" t="s">
         <v>979</v>
@@ -25090,13 +25093,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="B336">
         <v>3</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D336" s="32" t="s">
         <v>979</v>
@@ -25110,7 +25113,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -25130,13 +25133,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="B338">
         <v>3</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D338" s="32" t="s">
         <v>979</v>
@@ -25150,13 +25153,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="B339">
         <v>3</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D339" s="32" t="s">
         <v>979</v>
@@ -25170,7 +25173,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -25190,13 +25193,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="B341">
         <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="D341" s="32" t="s">
         <v>979</v>
@@ -25210,13 +25213,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="B342">
         <v>3</v>
       </c>
       <c r="C342" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="D342" s="32" t="s">
         <v>979</v>
@@ -25230,13 +25233,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="B343">
         <v>3</v>
       </c>
       <c r="C343" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="D343" s="32" t="s">
         <v>979</v>
@@ -25250,13 +25253,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="B344">
         <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="D344" s="32" t="s">
         <v>979</v>
@@ -25270,13 +25273,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="B345">
         <v>3</v>
       </c>
       <c r="C345" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="D345" s="32" t="s">
         <v>979</v>
@@ -25290,13 +25293,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="B346">
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="D346" s="32" t="s">
         <v>979</v>
@@ -25310,13 +25313,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="B347">
         <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="D347" s="32" t="s">
         <v>979</v>
@@ -25330,13 +25333,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="B348">
         <v>4</v>
       </c>
       <c r="C348" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D348" s="32" t="s">
         <v>979</v>
@@ -25350,13 +25353,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="B349">
         <v>4</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D349" s="32" t="s">
         <v>979</v>
@@ -25370,13 +25373,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="B350">
         <v>4</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D350" s="32" t="s">
         <v>979</v>
@@ -25390,13 +25393,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="B351">
         <v>4</v>
       </c>
       <c r="C351" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="D351" s="32" t="s">
         <v>979</v>
@@ -25410,13 +25413,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="B352">
         <v>4</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D352" s="32" t="s">
         <v>979</v>
@@ -25430,13 +25433,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="B353">
         <v>4</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D353" s="32" t="s">
         <v>979</v>
@@ -25450,13 +25453,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="B354">
         <v>4</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D354" s="32" t="s">
         <v>979</v>
@@ -25470,13 +25473,13 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="B355">
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="D355" s="32" t="s">
         <v>979</v>
@@ -25490,13 +25493,13 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="B356">
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="D356" s="32" t="s">
         <v>979</v>
@@ -25609,7 +25612,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -25650,7 +25653,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -25691,7 +25694,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -25735,7 +25738,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -25776,7 +25779,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -25817,7 +25820,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -25858,7 +25861,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -25899,7 +25902,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -25940,7 +25943,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -25981,7 +25984,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -26022,7 +26025,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -26063,7 +26066,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -26104,7 +26107,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -26145,7 +26148,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -26189,7 +26192,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -26230,7 +26233,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -26274,7 +26277,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -26318,7 +26321,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -26362,7 +26365,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -26406,7 +26409,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -26447,7 +26450,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -26488,7 +26491,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -26532,7 +26535,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -26576,7 +26579,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -26617,7 +26620,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -26658,7 +26661,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -26699,7 +26702,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -26740,7 +26743,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -26781,7 +26784,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -26822,7 +26825,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -26863,7 +26866,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -26904,7 +26907,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -26945,7 +26948,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -26986,7 +26989,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -27027,7 +27030,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -27071,7 +27074,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -27112,7 +27115,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -27156,7 +27159,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -27200,7 +27203,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -27244,7 +27247,7 @@
     </row>
     <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -27288,7 +27291,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -27329,7 +27332,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -27373,7 +27376,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -27414,7 +27417,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -27455,7 +27458,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -27496,7 +27499,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -27537,7 +27540,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -27578,7 +27581,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -27619,7 +27622,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -27660,7 +27663,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -27701,7 +27704,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -27742,7 +27745,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -27786,7 +27789,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -27827,7 +27830,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -27868,7 +27871,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -27909,7 +27912,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -27950,7 +27953,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -27991,7 +27994,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -28032,7 +28035,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -28076,7 +28079,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -28120,7 +28123,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -28164,7 +28167,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -28208,7 +28211,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -28252,7 +28255,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -28294,7 +28297,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -28338,7 +28341,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -28379,7 +28382,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -28420,7 +28423,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -28461,7 +28464,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -28502,7 +28505,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -28546,7 +28549,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -28587,7 +28590,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -28628,7 +28631,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -28669,7 +28672,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -28710,7 +28713,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -28751,7 +28754,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -28792,7 +28795,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -28833,7 +28836,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -28874,7 +28877,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -28918,7 +28921,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -28959,7 +28962,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -29003,7 +29006,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -29047,7 +29050,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -29086,7 +29089,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -29127,7 +29130,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -29168,7 +29171,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -29212,7 +29215,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -29253,7 +29256,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -29297,7 +29300,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -29338,7 +29341,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -29379,7 +29382,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -29423,7 +29426,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -29464,7 +29467,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -29505,7 +29508,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -29546,7 +29549,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -29587,7 +29590,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -29628,7 +29631,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -29669,7 +29672,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -29710,7 +29713,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -29751,7 +29754,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -29792,7 +29795,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -29833,7 +29836,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -29874,7 +29877,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -29915,7 +29918,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -29956,7 +29959,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -29997,7 +30000,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -30041,7 +30044,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -30085,7 +30088,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -30129,7 +30132,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -30173,7 +30176,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -30217,7 +30220,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -30258,7 +30261,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -30302,7 +30305,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -30346,7 +30349,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -30387,7 +30390,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -30428,7 +30431,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -30469,7 +30472,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -30510,7 +30513,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -30554,7 +30557,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -30595,7 +30598,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -30639,7 +30642,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -30680,7 +30683,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -30721,7 +30724,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -30762,7 +30765,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -30803,7 +30806,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -30844,7 +30847,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -30885,7 +30888,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -30929,7 +30932,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -30973,7 +30976,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -31014,7 +31017,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -31055,7 +31058,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -31096,7 +31099,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -31137,7 +31140,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -31178,7 +31181,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -31222,7 +31225,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -31266,7 +31269,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -31310,7 +31313,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -31354,7 +31357,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -31398,7 +31401,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -31442,7 +31445,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -31486,7 +31489,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -31530,7 +31533,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -31813,7 +31816,7 @@
         <v>1866</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>1122</v>
@@ -32056,7 +32059,7 @@
         <v>1074</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1140</v>
@@ -32651,7 +32654,7 @@
         <v>1231</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1456</v>
@@ -33457,7 +33460,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -33468,7 +33471,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -33479,7 +33482,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -33490,7 +33493,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -33498,10 +33501,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -33512,7 +33515,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -33523,7 +33526,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -33534,7 +33537,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -33545,7 +33548,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -33556,7 +33559,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BADB2F-9F5B-45A6-BDF4-4A1F134DC5CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62F424-F95E-4F8B-A8C4-1CC23CBA86DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -5967,12 +5967,6 @@
 **Second Life**: After dying he reveals his true form with 240000 HP and becomes enraged.</t>
   </si>
   <si>
-    <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
-**Ice Spike**: 5s cooldown, deals 1 AOE range `100 TD` to a furthest target on map.
-**Ice Burst**: 20s cooldown, launches 9 icicles across the map, freezing hit targets within range 1 on trajectory for 5s.
-**Remorseless Winter**: 30s cooldown, freezes 3 random towers for 10s.</t>
-  </si>
-  <si>
     <t>**Melee**: 1s cooldown, deals `(12+1 ND) PD` to AOE range 1.
 **Snowball Fight**: 10s cooldown, deals 1 AOE range `(1+0.7 ND) PD` to a furthest target on map.
 **Enrage**: Speed is doubled when HP &lt; 33%.</t>
@@ -7652,6 +7646,13 @@
   </si>
   <si>
     <t>shrine defense</t>
+  </si>
+  <si>
+    <t>**Melee**: 1.5s cooldown, deals `(1 ND) PD` to a target.
+**Ice Spike**: 5s cooldown, deals 1 AOE range `100 TD` to a furthest target on map.
+**Ice Burst**: 20s cooldown, launches 9 icicles across the map, freezing hit targets within range 1 on trajectory for 5s.
+**Remorseless Winter**: 30s cooldown, freezes 3 random towers for 10s.
+**Puppeteer**: Summon 1/2/3 Crystal Guardians at 100%/67%/33% HP, cannot be damaged while the Crystal Guardians are alive</t>
   </si>
 </sst>
 </file>
@@ -12218,7 +12219,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1394</v>
@@ -13748,7 +13749,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13762,7 +13763,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16311,7 +16312,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16689,7 +16690,7 @@
         <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17448,7 +17449,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17462,7 +17463,7 @@
         <v>320</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -17574,7 +17575,7 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -17638,7 +17639,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17652,7 +17653,7 @@
         <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -17680,7 +17681,7 @@
         <v>320</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17722,7 +17723,7 @@
         <v>271</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17736,7 +17737,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17764,9 +17765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D798F71-5A72-4731-9B2C-78595D904327}">
   <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K290" sqref="K290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17820,10 +17821,10 @@
         <v>979</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -17843,10 +17844,10 @@
         <v>979</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17866,10 +17867,10 @@
         <v>979</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17889,10 +17890,10 @@
         <v>979</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17912,10 +17913,10 @@
         <v>979</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -17935,10 +17936,10 @@
         <v>979</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -17958,10 +17959,10 @@
         <v>979</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17981,10 +17982,10 @@
         <v>979</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -18004,10 +18005,10 @@
         <v>979</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -18027,10 +18028,10 @@
         <v>979</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -18050,10 +18051,10 @@
         <v>979</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -18073,10 +18074,10 @@
         <v>979</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -18096,10 +18097,10 @@
         <v>979</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -18119,10 +18120,10 @@
         <v>979</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -18142,10 +18143,10 @@
         <v>979</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -18165,10 +18166,10 @@
         <v>979</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -18188,10 +18189,10 @@
         <v>979</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -18211,10 +18212,10 @@
         <v>979</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -18234,10 +18235,10 @@
         <v>979</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -18257,10 +18258,10 @@
         <v>979</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -18280,10 +18281,10 @@
         <v>979</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -18303,10 +18304,10 @@
         <v>979</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -18326,10 +18327,10 @@
         <v>979</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -18349,10 +18350,10 @@
         <v>979</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -18372,10 +18373,10 @@
         <v>979</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -18395,10 +18396,10 @@
         <v>979</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -18418,10 +18419,10 @@
         <v>979</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -18441,10 +18442,10 @@
         <v>979</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -18464,10 +18465,10 @@
         <v>979</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -18487,10 +18488,10 @@
         <v>979</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -18510,10 +18511,10 @@
         <v>979</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -18533,10 +18534,10 @@
         <v>979</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -18556,10 +18557,10 @@
         <v>979</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -18579,10 +18580,10 @@
         <v>979</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -18602,10 +18603,10 @@
         <v>979</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18625,10 +18626,10 @@
         <v>979</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -18648,10 +18649,10 @@
         <v>979</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18671,10 +18672,10 @@
         <v>979</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -18694,10 +18695,10 @@
         <v>979</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18717,10 +18718,10 @@
         <v>979</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18760,7 +18761,7 @@
         <v>956</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>988</v>
@@ -18782,7 +18783,7 @@
         <v>957</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>990</v>
@@ -18848,7 +18849,7 @@
         <v>955</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>991</v>
@@ -18936,7 +18937,7 @@
         <v>958</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>996</v>
@@ -19004,7 +19005,7 @@
         <v>955</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>999</v>
@@ -19092,7 +19093,7 @@
         <v>955</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>1003</v>
@@ -19204,7 +19205,7 @@
         <v>960</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>1018</v>
@@ -19292,7 +19293,7 @@
         <v>960</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>1022</v>
@@ -19404,7 +19405,7 @@
         <v>959</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>1030</v>
@@ -19492,7 +19493,7 @@
         <v>959</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>1031</v>
@@ -19580,7 +19581,7 @@
         <v>961</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>1035</v>
@@ -19602,7 +19603,7 @@
         <v>962</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>1036</v>
@@ -21384,7 +21385,7 @@
         <v>1784</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -21405,7 +21406,7 @@
         <v>979</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="G162" s="18"/>
     </row>
@@ -21427,7 +21428,7 @@
         <v>979</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="G163" s="18"/>
     </row>
@@ -21449,7 +21450,7 @@
         <v>979</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="G164" s="18"/>
     </row>
@@ -21471,7 +21472,7 @@
         <v>979</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G165" s="18"/>
     </row>
@@ -21493,7 +21494,7 @@
         <v>979</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="G166" s="18"/>
     </row>
@@ -21515,7 +21516,7 @@
         <v>979</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="G167" s="18"/>
     </row>
@@ -21537,7 +21538,7 @@
         <v>979</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="G168" s="18"/>
     </row>
@@ -21559,7 +21560,7 @@
         <v>979</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="G169" s="18"/>
     </row>
@@ -21581,7 +21582,7 @@
         <v>979</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="G170" s="18"/>
     </row>
@@ -21603,7 +21604,7 @@
         <v>979</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="G171" s="18" t="s">
         <v>985</v>
@@ -21627,7 +21628,7 @@
         <v>979</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="G172" s="18"/>
     </row>
@@ -21649,7 +21650,7 @@
         <v>979</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="G173" s="18"/>
     </row>
@@ -21671,7 +21672,7 @@
         <v>979</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="G174" s="18"/>
     </row>
@@ -21693,7 +21694,7 @@
         <v>979</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="G175" s="18"/>
     </row>
@@ -21715,7 +21716,7 @@
         <v>979</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="G176" s="18"/>
     </row>
@@ -21737,7 +21738,7 @@
         <v>979</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="G177" s="18"/>
     </row>
@@ -21759,7 +21760,7 @@
         <v>979</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="G178" s="18"/>
     </row>
@@ -21781,7 +21782,7 @@
         <v>979</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="G179" s="18"/>
     </row>
@@ -21803,7 +21804,7 @@
         <v>979</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="G180" s="18"/>
     </row>
@@ -21825,7 +21826,7 @@
         <v>979</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G181" s="18" t="s">
         <v>985</v>
@@ -21849,7 +21850,7 @@
         <v>979</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="G182" s="18"/>
     </row>
@@ -21871,7 +21872,7 @@
         <v>979</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="G183" s="18"/>
     </row>
@@ -21893,7 +21894,7 @@
         <v>979</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="G184" s="18"/>
     </row>
@@ -21915,7 +21916,7 @@
         <v>979</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G185" s="18"/>
     </row>
@@ -21937,7 +21938,7 @@
         <v>979</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="G186" s="18"/>
     </row>
@@ -21959,7 +21960,7 @@
         <v>979</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="G187" s="18"/>
     </row>
@@ -21981,7 +21982,7 @@
         <v>979</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G188" s="18"/>
     </row>
@@ -22003,7 +22004,7 @@
         <v>979</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="G189" s="18"/>
     </row>
@@ -22025,7 +22026,7 @@
         <v>979</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G190" s="18"/>
     </row>
@@ -22047,7 +22048,7 @@
         <v>979</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="G191" s="18" t="s">
         <v>985</v>
@@ -22071,7 +22072,7 @@
         <v>979</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G192" s="18"/>
     </row>
@@ -22093,7 +22094,7 @@
         <v>979</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="G193" s="18"/>
     </row>
@@ -22115,7 +22116,7 @@
         <v>979</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G194" s="18"/>
     </row>
@@ -22137,7 +22138,7 @@
         <v>979</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G195" s="18"/>
     </row>
@@ -22159,7 +22160,7 @@
         <v>979</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="G196" s="18"/>
     </row>
@@ -22181,7 +22182,7 @@
         <v>979</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G197" s="18"/>
     </row>
@@ -22203,7 +22204,7 @@
         <v>979</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="G198" s="18"/>
     </row>
@@ -22225,7 +22226,7 @@
         <v>979</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G199" s="18"/>
     </row>
@@ -22247,7 +22248,7 @@
         <v>979</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="G200" s="18"/>
     </row>
@@ -22269,7 +22270,7 @@
         <v>979</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="G201" s="18" t="s">
         <v>985</v>
@@ -22293,7 +22294,7 @@
         <v>979</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="G202" s="18"/>
     </row>
@@ -22315,7 +22316,7 @@
         <v>979</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="G203" s="18"/>
     </row>
@@ -22337,7 +22338,7 @@
         <v>979</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="G204" s="18"/>
     </row>
@@ -22359,7 +22360,7 @@
         <v>979</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="G205" s="18"/>
     </row>
@@ -22381,7 +22382,7 @@
         <v>979</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="G206" s="18"/>
     </row>
@@ -22403,7 +22404,7 @@
         <v>979</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="G207" s="18"/>
     </row>
@@ -22425,7 +22426,7 @@
         <v>979</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="G208" s="18"/>
     </row>
@@ -22447,7 +22448,7 @@
         <v>979</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="G209" s="18"/>
     </row>
@@ -22469,7 +22470,7 @@
         <v>979</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="G210" s="18"/>
     </row>
@@ -22491,7 +22492,7 @@
         <v>979</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="G211" s="18" t="s">
         <v>985</v>
@@ -22515,7 +22516,7 @@
         <v>979</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="G212" s="18"/>
     </row>
@@ -22534,10 +22535,10 @@
         <v>976</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="G213" s="18"/>
     </row>
@@ -22559,7 +22560,7 @@
         <v>979</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="G214" s="18"/>
     </row>
@@ -22578,10 +22579,10 @@
         <v>974</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="G215" s="18"/>
     </row>
@@ -22600,10 +22601,10 @@
         <v>976</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="G216" s="18"/>
     </row>
@@ -22625,7 +22626,7 @@
         <v>979</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="G217" s="18"/>
     </row>
@@ -22647,7 +22648,7 @@
         <v>979</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="G218" s="18"/>
     </row>
@@ -22669,7 +22670,7 @@
         <v>979</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="G219" s="18"/>
     </row>
@@ -22691,7 +22692,7 @@
         <v>979</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="G220" s="18"/>
     </row>
@@ -22713,7 +22714,7 @@
         <v>979</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="G221" s="18" t="s">
         <v>985</v>
@@ -22737,7 +22738,7 @@
         <v>979</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G222" s="18"/>
     </row>
@@ -22756,10 +22757,10 @@
         <v>974</v>
       </c>
       <c r="E223" s="14" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G223" s="18"/>
     </row>
@@ -22781,7 +22782,7 @@
         <v>979</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G224" s="18"/>
     </row>
@@ -22803,7 +22804,7 @@
         <v>979</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="G225" s="18"/>
     </row>
@@ -22825,7 +22826,7 @@
         <v>979</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="G226" s="18"/>
     </row>
@@ -22844,10 +22845,10 @@
         <v>974</v>
       </c>
       <c r="E227" s="14" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="G227" s="18"/>
     </row>
@@ -22866,10 +22867,10 @@
         <v>976</v>
       </c>
       <c r="E228" s="14" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="G228" s="18"/>
     </row>
@@ -22891,7 +22892,7 @@
         <v>979</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="G229" s="18"/>
     </row>
@@ -22913,7 +22914,7 @@
         <v>979</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="G230" s="18"/>
     </row>
@@ -22932,10 +22933,10 @@
         <v>977</v>
       </c>
       <c r="E231" s="14" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="G231" s="18" t="s">
         <v>985</v>
@@ -22959,7 +22960,7 @@
         <v>979</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="G232" s="18"/>
     </row>
@@ -22981,7 +22982,7 @@
         <v>979</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="G233" s="18"/>
     </row>
@@ -23003,7 +23004,7 @@
         <v>979</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="G234" s="18"/>
     </row>
@@ -23025,7 +23026,7 @@
         <v>979</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="G235" s="18"/>
     </row>
@@ -23047,7 +23048,7 @@
         <v>979</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="G236" s="18"/>
     </row>
@@ -23069,7 +23070,7 @@
         <v>981</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="G237" s="18"/>
     </row>
@@ -23091,7 +23092,7 @@
         <v>979</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="G238" s="18"/>
     </row>
@@ -23113,7 +23114,7 @@
         <v>979</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G239" s="18"/>
     </row>
@@ -23135,7 +23136,7 @@
         <v>979</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G240" s="18"/>
     </row>
@@ -23154,10 +23155,10 @@
         <v>974</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G241" s="18" t="s">
         <v>985</v>
@@ -23165,13 +23166,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B242" s="8">
         <v>1</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D242" s="32" t="s">
         <v>979</v>
@@ -23185,13 +23186,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D243" s="32" t="s">
         <v>979</v>
@@ -23205,13 +23206,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B244" s="8">
         <v>1</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D244" s="32" t="s">
         <v>979</v>
@@ -23225,13 +23226,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B245" s="8">
         <v>1</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D245" s="32" t="s">
         <v>979</v>
@@ -23245,13 +23246,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B246" s="8">
         <v>1</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D246" s="32" t="s">
         <v>979</v>
@@ -23268,13 +23269,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B247" s="8">
         <v>2</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D247" s="32" t="s">
         <v>979</v>
@@ -23288,13 +23289,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B248" s="8">
         <v>2</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D248" s="32" t="s">
         <v>979</v>
@@ -23308,13 +23309,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B249" s="8">
         <v>2</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D249" s="32" t="s">
         <v>979</v>
@@ -23328,13 +23329,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B250" s="8">
         <v>2</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D250" s="32" t="s">
         <v>979</v>
@@ -23348,13 +23349,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B251" s="8">
         <v>2</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D251" s="32" t="s">
         <v>979</v>
@@ -23368,13 +23369,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B252" s="8">
         <v>2</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D252" s="32" t="s">
         <v>979</v>
@@ -23388,13 +23389,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B253" s="8">
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D253" s="32" t="s">
         <v>979</v>
@@ -23408,13 +23409,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B254" s="8">
         <v>2</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D254" s="32" t="s">
         <v>979</v>
@@ -23428,13 +23429,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B255" s="8">
         <v>2</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D255" s="32" t="s">
         <v>979</v>
@@ -23448,13 +23449,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B256" s="8">
         <v>2</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D256" s="32" t="s">
         <v>979</v>
@@ -23471,13 +23472,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B257" s="8">
         <v>3</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D257" s="32" t="s">
         <v>979</v>
@@ -23491,13 +23492,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B258" s="8">
         <v>3</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>979</v>
@@ -23511,13 +23512,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B259" s="8">
         <v>3</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>979</v>
@@ -23531,13 +23532,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B260" s="8">
         <v>3</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D260" s="32" t="s">
         <v>979</v>
@@ -23551,13 +23552,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B261" s="8">
         <v>3</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D261" s="32" t="s">
         <v>979</v>
@@ -23571,13 +23572,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B262" s="8">
         <v>3</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D262" s="32" t="s">
         <v>979</v>
@@ -23591,13 +23592,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B263" s="8">
         <v>3</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D263" s="32" t="s">
         <v>979</v>
@@ -23611,13 +23612,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B264" s="8">
         <v>3</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D264" s="32" t="s">
         <v>979</v>
@@ -23631,13 +23632,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B265" s="8">
         <v>3</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D265" s="32" t="s">
         <v>979</v>
@@ -23654,13 +23655,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B266" s="8">
         <v>3</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D266" s="32" t="s">
         <v>979</v>
@@ -23677,13 +23678,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B267" s="8">
         <v>6</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D267" s="32" t="s">
         <v>979</v>
@@ -23697,13 +23698,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B268" s="8">
         <v>6</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D268" s="32" t="s">
         <v>979</v>
@@ -23717,13 +23718,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B269" s="8">
         <v>6</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D269" s="32" t="s">
         <v>979</v>
@@ -23740,13 +23741,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B270" s="8">
         <v>6</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D270" s="32" t="s">
         <v>979</v>
@@ -23760,13 +23761,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B271" s="8">
         <v>6</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>979</v>
@@ -23780,13 +23781,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B272" s="8">
         <v>6</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D272" s="32" t="s">
         <v>979</v>
@@ -23803,13 +23804,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B273" s="8">
         <v>6</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D273" s="32" t="s">
         <v>979</v>
@@ -23823,13 +23824,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B274" s="8">
         <v>6</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D274" s="32" t="s">
         <v>979</v>
@@ -23843,13 +23844,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B275" s="8">
         <v>6</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>979</v>
@@ -23863,13 +23864,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B276" s="8">
         <v>6</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D276" s="32" t="s">
         <v>979</v>
@@ -23886,13 +23887,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B277" s="8">
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>979</v>
@@ -23906,13 +23907,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B278" s="8">
         <v>1</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D278" s="32" t="s">
         <v>979</v>
@@ -23926,13 +23927,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B279" s="8">
         <v>1</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D279" s="32" t="s">
         <v>979</v>
@@ -23946,13 +23947,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B280" s="8">
         <v>1</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D280" s="32" t="s">
         <v>979</v>
@@ -23966,13 +23967,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B281" s="8">
         <v>1</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D281" s="32" t="s">
         <v>979</v>
@@ -23986,13 +23987,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B282" s="8">
         <v>1</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D282" s="32" t="s">
         <v>979</v>
@@ -24006,13 +24007,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B283" s="8">
         <v>1</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D283" s="32" t="s">
         <v>979</v>
@@ -24026,13 +24027,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B284" s="8">
         <v>1</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D284" s="32" t="s">
         <v>979</v>
@@ -24041,18 +24042,18 @@
         <v>979</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D285" s="32" t="s">
         <v>979</v>
@@ -24061,18 +24062,18 @@
         <v>979</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B286" s="8">
         <v>3</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D286" s="32" t="s">
         <v>979</v>
@@ -24081,18 +24082,18 @@
         <v>979</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B287" s="8">
         <v>4</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D287" s="32" t="s">
         <v>979</v>
@@ -24101,18 +24102,18 @@
         <v>979</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B288" s="8">
         <v>5</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D288" s="32" t="s">
         <v>979</v>
@@ -24121,18 +24122,18 @@
         <v>979</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B289" s="8">
         <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>979</v>
@@ -24141,18 +24142,18 @@
         <v>979</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B290" s="8">
         <v>1</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D290" s="32" t="s">
         <v>979</v>
@@ -24161,21 +24162,21 @@
         <v>979</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B291" s="8">
         <v>1</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D291" s="32" t="s">
         <v>979</v>
@@ -24184,21 +24185,21 @@
         <v>979</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B292" s="8">
         <v>1</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D292" s="32" t="s">
         <v>979</v>
@@ -24207,21 +24208,21 @@
         <v>979</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B293" s="8">
         <v>2</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D293" s="32" t="s">
         <v>979</v>
@@ -24235,13 +24236,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B294" s="8">
         <v>2</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D294" s="32" t="s">
         <v>979</v>
@@ -24255,13 +24256,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B295" s="8">
         <v>2</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D295" s="32" t="s">
         <v>979</v>
@@ -24275,13 +24276,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B296" s="8">
         <v>1</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D296" s="32" t="s">
         <v>979</v>
@@ -24293,18 +24294,18 @@
         <v>979</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B297" s="8">
         <v>1</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D297" s="32" t="s">
         <v>979</v>
@@ -24316,18 +24317,18 @@
         <v>979</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B298" s="8">
         <v>1</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D298" s="32" t="s">
         <v>979</v>
@@ -24339,18 +24340,18 @@
         <v>979</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B299" s="8">
         <v>2</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D299" s="32" t="s">
         <v>979</v>
@@ -24364,13 +24365,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B300" s="8">
         <v>2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D300" s="32" t="s">
         <v>979</v>
@@ -24384,13 +24385,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B301" s="8">
         <v>2</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D301" s="32" t="s">
         <v>979</v>
@@ -24404,13 +24405,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B302" s="8">
         <v>1</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D302" s="32" t="s">
         <v>979</v>
@@ -24422,18 +24423,18 @@
         <v>979</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B303" s="8">
         <v>1</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D303" s="32" t="s">
         <v>979</v>
@@ -24445,18 +24446,18 @@
         <v>979</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B304" s="8">
         <v>1</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D304" s="32" t="s">
         <v>979</v>
@@ -24468,12 +24469,12 @@
         <v>979</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B305" s="8">
         <v>1</v>
@@ -24493,13 +24494,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B306" s="8">
         <v>1</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D306" s="32" t="s">
         <v>979</v>
@@ -24513,13 +24514,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B307" s="8">
         <v>1</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D307" s="32" t="s">
         <v>979</v>
@@ -24533,13 +24534,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B308" s="8">
         <v>1</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D308" s="32" t="s">
         <v>979</v>
@@ -24553,13 +24554,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B309" s="8">
         <v>1</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D309" s="32" t="s">
         <v>979</v>
@@ -24573,13 +24574,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B310" s="8">
         <v>1</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D310" s="32" t="s">
         <v>979</v>
@@ -24593,7 +24594,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B311" s="8">
         <v>1</v>
@@ -24613,7 +24614,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B312" s="8">
         <v>1</v>
@@ -24633,13 +24634,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B313" s="8">
         <v>1</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D313" s="32" t="s">
         <v>979</v>
@@ -24653,13 +24654,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B314" s="8">
         <v>1</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D314" s="32" t="s">
         <v>979</v>
@@ -24673,13 +24674,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B315" s="8">
         <v>1</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D315" s="32" t="s">
         <v>979</v>
@@ -24693,13 +24694,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B316" s="8">
         <v>1</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D316" s="32" t="s">
         <v>979</v>
@@ -24713,13 +24714,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B317" s="8">
         <v>1</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D317" s="32" t="s">
         <v>979</v>
@@ -24733,13 +24734,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B318" s="8">
         <v>1</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D318" s="32" t="s">
         <v>979</v>
@@ -24753,13 +24754,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B319" s="8">
         <v>1</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D319" s="32" t="s">
         <v>979</v>
@@ -24773,13 +24774,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B320" s="8">
         <v>1</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D320" s="32" t="s">
         <v>979</v>
@@ -24793,13 +24794,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B321" s="8">
         <v>1</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D321" s="32" t="s">
         <v>979</v>
@@ -24813,13 +24814,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B322" s="8">
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D322" s="32" t="s">
         <v>979</v>
@@ -24833,13 +24834,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B323" s="8">
         <v>1</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D323" s="32" t="s">
         <v>979</v>
@@ -24853,13 +24854,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B324">
         <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D324" s="32" t="s">
         <v>979</v>
@@ -24873,13 +24874,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B325">
         <v>2</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D325" s="32" t="s">
         <v>979</v>
@@ -24893,13 +24894,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B326">
         <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D326" s="32" t="s">
         <v>979</v>
@@ -24913,13 +24914,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B327">
         <v>2</v>
       </c>
       <c r="C327" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D327" s="32" t="s">
         <v>979</v>
@@ -24933,13 +24934,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B328">
         <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D328" s="32" t="s">
         <v>979</v>
@@ -24953,7 +24954,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -24973,13 +24974,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B330">
         <v>2</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D330" s="32" t="s">
         <v>979</v>
@@ -24993,7 +24994,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -25013,13 +25014,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B332">
         <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D332" s="32" t="s">
         <v>979</v>
@@ -25033,13 +25034,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B333">
         <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D333" s="32" t="s">
         <v>979</v>
@@ -25053,13 +25054,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B334">
         <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D334" s="32" t="s">
         <v>979</v>
@@ -25073,13 +25074,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B335">
         <v>2</v>
       </c>
       <c r="C335" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D335" s="32" t="s">
         <v>979</v>
@@ -25093,13 +25094,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B336">
         <v>3</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D336" s="32" t="s">
         <v>979</v>
@@ -25113,7 +25114,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -25133,13 +25134,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B338">
         <v>3</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D338" s="32" t="s">
         <v>979</v>
@@ -25153,13 +25154,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B339">
         <v>3</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D339" s="32" t="s">
         <v>979</v>
@@ -25173,7 +25174,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -25193,13 +25194,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B341">
         <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D341" s="32" t="s">
         <v>979</v>
@@ -25213,13 +25214,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B342">
         <v>3</v>
       </c>
       <c r="C342" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D342" s="32" t="s">
         <v>979</v>
@@ -25233,13 +25234,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B343">
         <v>3</v>
       </c>
       <c r="C343" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D343" s="32" t="s">
         <v>979</v>
@@ -25253,13 +25254,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B344">
         <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D344" s="32" t="s">
         <v>979</v>
@@ -25273,13 +25274,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B345">
         <v>3</v>
       </c>
       <c r="C345" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D345" s="32" t="s">
         <v>979</v>
@@ -25293,13 +25294,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B346">
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D346" s="32" t="s">
         <v>979</v>
@@ -25313,13 +25314,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B347">
         <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D347" s="32" t="s">
         <v>979</v>
@@ -25333,13 +25334,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B348">
         <v>4</v>
       </c>
       <c r="C348" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D348" s="32" t="s">
         <v>979</v>
@@ -25353,13 +25354,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B349">
         <v>4</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D349" s="32" t="s">
         <v>979</v>
@@ -25373,13 +25374,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B350">
         <v>4</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D350" s="32" t="s">
         <v>979</v>
@@ -25393,13 +25394,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B351">
         <v>4</v>
       </c>
       <c r="C351" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D351" s="32" t="s">
         <v>979</v>
@@ -25413,13 +25414,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B352">
         <v>4</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D352" s="32" t="s">
         <v>979</v>
@@ -25433,13 +25434,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B353">
         <v>4</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D353" s="32" t="s">
         <v>979</v>
@@ -25453,13 +25454,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B354">
         <v>4</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D354" s="32" t="s">
         <v>979</v>
@@ -25473,13 +25474,13 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B355">
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D355" s="32" t="s">
         <v>979</v>
@@ -25493,13 +25494,13 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B356">
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D356" s="32" t="s">
         <v>979</v>
@@ -25544,9 +25545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78993A1-ED23-4BA3-9898-CFB8D57B537E}">
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25612,7 +25613,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -25653,7 +25654,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -25694,7 +25695,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -25738,7 +25739,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -25779,7 +25780,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -25820,7 +25821,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -25861,7 +25862,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -25902,7 +25903,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -25943,7 +25944,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -25984,7 +25985,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -26025,7 +26026,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -26066,7 +26067,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -26107,7 +26108,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -26148,7 +26149,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -26192,7 +26193,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -26233,7 +26234,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -26277,7 +26278,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -26321,7 +26322,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -26354,7 +26355,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>985</v>
@@ -26365,7 +26366,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -26398,7 +26399,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>985</v>
@@ -26409,7 +26410,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -26450,7 +26451,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -26491,7 +26492,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -26535,7 +26536,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -26579,7 +26580,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -26620,7 +26621,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -26661,7 +26662,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -26702,7 +26703,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -26743,7 +26744,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -26784,7 +26785,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -26825,7 +26826,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -26866,7 +26867,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -26907,7 +26908,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -26948,7 +26949,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -26989,7 +26990,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -27030,7 +27031,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -27074,7 +27075,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -27115,7 +27116,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -27148,7 +27149,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>985</v>
@@ -27159,7 +27160,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -27203,7 +27204,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -27245,9 +27246,9 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -27280,7 +27281,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>1862</v>
+        <v>2410</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>985</v>
@@ -27291,7 +27292,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -27332,7 +27333,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -27376,7 +27377,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -27417,7 +27418,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -27458,7 +27459,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -27499,7 +27500,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -27540,7 +27541,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -27581,7 +27582,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -27622,7 +27623,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -27663,7 +27664,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -27704,7 +27705,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -27745,7 +27746,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -27789,7 +27790,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -27830,7 +27831,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -27871,7 +27872,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -27912,7 +27913,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -27953,7 +27954,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -27994,7 +27995,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -28035,7 +28036,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -28079,7 +28080,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -28123,7 +28124,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -28167,7 +28168,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -28211,7 +28212,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -28255,7 +28256,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -28297,7 +28298,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -28341,7 +28342,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -28382,7 +28383,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -28423,7 +28424,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -28464,7 +28465,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -28505,7 +28506,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -28549,7 +28550,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -28590,7 +28591,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -28631,7 +28632,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -28672,7 +28673,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -28713,7 +28714,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -28754,7 +28755,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -28795,7 +28796,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -28836,7 +28837,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -28877,7 +28878,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -28921,7 +28922,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -28962,7 +28963,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -29006,7 +29007,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -29050,7 +29051,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -29089,7 +29090,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -29130,7 +29131,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -29171,7 +29172,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -29215,7 +29216,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -29256,7 +29257,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -29300,7 +29301,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -29341,7 +29342,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -29382,7 +29383,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -29426,7 +29427,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -29467,7 +29468,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -29508,7 +29509,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -29549,7 +29550,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -29590,7 +29591,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -29631,7 +29632,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -29672,7 +29673,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -29713,7 +29714,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -29754,7 +29755,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -29795,7 +29796,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -29836,7 +29837,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -29877,7 +29878,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -29918,7 +29919,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -29959,7 +29960,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -30000,7 +30001,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -30044,7 +30045,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -30088,7 +30089,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -30132,7 +30133,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -30176,7 +30177,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -30220,7 +30221,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -30261,7 +30262,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -30305,7 +30306,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -30349,7 +30350,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -30390,7 +30391,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -30431,7 +30432,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -30472,7 +30473,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -30513,7 +30514,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -30557,7 +30558,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -30598,7 +30599,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -30642,7 +30643,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -30683,7 +30684,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -30724,7 +30725,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -30765,7 +30766,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -30806,7 +30807,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -30847,7 +30848,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -30888,7 +30889,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -30932,7 +30933,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -30976,7 +30977,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -31017,7 +31018,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -31058,7 +31059,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -31099,7 +31100,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -31140,7 +31141,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -31181,7 +31182,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -31225,7 +31226,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -31269,7 +31270,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -31313,7 +31314,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -31357,7 +31358,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -31401,7 +31402,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -31445,7 +31446,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -31489,7 +31490,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -31533,7 +31534,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -31813,10 +31814,10 @@
         <v>1062</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>1122</v>
@@ -31825,7 +31826,7 @@
         <v>1107</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>1109</v>
@@ -31895,7 +31896,7 @@
         <v>1066</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>1138</v>
@@ -31936,7 +31937,7 @@
         <v>1068</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1136</v>
@@ -31948,7 +31949,7 @@
         <v>1119</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>1120</v>
@@ -31977,7 +31978,7 @@
         <v>1070</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>1139</v>
@@ -31989,7 +31990,7 @@
         <v>1123</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>1124</v>
@@ -32059,7 +32060,7 @@
         <v>1074</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1140</v>
@@ -32071,13 +32072,13 @@
         <v>1130</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>1458</v>
@@ -32100,7 +32101,7 @@
         <v>1076</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>1141</v>
@@ -32141,7 +32142,7 @@
         <v>665</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>1143</v>
@@ -32223,7 +32224,7 @@
         <v>1078</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1154</v>
@@ -32264,7 +32265,7 @@
         <v>1080</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1147</v>
@@ -32305,7 +32306,7 @@
         <v>1081</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>1152</v>
@@ -32317,7 +32318,7 @@
         <v>1151</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>1216</v>
@@ -32387,7 +32388,7 @@
         <v>1085</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>1158</v>
@@ -32399,13 +32400,13 @@
         <v>1160</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>1220</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>1446</v>
@@ -32428,7 +32429,7 @@
         <v>1089</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1242</v>
@@ -32440,7 +32441,7 @@
         <v>1162</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1221</v>
@@ -32469,7 +32470,7 @@
         <v>1092</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1164</v>
@@ -32604,7 +32605,7 @@
         <v>1184</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1229</v>
@@ -32633,7 +32634,7 @@
         <v>1101</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1185</v>
@@ -32654,7 +32655,7 @@
         <v>1231</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1456</v>
@@ -32765,7 +32766,7 @@
         <v>1098</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1199</v>
@@ -32783,7 +32784,7 @@
         <v>1200</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1202</v>
@@ -33460,7 +33461,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -33471,7 +33472,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -33482,7 +33483,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -33493,7 +33494,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -33501,10 +33502,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -33515,7 +33516,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -33526,7 +33527,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -33537,7 +33538,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -33548,7 +33549,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -33559,7 +33560,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62F424-F95E-4F8B-A8C4-1CC23CBA86DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC675A6F-16A7-4BA3-B6C1-160A2AFB3D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2412">
   <si>
     <t>name</t>
   </si>
@@ -6458,6 +6458,9 @@
   </si>
   <si>
     <t>Defense of Athena 3</t>
+  </si>
+  <si>
+    <t>endless</t>
   </si>
   <si>
     <t>Slime</t>
@@ -12219,7 +12222,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>1394</v>
@@ -16312,7 +16315,7 @@
         <v>271</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -16690,7 +16693,7 @@
         <v>320</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17449,7 +17452,7 @@
         <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17463,7 +17466,7 @@
         <v>320</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -17575,7 +17578,7 @@
         <v>271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -17639,7 +17642,7 @@
         <v>320</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17653,7 +17656,7 @@
         <v>320</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -17681,7 +17684,7 @@
         <v>320</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -17723,7 +17726,7 @@
         <v>271</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17737,7 +17740,7 @@
         <v>320</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -17765,9 +17768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D798F71-5A72-4731-9B2C-78595D904327}">
   <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K290" sqref="K290"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17821,10 +17824,10 @@
         <v>979</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -17844,10 +17847,10 @@
         <v>979</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17867,10 +17870,10 @@
         <v>979</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17890,10 +17893,10 @@
         <v>979</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17913,10 +17916,10 @@
         <v>979</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -17936,10 +17939,10 @@
         <v>979</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -17959,10 +17962,10 @@
         <v>979</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17982,10 +17985,10 @@
         <v>979</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -18005,10 +18008,10 @@
         <v>979</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -18028,10 +18031,10 @@
         <v>979</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -18051,10 +18054,10 @@
         <v>979</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -18074,10 +18077,10 @@
         <v>979</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -18097,10 +18100,10 @@
         <v>979</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -18120,10 +18123,10 @@
         <v>979</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -18143,10 +18146,10 @@
         <v>979</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -18166,10 +18169,10 @@
         <v>979</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -18189,10 +18192,10 @@
         <v>979</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -18212,10 +18215,10 @@
         <v>979</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -18235,10 +18238,10 @@
         <v>979</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -18258,10 +18261,10 @@
         <v>979</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -18281,10 +18284,10 @@
         <v>979</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -18304,10 +18307,10 @@
         <v>979</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -18327,10 +18330,10 @@
         <v>979</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -18350,10 +18353,10 @@
         <v>979</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -18373,10 +18376,10 @@
         <v>979</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -18396,10 +18399,10 @@
         <v>979</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -18419,10 +18422,10 @@
         <v>979</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -18442,10 +18445,10 @@
         <v>979</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -18465,10 +18468,10 @@
         <v>979</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -18488,10 +18491,10 @@
         <v>979</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -18511,10 +18514,10 @@
         <v>979</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -18534,10 +18537,10 @@
         <v>979</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -18557,10 +18560,10 @@
         <v>979</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -18580,10 +18583,10 @@
         <v>979</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -18603,10 +18606,10 @@
         <v>979</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18626,10 +18629,10 @@
         <v>979</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -18649,10 +18652,10 @@
         <v>979</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18672,10 +18675,10 @@
         <v>979</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -18695,10 +18698,10 @@
         <v>979</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18718,10 +18721,10 @@
         <v>979</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18761,7 +18764,7 @@
         <v>956</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>988</v>
@@ -18783,7 +18786,7 @@
         <v>957</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>990</v>
@@ -18849,7 +18852,7 @@
         <v>955</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>991</v>
@@ -18937,7 +18940,7 @@
         <v>958</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>996</v>
@@ -19005,7 +19008,7 @@
         <v>955</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>999</v>
@@ -19093,7 +19096,7 @@
         <v>955</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>1003</v>
@@ -19205,7 +19208,7 @@
         <v>960</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>1018</v>
@@ -19293,7 +19296,7 @@
         <v>960</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>1022</v>
@@ -19405,7 +19408,7 @@
         <v>959</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>1030</v>
@@ -19493,7 +19496,7 @@
         <v>959</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>1031</v>
@@ -19581,7 +19584,7 @@
         <v>961</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>1035</v>
@@ -19603,7 +19606,7 @@
         <v>962</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>1036</v>
@@ -21385,7 +21388,7 @@
         <v>1784</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -21406,7 +21409,7 @@
         <v>979</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="G162" s="18"/>
     </row>
@@ -21428,7 +21431,7 @@
         <v>979</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="G163" s="18"/>
     </row>
@@ -21450,7 +21453,7 @@
         <v>979</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="G164" s="18"/>
     </row>
@@ -21472,7 +21475,7 @@
         <v>979</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="G165" s="18"/>
     </row>
@@ -21494,7 +21497,7 @@
         <v>979</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="G166" s="18"/>
     </row>
@@ -21516,7 +21519,7 @@
         <v>979</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="G167" s="18"/>
     </row>
@@ -21538,7 +21541,7 @@
         <v>979</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="G168" s="18"/>
     </row>
@@ -21560,7 +21563,7 @@
         <v>979</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G169" s="18"/>
     </row>
@@ -21582,7 +21585,7 @@
         <v>979</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="G170" s="18"/>
     </row>
@@ -21604,7 +21607,7 @@
         <v>979</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="G171" s="18" t="s">
         <v>985</v>
@@ -21628,7 +21631,7 @@
         <v>979</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="G172" s="18"/>
     </row>
@@ -21650,7 +21653,7 @@
         <v>979</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="G173" s="18"/>
     </row>
@@ -21672,7 +21675,7 @@
         <v>979</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="G174" s="18"/>
     </row>
@@ -21694,7 +21697,7 @@
         <v>979</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="G175" s="18"/>
     </row>
@@ -21716,7 +21719,7 @@
         <v>979</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="G176" s="18"/>
     </row>
@@ -21738,7 +21741,7 @@
         <v>979</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="G177" s="18"/>
     </row>
@@ -21760,7 +21763,7 @@
         <v>979</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="G178" s="18"/>
     </row>
@@ -21782,7 +21785,7 @@
         <v>979</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="G179" s="18"/>
     </row>
@@ -21804,7 +21807,7 @@
         <v>979</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="G180" s="18"/>
     </row>
@@ -21826,7 +21829,7 @@
         <v>979</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="G181" s="18" t="s">
         <v>985</v>
@@ -21850,7 +21853,7 @@
         <v>979</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G182" s="18"/>
     </row>
@@ -21872,7 +21875,7 @@
         <v>979</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="G183" s="18"/>
     </row>
@@ -21894,7 +21897,7 @@
         <v>979</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="G184" s="18"/>
     </row>
@@ -21916,7 +21919,7 @@
         <v>979</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="G185" s="18"/>
     </row>
@@ -21938,7 +21941,7 @@
         <v>979</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="G186" s="18"/>
     </row>
@@ -21960,7 +21963,7 @@
         <v>979</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G187" s="18"/>
     </row>
@@ -21982,7 +21985,7 @@
         <v>979</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="G188" s="18"/>
     </row>
@@ -22004,7 +22007,7 @@
         <v>979</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="G189" s="18"/>
     </row>
@@ -22026,7 +22029,7 @@
         <v>979</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="G190" s="18"/>
     </row>
@@ -22048,7 +22051,7 @@
         <v>979</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="G191" s="18" t="s">
         <v>985</v>
@@ -22072,7 +22075,7 @@
         <v>979</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="G192" s="18"/>
     </row>
@@ -22094,7 +22097,7 @@
         <v>979</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="G193" s="18"/>
     </row>
@@ -22116,7 +22119,7 @@
         <v>979</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="G194" s="18"/>
     </row>
@@ -22138,7 +22141,7 @@
         <v>979</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="G195" s="18"/>
     </row>
@@ -22160,7 +22163,7 @@
         <v>979</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="G196" s="18"/>
     </row>
@@ -22182,7 +22185,7 @@
         <v>979</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="G197" s="18"/>
     </row>
@@ -22204,7 +22207,7 @@
         <v>979</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="G198" s="18"/>
     </row>
@@ -22226,7 +22229,7 @@
         <v>979</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="G199" s="18"/>
     </row>
@@ -22248,7 +22251,7 @@
         <v>979</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="G200" s="18"/>
     </row>
@@ -22270,7 +22273,7 @@
         <v>979</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="G201" s="18" t="s">
         <v>985</v>
@@ -22294,7 +22297,7 @@
         <v>979</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="G202" s="18"/>
     </row>
@@ -22316,7 +22319,7 @@
         <v>979</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="G203" s="18"/>
     </row>
@@ -22338,7 +22341,7 @@
         <v>979</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="G204" s="18"/>
     </row>
@@ -22360,7 +22363,7 @@
         <v>979</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="G205" s="18"/>
     </row>
@@ -22382,7 +22385,7 @@
         <v>979</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="G206" s="18"/>
     </row>
@@ -22404,7 +22407,7 @@
         <v>979</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="G207" s="18"/>
     </row>
@@ -22426,7 +22429,7 @@
         <v>979</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="G208" s="18"/>
     </row>
@@ -22448,7 +22451,7 @@
         <v>979</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="G209" s="18"/>
     </row>
@@ -22470,7 +22473,7 @@
         <v>979</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="G210" s="18"/>
     </row>
@@ -22492,7 +22495,7 @@
         <v>979</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="G211" s="18" t="s">
         <v>985</v>
@@ -22516,7 +22519,7 @@
         <v>979</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="G212" s="18"/>
     </row>
@@ -22535,10 +22538,10 @@
         <v>976</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="G213" s="18"/>
     </row>
@@ -22560,7 +22563,7 @@
         <v>979</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G214" s="18"/>
     </row>
@@ -22579,10 +22582,10 @@
         <v>974</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="G215" s="18"/>
     </row>
@@ -22601,10 +22604,10 @@
         <v>976</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="G216" s="18"/>
     </row>
@@ -22626,7 +22629,7 @@
         <v>979</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="G217" s="18"/>
     </row>
@@ -22648,7 +22651,7 @@
         <v>979</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="G218" s="18"/>
     </row>
@@ -22670,7 +22673,7 @@
         <v>979</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="G219" s="18"/>
     </row>
@@ -22692,7 +22695,7 @@
         <v>979</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="G220" s="18"/>
     </row>
@@ -22714,7 +22717,7 @@
         <v>979</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="G221" s="18" t="s">
         <v>985</v>
@@ -22738,7 +22741,7 @@
         <v>979</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="G222" s="18"/>
     </row>
@@ -22757,10 +22760,10 @@
         <v>974</v>
       </c>
       <c r="E223" s="14" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="G223" s="18"/>
     </row>
@@ -22782,7 +22785,7 @@
         <v>979</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="G224" s="18"/>
     </row>
@@ -22804,7 +22807,7 @@
         <v>979</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="G225" s="18"/>
     </row>
@@ -22826,7 +22829,7 @@
         <v>979</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="G226" s="18"/>
     </row>
@@ -22845,10 +22848,10 @@
         <v>974</v>
       </c>
       <c r="E227" s="14" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="G227" s="18"/>
     </row>
@@ -22867,10 +22870,10 @@
         <v>976</v>
       </c>
       <c r="E228" s="14" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="G228" s="18"/>
     </row>
@@ -22892,7 +22895,7 @@
         <v>979</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G229" s="18"/>
     </row>
@@ -22914,7 +22917,7 @@
         <v>979</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="G230" s="18"/>
     </row>
@@ -22933,10 +22936,10 @@
         <v>977</v>
       </c>
       <c r="E231" s="14" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="G231" s="18" t="s">
         <v>985</v>
@@ -22960,7 +22963,7 @@
         <v>979</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="G232" s="18"/>
     </row>
@@ -22982,7 +22985,7 @@
         <v>979</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="G233" s="18"/>
     </row>
@@ -23004,7 +23007,7 @@
         <v>979</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="G234" s="18"/>
     </row>
@@ -23026,7 +23029,7 @@
         <v>979</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="G235" s="18"/>
     </row>
@@ -23048,7 +23051,7 @@
         <v>979</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="G236" s="18"/>
     </row>
@@ -23070,7 +23073,7 @@
         <v>981</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="G237" s="18"/>
     </row>
@@ -23092,7 +23095,7 @@
         <v>979</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="G238" s="18"/>
     </row>
@@ -23114,7 +23117,7 @@
         <v>979</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="G239" s="18"/>
     </row>
@@ -23136,7 +23139,7 @@
         <v>979</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="G240" s="18"/>
     </row>
@@ -23155,10 +23158,10 @@
         <v>974</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="G241" s="18" t="s">
         <v>985</v>
@@ -24042,7 +24045,10 @@
         <v>979</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>2358</v>
+        <v>2359</v>
+      </c>
+      <c r="G284" s="6" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -24062,7 +24068,10 @@
         <v>979</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>2359</v>
+        <v>2360</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -24082,7 +24091,10 @@
         <v>979</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>2360</v>
+        <v>2361</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -24102,7 +24114,10 @@
         <v>979</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>2361</v>
+        <v>2362</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -24122,18 +24137,21 @@
         <v>979</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>2362</v>
+        <v>2363</v>
+      </c>
+      <c r="G288" s="6" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="B289" s="8">
         <v>6</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D289" s="32" t="s">
         <v>979</v>
@@ -24142,7 +24160,10 @@
         <v>979</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>2363</v>
+        <v>2364</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -24162,10 +24183,10 @@
         <v>979</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -24185,10 +24206,10 @@
         <v>979</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -24208,10 +24229,10 @@
         <v>979</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -24294,7 +24315,7 @@
         <v>979</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -24317,7 +24338,7 @@
         <v>979</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -24340,7 +24361,7 @@
         <v>979</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -24423,7 +24444,7 @@
         <v>979</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
@@ -24446,7 +24467,7 @@
         <v>979</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
@@ -24469,12 +24490,12 @@
         <v>979</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B305" s="8">
         <v>1</v>
@@ -24494,13 +24515,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B306" s="8">
         <v>1</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D306" s="32" t="s">
         <v>979</v>
@@ -24514,13 +24535,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B307" s="8">
         <v>1</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D307" s="32" t="s">
         <v>979</v>
@@ -24534,13 +24555,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B308" s="8">
         <v>1</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D308" s="32" t="s">
         <v>979</v>
@@ -24554,13 +24575,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="B309" s="8">
         <v>1</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D309" s="32" t="s">
         <v>979</v>
@@ -24574,13 +24595,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="B310" s="8">
         <v>1</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D310" s="32" t="s">
         <v>979</v>
@@ -24594,7 +24615,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B311" s="8">
         <v>1</v>
@@ -24614,7 +24635,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B312" s="8">
         <v>1</v>
@@ -24634,13 +24655,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B313" s="8">
         <v>1</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D313" s="32" t="s">
         <v>979</v>
@@ -24654,13 +24675,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="B314" s="8">
         <v>1</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="D314" s="32" t="s">
         <v>979</v>
@@ -24674,13 +24695,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B315" s="8">
         <v>1</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D315" s="32" t="s">
         <v>979</v>
@@ -24694,13 +24715,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="B316" s="8">
         <v>1</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D316" s="32" t="s">
         <v>979</v>
@@ -24714,13 +24735,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="B317" s="8">
         <v>1</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="D317" s="32" t="s">
         <v>979</v>
@@ -24734,13 +24755,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B318" s="8">
         <v>1</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D318" s="32" t="s">
         <v>979</v>
@@ -24754,13 +24775,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B319" s="8">
         <v>1</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D319" s="32" t="s">
         <v>979</v>
@@ -24774,13 +24795,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="B320" s="8">
         <v>1</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D320" s="32" t="s">
         <v>979</v>
@@ -24794,13 +24815,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="B321" s="8">
         <v>1</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D321" s="32" t="s">
         <v>979</v>
@@ -24814,13 +24835,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B322" s="8">
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D322" s="32" t="s">
         <v>979</v>
@@ -24834,13 +24855,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B323" s="8">
         <v>1</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D323" s="32" t="s">
         <v>979</v>
@@ -24854,7 +24875,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -24874,13 +24895,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="B325">
         <v>2</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D325" s="32" t="s">
         <v>979</v>
@@ -24894,13 +24915,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="B326">
         <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="D326" s="32" t="s">
         <v>979</v>
@@ -24914,13 +24935,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B327">
         <v>2</v>
       </c>
       <c r="C327" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="D327" s="32" t="s">
         <v>979</v>
@@ -24934,13 +24955,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="B328">
         <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D328" s="32" t="s">
         <v>979</v>
@@ -24954,7 +24975,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -24974,13 +24995,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="B330">
         <v>2</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D330" s="32" t="s">
         <v>979</v>
@@ -24994,7 +25015,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -25014,13 +25035,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="B332">
         <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="D332" s="32" t="s">
         <v>979</v>
@@ -25034,13 +25055,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B333">
         <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="D333" s="32" t="s">
         <v>979</v>
@@ -25054,13 +25075,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B334">
         <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="D334" s="32" t="s">
         <v>979</v>
@@ -25074,13 +25095,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="B335">
         <v>2</v>
       </c>
       <c r="C335" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="D335" s="32" t="s">
         <v>979</v>
@@ -25094,13 +25115,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="B336">
         <v>3</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D336" s="32" t="s">
         <v>979</v>
@@ -25114,7 +25135,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -25134,13 +25155,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B338">
         <v>3</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D338" s="32" t="s">
         <v>979</v>
@@ -25154,13 +25175,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="B339">
         <v>3</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D339" s="32" t="s">
         <v>979</v>
@@ -25174,7 +25195,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -25194,13 +25215,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="B341">
         <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="D341" s="32" t="s">
         <v>979</v>
@@ -25214,13 +25235,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="B342">
         <v>3</v>
       </c>
       <c r="C342" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="D342" s="32" t="s">
         <v>979</v>
@@ -25234,13 +25255,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B343">
         <v>3</v>
       </c>
       <c r="C343" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="D343" s="32" t="s">
         <v>979</v>
@@ -25254,13 +25275,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="B344">
         <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="D344" s="32" t="s">
         <v>979</v>
@@ -25274,13 +25295,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B345">
         <v>3</v>
       </c>
       <c r="C345" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="D345" s="32" t="s">
         <v>979</v>
@@ -25294,13 +25315,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B346">
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="D346" s="32" t="s">
         <v>979</v>
@@ -25314,13 +25335,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="B347">
         <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="D347" s="32" t="s">
         <v>979</v>
@@ -25334,13 +25355,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B348">
         <v>4</v>
       </c>
       <c r="C348" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D348" s="32" t="s">
         <v>979</v>
@@ -25354,13 +25375,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="B349">
         <v>4</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D349" s="32" t="s">
         <v>979</v>
@@ -25374,13 +25395,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="B350">
         <v>4</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D350" s="32" t="s">
         <v>979</v>
@@ -25394,13 +25415,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="B351">
         <v>4</v>
       </c>
       <c r="C351" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="D351" s="32" t="s">
         <v>979</v>
@@ -25414,13 +25435,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="B352">
         <v>4</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D352" s="32" t="s">
         <v>979</v>
@@ -25434,13 +25455,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B353">
         <v>4</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D353" s="32" t="s">
         <v>979</v>
@@ -25454,13 +25475,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="B354">
         <v>4</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D354" s="32" t="s">
         <v>979</v>
@@ -25474,13 +25495,13 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B355">
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="D355" s="32" t="s">
         <v>979</v>
@@ -25494,13 +25515,13 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="B356">
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="D356" s="32" t="s">
         <v>979</v>
@@ -25545,9 +25566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78993A1-ED23-4BA3-9898-CFB8D57B537E}">
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25613,7 +25634,7 @@
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -25654,7 +25675,7 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -25695,7 +25716,7 @@
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -25739,7 +25760,7 @@
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -25780,7 +25801,7 @@
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
@@ -25821,7 +25842,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B7" s="26">
         <v>1</v>
@@ -25862,7 +25883,7 @@
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
@@ -25903,7 +25924,7 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -25944,7 +25965,7 @@
     </row>
     <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
@@ -25985,7 +26006,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -26026,7 +26047,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -26067,7 +26088,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
@@ -26108,7 +26129,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
@@ -26149,7 +26170,7 @@
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
@@ -26193,7 +26214,7 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -26234,7 +26255,7 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -26278,7 +26299,7 @@
     </row>
     <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -26322,7 +26343,7 @@
     </row>
     <row r="19" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
@@ -26366,7 +26387,7 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B20" s="26">
         <v>1</v>
@@ -26410,7 +26431,7 @@
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -26451,7 +26472,7 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B22" s="26">
         <v>2</v>
@@ -26492,7 +26513,7 @@
     </row>
     <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B23" s="26">
         <v>2</v>
@@ -26536,7 +26557,7 @@
     </row>
     <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B24" s="26">
         <v>2</v>
@@ -26580,7 +26601,7 @@
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -26621,7 +26642,7 @@
     </row>
     <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B26" s="26">
         <v>2</v>
@@ -26662,7 +26683,7 @@
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
@@ -26703,7 +26724,7 @@
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B28" s="26">
         <v>2</v>
@@ -26744,7 +26765,7 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -26785,7 +26806,7 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -26826,7 +26847,7 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -26867,7 +26888,7 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B32" s="26">
         <v>2</v>
@@ -26908,7 +26929,7 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -26949,7 +26970,7 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B34" s="26">
         <v>2</v>
@@ -26990,7 +27011,7 @@
     </row>
     <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B35" s="26">
         <v>2</v>
@@ -27031,7 +27052,7 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B36" s="26">
         <v>2</v>
@@ -27075,7 +27096,7 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B37" s="26">
         <v>2</v>
@@ -27116,7 +27137,7 @@
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
@@ -27160,7 +27181,7 @@
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B39" s="26">
         <v>2</v>
@@ -27204,7 +27225,7 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
@@ -27248,7 +27269,7 @@
     </row>
     <row r="41" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B41" s="26">
         <v>2</v>
@@ -27281,7 +27302,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>985</v>
@@ -27292,7 +27313,7 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
@@ -27333,7 +27354,7 @@
     </row>
     <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B43" s="26">
         <v>3</v>
@@ -27377,7 +27398,7 @@
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B44" s="26">
         <v>3</v>
@@ -27418,7 +27439,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B45" s="26">
         <v>3</v>
@@ -27459,7 +27480,7 @@
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B46" s="26">
         <v>3</v>
@@ -27500,7 +27521,7 @@
     </row>
     <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B47" s="26">
         <v>3</v>
@@ -27541,7 +27562,7 @@
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B48" s="26">
         <v>3</v>
@@ -27582,7 +27603,7 @@
     </row>
     <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B49" s="26">
         <v>3</v>
@@ -27623,7 +27644,7 @@
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B50" s="26">
         <v>3</v>
@@ -27664,7 +27685,7 @@
     </row>
     <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B51" s="26">
         <v>3</v>
@@ -27705,7 +27726,7 @@
     </row>
     <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B52" s="26">
         <v>3</v>
@@ -27746,7 +27767,7 @@
     </row>
     <row r="53" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B53" s="26">
         <v>3</v>
@@ -27790,7 +27811,7 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B54" s="26">
         <v>3</v>
@@ -27831,7 +27852,7 @@
     </row>
     <row r="55" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B55" s="26">
         <v>3</v>
@@ -27872,7 +27893,7 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B56" s="26">
         <v>3</v>
@@ -27913,7 +27934,7 @@
     </row>
     <row r="57" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B57" s="26">
         <v>3</v>
@@ -27954,7 +27975,7 @@
     </row>
     <row r="58" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B58" s="26">
         <v>3</v>
@@ -27995,7 +28016,7 @@
     </row>
     <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B59" s="26">
         <v>3</v>
@@ -28036,7 +28057,7 @@
     </row>
     <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B60" s="26">
         <v>3</v>
@@ -28080,7 +28101,7 @@
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B61" s="26">
         <v>3</v>
@@ -28124,7 +28145,7 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B62" s="26">
         <v>3</v>
@@ -28168,7 +28189,7 @@
     </row>
     <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B63" s="26">
         <v>3</v>
@@ -28212,7 +28233,7 @@
     </row>
     <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="B64" s="26">
         <v>3</v>
@@ -28256,7 +28277,7 @@
     </row>
     <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B65" s="26">
         <v>4</v>
@@ -28298,7 +28319,7 @@
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="B66" s="26">
         <v>4</v>
@@ -28342,7 +28363,7 @@
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B67" s="26">
         <v>4</v>
@@ -28383,7 +28404,7 @@
     </row>
     <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
@@ -28424,7 +28445,7 @@
     </row>
     <row r="69" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B69" s="26">
         <v>4</v>
@@ -28465,7 +28486,7 @@
     </row>
     <row r="70" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="B70" s="26">
         <v>4</v>
@@ -28506,7 +28527,7 @@
     </row>
     <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="B71" s="26">
         <v>4</v>
@@ -28550,7 +28571,7 @@
     </row>
     <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="B72" s="26">
         <v>4</v>
@@ -28591,7 +28612,7 @@
     </row>
     <row r="73" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="23" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="B73" s="26">
         <v>4</v>
@@ -28632,7 +28653,7 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B74" s="26">
         <v>4</v>
@@ -28673,7 +28694,7 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="B75" s="26">
         <v>4</v>
@@ -28714,7 +28735,7 @@
     </row>
     <row r="76" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="B76" s="26">
         <v>4</v>
@@ -28755,7 +28776,7 @@
     </row>
     <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="B77" s="26">
         <v>4</v>
@@ -28796,7 +28817,7 @@
     </row>
     <row r="78" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="B78" s="26">
         <v>4</v>
@@ -28837,7 +28858,7 @@
     </row>
     <row r="79" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="B79" s="26">
         <v>4</v>
@@ -28878,7 +28899,7 @@
     </row>
     <row r="80" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
@@ -28922,7 +28943,7 @@
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
@@ -28963,7 +28984,7 @@
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="B82" s="26">
         <v>4</v>
@@ -29007,7 +29028,7 @@
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B83" s="26">
         <v>4</v>
@@ -29051,7 +29072,7 @@
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B84" s="26">
         <v>4</v>
@@ -29090,7 +29111,7 @@
     </row>
     <row r="85" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="B85" s="26">
         <v>5</v>
@@ -29131,7 +29152,7 @@
     </row>
     <row r="86" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B86" s="26">
         <v>5</v>
@@ -29172,7 +29193,7 @@
     </row>
     <row r="87" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B87" s="26">
         <v>5</v>
@@ -29216,7 +29237,7 @@
     </row>
     <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B88" s="26">
         <v>5</v>
@@ -29257,7 +29278,7 @@
     </row>
     <row r="89" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B89" s="26">
         <v>5</v>
@@ -29301,7 +29322,7 @@
     </row>
     <row r="90" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B90" s="26">
         <v>5</v>
@@ -29342,7 +29363,7 @@
     </row>
     <row r="91" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B91" s="26">
         <v>5</v>
@@ -29383,7 +29404,7 @@
     </row>
     <row r="92" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B92" s="26">
         <v>5</v>
@@ -29427,7 +29448,7 @@
     </row>
     <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B93" s="26">
         <v>5</v>
@@ -29468,7 +29489,7 @@
     </row>
     <row r="94" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
@@ -29509,7 +29530,7 @@
     </row>
     <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -29550,7 +29571,7 @@
     </row>
     <row r="96" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -29591,7 +29612,7 @@
     </row>
     <row r="97" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="B97" s="26">
         <v>5</v>
@@ -29632,7 +29653,7 @@
     </row>
     <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B98" s="26">
         <v>5</v>
@@ -29673,7 +29694,7 @@
     </row>
     <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
@@ -29714,7 +29735,7 @@
     </row>
     <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="B100" s="26">
         <v>5</v>
@@ -29755,7 +29776,7 @@
     </row>
     <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
@@ -29796,7 +29817,7 @@
     </row>
     <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B102" s="26">
         <v>5</v>
@@ -29837,7 +29858,7 @@
     </row>
     <row r="103" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="23" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B103" s="26">
         <v>5</v>
@@ -29878,7 +29899,7 @@
     </row>
     <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="23" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
@@ -29919,7 +29940,7 @@
     </row>
     <row r="105" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B105" s="26">
         <v>5</v>
@@ -29960,7 +29981,7 @@
     </row>
     <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B106" s="26">
         <v>5</v>
@@ -30001,7 +30022,7 @@
     </row>
     <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B107" s="26">
         <v>5</v>
@@ -30045,7 +30066,7 @@
     </row>
     <row r="108" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
@@ -30089,7 +30110,7 @@
     </row>
     <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="B109" s="26">
         <v>5</v>
@@ -30133,7 +30154,7 @@
     </row>
     <row r="110" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="B110" s="26">
         <v>5</v>
@@ -30177,7 +30198,7 @@
     </row>
     <row r="111" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
@@ -30221,7 +30242,7 @@
     </row>
     <row r="112" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="B112" s="26">
         <v>6</v>
@@ -30262,7 +30283,7 @@
     </row>
     <row r="113" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="B113" s="26">
         <v>6</v>
@@ -30306,7 +30327,7 @@
     </row>
     <row r="114" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="B114" s="26">
         <v>6</v>
@@ -30350,7 +30371,7 @@
     </row>
     <row r="115" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
@@ -30391,7 +30412,7 @@
     </row>
     <row r="116" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B116" s="26">
         <v>6</v>
@@ -30432,7 +30453,7 @@
     </row>
     <row r="117" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="B117" s="26">
         <v>6</v>
@@ -30473,7 +30494,7 @@
     </row>
     <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
@@ -30514,7 +30535,7 @@
     </row>
     <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="B119" s="26">
         <v>6</v>
@@ -30558,7 +30579,7 @@
     </row>
     <row r="120" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="23" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="B120" s="26">
         <v>6</v>
@@ -30599,7 +30620,7 @@
     </row>
     <row r="121" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="B121" s="26">
         <v>6</v>
@@ -30643,7 +30664,7 @@
     </row>
     <row r="122" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="23" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="B122" s="26">
         <v>6</v>
@@ -30684,7 +30705,7 @@
     </row>
     <row r="123" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="B123" s="26">
         <v>6</v>
@@ -30725,7 +30746,7 @@
     </row>
     <row r="124" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="B124" s="26">
         <v>6</v>
@@ -30766,7 +30787,7 @@
     </row>
     <row r="125" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="B125" s="26">
         <v>6</v>
@@ -30807,7 +30828,7 @@
     </row>
     <row r="126" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="B126" s="26">
         <v>6</v>
@@ -30848,7 +30869,7 @@
     </row>
     <row r="127" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="B127" s="26">
         <v>6</v>
@@ -30889,7 +30910,7 @@
     </row>
     <row r="128" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="B128" s="26">
         <v>6</v>
@@ -30933,7 +30954,7 @@
     </row>
     <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="B129" s="26">
         <v>6</v>
@@ -30977,7 +30998,7 @@
     </row>
     <row r="130" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="B130" s="26">
         <v>6</v>
@@ -31018,7 +31039,7 @@
     </row>
     <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B131" s="26">
         <v>6</v>
@@ -31059,7 +31080,7 @@
     </row>
     <row r="132" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="B132" s="26">
         <v>6</v>
@@ -31100,7 +31121,7 @@
     </row>
     <row r="133" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="B133" s="26">
         <v>6</v>
@@ -31141,7 +31162,7 @@
     </row>
     <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B134" s="26">
         <v>6</v>
@@ -31182,7 +31203,7 @@
     </row>
     <row r="135" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="B135" s="26">
         <v>6</v>
@@ -31226,7 +31247,7 @@
     </row>
     <row r="136" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="B136" s="26">
         <v>6</v>
@@ -31270,7 +31291,7 @@
     </row>
     <row r="137" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B137" s="26">
         <v>6</v>
@@ -31314,7 +31335,7 @@
     </row>
     <row r="138" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="B138" s="26">
         <v>6</v>
@@ -31358,7 +31379,7 @@
     </row>
     <row r="139" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="23" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="B139" s="26">
         <v>6</v>
@@ -31402,7 +31423,7 @@
     </row>
     <row r="140" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B140" s="26">
         <v>6</v>
@@ -31446,7 +31467,7 @@
     </row>
     <row r="141" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="B141" s="26">
         <v>6</v>
@@ -31490,7 +31511,7 @@
     </row>
     <row r="142" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="B142" s="26">
         <v>6</v>
@@ -31534,7 +31555,7 @@
     </row>
     <row r="143" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B143" s="26">
         <v>6</v>
@@ -31817,7 +31838,7 @@
         <v>1865</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>1122</v>
@@ -32060,7 +32081,7 @@
         <v>1074</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>1140</v>
@@ -32655,7 +32676,7 @@
         <v>1231</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>1456</v>
@@ -33461,7 +33482,7 @@
         <v>549</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -33472,7 +33493,7 @@
         <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -33483,7 +33504,7 @@
         <v>568</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -33494,7 +33515,7 @@
         <v>568</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -33502,10 +33523,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>2160</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>2159</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -33516,7 +33537,7 @@
         <v>584</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -33527,7 +33548,7 @@
         <v>584</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -33538,7 +33559,7 @@
         <v>584</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -33549,7 +33570,7 @@
         <v>545</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -33560,7 +33581,7 @@
         <v>545</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC675A6F-16A7-4BA3-B6C1-160A2AFB3D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4AF2B-3507-458C-8D76-B8531F5F658D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2464">
   <si>
     <t>name</t>
   </si>
@@ -7656,6 +7656,162 @@
 **Ice Burst**: 20s cooldown, launches 9 icicles across the map, freezing hit targets within range 1 on trajectory for 5s.
 **Remorseless Winter**: 30s cooldown, freezes 3 random towers for 10s.
 **Puppeteer**: Summon 1/2/3 Crystal Guardians at 100%/67%/33% HP, cannot be damaged while the Crystal Guardians are alive</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/5/51/Connie_Chapter_1.jpg/revision/latest?cb=20210221035649</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/04/Connie_Chapter_2.jpg/revision/latest?cb=20210221035716</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/77/Connie_Chapter_3.jpg/revision/latest?cb=20210221035744</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/ae/Connie_Chapter_4.jpg/revision/latest?cb=20210221035813</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/68/Connie_Chapter_5_and_6.jpg/revision/latest?cb=20210221035843</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/0/03/Present_Plunder_1.jpg/revision/latest?cb=20210221040149</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/3/35/Present_Plunder_2.jpg/revision/latest?cb=20210221040226</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/48/Present_Plunder_3.jpg/revision/latest?cb=20210221040251</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/ac/Secret_Weapon_1.jpg/revision/latest?cb=20210221040322</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/f/fa/Secret_Weapon_2.jpg/revision/latest?cb=20210221040345</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/ed/Secret_Weapon_3.jpg/revision/latest?cb=20210221040406</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/61/Siberian_Match_1.jpg/revision/latest?cb=20210221040435</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/2c/Siberian_Match_2.jpg/revision/latest?cb=20210221040500</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/e/ec/Siberian_Match_3.jpg/revision/latest?cb=20210221040523</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c2/Defense_of_Athena_1.jpg/revision/latest?cb=20210221040602</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/2f/Defense_of_Athena_2.jpg/revision/latest?cb=20210221040747</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/74/Defense_of_Athena_3.jpg/revision/latest?cb=20210221040832</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/b3/C1-1.jpg/revision/latest?cb=20210221030851</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/b1/C1-2.jpg/revision/latest?cb=20210221031026</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/98/C1-3.jpg/revision/latest?cb=20210221031128</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/ba/C1-4.jpg/revision/latest?cb=20210221031200</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/6b/C1-5.jpg/revision/latest?cb=20210221031236</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/d/dd/C2-1.jpg/revision/latest?cb=20210221031318</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/8c/C2-2.jpg/revision/latest?cb=20210221031347</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/2c/C2-3.jpg/revision/latest?cb=20210221031412</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c6/C2-4.jpg/revision/latest?cb=20210221031437</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/97/C2-5.jpg/revision/latest?cb=20210221031503</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/1/15/C2-6.jpg/revision/latest?cb=20210221031531</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/99/C2-7.jpg/revision/latest?cb=20210221031601</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/88/C2-8.jpg/revision/latest?cb=20210221031631</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/62/C2-9.jpg/revision/latest?cb=20210221031654</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/8b/C2-10.jpg/revision/latest?cb=20210221031721</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/95/C3-1.jpg/revision/latest?cb=20210221031803</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/1/10/C3-2.jpg/revision/latest?cb=20210221031837</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/1/15/C3-3.jpg/revision/latest?cb=20210221031904</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/a5/C3-4.jpg/revision/latest?cb=20210221031928</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/4/4e/C3-5.jpg/revision/latest?cb=20210221031954</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/cc/C3-6.jpg/revision/latest?cb=20210221032017</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/6c/C3-7.jpg/revision/latest?cb=20210221032038</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/8d/C3-8.jpg/revision/latest?cb=20210221032109</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/a/a2/C3-9.jpg/revision/latest?cb=20210221032134</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/7/75/C3-10.jpg/revision/latest?cb=20210221032157</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/26/C6-1.jpg/revision/latest?cb=20210221032228</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/6b/C6-2.jpg/revision/latest?cb=20210221032255</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/b/b1/C6-3.jpg/revision/latest?cb=20210221032322</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/c9/C6-4.jpg/revision/latest?cb=20210221032350</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/c/cb/C6-5.jpg/revision/latest?cb=20210221032415</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/8e/C6-6.jpg/revision/latest?cb=20210221032440</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/6/6d/C6-7.jpg/revision/latest?cb=20210221032505</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/2/2d/C6-8.jpg/revision/latest?cb=20210221032530</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/9/96/C6-9.jpg/revision/latest?cb=20210221032553</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/8d/C6-10.jpg/revision/latest?cb=20210221032621</t>
   </si>
 </sst>
 </file>
@@ -17769,8 +17925,8 @@
   <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G289" sqref="G289"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23184,7 +23340,7 @@
         <v>979</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>979</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -23204,7 +23360,7 @@
         <v>979</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>979</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -23224,7 +23380,7 @@
         <v>979</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>979</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -23244,7 +23400,7 @@
         <v>979</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>979</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -23264,7 +23420,7 @@
         <v>979</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>979</v>
+        <v>2433</v>
       </c>
       <c r="G246" s="18" t="s">
         <v>985</v>
@@ -23287,7 +23443,7 @@
         <v>979</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>979</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -23307,7 +23463,7 @@
         <v>979</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>979</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -23327,7 +23483,7 @@
         <v>979</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>979</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -23347,7 +23503,7 @@
         <v>979</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>979</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -23367,7 +23523,7 @@
         <v>979</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>979</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -23387,7 +23543,7 @@
         <v>979</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>979</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -23407,7 +23563,7 @@
         <v>979</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>979</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -23427,7 +23583,7 @@
         <v>979</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>979</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -23447,7 +23603,7 @@
         <v>979</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>979</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -23467,7 +23623,7 @@
         <v>979</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>979</v>
+        <v>2443</v>
       </c>
       <c r="G256" s="18" t="s">
         <v>985</v>
@@ -23490,7 +23646,7 @@
         <v>979</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>979</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -23510,7 +23666,7 @@
         <v>979</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>979</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -23530,7 +23686,7 @@
         <v>979</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>979</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -23550,7 +23706,7 @@
         <v>979</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>979</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -23570,7 +23726,7 @@
         <v>979</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>979</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -23590,7 +23746,7 @@
         <v>979</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>979</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -23610,7 +23766,7 @@
         <v>979</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>979</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -23630,7 +23786,7 @@
         <v>979</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>979</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
@@ -23650,7 +23806,7 @@
         <v>979</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>979</v>
+        <v>2452</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>985</v>
@@ -23673,7 +23829,7 @@
         <v>979</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>979</v>
+        <v>2453</v>
       </c>
       <c r="G266" s="18" t="s">
         <v>985</v>
@@ -23696,7 +23852,7 @@
         <v>979</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>979</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -23716,7 +23872,7 @@
         <v>979</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>979</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
@@ -23736,7 +23892,7 @@
         <v>979</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>979</v>
+        <v>2456</v>
       </c>
       <c r="G269" s="18" t="s">
         <v>985</v>
@@ -23759,7 +23915,7 @@
         <v>979</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>979</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -23779,7 +23935,7 @@
         <v>979</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>979</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
@@ -23799,7 +23955,7 @@
         <v>979</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>979</v>
+        <v>2459</v>
       </c>
       <c r="G272" s="18" t="s">
         <v>985</v>
@@ -23822,7 +23978,7 @@
         <v>979</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>979</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
@@ -23842,7 +23998,7 @@
         <v>979</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>979</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
@@ -23862,7 +24018,7 @@
         <v>979</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>979</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
@@ -23882,7 +24038,7 @@
         <v>979</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>979</v>
+        <v>2463</v>
       </c>
       <c r="G276" s="18" t="s">
         <v>985</v>
@@ -23905,7 +24061,7 @@
         <v>979</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>979</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
@@ -23925,7 +24081,7 @@
         <v>979</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>979</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
@@ -23945,7 +24101,7 @@
         <v>979</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>979</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -23965,7 +24121,7 @@
         <v>979</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>979</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
@@ -23985,7 +24141,7 @@
         <v>979</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>979</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
@@ -24005,7 +24161,7 @@
         <v>979</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>979</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
@@ -24025,7 +24181,7 @@
         <v>979</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>979</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
@@ -24252,7 +24408,7 @@
         <v>979</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>979</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
@@ -24272,7 +24428,7 @@
         <v>979</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>979</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
@@ -24292,7 +24448,7 @@
         <v>979</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>979</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
@@ -24312,7 +24468,7 @@
         <v>979</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>979</v>
+        <v>2420</v>
       </c>
       <c r="G296" s="6" t="s">
         <v>2410</v>
@@ -24335,7 +24491,7 @@
         <v>979</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>979</v>
+        <v>2421</v>
       </c>
       <c r="G297" s="6" t="s">
         <v>2410</v>
@@ -24358,7 +24514,7 @@
         <v>979</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>979</v>
+        <v>2422</v>
       </c>
       <c r="G298" s="6" t="s">
         <v>2410</v>
@@ -24381,7 +24537,7 @@
         <v>979</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>979</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -24401,7 +24557,7 @@
         <v>979</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>979</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
@@ -24421,7 +24577,7 @@
         <v>979</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>979</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
@@ -24441,7 +24597,7 @@
         <v>979</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>979</v>
+        <v>2426</v>
       </c>
       <c r="G302" s="6" t="s">
         <v>2410</v>
@@ -24464,7 +24620,7 @@
         <v>979</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>979</v>
+        <v>2427</v>
       </c>
       <c r="G303" s="6" t="s">
         <v>2410</v>
@@ -24487,7 +24643,7 @@
         <v>979</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>979</v>
+        <v>2428</v>
       </c>
       <c r="G304" s="6" t="s">
         <v>2410</v>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4AF2B-3507-458C-8D76-B8531F5F658D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997CC9B-7586-48D2-B54D-F2848FCADC04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2469">
   <si>
     <t>name</t>
   </si>
@@ -7812,6 +7812,21 @@
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/realm-defense-hero-legends-td/images/8/8d/C6-10.jpg/revision/latest?cb=20210221032621</t>
+  </si>
+  <si>
+    <t>Fisherman: tap after wave 1, spawn a Smelly Koi-jin (no reward)</t>
+  </si>
+  <si>
+    <t>Music notes: around the book altar, tap after wave 1 will play different tones</t>
+  </si>
+  <si>
+    <t>Fisherman: tap after wave 1, the skeleton fisherman will be scared by a skeleton head and run away (what?)</t>
+  </si>
+  <si>
+    <t>Gong: tap after wave 1 will give 250:moneybag: each, 500 in total (1 time only)</t>
+  </si>
+  <si>
+    <t>Guitar: tap after wave 1 will give 500:moneybag: (1 time only) and play the guitar</t>
   </si>
 </sst>
 </file>
@@ -17925,8 +17940,8 @@
   <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E305" sqref="E305"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23855,7 +23870,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1943</v>
       </c>
@@ -23869,7 +23884,7 @@
         <v>979</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>979</v>
+        <v>2465</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>2455</v>
@@ -23898,7 +23913,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1945</v>
       </c>
@@ -23912,13 +23927,13 @@
         <v>979</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>979</v>
+        <v>2468</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1946</v>
       </c>
@@ -23932,7 +23947,7 @@
         <v>979</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>979</v>
+        <v>2464</v>
       </c>
       <c r="F271" s="6" t="s">
         <v>2458</v>
@@ -23961,7 +23976,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1948</v>
       </c>
@@ -23975,7 +23990,7 @@
         <v>979</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>979</v>
+        <v>2466</v>
       </c>
       <c r="F273" s="6" t="s">
         <v>2460</v>
@@ -24001,7 +24016,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1950</v>
       </c>
@@ -24015,7 +24030,7 @@
         <v>979</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>979</v>
+        <v>2467</v>
       </c>
       <c r="F275" s="6" t="s">
         <v>2462</v>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\q-z\Realm Defense\CyraBot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997CC9B-7586-48D2-B54D-F2848FCADC04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C506957-0F6F-40AE-B074-A00196483E05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="388" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="2472">
   <si>
     <t>name</t>
   </si>
@@ -7827,6 +7827,15 @@
   </si>
   <si>
     <t>Guitar: tap after wave 1 will give 500:moneybag: (1 time only) and play the guitar</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>villager</t>
+  </si>
+  <si>
+    <t>bandit</t>
   </si>
 </sst>
 </file>
@@ -17937,11 +17946,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D798F71-5A72-4731-9B2C-78595D904327}">
-  <dimension ref="A1:G356"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17949,13 +17958,13 @@
     <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="50.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="50.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>712</v>
       </c>
@@ -17968,17 +17977,20 @@
       <c r="D1" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>980</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>672</v>
       </c>
@@ -17991,17 +18003,18 @@
       <c r="D2" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>2365</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>673</v>
       </c>
@@ -18014,17 +18027,18 @@
       <c r="D3" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>2366</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>674</v>
       </c>
@@ -18037,17 +18051,18 @@
       <c r="D4" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>2367</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>675</v>
       </c>
@@ -18060,17 +18075,18 @@
       <c r="D5" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>2368</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>676</v>
       </c>
@@ -18083,17 +18099,18 @@
       <c r="D6" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>2369</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>677</v>
       </c>
@@ -18106,17 +18123,18 @@
       <c r="D7" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>2370</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>678</v>
       </c>
@@ -18129,17 +18147,18 @@
       <c r="D8" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>2371</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>679</v>
       </c>
@@ -18152,17 +18171,18 @@
       <c r="D9" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>2372</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>680</v>
       </c>
@@ -18175,17 +18195,18 @@
       <c r="D10" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>2373</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>681</v>
       </c>
@@ -18198,17 +18219,18 @@
       <c r="D11" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>2374</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>682</v>
       </c>
@@ -18221,17 +18243,18 @@
       <c r="D12" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>2375</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>683</v>
       </c>
@@ -18244,17 +18267,18 @@
       <c r="D13" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>2376</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>684</v>
       </c>
@@ -18267,17 +18291,18 @@
       <c r="D14" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>2377</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>685</v>
       </c>
@@ -18290,17 +18315,18 @@
       <c r="D15" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>2378</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H15" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>686</v>
       </c>
@@ -18313,17 +18339,18 @@
       <c r="D16" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>2379</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>687</v>
       </c>
@@ -18336,17 +18363,18 @@
       <c r="D17" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>2380</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>688</v>
       </c>
@@ -18359,17 +18387,18 @@
       <c r="D18" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>2381</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="H18" s="15" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>689</v>
       </c>
@@ -18382,17 +18411,18 @@
       <c r="D19" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>2382</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="H19" s="15" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>690</v>
       </c>
@@ -18405,17 +18435,18 @@
       <c r="D20" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>2383</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="H20" s="15" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>691</v>
       </c>
@@ -18428,17 +18459,18 @@
       <c r="D21" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>2384</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>692</v>
       </c>
@@ -18451,17 +18483,18 @@
       <c r="D22" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>2385</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>693</v>
       </c>
@@ -18474,17 +18507,18 @@
       <c r="D23" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>2386</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>694</v>
       </c>
@@ -18497,17 +18531,18 @@
       <c r="D24" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>2387</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>695</v>
       </c>
@@ -18520,17 +18555,18 @@
       <c r="D25" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>2388</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>696</v>
       </c>
@@ -18543,17 +18579,18 @@
       <c r="D26" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>2389</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="H26" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>697</v>
       </c>
@@ -18566,17 +18603,18 @@
       <c r="D27" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>2390</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>698</v>
       </c>
@@ -18589,17 +18627,18 @@
       <c r="D28" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>2391</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="H28" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>699</v>
       </c>
@@ -18612,17 +18651,18 @@
       <c r="D29" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>2392</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>700</v>
       </c>
@@ -18635,17 +18675,18 @@
       <c r="D30" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F30" s="15" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>2393</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="H30" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>701</v>
       </c>
@@ -18658,17 +18699,18 @@
       <c r="D31" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>2394</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="H31" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>702</v>
       </c>
@@ -18681,17 +18723,18 @@
       <c r="D32" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>2395</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>703</v>
       </c>
@@ -18704,17 +18747,18 @@
       <c r="D33" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>2396</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>704</v>
       </c>
@@ -18727,17 +18771,18 @@
       <c r="D34" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>2397</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>705</v>
       </c>
@@ -18750,17 +18795,18 @@
       <c r="D35" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F35" s="15" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>2398</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>706</v>
       </c>
@@ -18773,17 +18819,18 @@
       <c r="D36" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F36" s="15" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>2399</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>707</v>
       </c>
@@ -18796,17 +18843,18 @@
       <c r="D37" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>2400</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>708</v>
       </c>
@@ -18819,17 +18867,18 @@
       <c r="D38" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>2401</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="H38" s="15" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>709</v>
       </c>
@@ -18842,17 +18891,18 @@
       <c r="D39" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>2402</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="H39" s="15" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>710</v>
       </c>
@@ -18865,17 +18915,18 @@
       <c r="D40" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F40" s="15" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>2403</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="H40" s="15" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>711</v>
       </c>
@@ -18888,17 +18939,17 @@
       <c r="D41" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>2404</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="H41" s="15" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>TEXT(1, "0")</f>
         <v>1</v>
@@ -18912,15 +18963,18 @@
       <c r="D42" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F42" s="16" t="s">
+      <c r="E42" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G42" s="16" t="s">
         <v>987</v>
       </c>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>TEXT(A42+1, "0")</f>
         <v>2</v>
@@ -18934,15 +18988,18 @@
       <c r="D43" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>2199</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="G43" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f t="shared" ref="A44:A107" si="0">TEXT(A43+1, "0")</f>
         <v>3</v>
@@ -18956,15 +19013,18 @@
       <c r="D44" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>2198</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>990</v>
       </c>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18978,15 +19038,18 @@
       <c r="D45" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="E45" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>989</v>
       </c>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19000,15 +19063,18 @@
       <c r="D46" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F46" s="16" t="s">
+      <c r="E46" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G46" s="16" t="s">
         <v>992</v>
       </c>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19022,15 +19088,18 @@
       <c r="D47" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>2197</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19044,15 +19113,18 @@
       <c r="D48" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F48" s="17" t="s">
+      <c r="E48" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19066,15 +19138,18 @@
       <c r="D49" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F49" s="17" t="s">
+      <c r="E49" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>994</v>
       </c>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19088,15 +19163,18 @@
       <c r="D50" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F50" s="17" t="s">
+      <c r="E50" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19110,17 +19188,20 @@
       <c r="D51" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>2196</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="G51" s="17" t="s">
         <v>996</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19134,15 +19215,18 @@
       <c r="D52" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F52" s="17" t="s">
+      <c r="E52" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19156,15 +19240,18 @@
       <c r="D53" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F53" s="17" t="s">
+      <c r="E53" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19178,15 +19265,18 @@
       <c r="D54" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>2195</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="G54" s="17" t="s">
         <v>999</v>
       </c>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19200,15 +19290,18 @@
       <c r="D55" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F55" s="17" t="s">
+      <c r="E55" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G55" s="17" t="s">
         <v>1000</v>
       </c>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19222,15 +19315,18 @@
       <c r="D56" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F56" s="17" t="s">
+      <c r="E56" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G56" s="17" t="s">
         <v>1001</v>
       </c>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19244,15 +19340,18 @@
       <c r="D57" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F57" s="17" t="s">
+      <c r="E57" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>1002</v>
       </c>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19266,15 +19365,18 @@
       <c r="D58" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>2194</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="G58" s="17" t="s">
         <v>1003</v>
       </c>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19288,15 +19390,18 @@
       <c r="D59" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F59" s="17" t="s">
+      <c r="E59" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19310,15 +19415,18 @@
       <c r="D60" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F60" s="17" t="s">
+      <c r="E60" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>1005</v>
       </c>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="str">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19332,17 +19440,20 @@
       <c r="D61" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F61" s="17" t="s">
+      <c r="E61" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G61" s="17" t="s">
         <v>1006</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19356,15 +19467,18 @@
       <c r="D62" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F62" s="18" t="s">
+      <c r="E62" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>1017</v>
       </c>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19378,15 +19492,18 @@
       <c r="D63" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>2193</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="G63" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19400,15 +19517,18 @@
       <c r="D64" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F64" s="18" t="s">
+      <c r="E64" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>1019</v>
       </c>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19422,15 +19542,18 @@
       <c r="D65" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F65" s="18" t="s">
+      <c r="E65" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G65" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="G65" s="18"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19444,15 +19567,18 @@
       <c r="D66" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F66" s="18" t="s">
+      <c r="E66" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G66" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19466,15 +19592,18 @@
       <c r="D67" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>2191</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="G67" s="18" t="s">
         <v>1022</v>
       </c>
-      <c r="G67" s="18"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="str">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19488,15 +19617,18 @@
       <c r="D68" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F68" s="18" t="s">
+      <c r="E68" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G68" s="18" t="s">
         <v>1023</v>
       </c>
-      <c r="G68" s="18"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19510,15 +19642,18 @@
       <c r="D69" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F69" s="18" t="s">
+      <c r="E69" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>1024</v>
       </c>
-      <c r="G69" s="18"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19532,15 +19667,18 @@
       <c r="D70" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F70" s="18" t="s">
+      <c r="E70" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="G70" s="18"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19554,17 +19692,20 @@
       <c r="D71" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F71" s="18" t="s">
+      <c r="E71" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G71" s="18" t="s">
         <v>1026</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19578,15 +19719,18 @@
       <c r="D72" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F72" s="14" t="s">
         <v>2192</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="G72" s="18" t="s">
         <v>1030</v>
       </c>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19600,15 +19744,18 @@
       <c r="D73" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F73" s="18" t="s">
+      <c r="E73" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G73" s="18" t="s">
         <v>1027</v>
       </c>
-      <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19622,15 +19769,18 @@
       <c r="D74" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F74" s="18" t="s">
+      <c r="E74" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G74" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="G74" s="18"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19644,15 +19794,18 @@
       <c r="D75" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F75" s="18" t="s">
+      <c r="E75" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G75" s="18" t="s">
         <v>1029</v>
       </c>
-      <c r="G75" s="18"/>
-    </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -19666,15 +19819,18 @@
       <c r="D76" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F76" s="14" t="s">
         <v>2190</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="G76" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -19688,15 +19844,18 @@
       <c r="D77" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F77" s="18" t="s">
+      <c r="E77" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G77" s="18" t="s">
         <v>1032</v>
       </c>
-      <c r="G77" s="18"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="str">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -19710,15 +19869,18 @@
       <c r="D78" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F78" s="18" t="s">
+      <c r="E78" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="G78" s="18"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="str">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -19732,15 +19894,18 @@
       <c r="D79" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F79" s="18" t="s">
+      <c r="E79" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>1033</v>
       </c>
-      <c r="G79" s="18"/>
-    </row>
-    <row r="80" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="str">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -19754,15 +19919,18 @@
       <c r="D80" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>2189</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="G80" s="18" t="s">
         <v>1035</v>
       </c>
-      <c r="G80" s="18"/>
-    </row>
-    <row r="81" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19776,17 +19944,20 @@
       <c r="D81" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>2200</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="G81" s="18" t="s">
         <v>1036</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -19800,15 +19971,18 @@
       <c r="D82" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F82" s="18" t="s">
+      <c r="E82" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G82" s="18" t="s">
         <v>1627</v>
       </c>
-      <c r="G82" s="18"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -19822,15 +19996,18 @@
       <c r="D83" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F83" s="18" t="s">
+      <c r="E83" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>1628</v>
       </c>
-      <c r="G83" s="18"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -19844,15 +20021,18 @@
       <c r="D84" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F84" s="18" t="s">
+      <c r="E84" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>1629</v>
       </c>
-      <c r="G84" s="18"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="str">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -19866,15 +20046,18 @@
       <c r="D85" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F85" s="18" t="s">
+      <c r="E85" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>1630</v>
       </c>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -19888,15 +20071,18 @@
       <c r="D86" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F86" s="18" t="s">
+      <c r="E86" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>1631</v>
       </c>
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="str">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -19910,15 +20096,18 @@
       <c r="D87" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E87" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F87" s="18" t="s">
+      <c r="E87" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G87" s="18" t="s">
         <v>1632</v>
       </c>
-      <c r="G87" s="18"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="str">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -19932,15 +20121,18 @@
       <c r="D88" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F88" s="18" t="s">
+      <c r="E88" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>1633</v>
       </c>
-      <c r="G88" s="18"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="str">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -19954,15 +20146,18 @@
       <c r="D89" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F89" s="18" t="s">
+      <c r="E89" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G89" s="18" t="s">
         <v>1634</v>
       </c>
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="str">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -19976,15 +20171,18 @@
       <c r="D90" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F90" s="18" t="s">
+      <c r="E90" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>1635</v>
       </c>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -19998,17 +20196,20 @@
       <c r="D91" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F91" s="18" t="s">
+      <c r="E91" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G91" s="18" t="s">
         <v>1636</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="str">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -20022,15 +20223,18 @@
       <c r="D92" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F92" s="18" t="s">
+      <c r="E92" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G92" s="18" t="s">
         <v>1637</v>
       </c>
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="str">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -20044,15 +20248,18 @@
       <c r="D93" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F93" s="18" t="s">
+      <c r="E93" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G93" s="18" t="s">
         <v>1638</v>
       </c>
-      <c r="G93" s="18"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="str">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -20066,15 +20273,18 @@
       <c r="D94" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E94" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F94" s="18" t="s">
+      <c r="E94" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G94" s="18" t="s">
         <v>1639</v>
       </c>
-      <c r="G94" s="18"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="str">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -20088,15 +20298,18 @@
       <c r="D95" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E95" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F95" s="18" t="s">
+      <c r="E95" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G95" s="18" t="s">
         <v>1640</v>
       </c>
-      <c r="G95" s="18"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="str">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -20110,15 +20323,18 @@
       <c r="D96" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="E96" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G96" s="18" t="s">
         <v>1641</v>
       </c>
-      <c r="G96" s="18"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="str">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -20132,15 +20348,18 @@
       <c r="D97" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F97" s="18" t="s">
+      <c r="E97" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G97" s="18" t="s">
         <v>1642</v>
       </c>
-      <c r="G97" s="18"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="str">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -20154,15 +20373,18 @@
       <c r="D98" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E98" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F98" s="18" t="s">
+      <c r="E98" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G98" s="18" t="s">
         <v>1643</v>
       </c>
-      <c r="G98" s="18"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="str">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -20176,15 +20398,18 @@
       <c r="D99" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E99" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F99" s="18" t="s">
+      <c r="E99" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G99" s="18" t="s">
         <v>1644</v>
       </c>
-      <c r="G99" s="18"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="str">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -20198,15 +20423,18 @@
       <c r="D100" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E100" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F100" s="18" t="s">
+      <c r="E100" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G100" s="18" t="s">
         <v>1645</v>
       </c>
-      <c r="G100" s="18"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="str">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -20220,17 +20448,20 @@
       <c r="D101" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E101" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F101" s="18" t="s">
+      <c r="E101" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G101" s="18" t="s">
         <v>1646</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="str">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -20244,15 +20475,18 @@
       <c r="D102" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E102" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F102" s="18" t="s">
+      <c r="E102" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G102" s="18" t="s">
         <v>1647</v>
       </c>
-      <c r="G102" s="18"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="str">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -20266,15 +20500,18 @@
       <c r="D103" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E103" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F103" s="18" t="s">
+      <c r="E103" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G103" s="18" t="s">
         <v>1648</v>
       </c>
-      <c r="G103" s="18"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="str">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -20288,15 +20525,18 @@
       <c r="D104" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E104" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F104" s="18" t="s">
+      <c r="E104" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G104" s="18" t="s">
         <v>1649</v>
       </c>
-      <c r="G104" s="18"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="str">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -20310,15 +20550,18 @@
       <c r="D105" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E105" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F105" s="18" t="s">
+      <c r="E105" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G105" s="18" t="s">
         <v>1650</v>
       </c>
-      <c r="G105" s="18"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="str">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -20332,15 +20575,18 @@
       <c r="D106" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E106" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F106" s="18" t="s">
+      <c r="E106" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G106" s="18" t="s">
         <v>1651</v>
       </c>
-      <c r="G106" s="18"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="str">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -20354,15 +20600,18 @@
       <c r="D107" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E107" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F107" s="18" t="s">
+      <c r="E107" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G107" s="18" t="s">
         <v>1652</v>
       </c>
-      <c r="G107" s="18"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="str">
         <f t="shared" ref="A108:A171" si="1">TEXT(A107+1, "0")</f>
         <v>67</v>
@@ -20376,15 +20625,18 @@
       <c r="D108" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E108" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F108" s="18" t="s">
+      <c r="E108" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G108" s="18" t="s">
         <v>1653</v>
       </c>
-      <c r="G108" s="18"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="str">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20398,15 +20650,18 @@
       <c r="D109" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E109" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F109" s="18" t="s">
+      <c r="E109" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G109" s="18" t="s">
         <v>1654</v>
       </c>
-      <c r="G109" s="18"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="str">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20420,15 +20675,18 @@
       <c r="D110" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E110" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F110" s="18" t="s">
+      <c r="E110" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G110" s="18" t="s">
         <v>1655</v>
       </c>
-      <c r="G110" s="18"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="str">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20442,17 +20700,20 @@
       <c r="D111" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E111" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F111" s="18" t="s">
+      <c r="E111" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G111" s="18" t="s">
         <v>1656</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="str">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20466,15 +20727,18 @@
       <c r="D112" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E112" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F112" s="18" t="s">
+      <c r="E112" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G112" s="18" t="s">
         <v>1657</v>
       </c>
-      <c r="G112" s="18"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="str">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20488,15 +20752,18 @@
       <c r="D113" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E113" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F113" s="18" t="s">
+      <c r="E113" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G113" s="18" t="s">
         <v>1658</v>
       </c>
-      <c r="G113" s="18"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="str">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20510,15 +20777,18 @@
       <c r="D114" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E114" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F114" s="18" t="s">
+      <c r="E114" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G114" s="18" t="s">
         <v>1659</v>
       </c>
-      <c r="G114" s="18"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="str">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20532,15 +20802,18 @@
       <c r="D115" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E115" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F115" s="18" t="s">
+      <c r="E115" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G115" s="18" t="s">
         <v>1660</v>
       </c>
-      <c r="G115" s="18"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="str">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20554,15 +20827,18 @@
       <c r="D116" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E116" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F116" s="18" t="s">
+      <c r="E116" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G116" s="18" t="s">
         <v>1661</v>
       </c>
-      <c r="G116" s="18"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="str">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20576,15 +20852,18 @@
       <c r="D117" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="E117" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F117" s="18" t="s">
+      <c r="E117" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G117" s="18" t="s">
         <v>1662</v>
       </c>
-      <c r="G117" s="18"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="str">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20598,15 +20877,18 @@
       <c r="D118" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E118" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F118" s="18" t="s">
+      <c r="E118" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G118" s="18" t="s">
         <v>1663</v>
       </c>
-      <c r="G118" s="18"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="str">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20620,15 +20902,18 @@
       <c r="D119" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E119" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F119" s="18" t="s">
+      <c r="E119" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G119" s="18" t="s">
         <v>1664</v>
       </c>
-      <c r="G119" s="18"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H119" s="18"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="str">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20642,15 +20927,18 @@
       <c r="D120" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E120" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F120" s="18" t="s">
+      <c r="E120" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G120" s="18" t="s">
         <v>1665</v>
       </c>
-      <c r="G120" s="18"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="str">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20664,17 +20952,20 @@
       <c r="D121" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="E121" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F121" s="18" t="s">
+      <c r="E121" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G121" s="18" t="s">
         <v>1666</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="str">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20688,15 +20979,18 @@
       <c r="D122" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E122" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F122" s="18" t="s">
+      <c r="E122" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G122" s="18" t="s">
         <v>1745</v>
       </c>
-      <c r="G122" s="18"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="str">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20710,15 +21004,18 @@
       <c r="D123" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E123" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F123" s="18" t="s">
+      <c r="E123" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G123" s="18" t="s">
         <v>1746</v>
       </c>
-      <c r="G123" s="18"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H123" s="18"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="str">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20732,15 +21029,18 @@
       <c r="D124" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E124" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F124" s="18" t="s">
+      <c r="E124" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G124" s="18" t="s">
         <v>1747</v>
       </c>
-      <c r="G124" s="18"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H124" s="18"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="str">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20754,15 +21054,18 @@
       <c r="D125" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E125" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F125" s="18" t="s">
+      <c r="E125" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G125" s="18" t="s">
         <v>1748</v>
       </c>
-      <c r="G125" s="18"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H125" s="18"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="str">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20776,15 +21079,18 @@
       <c r="D126" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E126" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F126" s="18" t="s">
+      <c r="E126" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G126" s="18" t="s">
         <v>1749</v>
       </c>
-      <c r="G126" s="18"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H126" s="18"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="str">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20798,15 +21104,18 @@
       <c r="D127" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E127" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F127" s="18" t="s">
+      <c r="E127" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G127" s="18" t="s">
         <v>1750</v>
       </c>
-      <c r="G127" s="18"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H127" s="18"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="str">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20820,15 +21129,18 @@
       <c r="D128" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E128" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F128" s="18" t="s">
+      <c r="E128" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G128" s="18" t="s">
         <v>1751</v>
       </c>
-      <c r="G128" s="18"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128" s="18"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="str">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20842,15 +21154,18 @@
       <c r="D129" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E129" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F129" s="18" t="s">
+      <c r="E129" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G129" s="18" t="s">
         <v>1752</v>
       </c>
-      <c r="G129" s="18"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129" s="18"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="str">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20864,15 +21179,18 @@
       <c r="D130" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E130" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F130" s="18" t="s">
+      <c r="E130" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G130" s="18" t="s">
         <v>1753</v>
       </c>
-      <c r="G130" s="18"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H130" s="18"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="str">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20886,17 +21204,20 @@
       <c r="D131" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E131" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F131" s="18" t="s">
+      <c r="E131" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G131" s="18" t="s">
         <v>1754</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="str">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20910,15 +21231,18 @@
       <c r="D132" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E132" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F132" s="18" t="s">
+      <c r="E132" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G132" s="18" t="s">
         <v>1755</v>
       </c>
-      <c r="G132" s="18"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H132" s="18"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="str">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20932,15 +21256,18 @@
       <c r="D133" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E133" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F133" s="18" t="s">
+      <c r="E133" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G133" s="18" t="s">
         <v>1756</v>
       </c>
-      <c r="G133" s="18"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H133" s="18"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="str">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20954,15 +21281,18 @@
       <c r="D134" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E134" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F134" s="18" t="s">
+      <c r="E134" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G134" s="18" t="s">
         <v>1757</v>
       </c>
-      <c r="G134" s="18"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H134" s="18"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="str">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20976,15 +21306,18 @@
       <c r="D135" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E135" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F135" s="18" t="s">
+      <c r="E135" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G135" s="18" t="s">
         <v>1758</v>
       </c>
-      <c r="G135" s="18"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H135" s="18"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="str">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20998,15 +21331,18 @@
       <c r="D136" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E136" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F136" s="18" t="s">
+      <c r="E136" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G136" s="18" t="s">
         <v>1759</v>
       </c>
-      <c r="G136" s="18"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H136" s="18"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="str">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -21020,15 +21356,18 @@
       <c r="D137" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E137" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F137" s="18" t="s">
+      <c r="E137" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G137" s="18" t="s">
         <v>1760</v>
       </c>
-      <c r="G137" s="18"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H137" s="18"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="str">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -21042,15 +21381,18 @@
       <c r="D138" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E138" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F138" s="18" t="s">
+      <c r="E138" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G138" s="18" t="s">
         <v>1761</v>
       </c>
-      <c r="G138" s="18"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H138" s="18"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="str">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -21064,15 +21406,18 @@
       <c r="D139" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E139" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F139" s="18" t="s">
+      <c r="E139" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G139" s="18" t="s">
         <v>1762</v>
       </c>
-      <c r="G139" s="18"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H139" s="18"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="str">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -21086,15 +21431,18 @@
       <c r="D140" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E140" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F140" s="18" t="s">
+      <c r="E140" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G140" s="18" t="s">
         <v>1763</v>
       </c>
-      <c r="G140" s="18"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H140" s="18"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="str">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -21108,17 +21456,20 @@
       <c r="D141" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E141" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F141" s="18" t="s">
+      <c r="E141" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G141" s="18" t="s">
         <v>1764</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="str">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -21132,15 +21483,18 @@
       <c r="D142" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E142" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F142" s="18" t="s">
+      <c r="E142" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G142" s="18" t="s">
         <v>1765</v>
       </c>
-      <c r="G142" s="18"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H142" s="18"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="str">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -21154,15 +21508,18 @@
       <c r="D143" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E143" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F143" s="18" t="s">
+      <c r="E143" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G143" s="18" t="s">
         <v>1766</v>
       </c>
-      <c r="G143" s="18"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H143" s="18"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="str">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -21176,15 +21533,18 @@
       <c r="D144" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E144" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F144" s="18" t="s">
+      <c r="E144" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G144" s="18" t="s">
         <v>1767</v>
       </c>
-      <c r="G144" s="18"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H144" s="18"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="str">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -21198,15 +21558,18 @@
       <c r="D145" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E145" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F145" s="18" t="s">
+      <c r="E145" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G145" s="18" t="s">
         <v>1768</v>
       </c>
-      <c r="G145" s="18"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H145" s="18"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="str">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -21220,15 +21583,18 @@
       <c r="D146" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E146" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F146" s="18" t="s">
+      <c r="E146" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G146" s="18" t="s">
         <v>1769</v>
       </c>
-      <c r="G146" s="18"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H146" s="18"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="str">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -21242,15 +21608,18 @@
       <c r="D147" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E147" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F147" s="18" t="s">
+      <c r="E147" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G147" s="18" t="s">
         <v>1770</v>
       </c>
-      <c r="G147" s="18"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H147" s="18"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="11" t="str">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -21264,15 +21633,18 @@
       <c r="D148" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E148" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F148" s="18" t="s">
+      <c r="E148" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G148" s="18" t="s">
         <v>1771</v>
       </c>
-      <c r="G148" s="18"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H148" s="18"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="str">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -21286,15 +21658,18 @@
       <c r="D149" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E149" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F149" s="18" t="s">
+      <c r="E149" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G149" s="18" t="s">
         <v>1772</v>
       </c>
-      <c r="G149" s="18"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H149" s="18"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="str">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -21308,15 +21683,18 @@
       <c r="D150" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E150" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F150" s="18" t="s">
+      <c r="E150" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G150" s="18" t="s">
         <v>1773</v>
       </c>
-      <c r="G150" s="18"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H150" s="18"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="str">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -21330,17 +21708,20 @@
       <c r="D151" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E151" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F151" s="18" t="s">
+      <c r="E151" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G151" s="18" t="s">
         <v>1774</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="11" t="str">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -21354,15 +21735,18 @@
       <c r="D152" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E152" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F152" s="18" t="s">
+      <c r="E152" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G152" s="18" t="s">
         <v>1775</v>
       </c>
-      <c r="G152" s="18"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H152" s="18"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="str">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -21376,15 +21760,18 @@
       <c r="D153" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E153" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F153" s="18" t="s">
+      <c r="E153" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G153" s="18" t="s">
         <v>1776</v>
       </c>
-      <c r="G153" s="18"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H153" s="18"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="str">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -21398,15 +21785,18 @@
       <c r="D154" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E154" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F154" s="18" t="s">
+      <c r="E154" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G154" s="18" t="s">
         <v>1777</v>
       </c>
-      <c r="G154" s="18"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H154" s="18"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="11" t="str">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -21420,15 +21810,18 @@
       <c r="D155" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E155" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F155" s="18" t="s">
+      <c r="E155" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G155" s="18" t="s">
         <v>1778</v>
       </c>
-      <c r="G155" s="18"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H155" s="18"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="str">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -21442,15 +21835,18 @@
       <c r="D156" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E156" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F156" s="18" t="s">
+      <c r="E156" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G156" s="18" t="s">
         <v>1779</v>
       </c>
-      <c r="G156" s="18"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H156" s="18"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="11" t="str">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -21464,15 +21860,18 @@
       <c r="D157" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E157" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F157" s="18" t="s">
+      <c r="E157" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G157" s="18" t="s">
         <v>1780</v>
       </c>
-      <c r="G157" s="18"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H157" s="18"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="11" t="str">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -21486,15 +21885,18 @@
       <c r="D158" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E158" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F158" s="18" t="s">
+      <c r="E158" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G158" s="18" t="s">
         <v>1781</v>
       </c>
-      <c r="G158" s="18"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H158" s="18"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="str">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -21508,15 +21910,18 @@
       <c r="D159" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="E159" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F159" s="18" t="s">
+      <c r="E159" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G159" s="18" t="s">
         <v>1782</v>
       </c>
-      <c r="G159" s="18"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H159" s="18"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="str">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -21530,15 +21935,18 @@
       <c r="D160" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E160" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F160" s="18" t="s">
+      <c r="E160" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G160" s="18" t="s">
         <v>1783</v>
       </c>
-      <c r="G160" s="18"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H160" s="18"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="str">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -21552,17 +21960,18 @@
       <c r="D161" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="E161" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F161" s="18" t="s">
+      <c r="E161" s="12"/>
+      <c r="F161" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G161" s="18" t="s">
         <v>1784</v>
       </c>
-      <c r="G161" s="18" t="s">
+      <c r="H161" s="18" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="11" t="str">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -21576,15 +21985,18 @@
       <c r="D162" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E162" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F162" s="18" t="s">
+      <c r="E162" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G162" s="18" t="s">
         <v>2318</v>
       </c>
-      <c r="G162" s="18"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H162" s="18"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="str">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -21598,15 +22010,18 @@
       <c r="D163" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E163" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F163" s="18" t="s">
+      <c r="E163" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G163" s="18" t="s">
         <v>2317</v>
       </c>
-      <c r="G163" s="18"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H163" s="18"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="11" t="str">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -21620,15 +22035,18 @@
       <c r="D164" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E164" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F164" s="18" t="s">
+      <c r="E164" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G164" s="18" t="s">
         <v>2316</v>
       </c>
-      <c r="G164" s="18"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H164" s="18"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="str">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -21642,15 +22060,18 @@
       <c r="D165" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E165" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F165" s="18" t="s">
+      <c r="E165" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G165" s="18" t="s">
         <v>2315</v>
       </c>
-      <c r="G165" s="18"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H165" s="18"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="11" t="str">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -21664,15 +22085,18 @@
       <c r="D166" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E166" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F166" s="18" t="s">
+      <c r="E166" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G166" s="18" t="s">
         <v>2314</v>
       </c>
-      <c r="G166" s="18"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H166" s="18"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="11" t="str">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -21686,15 +22110,18 @@
       <c r="D167" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E167" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F167" s="18" t="s">
+      <c r="E167" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G167" s="18" t="s">
         <v>2313</v>
       </c>
-      <c r="G167" s="18"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H167" s="18"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="11" t="str">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -21708,15 +22135,18 @@
       <c r="D168" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E168" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F168" s="18" t="s">
+      <c r="E168" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G168" s="18" t="s">
         <v>2312</v>
       </c>
-      <c r="G168" s="18"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H168" s="18"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="11" t="str">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -21730,15 +22160,18 @@
       <c r="D169" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E169" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F169" s="18" t="s">
+      <c r="E169" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G169" s="18" t="s">
         <v>2311</v>
       </c>
-      <c r="G169" s="18"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H169" s="18"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="str">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -21752,15 +22185,18 @@
       <c r="D170" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E170" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F170" s="18" t="s">
+      <c r="E170" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G170" s="18" t="s">
         <v>2310</v>
       </c>
-      <c r="G170" s="18"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H170" s="18"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="11" t="str">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -21774,17 +22210,18 @@
       <c r="D171" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E171" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F171" s="18" t="s">
+      <c r="E171" s="12"/>
+      <c r="F171" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G171" s="18" t="s">
         <v>2309</v>
       </c>
-      <c r="G171" s="18" t="s">
+      <c r="H171" s="18" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="11" t="str">
         <f t="shared" ref="A172:A235" si="2">TEXT(A171+1, "0")</f>
         <v>131</v>
@@ -21798,15 +22235,18 @@
       <c r="D172" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E172" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F172" s="18" t="s">
+      <c r="E172" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G172" s="18" t="s">
         <v>2308</v>
       </c>
-      <c r="G172" s="18"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H172" s="18"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="11" t="str">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21820,15 +22260,18 @@
       <c r="D173" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E173" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F173" s="18" t="s">
+      <c r="E173" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G173" s="18" t="s">
         <v>2307</v>
       </c>
-      <c r="G173" s="18"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H173" s="18"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="str">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21842,15 +22285,18 @@
       <c r="D174" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E174" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F174" s="18" t="s">
+      <c r="E174" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G174" s="18" t="s">
         <v>2306</v>
       </c>
-      <c r="G174" s="18"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H174" s="18"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="str">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21864,15 +22310,18 @@
       <c r="D175" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E175" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F175" s="18" t="s">
+      <c r="E175" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G175" s="18" t="s">
         <v>2305</v>
       </c>
-      <c r="G175" s="18"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H175" s="18"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="str">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21886,15 +22335,18 @@
       <c r="D176" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E176" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F176" s="18" t="s">
+      <c r="E176" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G176" s="18" t="s">
         <v>2304</v>
       </c>
-      <c r="G176" s="18"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H176" s="18"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="str">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21908,15 +22360,18 @@
       <c r="D177" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E177" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F177" s="18" t="s">
+      <c r="E177" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G177" s="18" t="s">
         <v>2303</v>
       </c>
-      <c r="G177" s="18"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H177" s="18"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="str">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21930,15 +22385,18 @@
       <c r="D178" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E178" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F178" s="18" t="s">
+      <c r="E178" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F178" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G178" s="18" t="s">
         <v>2302</v>
       </c>
-      <c r="G178" s="18"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H178" s="18"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="str">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21952,15 +22410,18 @@
       <c r="D179" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E179" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F179" s="18" t="s">
+      <c r="E179" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G179" s="18" t="s">
         <v>2301</v>
       </c>
-      <c r="G179" s="18"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H179" s="18"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="str">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21974,15 +22435,18 @@
       <c r="D180" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E180" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F180" s="18" t="s">
+      <c r="E180" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G180" s="18" t="s">
         <v>2300</v>
       </c>
-      <c r="G180" s="18"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H180" s="18"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="str">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21996,17 +22460,20 @@
       <c r="D181" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E181" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F181" s="18" t="s">
+      <c r="E181" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G181" s="18" t="s">
         <v>2299</v>
       </c>
-      <c r="G181" s="18" t="s">
+      <c r="H181" s="18" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="str">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -22020,15 +22487,18 @@
       <c r="D182" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E182" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F182" s="18" t="s">
+      <c r="E182" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G182" s="18" t="s">
         <v>2298</v>
       </c>
-      <c r="G182" s="18"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H182" s="18"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="str">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -22042,15 +22512,18 @@
       <c r="D183" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E183" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F183" s="18" t="s">
+      <c r="E183" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G183" s="18" t="s">
         <v>2297</v>
       </c>
-      <c r="G183" s="18"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H183" s="18"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="11" t="str">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -22064,15 +22537,18 @@
       <c r="D184" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E184" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F184" s="18" t="s">
+      <c r="E184" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G184" s="18" t="s">
         <v>2296</v>
       </c>
-      <c r="G184" s="18"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H184" s="18"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="str">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -22086,15 +22562,18 @@
       <c r="D185" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E185" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F185" s="18" t="s">
+      <c r="E185" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G185" s="18" t="s">
         <v>2295</v>
       </c>
-      <c r="G185" s="18"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H185" s="18"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="11" t="str">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -22108,15 +22587,18 @@
       <c r="D186" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E186" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F186" s="18" t="s">
+      <c r="E186" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G186" s="18" t="s">
         <v>2294</v>
       </c>
-      <c r="G186" s="18"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H186" s="18"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="str">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -22130,15 +22612,18 @@
       <c r="D187" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E187" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F187" s="18" t="s">
+      <c r="E187" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G187" s="18" t="s">
         <v>2293</v>
       </c>
-      <c r="G187" s="18"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H187" s="18"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="11" t="str">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -22152,15 +22637,18 @@
       <c r="D188" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E188" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F188" s="18" t="s">
+      <c r="E188" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F188" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G188" s="18" t="s">
         <v>2292</v>
       </c>
-      <c r="G188" s="18"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H188" s="18"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="11" t="str">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -22174,15 +22662,18 @@
       <c r="D189" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E189" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F189" s="18" t="s">
+      <c r="E189" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G189" s="18" t="s">
         <v>2291</v>
       </c>
-      <c r="G189" s="18"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H189" s="18"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="11" t="str">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -22196,15 +22687,18 @@
       <c r="D190" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E190" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F190" s="18" t="s">
+      <c r="E190" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F190" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G190" s="18" t="s">
         <v>2290</v>
       </c>
-      <c r="G190" s="18"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H190" s="18"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="11" t="str">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -22218,17 +22712,20 @@
       <c r="D191" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E191" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F191" s="18" t="s">
+      <c r="E191" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G191" s="18" t="s">
         <v>2289</v>
       </c>
-      <c r="G191" s="18" t="s">
+      <c r="H191" s="18" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="11" t="str">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -22242,15 +22739,18 @@
       <c r="D192" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E192" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F192" s="18" t="s">
+      <c r="E192" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F192" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G192" s="18" t="s">
         <v>2288</v>
       </c>
-      <c r="G192" s="18"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H192" s="18"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="11" t="str">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -22264,15 +22764,18 @@
       <c r="D193" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E193" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F193" s="18" t="s">
+      <c r="E193" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F193" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G193" s="18" t="s">
         <v>2287</v>
       </c>
-      <c r="G193" s="18"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H193" s="18"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="11" t="str">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -22286,15 +22789,18 @@
       <c r="D194" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E194" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F194" s="18" t="s">
+      <c r="E194" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G194" s="18" t="s">
         <v>2286</v>
       </c>
-      <c r="G194" s="18"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H194" s="18"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="11" t="str">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -22308,15 +22814,18 @@
       <c r="D195" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E195" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F195" s="18" t="s">
+      <c r="E195" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G195" s="18" t="s">
         <v>2285</v>
       </c>
-      <c r="G195" s="18"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H195" s="18"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="11" t="str">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -22330,15 +22839,18 @@
       <c r="D196" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E196" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F196" s="18" t="s">
+      <c r="E196" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G196" s="18" t="s">
         <v>2284</v>
       </c>
-      <c r="G196" s="18"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H196" s="18"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="11" t="str">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -22352,15 +22864,18 @@
       <c r="D197" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="E197" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F197" s="18" t="s">
+      <c r="E197" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G197" s="18" t="s">
         <v>2283</v>
       </c>
-      <c r="G197" s="18"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H197" s="18"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="11" t="str">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -22374,15 +22889,18 @@
       <c r="D198" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E198" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F198" s="18" t="s">
+      <c r="E198" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G198" s="18" t="s">
         <v>2282</v>
       </c>
-      <c r="G198" s="18"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H198" s="18"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="11" t="str">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -22396,15 +22914,18 @@
       <c r="D199" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E199" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F199" s="18" t="s">
+      <c r="E199" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G199" s="18" t="s">
         <v>2281</v>
       </c>
-      <c r="G199" s="18"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H199" s="18"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="11" t="str">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -22418,15 +22939,18 @@
       <c r="D200" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E200" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F200" s="18" t="s">
+      <c r="E200" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G200" s="18" t="s">
         <v>2280</v>
       </c>
-      <c r="G200" s="18"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H200" s="18"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="11" t="str">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -22440,17 +22964,20 @@
       <c r="D201" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="E201" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F201" s="18" t="s">
+      <c r="E201" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G201" s="18" t="s">
         <v>2279</v>
       </c>
-      <c r="G201" s="18" t="s">
+      <c r="H201" s="18" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="11" t="str">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -22464,15 +22991,18 @@
       <c r="D202" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="E202" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F202" s="18" t="s">
+      <c r="E202" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F202" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G202" s="18" t="s">
         <v>2319</v>
       </c>
-      <c r="G202" s="18"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H202" s="18"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="11" t="str">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -22486,15 +23016,18 @@
       <c r="D203" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="E203" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F203" s="18" t="s">
+      <c r="E203" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F203" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G203" s="18" t="s">
         <v>2320</v>
       </c>
-      <c r="G203" s="18"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H203" s="18"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="11" t="str">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -22508,15 +23041,18 @@
       <c r="D204" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="E204" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F204" s="18" t="s">
+      <c r="E204" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G204" s="18" t="s">
         <v>2321</v>
       </c>
-      <c r="G204" s="18"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H204" s="18"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="11" t="str">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -22530,15 +23066,18 @@
       <c r="D205" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="E205" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F205" s="18" t="s">
+      <c r="E205" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F205" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G205" s="18" t="s">
         <v>2322</v>
       </c>
-      <c r="G205" s="18"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H205" s="18"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="11" t="str">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -22552,15 +23091,18 @@
       <c r="D206" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="E206" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F206" s="18" t="s">
+      <c r="E206" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G206" s="18" t="s">
         <v>2323</v>
       </c>
-      <c r="G206" s="18"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H206" s="18"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="11" t="str">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -22574,15 +23116,18 @@
       <c r="D207" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="E207" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F207" s="18" t="s">
+      <c r="E207" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G207" s="18" t="s">
         <v>2324</v>
       </c>
-      <c r="G207" s="18"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H207" s="18"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="11" t="str">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -22596,15 +23141,18 @@
       <c r="D208" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="E208" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F208" s="18" t="s">
+      <c r="E208" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G208" s="18" t="s">
         <v>2325</v>
       </c>
-      <c r="G208" s="18"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H208" s="18"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="11" t="str">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -22618,15 +23166,18 @@
       <c r="D209" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="E209" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F209" s="18" t="s">
+      <c r="E209" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G209" s="18" t="s">
         <v>2326</v>
       </c>
-      <c r="G209" s="18"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H209" s="18"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="11" t="str">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -22640,15 +23191,18 @@
       <c r="D210" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="E210" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F210" s="18" t="s">
+      <c r="E210" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G210" s="18" t="s">
         <v>2327</v>
       </c>
-      <c r="G210" s="18"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H210" s="18"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="11" t="str">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -22662,17 +23216,20 @@
       <c r="D211" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="E211" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F211" s="18" t="s">
+      <c r="E211" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c 